--- a/Docs/Testing Issue List.xlsx
+++ b/Docs/Testing Issue List.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Zhongding.git\trunk\Docs\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="135" windowWidth="20115" windowHeight="7935"/>
   </bookViews>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="19">
   <si>
     <t>#</t>
   </si>
@@ -42,9 +47,6 @@
     <t>帐套管理 列表的列与页面设计不一致</t>
   </si>
   <si>
-    <t>帐套的排序，现在是按帐套编号倒序，改成升序吧。</t>
-  </si>
-  <si>
     <t>新建一个帐套时，维护页面的删除按钮应该隐藏或灰掉，现在点击删除，页面没有反应。</t>
   </si>
   <si>
@@ -52,9 +54,6 @@
   </si>
   <si>
     <t>银行帐号管理</t>
-  </si>
-  <si>
-    <t>列表查询条件，去掉帐套，因为当前页面只能显示当前帐套和所有的私人账户。</t>
   </si>
   <si>
     <t>列表只需要保留如下列：
@@ -62,24 +61,42 @@
 且账号，不需要加***</t>
   </si>
   <si>
+    <t>待解决</t>
+  </si>
+  <si>
+    <t>帐套的排序，现在是按帐套编号倒序，改成升序吧。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>已解决</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>列表查询条件，去掉帐套，因为当前页面只能显示当前帐套和所有的私人账户。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>维护页面的备注输入框，不支持copy/paste， 需要看看是什么原因</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>帐号的正则表达式验证，能不能多支持一种以空格分隔的？ 如 4225 5555 2222 5555 235</t>
-  </si>
-  <si>
-    <t>待解决</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hold</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -104,13 +121,32 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -140,7 +176,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -179,15 +215,24 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -427,7 +472,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -469,7 +514,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -504,7 +549,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -716,19 +761,19 @@
   <dimension ref="A1:G43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="11.140625" style="15" customWidth="1"/>
-    <col min="2" max="2" width="22.85546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="34.5703125" style="8" customWidth="1"/>
-    <col min="4" max="4" width="18.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="51.85546875" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="11.125" style="15" customWidth="1"/>
+    <col min="2" max="2" width="22.875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="34.625" style="8" customWidth="1"/>
+    <col min="4" max="4" width="18.75" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="51.875" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
@@ -760,10 +805,10 @@
         <v>6</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E2" s="11">
         <v>41950</v>
@@ -781,8 +826,8 @@
       <c r="C3" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="9" t="s">
-        <v>16</v>
+      <c r="D3" s="16" t="s">
+        <v>14</v>
       </c>
       <c r="E3" s="11">
         <v>41950</v>
@@ -798,10 +843,10 @@
         <v>6</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>16</v>
+        <v>13</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>14</v>
       </c>
       <c r="E4" s="11">
         <v>41950</v>
@@ -817,10 +862,10 @@
         <v>6</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>16</v>
+        <v>8</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>14</v>
       </c>
       <c r="E5" s="11">
         <v>41950</v>
@@ -833,13 +878,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>14</v>
       </c>
       <c r="E6" s="11">
         <v>41950</v>
@@ -852,13 +897,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>16</v>
+      <c r="D7" s="16" t="s">
+        <v>14</v>
       </c>
       <c r="E7" s="11">
         <v>41950</v>
@@ -871,30 +916,30 @@
         <v>7</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="9" t="s">
         <v>16</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>18</v>
       </c>
       <c r="E8" s="9"/>
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
     </row>
-    <row r="9" spans="1:7" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7" ht="33" x14ac:dyDescent="0.15">
       <c r="A9" s="13">
         <v>8</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>14</v>
       </c>
       <c r="E9" s="9"/>
       <c r="F9" s="9"/>
@@ -1207,6 +1252,7 @@
       <c r="G43" s="2"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -1219,8 +1265,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1231,8 +1278,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Docs/Testing Issue List.xlsx
+++ b/Docs/Testing Issue List.xlsx
@@ -1,27 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Zhongding.git\trunk\Docs\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="20115" windowHeight="7935"/>
+    <workbookView xWindow="240" yWindow="195" windowWidth="20115" windowHeight="7875"/>
   </bookViews>
   <sheets>
     <sheet name="Issue List" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Issue List'!$A$1:$G$9</definedName>
+  </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="27">
   <si>
     <t>#</t>
   </si>
@@ -86,17 +84,42 @@
   <si>
     <t>Hold</t>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>供应商管理</t>
+  </si>
+  <si>
+    <t>生产企业是必填项，应始终出现</t>
+  </si>
+  <si>
+    <t>所有的grid 都应该有列分割线</t>
+  </si>
+  <si>
+    <t>供应商合同，编号是让用户填入的，只做必填验证</t>
+  </si>
+  <si>
+    <t>证照维护，将证照类型dropdown 的查询功能去掉</t>
+  </si>
+  <si>
+    <t>证照维护，将有/无？Checkbox 换成radio 控件</t>
+  </si>
+  <si>
+    <t>证照维护，有效期不是必填项，不是所有的证照都有有效期。
+如果用户选择了需要提醒，那么有效期是必填的。</t>
+  </si>
+  <si>
+    <t>供应商列表的删除功能不好用。</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -123,30 +146,18 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B0F0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -176,7 +187,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -215,15 +226,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -430,49 +442,11 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>38099</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>57151</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>36821</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>2964973</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Picture 6"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7858124" y="10458451"/>
-          <a:ext cx="7113897" cy="2907822"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -514,7 +488,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -549,7 +523,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -758,25 +732,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G43"/>
+  <dimension ref="A1:G42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="11.125" style="15" customWidth="1"/>
-    <col min="2" max="2" width="22.875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="34.625" style="8" customWidth="1"/>
-    <col min="4" max="4" width="18.75" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15.625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14.375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="51.875" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.125" style="1"/>
+    <col min="1" max="1" width="11.140625" style="15" customWidth="1"/>
+    <col min="2" max="2" width="22.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="34.5703125" style="8" customWidth="1"/>
+    <col min="4" max="4" width="18.7109375" style="20" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="51.85546875" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -786,7 +760,7 @@
       <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="16" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
@@ -797,7 +771,7 @@
       </c>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:7" ht="133.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" ht="133.5" customHeight="1">
       <c r="A2" s="13">
         <v>1</v>
       </c>
@@ -807,7 +781,7 @@
       <c r="C2" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="17" t="s">
         <v>12</v>
       </c>
       <c r="E2" s="11">
@@ -816,7 +790,7 @@
       <c r="F2" s="9"/>
       <c r="G2" s="9"/>
     </row>
-    <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" ht="16.5">
       <c r="A3" s="13">
         <v>2</v>
       </c>
@@ -826,7 +800,7 @@
       <c r="C3" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="D3" s="17" t="s">
         <v>14</v>
       </c>
       <c r="E3" s="11">
@@ -835,7 +809,7 @@
       <c r="F3" s="9"/>
       <c r="G3" s="9"/>
     </row>
-    <row r="4" spans="1:7" ht="191.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" ht="191.25" customHeight="1">
       <c r="A4" s="13">
         <v>3</v>
       </c>
@@ -845,7 +819,7 @@
       <c r="C4" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="D4" s="17" t="s">
         <v>14</v>
       </c>
       <c r="E4" s="11">
@@ -854,7 +828,7 @@
       <c r="F4" s="9"/>
       <c r="G4" s="9"/>
     </row>
-    <row r="5" spans="1:7" ht="74.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" ht="74.25" customHeight="1">
       <c r="A5" s="13">
         <v>4</v>
       </c>
@@ -864,7 +838,7 @@
       <c r="C5" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="D5" s="17" t="s">
         <v>14</v>
       </c>
       <c r="E5" s="11">
@@ -873,7 +847,7 @@
       <c r="F5" s="9"/>
       <c r="G5" s="9"/>
     </row>
-    <row r="6" spans="1:7" ht="217.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" ht="217.5" customHeight="1">
       <c r="A6" s="13">
         <v>5</v>
       </c>
@@ -883,7 +857,7 @@
       <c r="C6" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="D6" s="17" t="s">
         <v>14</v>
       </c>
       <c r="E6" s="11">
@@ -892,7 +866,7 @@
       <c r="F6" s="9"/>
       <c r="G6" s="9"/>
     </row>
-    <row r="7" spans="1:7" ht="172.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" ht="172.5" customHeight="1">
       <c r="A7" s="13">
         <v>6</v>
       </c>
@@ -902,7 +876,7 @@
       <c r="C7" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="16" t="s">
+      <c r="D7" s="17" t="s">
         <v>14</v>
       </c>
       <c r="E7" s="11">
@@ -911,7 +885,7 @@
       <c r="F7" s="9"/>
       <c r="G7" s="9"/>
     </row>
-    <row r="8" spans="1:7" ht="243.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" ht="243.75" customHeight="1">
       <c r="A8" s="13">
         <v>7</v>
       </c>
@@ -928,7 +902,7 @@
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
     </row>
-    <row r="9" spans="1:7" ht="33" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7" ht="49.5">
       <c r="A9" s="13">
         <v>8</v>
       </c>
@@ -938,320 +912,368 @@
       <c r="C9" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="16" t="s">
+      <c r="D9" s="17" t="s">
         <v>14</v>
       </c>
       <c r="E9" s="9"/>
       <c r="F9" s="9"/>
       <c r="G9" s="9"/>
     </row>
-    <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7" ht="16.5">
       <c r="A10" s="13"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
+      <c r="B10" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="11">
+        <v>41953</v>
+      </c>
       <c r="F10" s="9"/>
       <c r="G10" s="9"/>
     </row>
-    <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7" ht="16.5">
       <c r="A11" s="13"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
+      <c r="B11" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="11">
+        <v>41953</v>
+      </c>
       <c r="F11" s="9"/>
       <c r="G11" s="9"/>
     </row>
-    <row r="12" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" ht="33">
       <c r="A12" s="13"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
+      <c r="B12" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="11">
+        <v>41953</v>
+      </c>
       <c r="F12" s="9"/>
       <c r="G12" s="9"/>
     </row>
-    <row r="13" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7" ht="33">
       <c r="A13" s="13"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
+      <c r="B13" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="11">
+        <v>41953</v>
+      </c>
       <c r="F13" s="9"/>
       <c r="G13" s="9"/>
     </row>
-    <row r="14" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" ht="66">
       <c r="A14" s="13"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
+      <c r="B14" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="11">
+        <v>41953</v>
+      </c>
       <c r="F14" s="9"/>
       <c r="G14" s="9"/>
     </row>
-    <row r="15" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7" ht="33">
       <c r="A15" s="13"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
+      <c r="B15" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="11">
+        <v>41953</v>
+      </c>
       <c r="F15" s="9"/>
       <c r="G15" s="9"/>
     </row>
-    <row r="16" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7" ht="16.5">
       <c r="A16" s="13"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
+      <c r="B16" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" s="11">
+        <v>41953</v>
+      </c>
       <c r="F16" s="9"/>
       <c r="G16" s="9"/>
     </row>
-    <row r="17" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:7" ht="16.5">
       <c r="A17" s="13"/>
       <c r="B17" s="9"/>
       <c r="C17" s="10"/>
-      <c r="D17" s="9"/>
+      <c r="D17" s="17"/>
       <c r="E17" s="9"/>
       <c r="F17" s="9"/>
       <c r="G17" s="9"/>
     </row>
-    <row r="18" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:7" ht="16.5">
       <c r="A18" s="13"/>
       <c r="B18" s="9"/>
       <c r="C18" s="10"/>
-      <c r="D18" s="9"/>
+      <c r="D18" s="17"/>
       <c r="E18" s="9"/>
       <c r="F18" s="9"/>
       <c r="G18" s="9"/>
     </row>
-    <row r="19" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:7" ht="16.5">
       <c r="A19" s="13"/>
       <c r="B19" s="9"/>
       <c r="C19" s="10"/>
-      <c r="D19" s="9"/>
+      <c r="D19" s="17"/>
       <c r="E19" s="9"/>
       <c r="F19" s="9"/>
       <c r="G19" s="9"/>
     </row>
-    <row r="20" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:7" ht="16.5">
       <c r="A20" s="13"/>
       <c r="B20" s="9"/>
       <c r="C20" s="10"/>
-      <c r="D20" s="9"/>
+      <c r="D20" s="17"/>
       <c r="E20" s="9"/>
       <c r="F20" s="9"/>
       <c r="G20" s="9"/>
     </row>
-    <row r="21" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:7" ht="16.5">
       <c r="A21" s="13"/>
       <c r="B21" s="9"/>
       <c r="C21" s="10"/>
-      <c r="D21" s="9"/>
+      <c r="D21" s="17"/>
       <c r="E21" s="9"/>
       <c r="F21" s="9"/>
       <c r="G21" s="9"/>
     </row>
-    <row r="22" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:7" ht="16.5">
       <c r="A22" s="13"/>
       <c r="B22" s="9"/>
       <c r="C22" s="10"/>
-      <c r="D22" s="9"/>
+      <c r="D22" s="17"/>
       <c r="E22" s="9"/>
       <c r="F22" s="9"/>
       <c r="G22" s="9"/>
     </row>
-    <row r="23" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:7" ht="16.5">
       <c r="A23" s="13"/>
       <c r="B23" s="9"/>
       <c r="C23" s="10"/>
-      <c r="D23" s="9"/>
+      <c r="D23" s="17"/>
       <c r="E23" s="9"/>
       <c r="F23" s="9"/>
       <c r="G23" s="9"/>
     </row>
-    <row r="24" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:7" ht="16.5">
       <c r="A24" s="13"/>
       <c r="B24" s="9"/>
       <c r="C24" s="10"/>
-      <c r="D24" s="9"/>
+      <c r="D24" s="17"/>
       <c r="E24" s="9"/>
       <c r="F24" s="9"/>
       <c r="G24" s="9"/>
     </row>
-    <row r="25" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:7" ht="16.5">
       <c r="A25" s="13"/>
       <c r="B25" s="9"/>
       <c r="C25" s="10"/>
-      <c r="D25" s="9"/>
+      <c r="D25" s="17"/>
       <c r="E25" s="9"/>
       <c r="F25" s="9"/>
       <c r="G25" s="9"/>
     </row>
-    <row r="26" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:7" ht="16.5">
       <c r="A26" s="13"/>
       <c r="B26" s="9"/>
       <c r="C26" s="10"/>
-      <c r="D26" s="9"/>
+      <c r="D26" s="17"/>
       <c r="E26" s="9"/>
       <c r="F26" s="9"/>
       <c r="G26" s="9"/>
     </row>
-    <row r="27" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:7" ht="16.5">
       <c r="A27" s="13"/>
       <c r="B27" s="9"/>
       <c r="C27" s="10"/>
-      <c r="D27" s="9"/>
+      <c r="D27" s="17"/>
       <c r="E27" s="9"/>
       <c r="F27" s="9"/>
       <c r="G27" s="9"/>
     </row>
-    <row r="28" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:7" ht="16.5">
       <c r="A28" s="13"/>
       <c r="B28" s="9"/>
       <c r="C28" s="10"/>
-      <c r="D28" s="9"/>
+      <c r="D28" s="17"/>
       <c r="E28" s="9"/>
       <c r="F28" s="9"/>
       <c r="G28" s="9"/>
     </row>
-    <row r="29" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:7" ht="16.5">
       <c r="A29" s="13"/>
       <c r="B29" s="9"/>
       <c r="C29" s="10"/>
-      <c r="D29" s="9"/>
+      <c r="D29" s="17"/>
       <c r="E29" s="9"/>
       <c r="F29" s="9"/>
       <c r="G29" s="9"/>
     </row>
-    <row r="30" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:7" ht="16.5">
       <c r="A30" s="13"/>
       <c r="B30" s="9"/>
       <c r="C30" s="10"/>
-      <c r="D30" s="9"/>
+      <c r="D30" s="17"/>
       <c r="E30" s="9"/>
       <c r="F30" s="9"/>
       <c r="G30" s="9"/>
     </row>
-    <row r="31" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:7" ht="16.5">
       <c r="A31" s="13"/>
       <c r="B31" s="9"/>
       <c r="C31" s="10"/>
-      <c r="D31" s="9"/>
+      <c r="D31" s="17"/>
       <c r="E31" s="9"/>
       <c r="F31" s="9"/>
       <c r="G31" s="9"/>
     </row>
-    <row r="32" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:7" ht="16.5">
       <c r="A32" s="13"/>
       <c r="B32" s="9"/>
       <c r="C32" s="10"/>
-      <c r="D32" s="9"/>
+      <c r="D32" s="17"/>
       <c r="E32" s="9"/>
       <c r="F32" s="9"/>
       <c r="G32" s="9"/>
     </row>
-    <row r="33" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:7" ht="16.5">
       <c r="A33" s="13"/>
       <c r="B33" s="9"/>
       <c r="C33" s="10"/>
-      <c r="D33" s="9"/>
+      <c r="D33" s="17"/>
       <c r="E33" s="9"/>
       <c r="F33" s="9"/>
       <c r="G33" s="9"/>
     </row>
-    <row r="34" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:7" ht="16.5">
       <c r="A34" s="13"/>
       <c r="B34" s="9"/>
       <c r="C34" s="10"/>
-      <c r="D34" s="9"/>
+      <c r="D34" s="17"/>
       <c r="E34" s="9"/>
       <c r="F34" s="9"/>
       <c r="G34" s="9"/>
     </row>
-    <row r="35" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:7" ht="16.5">
       <c r="A35" s="13"/>
-      <c r="B35" s="9"/>
-      <c r="C35" s="10"/>
-      <c r="D35" s="9"/>
-      <c r="E35" s="9"/>
-      <c r="F35" s="9"/>
-      <c r="G35" s="9"/>
-    </row>
-    <row r="36" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="B35" s="3"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="18"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+    </row>
+    <row r="36" spans="1:7" ht="16.5">
       <c r="A36" s="13"/>
       <c r="B36" s="3"/>
       <c r="C36" s="6"/>
-      <c r="D36" s="3"/>
+      <c r="D36" s="18"/>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
       <c r="G36" s="3"/>
     </row>
-    <row r="37" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:7" ht="16.5">
       <c r="A37" s="13"/>
       <c r="B37" s="3"/>
       <c r="C37" s="6"/>
-      <c r="D37" s="3"/>
+      <c r="D37" s="18"/>
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
       <c r="G37" s="3"/>
     </row>
-    <row r="38" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:7" ht="16.5">
       <c r="A38" s="13"/>
       <c r="B38" s="3"/>
       <c r="C38" s="6"/>
-      <c r="D38" s="3"/>
+      <c r="D38" s="18"/>
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
       <c r="G38" s="3"/>
     </row>
-    <row r="39" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:7" ht="16.5">
       <c r="A39" s="13"/>
       <c r="B39" s="3"/>
       <c r="C39" s="6"/>
-      <c r="D39" s="3"/>
+      <c r="D39" s="18"/>
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
       <c r="G39" s="3"/>
     </row>
-    <row r="40" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:7" ht="16.5">
       <c r="A40" s="13"/>
       <c r="B40" s="3"/>
       <c r="C40" s="6"/>
-      <c r="D40" s="3"/>
+      <c r="D40" s="18"/>
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
       <c r="G40" s="3"/>
     </row>
-    <row r="41" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A41" s="13"/>
-      <c r="B41" s="3"/>
-      <c r="C41" s="6"/>
-      <c r="D41" s="3"/>
-      <c r="E41" s="3"/>
-      <c r="F41" s="3"/>
-      <c r="G41" s="3"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A42" s="14"/>
-      <c r="B42" s="4"/>
-      <c r="C42" s="7"/>
-      <c r="D42" s="4"/>
-      <c r="E42" s="4"/>
-      <c r="F42" s="4"/>
-      <c r="G42" s="4"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A43" s="12"/>
-      <c r="B43" s="2"/>
-      <c r="C43" s="5"/>
-      <c r="D43" s="2"/>
-      <c r="E43" s="2"/>
-      <c r="F43" s="2"/>
-      <c r="G43" s="2"/>
+    <row r="41" spans="1:7">
+      <c r="A41" s="14"/>
+      <c r="B41" s="4"/>
+      <c r="C41" s="7"/>
+      <c r="D41" s="19"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="4"/>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="12"/>
+      <c r="B42" s="2"/>
+      <c r="C42" s="5"/>
+      <c r="D42" s="16"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:G9"/>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -1265,7 +1287,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1278,7 +1300,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Docs/Testing Issue List.xlsx
+++ b/Docs/Testing Issue List.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Zhongding.git\trunk\Docs\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="195" windowWidth="20115" windowHeight="7875"/>
   </bookViews>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="29">
   <si>
     <t>#</t>
   </si>
@@ -109,17 +114,25 @@
   </si>
   <si>
     <t>供应商列表的删除功能不好用。</t>
+  </si>
+  <si>
+    <t>已解决</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>已解决</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -146,7 +159,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -235,7 +248,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -446,7 +459,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -488,7 +501,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -523,7 +536,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -734,23 +747,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="11.140625" style="15" customWidth="1"/>
-    <col min="2" max="2" width="22.85546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="34.5703125" style="8" customWidth="1"/>
-    <col min="4" max="4" width="18.7109375" style="20" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="51.85546875" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="11.125" style="15" customWidth="1"/>
+    <col min="2" max="2" width="22.875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="34.625" style="8" customWidth="1"/>
+    <col min="4" max="4" width="18.75" style="20" customWidth="1"/>
+    <col min="5" max="5" width="15.625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="51.875" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -771,7 +784,7 @@
       </c>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:7" ht="133.5" customHeight="1">
+    <row r="2" spans="1:7" ht="133.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="13">
         <v>1</v>
       </c>
@@ -790,7 +803,7 @@
       <c r="F2" s="9"/>
       <c r="G2" s="9"/>
     </row>
-    <row r="3" spans="1:7" ht="16.5">
+    <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="13">
         <v>2</v>
       </c>
@@ -809,7 +822,7 @@
       <c r="F3" s="9"/>
       <c r="G3" s="9"/>
     </row>
-    <row r="4" spans="1:7" ht="191.25" customHeight="1">
+    <row r="4" spans="1:7" ht="191.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="13">
         <v>3</v>
       </c>
@@ -828,7 +841,7 @@
       <c r="F4" s="9"/>
       <c r="G4" s="9"/>
     </row>
-    <row r="5" spans="1:7" ht="74.25" customHeight="1">
+    <row r="5" spans="1:7" ht="74.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="13">
         <v>4</v>
       </c>
@@ -847,7 +860,7 @@
       <c r="F5" s="9"/>
       <c r="G5" s="9"/>
     </row>
-    <row r="6" spans="1:7" ht="217.5" customHeight="1">
+    <row r="6" spans="1:7" ht="217.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="13">
         <v>5</v>
       </c>
@@ -866,7 +879,7 @@
       <c r="F6" s="9"/>
       <c r="G6" s="9"/>
     </row>
-    <row r="7" spans="1:7" ht="172.5" customHeight="1">
+    <row r="7" spans="1:7" ht="172.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="13">
         <v>6</v>
       </c>
@@ -885,7 +898,7 @@
       <c r="F7" s="9"/>
       <c r="G7" s="9"/>
     </row>
-    <row r="8" spans="1:7" ht="243.75" customHeight="1">
+    <row r="8" spans="1:7" ht="243.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="13">
         <v>7</v>
       </c>
@@ -902,7 +915,7 @@
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
     </row>
-    <row r="9" spans="1:7" ht="49.5">
+    <row r="9" spans="1:7" ht="33" x14ac:dyDescent="0.15">
       <c r="A9" s="13">
         <v>8</v>
       </c>
@@ -919,7 +932,7 @@
       <c r="F9" s="9"/>
       <c r="G9" s="9"/>
     </row>
-    <row r="10" spans="1:7" ht="16.5">
+    <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A10" s="13"/>
       <c r="B10" s="9" t="s">
         <v>19</v>
@@ -928,15 +941,17 @@
         <v>20</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E10" s="11">
         <v>41953</v>
       </c>
-      <c r="F10" s="9"/>
+      <c r="F10" s="11">
+        <v>41954</v>
+      </c>
       <c r="G10" s="9"/>
     </row>
-    <row r="11" spans="1:7" ht="16.5">
+    <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A11" s="13"/>
       <c r="B11" s="9" t="s">
         <v>19</v>
@@ -945,15 +960,17 @@
         <v>21</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E11" s="11">
         <v>41953</v>
       </c>
-      <c r="F11" s="9"/>
+      <c r="F11" s="11">
+        <v>41955</v>
+      </c>
       <c r="G11" s="9"/>
     </row>
-    <row r="12" spans="1:7" ht="33">
+    <row r="12" spans="1:7" ht="33" x14ac:dyDescent="0.15">
       <c r="A12" s="13"/>
       <c r="B12" s="9" t="s">
         <v>19</v>
@@ -962,15 +979,17 @@
         <v>22</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="E12" s="11">
         <v>41953</v>
       </c>
-      <c r="F12" s="9"/>
+      <c r="F12" s="11">
+        <v>41954</v>
+      </c>
       <c r="G12" s="9"/>
     </row>
-    <row r="13" spans="1:7" ht="33">
+    <row r="13" spans="1:7" ht="33" x14ac:dyDescent="0.15">
       <c r="A13" s="13"/>
       <c r="B13" s="9" t="s">
         <v>19</v>
@@ -979,15 +998,17 @@
         <v>23</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E13" s="11">
         <v>41953</v>
       </c>
-      <c r="F13" s="9"/>
+      <c r="F13" s="11">
+        <v>41954</v>
+      </c>
       <c r="G13" s="9"/>
     </row>
-    <row r="14" spans="1:7" ht="66">
+    <row r="14" spans="1:7" ht="66" x14ac:dyDescent="0.15">
       <c r="A14" s="13"/>
       <c r="B14" s="9" t="s">
         <v>19</v>
@@ -996,15 +1017,17 @@
         <v>25</v>
       </c>
       <c r="D14" s="17" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E14" s="11">
         <v>41953</v>
       </c>
-      <c r="F14" s="9"/>
+      <c r="F14" s="11">
+        <v>41955</v>
+      </c>
       <c r="G14" s="9"/>
     </row>
-    <row r="15" spans="1:7" ht="33">
+    <row r="15" spans="1:7" ht="33" x14ac:dyDescent="0.15">
       <c r="A15" s="13"/>
       <c r="B15" s="9" t="s">
         <v>19</v>
@@ -1013,15 +1036,17 @@
         <v>24</v>
       </c>
       <c r="D15" s="17" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="E15" s="11">
         <v>41953</v>
       </c>
-      <c r="F15" s="9"/>
+      <c r="F15" s="11">
+        <v>41954</v>
+      </c>
       <c r="G15" s="9"/>
     </row>
-    <row r="16" spans="1:7" ht="16.5">
+    <row r="16" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A16" s="13"/>
       <c r="B16" s="9" t="s">
         <v>19</v>
@@ -1030,15 +1055,17 @@
         <v>26</v>
       </c>
       <c r="D16" s="17" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E16" s="11">
         <v>41953</v>
       </c>
-      <c r="F16" s="9"/>
+      <c r="F16" s="11">
+        <v>41955</v>
+      </c>
       <c r="G16" s="9"/>
     </row>
-    <row r="17" spans="1:7" ht="16.5">
+    <row r="17" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A17" s="13"/>
       <c r="B17" s="9"/>
       <c r="C17" s="10"/>
@@ -1047,7 +1074,7 @@
       <c r="F17" s="9"/>
       <c r="G17" s="9"/>
     </row>
-    <row r="18" spans="1:7" ht="16.5">
+    <row r="18" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A18" s="13"/>
       <c r="B18" s="9"/>
       <c r="C18" s="10"/>
@@ -1056,7 +1083,7 @@
       <c r="F18" s="9"/>
       <c r="G18" s="9"/>
     </row>
-    <row r="19" spans="1:7" ht="16.5">
+    <row r="19" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A19" s="13"/>
       <c r="B19" s="9"/>
       <c r="C19" s="10"/>
@@ -1065,7 +1092,7 @@
       <c r="F19" s="9"/>
       <c r="G19" s="9"/>
     </row>
-    <row r="20" spans="1:7" ht="16.5">
+    <row r="20" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A20" s="13"/>
       <c r="B20" s="9"/>
       <c r="C20" s="10"/>
@@ -1074,7 +1101,7 @@
       <c r="F20" s="9"/>
       <c r="G20" s="9"/>
     </row>
-    <row r="21" spans="1:7" ht="16.5">
+    <row r="21" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A21" s="13"/>
       <c r="B21" s="9"/>
       <c r="C21" s="10"/>
@@ -1083,7 +1110,7 @@
       <c r="F21" s="9"/>
       <c r="G21" s="9"/>
     </row>
-    <row r="22" spans="1:7" ht="16.5">
+    <row r="22" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A22" s="13"/>
       <c r="B22" s="9"/>
       <c r="C22" s="10"/>
@@ -1092,7 +1119,7 @@
       <c r="F22" s="9"/>
       <c r="G22" s="9"/>
     </row>
-    <row r="23" spans="1:7" ht="16.5">
+    <row r="23" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A23" s="13"/>
       <c r="B23" s="9"/>
       <c r="C23" s="10"/>
@@ -1101,7 +1128,7 @@
       <c r="F23" s="9"/>
       <c r="G23" s="9"/>
     </row>
-    <row r="24" spans="1:7" ht="16.5">
+    <row r="24" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A24" s="13"/>
       <c r="B24" s="9"/>
       <c r="C24" s="10"/>
@@ -1110,7 +1137,7 @@
       <c r="F24" s="9"/>
       <c r="G24" s="9"/>
     </row>
-    <row r="25" spans="1:7" ht="16.5">
+    <row r="25" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A25" s="13"/>
       <c r="B25" s="9"/>
       <c r="C25" s="10"/>
@@ -1119,7 +1146,7 @@
       <c r="F25" s="9"/>
       <c r="G25" s="9"/>
     </row>
-    <row r="26" spans="1:7" ht="16.5">
+    <row r="26" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A26" s="13"/>
       <c r="B26" s="9"/>
       <c r="C26" s="10"/>
@@ -1128,7 +1155,7 @@
       <c r="F26" s="9"/>
       <c r="G26" s="9"/>
     </row>
-    <row r="27" spans="1:7" ht="16.5">
+    <row r="27" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A27" s="13"/>
       <c r="B27" s="9"/>
       <c r="C27" s="10"/>
@@ -1137,7 +1164,7 @@
       <c r="F27" s="9"/>
       <c r="G27" s="9"/>
     </row>
-    <row r="28" spans="1:7" ht="16.5">
+    <row r="28" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A28" s="13"/>
       <c r="B28" s="9"/>
       <c r="C28" s="10"/>
@@ -1146,7 +1173,7 @@
       <c r="F28" s="9"/>
       <c r="G28" s="9"/>
     </row>
-    <row r="29" spans="1:7" ht="16.5">
+    <row r="29" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A29" s="13"/>
       <c r="B29" s="9"/>
       <c r="C29" s="10"/>
@@ -1155,7 +1182,7 @@
       <c r="F29" s="9"/>
       <c r="G29" s="9"/>
     </row>
-    <row r="30" spans="1:7" ht="16.5">
+    <row r="30" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A30" s="13"/>
       <c r="B30" s="9"/>
       <c r="C30" s="10"/>
@@ -1164,7 +1191,7 @@
       <c r="F30" s="9"/>
       <c r="G30" s="9"/>
     </row>
-    <row r="31" spans="1:7" ht="16.5">
+    <row r="31" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A31" s="13"/>
       <c r="B31" s="9"/>
       <c r="C31" s="10"/>
@@ -1173,7 +1200,7 @@
       <c r="F31" s="9"/>
       <c r="G31" s="9"/>
     </row>
-    <row r="32" spans="1:7" ht="16.5">
+    <row r="32" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A32" s="13"/>
       <c r="B32" s="9"/>
       <c r="C32" s="10"/>
@@ -1182,7 +1209,7 @@
       <c r="F32" s="9"/>
       <c r="G32" s="9"/>
     </row>
-    <row r="33" spans="1:7" ht="16.5">
+    <row r="33" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A33" s="13"/>
       <c r="B33" s="9"/>
       <c r="C33" s="10"/>
@@ -1191,7 +1218,7 @@
       <c r="F33" s="9"/>
       <c r="G33" s="9"/>
     </row>
-    <row r="34" spans="1:7" ht="16.5">
+    <row r="34" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A34" s="13"/>
       <c r="B34" s="9"/>
       <c r="C34" s="10"/>
@@ -1200,7 +1227,7 @@
       <c r="F34" s="9"/>
       <c r="G34" s="9"/>
     </row>
-    <row r="35" spans="1:7" ht="16.5">
+    <row r="35" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A35" s="13"/>
       <c r="B35" s="3"/>
       <c r="C35" s="6"/>
@@ -1209,7 +1236,7 @@
       <c r="F35" s="3"/>
       <c r="G35" s="3"/>
     </row>
-    <row r="36" spans="1:7" ht="16.5">
+    <row r="36" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A36" s="13"/>
       <c r="B36" s="3"/>
       <c r="C36" s="6"/>
@@ -1218,7 +1245,7 @@
       <c r="F36" s="3"/>
       <c r="G36" s="3"/>
     </row>
-    <row r="37" spans="1:7" ht="16.5">
+    <row r="37" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A37" s="13"/>
       <c r="B37" s="3"/>
       <c r="C37" s="6"/>
@@ -1227,7 +1254,7 @@
       <c r="F37" s="3"/>
       <c r="G37" s="3"/>
     </row>
-    <row r="38" spans="1:7" ht="16.5">
+    <row r="38" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A38" s="13"/>
       <c r="B38" s="3"/>
       <c r="C38" s="6"/>
@@ -1236,7 +1263,7 @@
       <c r="F38" s="3"/>
       <c r="G38" s="3"/>
     </row>
-    <row r="39" spans="1:7" ht="16.5">
+    <row r="39" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A39" s="13"/>
       <c r="B39" s="3"/>
       <c r="C39" s="6"/>
@@ -1245,7 +1272,7 @@
       <c r="F39" s="3"/>
       <c r="G39" s="3"/>
     </row>
-    <row r="40" spans="1:7" ht="16.5">
+    <row r="40" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A40" s="13"/>
       <c r="B40" s="3"/>
       <c r="C40" s="6"/>
@@ -1254,7 +1281,7 @@
       <c r="F40" s="3"/>
       <c r="G40" s="3"/>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A41" s="14"/>
       <c r="B41" s="4"/>
       <c r="C41" s="7"/>
@@ -1263,7 +1290,7 @@
       <c r="F41" s="4"/>
       <c r="G41" s="4"/>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A42" s="12"/>
       <c r="B42" s="2"/>
       <c r="C42" s="5"/>
@@ -1287,7 +1314,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1300,7 +1327,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Docs/Testing Issue List.xlsx
+++ b/Docs/Testing Issue List.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Zhongding.git\trunk\Docs\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="195" windowWidth="20115" windowHeight="7875"/>
   </bookViews>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="30">
   <si>
     <t>#</t>
   </si>
@@ -116,23 +111,24 @@
     <t>供应商列表的删除功能不好用。</t>
   </si>
   <si>
-    <t>已解决</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>已解决</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <t>highlighted Grid header是否可以不换行？</t>
+  </si>
+  <si>
+    <t>测试通过</t>
+  </si>
+  <si>
+    <t>所有的grid 的排序功能，列明不要换行</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -159,7 +155,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -248,7 +244,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -455,11 +451,87 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>227404</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>2287161</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7886700" y="16935450"/>
+          <a:ext cx="9104704" cy="2201436"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>189215</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>2577870</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7981950" y="19297650"/>
+          <a:ext cx="9580865" cy="2501670"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -501,7 +573,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -536,7 +608,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -747,23 +819,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="11.125" style="15" customWidth="1"/>
-    <col min="2" max="2" width="22.875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="34.625" style="8" customWidth="1"/>
-    <col min="4" max="4" width="18.75" style="20" customWidth="1"/>
-    <col min="5" max="5" width="15.625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14.375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="51.875" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.125" style="1"/>
+    <col min="1" max="1" width="11.140625" style="15" customWidth="1"/>
+    <col min="2" max="2" width="22.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="34.5703125" style="8" customWidth="1"/>
+    <col min="4" max="4" width="18.7109375" style="20" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="51.85546875" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -784,7 +856,7 @@
       </c>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:7" ht="133.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" ht="133.5" customHeight="1">
       <c r="A2" s="13">
         <v>1</v>
       </c>
@@ -803,7 +875,7 @@
       <c r="F2" s="9"/>
       <c r="G2" s="9"/>
     </row>
-    <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" ht="16.5">
       <c r="A3" s="13">
         <v>2</v>
       </c>
@@ -814,7 +886,7 @@
         <v>7</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="E3" s="11">
         <v>41950</v>
@@ -822,7 +894,7 @@
       <c r="F3" s="9"/>
       <c r="G3" s="9"/>
     </row>
-    <row r="4" spans="1:7" ht="191.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" ht="191.25" customHeight="1">
       <c r="A4" s="13">
         <v>3</v>
       </c>
@@ -841,7 +913,7 @@
       <c r="F4" s="9"/>
       <c r="G4" s="9"/>
     </row>
-    <row r="5" spans="1:7" ht="74.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" ht="74.25" customHeight="1">
       <c r="A5" s="13">
         <v>4</v>
       </c>
@@ -860,7 +932,7 @@
       <c r="F5" s="9"/>
       <c r="G5" s="9"/>
     </row>
-    <row r="6" spans="1:7" ht="217.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" ht="217.5" customHeight="1">
       <c r="A6" s="13">
         <v>5</v>
       </c>
@@ -879,7 +951,7 @@
       <c r="F6" s="9"/>
       <c r="G6" s="9"/>
     </row>
-    <row r="7" spans="1:7" ht="172.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" ht="172.5" customHeight="1">
       <c r="A7" s="13">
         <v>6</v>
       </c>
@@ -898,7 +970,7 @@
       <c r="F7" s="9"/>
       <c r="G7" s="9"/>
     </row>
-    <row r="8" spans="1:7" ht="243.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" ht="243.75" customHeight="1">
       <c r="A8" s="13">
         <v>7</v>
       </c>
@@ -915,7 +987,7 @@
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
     </row>
-    <row r="9" spans="1:7" ht="33" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7" ht="49.5">
       <c r="A9" s="13">
         <v>8</v>
       </c>
@@ -932,7 +1004,7 @@
       <c r="F9" s="9"/>
       <c r="G9" s="9"/>
     </row>
-    <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7" ht="16.5">
       <c r="A10" s="13"/>
       <c r="B10" s="9" t="s">
         <v>19</v>
@@ -941,7 +1013,7 @@
         <v>20</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="E10" s="11">
         <v>41953</v>
@@ -951,7 +1023,7 @@
       </c>
       <c r="G10" s="9"/>
     </row>
-    <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7" ht="16.5">
       <c r="A11" s="13"/>
       <c r="B11" s="9" t="s">
         <v>19</v>
@@ -960,7 +1032,7 @@
         <v>21</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="E11" s="11">
         <v>41953</v>
@@ -970,7 +1042,7 @@
       </c>
       <c r="G11" s="9"/>
     </row>
-    <row r="12" spans="1:7" ht="33" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" ht="33">
       <c r="A12" s="13"/>
       <c r="B12" s="9" t="s">
         <v>19</v>
@@ -979,7 +1051,7 @@
         <v>22</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E12" s="11">
         <v>41953</v>
@@ -989,7 +1061,7 @@
       </c>
       <c r="G12" s="9"/>
     </row>
-    <row r="13" spans="1:7" ht="33" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7" ht="33">
       <c r="A13" s="13"/>
       <c r="B13" s="9" t="s">
         <v>19</v>
@@ -998,7 +1070,7 @@
         <v>23</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="E13" s="11">
         <v>41953</v>
@@ -1008,7 +1080,7 @@
       </c>
       <c r="G13" s="9"/>
     </row>
-    <row r="14" spans="1:7" ht="66" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" ht="66">
       <c r="A14" s="13"/>
       <c r="B14" s="9" t="s">
         <v>19</v>
@@ -1017,7 +1089,7 @@
         <v>25</v>
       </c>
       <c r="D14" s="17" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="E14" s="11">
         <v>41953</v>
@@ -1027,7 +1099,7 @@
       </c>
       <c r="G14" s="9"/>
     </row>
-    <row r="15" spans="1:7" ht="33" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7" ht="33">
       <c r="A15" s="13"/>
       <c r="B15" s="9" t="s">
         <v>19</v>
@@ -1046,7 +1118,7 @@
       </c>
       <c r="G15" s="9"/>
     </row>
-    <row r="16" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7" ht="16.5">
       <c r="A16" s="13"/>
       <c r="B16" s="9" t="s">
         <v>19</v>
@@ -1055,7 +1127,7 @@
         <v>26</v>
       </c>
       <c r="D16" s="17" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="E16" s="11">
         <v>41953</v>
@@ -1065,25 +1137,43 @@
       </c>
       <c r="G16" s="9"/>
     </row>
-    <row r="17" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:7" ht="186.75" customHeight="1">
       <c r="A17" s="13"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="9"/>
+      <c r="B17" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" s="11">
+        <v>41956</v>
+      </c>
       <c r="F17" s="9"/>
       <c r="G17" s="9"/>
     </row>
-    <row r="18" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:7" ht="216.75" customHeight="1">
       <c r="A18" s="13"/>
-      <c r="B18" s="9"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
+      <c r="B18" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="E18" s="11">
+        <v>41956</v>
+      </c>
+      <c r="F18" s="11">
+        <v>41956</v>
+      </c>
       <c r="G18" s="9"/>
     </row>
-    <row r="19" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:7" ht="16.5">
       <c r="A19" s="13"/>
       <c r="B19" s="9"/>
       <c r="C19" s="10"/>
@@ -1092,7 +1182,7 @@
       <c r="F19" s="9"/>
       <c r="G19" s="9"/>
     </row>
-    <row r="20" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:7" ht="16.5">
       <c r="A20" s="13"/>
       <c r="B20" s="9"/>
       <c r="C20" s="10"/>
@@ -1101,7 +1191,7 @@
       <c r="F20" s="9"/>
       <c r="G20" s="9"/>
     </row>
-    <row r="21" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:7" ht="16.5">
       <c r="A21" s="13"/>
       <c r="B21" s="9"/>
       <c r="C21" s="10"/>
@@ -1110,7 +1200,7 @@
       <c r="F21" s="9"/>
       <c r="G21" s="9"/>
     </row>
-    <row r="22" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:7" ht="16.5">
       <c r="A22" s="13"/>
       <c r="B22" s="9"/>
       <c r="C22" s="10"/>
@@ -1119,7 +1209,7 @@
       <c r="F22" s="9"/>
       <c r="G22" s="9"/>
     </row>
-    <row r="23" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:7" ht="16.5">
       <c r="A23" s="13"/>
       <c r="B23" s="9"/>
       <c r="C23" s="10"/>
@@ -1128,7 +1218,7 @@
       <c r="F23" s="9"/>
       <c r="G23" s="9"/>
     </row>
-    <row r="24" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:7" ht="16.5">
       <c r="A24" s="13"/>
       <c r="B24" s="9"/>
       <c r="C24" s="10"/>
@@ -1137,7 +1227,7 @@
       <c r="F24" s="9"/>
       <c r="G24" s="9"/>
     </row>
-    <row r="25" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:7" ht="16.5">
       <c r="A25" s="13"/>
       <c r="B25" s="9"/>
       <c r="C25" s="10"/>
@@ -1146,7 +1236,7 @@
       <c r="F25" s="9"/>
       <c r="G25" s="9"/>
     </row>
-    <row r="26" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:7" ht="16.5">
       <c r="A26" s="13"/>
       <c r="B26" s="9"/>
       <c r="C26" s="10"/>
@@ -1155,7 +1245,7 @@
       <c r="F26" s="9"/>
       <c r="G26" s="9"/>
     </row>
-    <row r="27" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:7" ht="16.5">
       <c r="A27" s="13"/>
       <c r="B27" s="9"/>
       <c r="C27" s="10"/>
@@ -1164,7 +1254,7 @@
       <c r="F27" s="9"/>
       <c r="G27" s="9"/>
     </row>
-    <row r="28" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:7" ht="16.5">
       <c r="A28" s="13"/>
       <c r="B28" s="9"/>
       <c r="C28" s="10"/>
@@ -1173,7 +1263,7 @@
       <c r="F28" s="9"/>
       <c r="G28" s="9"/>
     </row>
-    <row r="29" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:7" ht="16.5">
       <c r="A29" s="13"/>
       <c r="B29" s="9"/>
       <c r="C29" s="10"/>
@@ -1182,7 +1272,7 @@
       <c r="F29" s="9"/>
       <c r="G29" s="9"/>
     </row>
-    <row r="30" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:7" ht="16.5">
       <c r="A30" s="13"/>
       <c r="B30" s="9"/>
       <c r="C30" s="10"/>
@@ -1191,7 +1281,7 @@
       <c r="F30" s="9"/>
       <c r="G30" s="9"/>
     </row>
-    <row r="31" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:7" ht="16.5">
       <c r="A31" s="13"/>
       <c r="B31" s="9"/>
       <c r="C31" s="10"/>
@@ -1200,7 +1290,7 @@
       <c r="F31" s="9"/>
       <c r="G31" s="9"/>
     </row>
-    <row r="32" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:7" ht="16.5">
       <c r="A32" s="13"/>
       <c r="B32" s="9"/>
       <c r="C32" s="10"/>
@@ -1209,7 +1299,7 @@
       <c r="F32" s="9"/>
       <c r="G32" s="9"/>
     </row>
-    <row r="33" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:7" ht="16.5">
       <c r="A33" s="13"/>
       <c r="B33" s="9"/>
       <c r="C33" s="10"/>
@@ -1218,7 +1308,7 @@
       <c r="F33" s="9"/>
       <c r="G33" s="9"/>
     </row>
-    <row r="34" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:7" ht="16.5">
       <c r="A34" s="13"/>
       <c r="B34" s="9"/>
       <c r="C34" s="10"/>
@@ -1227,7 +1317,7 @@
       <c r="F34" s="9"/>
       <c r="G34" s="9"/>
     </row>
-    <row r="35" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:7" ht="16.5">
       <c r="A35" s="13"/>
       <c r="B35" s="3"/>
       <c r="C35" s="6"/>
@@ -1236,7 +1326,7 @@
       <c r="F35" s="3"/>
       <c r="G35" s="3"/>
     </row>
-    <row r="36" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:7" ht="16.5">
       <c r="A36" s="13"/>
       <c r="B36" s="3"/>
       <c r="C36" s="6"/>
@@ -1245,7 +1335,7 @@
       <c r="F36" s="3"/>
       <c r="G36" s="3"/>
     </row>
-    <row r="37" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:7" ht="16.5">
       <c r="A37" s="13"/>
       <c r="B37" s="3"/>
       <c r="C37" s="6"/>
@@ -1254,7 +1344,7 @@
       <c r="F37" s="3"/>
       <c r="G37" s="3"/>
     </row>
-    <row r="38" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:7" ht="16.5">
       <c r="A38" s="13"/>
       <c r="B38" s="3"/>
       <c r="C38" s="6"/>
@@ -1263,7 +1353,7 @@
       <c r="F38" s="3"/>
       <c r="G38" s="3"/>
     </row>
-    <row r="39" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:7" ht="16.5">
       <c r="A39" s="13"/>
       <c r="B39" s="3"/>
       <c r="C39" s="6"/>
@@ -1272,7 +1362,7 @@
       <c r="F39" s="3"/>
       <c r="G39" s="3"/>
     </row>
-    <row r="40" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:7" ht="16.5">
       <c r="A40" s="13"/>
       <c r="B40" s="3"/>
       <c r="C40" s="6"/>
@@ -1281,7 +1371,7 @@
       <c r="F40" s="3"/>
       <c r="G40" s="3"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:7">
       <c r="A41" s="14"/>
       <c r="B41" s="4"/>
       <c r="C41" s="7"/>
@@ -1290,7 +1380,7 @@
       <c r="F41" s="4"/>
       <c r="G41" s="4"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:7">
       <c r="A42" s="12"/>
       <c r="B42" s="2"/>
       <c r="C42" s="5"/>
@@ -1314,7 +1404,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1327,7 +1417,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Docs/Testing Issue List.xlsx
+++ b/Docs/Testing Issue List.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="35">
   <si>
     <t>#</t>
   </si>
@@ -118,6 +118,24 @@
   </si>
   <si>
     <t>所有的grid 的排序功能，列明不要换行</t>
+  </si>
+  <si>
+    <t>商业单位维护</t>
+  </si>
+  <si>
+    <t>新建商业单位时，删除button应该隐藏</t>
+  </si>
+  <si>
+    <t>客户管理</t>
+  </si>
+  <si>
+    <t>商业单位的框宽度放大一些。</t>
+  </si>
+  <si>
+    <t>客户管理的查询页面，商业单位dropdown的查询功能不好用，而且不能清空选项 （加一个默认选项）（IE 和Chrome 的效果不一样，Chrome的效果是对的）
+把商业单位放到第二行，宽度加宽
+名称 列改为：客户名称 （Grid上也改掉）
+客户名称查询也应该使用dropdown 控件</t>
   </si>
 </sst>
 </file>
@@ -527,6 +545,120 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>465528</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>2376271</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7953375" y="22269450"/>
+          <a:ext cx="8056953" cy="2290546"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>2521513</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>503770</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>2028517</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7848600" y="24705238"/>
+          <a:ext cx="6980770" cy="2040654"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>257175</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>579996</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>1476223</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7886700" y="27051000"/>
+          <a:ext cx="8238096" cy="1219048"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -819,8 +951,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="13.5"/>
@@ -1175,35 +1307,55 @@
     </row>
     <row r="19" spans="1:7" ht="16.5">
       <c r="A19" s="13"/>
-      <c r="B19" s="9"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="9"/>
+      <c r="B19" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D19" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" s="11">
+        <v>41962</v>
+      </c>
       <c r="F19" s="9"/>
       <c r="G19" s="9"/>
     </row>
-    <row r="20" spans="1:7" ht="16.5">
+    <row r="20" spans="1:7" ht="199.5" customHeight="1">
       <c r="A20" s="13"/>
-      <c r="B20" s="9"/>
-      <c r="C20" s="10"/>
+      <c r="B20" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>27</v>
+      </c>
       <c r="D20" s="17"/>
       <c r="E20" s="9"/>
       <c r="F20" s="9"/>
       <c r="G20" s="9"/>
     </row>
-    <row r="21" spans="1:7" ht="16.5">
+    <row r="21" spans="1:7" ht="163.5" customHeight="1">
       <c r="A21" s="13"/>
-      <c r="B21" s="9"/>
-      <c r="C21" s="10"/>
+      <c r="B21" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>33</v>
+      </c>
       <c r="D21" s="17"/>
       <c r="E21" s="9"/>
       <c r="F21" s="9"/>
       <c r="G21" s="9"/>
     </row>
-    <row r="22" spans="1:7" ht="16.5">
+    <row r="22" spans="1:7" ht="162" customHeight="1">
       <c r="A22" s="13"/>
-      <c r="B22" s="9"/>
-      <c r="C22" s="10"/>
+      <c r="B22" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>34</v>
+      </c>
       <c r="D22" s="17"/>
       <c r="E22" s="9"/>
       <c r="F22" s="9"/>

--- a/Docs/Testing Issue List.xlsx
+++ b/Docs/Testing Issue List.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Zhongding.git\trunk\Docs\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="195" windowWidth="20115" windowHeight="7875"/>
   </bookViews>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="38">
   <si>
     <t>#</t>
   </si>
@@ -57,9 +62,6 @@
     <t>列表只需要保留如下列：
 户名，开户行，帐号，类别，备注
 且账号，不需要加***</t>
-  </si>
-  <si>
-    <t>待解决</t>
   </si>
   <si>
     <t>帐套的排序，现在是按帐套编号倒序，改成升序吧。</t>
@@ -136,17 +138,33 @@
 把商业单位放到第二行，宽度加宽
 名称 列改为：客户名称 （Grid上也改掉）
 客户名称查询也应该使用dropdown 控件</t>
+  </si>
+  <si>
+    <t>已解决</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>已解决</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>已解决</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hold</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -173,7 +191,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -262,7 +280,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -611,8 +629,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7848600" y="24705238"/>
-          <a:ext cx="6980770" cy="2040654"/>
+          <a:off x="8972550" y="24495688"/>
+          <a:ext cx="7904695" cy="2040654"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -663,7 +681,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -705,7 +723,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -740,7 +758,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -951,23 +969,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="11.140625" style="15" customWidth="1"/>
-    <col min="2" max="2" width="22.85546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="34.5703125" style="8" customWidth="1"/>
-    <col min="4" max="4" width="18.7109375" style="20" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="51.85546875" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="11.125" style="15" customWidth="1"/>
+    <col min="2" max="2" width="22.875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="34.625" style="8" customWidth="1"/>
+    <col min="4" max="4" width="18.75" style="20" customWidth="1"/>
+    <col min="5" max="5" width="15.625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="51.875" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -988,7 +1007,7 @@
       </c>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:7" ht="133.5" customHeight="1">
+    <row r="2" spans="1:7" ht="133.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="13">
         <v>1</v>
       </c>
@@ -999,7 +1018,7 @@
         <v>9</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="E2" s="11">
         <v>41950</v>
@@ -1007,7 +1026,7 @@
       <c r="F2" s="9"/>
       <c r="G2" s="9"/>
     </row>
-    <row r="3" spans="1:7" ht="16.5">
+    <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="13">
         <v>2</v>
       </c>
@@ -1018,7 +1037,7 @@
         <v>7</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E3" s="11">
         <v>41950</v>
@@ -1026,7 +1045,7 @@
       <c r="F3" s="9"/>
       <c r="G3" s="9"/>
     </row>
-    <row r="4" spans="1:7" ht="191.25" customHeight="1">
+    <row r="4" spans="1:7" ht="191.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="13">
         <v>3</v>
       </c>
@@ -1034,10 +1053,10 @@
         <v>6</v>
       </c>
       <c r="C4" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="17" t="s">
         <v>13</v>
-      </c>
-      <c r="D4" s="17" t="s">
-        <v>14</v>
       </c>
       <c r="E4" s="11">
         <v>41950</v>
@@ -1045,7 +1064,7 @@
       <c r="F4" s="9"/>
       <c r="G4" s="9"/>
     </row>
-    <row r="5" spans="1:7" ht="74.25" customHeight="1">
+    <row r="5" spans="1:7" ht="74.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="13">
         <v>4</v>
       </c>
@@ -1056,7 +1075,7 @@
         <v>8</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E5" s="11">
         <v>41950</v>
@@ -1064,7 +1083,7 @@
       <c r="F5" s="9"/>
       <c r="G5" s="9"/>
     </row>
-    <row r="6" spans="1:7" ht="217.5" customHeight="1">
+    <row r="6" spans="1:7" ht="217.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="13">
         <v>5</v>
       </c>
@@ -1072,10 +1091,10 @@
         <v>10</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E6" s="11">
         <v>41950</v>
@@ -1083,7 +1102,7 @@
       <c r="F6" s="9"/>
       <c r="G6" s="9"/>
     </row>
-    <row r="7" spans="1:7" ht="172.5" customHeight="1">
+    <row r="7" spans="1:7" ht="172.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="13">
         <v>6</v>
       </c>
@@ -1094,7 +1113,7 @@
         <v>11</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E7" s="11">
         <v>41950</v>
@@ -1102,7 +1121,7 @@
       <c r="F7" s="9"/>
       <c r="G7" s="9"/>
     </row>
-    <row r="8" spans="1:7" ht="243.75" customHeight="1">
+    <row r="8" spans="1:7" ht="243.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="13">
         <v>7</v>
       </c>
@@ -1110,16 +1129,16 @@
         <v>10</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E8" s="9"/>
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
     </row>
-    <row r="9" spans="1:7" ht="49.5">
+    <row r="9" spans="1:7" ht="33" x14ac:dyDescent="0.15">
       <c r="A9" s="13">
         <v>8</v>
       </c>
@@ -1127,25 +1146,25 @@
         <v>10</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E9" s="9"/>
       <c r="F9" s="9"/>
       <c r="G9" s="9"/>
     </row>
-    <row r="10" spans="1:7" ht="16.5">
+    <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A10" s="13"/>
       <c r="B10" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="10" t="s">
-        <v>20</v>
-      </c>
       <c r="D10" s="17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E10" s="11">
         <v>41953</v>
@@ -1155,16 +1174,16 @@
       </c>
       <c r="G10" s="9"/>
     </row>
-    <row r="11" spans="1:7" ht="16.5">
+    <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A11" s="13"/>
       <c r="B11" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E11" s="11">
         <v>41953</v>
@@ -1174,16 +1193,16 @@
       </c>
       <c r="G11" s="9"/>
     </row>
-    <row r="12" spans="1:7" ht="33">
+    <row r="12" spans="1:7" ht="33" x14ac:dyDescent="0.15">
       <c r="A12" s="13"/>
       <c r="B12" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E12" s="11">
         <v>41953</v>
@@ -1193,16 +1212,16 @@
       </c>
       <c r="G12" s="9"/>
     </row>
-    <row r="13" spans="1:7" ht="33">
+    <row r="13" spans="1:7" ht="33" x14ac:dyDescent="0.15">
       <c r="A13" s="13"/>
       <c r="B13" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E13" s="11">
         <v>41953</v>
@@ -1212,16 +1231,16 @@
       </c>
       <c r="G13" s="9"/>
     </row>
-    <row r="14" spans="1:7" ht="66">
+    <row r="14" spans="1:7" ht="66" x14ac:dyDescent="0.15">
       <c r="A14" s="13"/>
       <c r="B14" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D14" s="17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E14" s="11">
         <v>41953</v>
@@ -1231,16 +1250,16 @@
       </c>
       <c r="G14" s="9"/>
     </row>
-    <row r="15" spans="1:7" ht="33">
+    <row r="15" spans="1:7" ht="33" x14ac:dyDescent="0.15">
       <c r="A15" s="13"/>
       <c r="B15" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D15" s="17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E15" s="11">
         <v>41953</v>
@@ -1250,16 +1269,16 @@
       </c>
       <c r="G15" s="9"/>
     </row>
-    <row r="16" spans="1:7" ht="16.5">
+    <row r="16" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A16" s="13"/>
       <c r="B16" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D16" s="17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E16" s="11">
         <v>41953</v>
@@ -1269,33 +1288,35 @@
       </c>
       <c r="G16" s="9"/>
     </row>
-    <row r="17" spans="1:7" ht="186.75" customHeight="1">
+    <row r="17" spans="1:7" ht="186.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="13"/>
       <c r="B17" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="E17" s="11">
         <v>41956</v>
       </c>
-      <c r="F17" s="9"/>
+      <c r="F17" s="11">
+        <v>41963</v>
+      </c>
       <c r="G17" s="9"/>
     </row>
-    <row r="18" spans="1:7" ht="216.75" customHeight="1">
+    <row r="18" spans="1:7" ht="216.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="13"/>
       <c r="B18" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E18" s="11">
         <v>41956</v>
@@ -1305,63 +1326,75 @@
       </c>
       <c r="G18" s="9"/>
     </row>
-    <row r="19" spans="1:7" ht="16.5">
+    <row r="19" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A19" s="13"/>
       <c r="B19" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C19" s="10" t="s">
-        <v>31</v>
-      </c>
       <c r="D19" s="17" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="E19" s="11">
         <v>41962</v>
       </c>
-      <c r="F19" s="9"/>
+      <c r="F19" s="11">
+        <v>41964</v>
+      </c>
       <c r="G19" s="9"/>
     </row>
-    <row r="20" spans="1:7" ht="199.5" customHeight="1">
+    <row r="20" spans="1:7" ht="199.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="13"/>
       <c r="B20" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D20" s="17"/>
+        <v>26</v>
+      </c>
+      <c r="D20" s="17" t="s">
+        <v>34</v>
+      </c>
       <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
+      <c r="F20" s="11">
+        <v>41963</v>
+      </c>
       <c r="G20" s="9"/>
     </row>
-    <row r="21" spans="1:7" ht="163.5" customHeight="1">
+    <row r="21" spans="1:7" ht="163.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="13"/>
       <c r="B21" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C21" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="D21" s="17"/>
+      <c r="D21" s="17" t="s">
+        <v>34</v>
+      </c>
       <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
+      <c r="F21" s="11">
+        <v>41963</v>
+      </c>
       <c r="G21" s="9"/>
     </row>
-    <row r="22" spans="1:7" ht="162" customHeight="1">
+    <row r="22" spans="1:7" ht="162" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="13"/>
       <c r="B22" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="D22" s="17"/>
+        <v>33</v>
+      </c>
+      <c r="D22" s="17" t="s">
+        <v>37</v>
+      </c>
       <c r="E22" s="9"/>
       <c r="F22" s="9"/>
       <c r="G22" s="9"/>
     </row>
-    <row r="23" spans="1:7" ht="16.5">
+    <row r="23" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A23" s="13"/>
       <c r="B23" s="9"/>
       <c r="C23" s="10"/>
@@ -1370,7 +1403,7 @@
       <c r="F23" s="9"/>
       <c r="G23" s="9"/>
     </row>
-    <row r="24" spans="1:7" ht="16.5">
+    <row r="24" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A24" s="13"/>
       <c r="B24" s="9"/>
       <c r="C24" s="10"/>
@@ -1379,7 +1412,7 @@
       <c r="F24" s="9"/>
       <c r="G24" s="9"/>
     </row>
-    <row r="25" spans="1:7" ht="16.5">
+    <row r="25" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A25" s="13"/>
       <c r="B25" s="9"/>
       <c r="C25" s="10"/>
@@ -1388,7 +1421,7 @@
       <c r="F25" s="9"/>
       <c r="G25" s="9"/>
     </row>
-    <row r="26" spans="1:7" ht="16.5">
+    <row r="26" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A26" s="13"/>
       <c r="B26" s="9"/>
       <c r="C26" s="10"/>
@@ -1397,7 +1430,7 @@
       <c r="F26" s="9"/>
       <c r="G26" s="9"/>
     </row>
-    <row r="27" spans="1:7" ht="16.5">
+    <row r="27" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A27" s="13"/>
       <c r="B27" s="9"/>
       <c r="C27" s="10"/>
@@ -1406,7 +1439,7 @@
       <c r="F27" s="9"/>
       <c r="G27" s="9"/>
     </row>
-    <row r="28" spans="1:7" ht="16.5">
+    <row r="28" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A28" s="13"/>
       <c r="B28" s="9"/>
       <c r="C28" s="10"/>
@@ -1415,7 +1448,7 @@
       <c r="F28" s="9"/>
       <c r="G28" s="9"/>
     </row>
-    <row r="29" spans="1:7" ht="16.5">
+    <row r="29" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A29" s="13"/>
       <c r="B29" s="9"/>
       <c r="C29" s="10"/>
@@ -1424,7 +1457,7 @@
       <c r="F29" s="9"/>
       <c r="G29" s="9"/>
     </row>
-    <row r="30" spans="1:7" ht="16.5">
+    <row r="30" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A30" s="13"/>
       <c r="B30" s="9"/>
       <c r="C30" s="10"/>
@@ -1433,7 +1466,7 @@
       <c r="F30" s="9"/>
       <c r="G30" s="9"/>
     </row>
-    <row r="31" spans="1:7" ht="16.5">
+    <row r="31" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A31" s="13"/>
       <c r="B31" s="9"/>
       <c r="C31" s="10"/>
@@ -1442,7 +1475,7 @@
       <c r="F31" s="9"/>
       <c r="G31" s="9"/>
     </row>
-    <row r="32" spans="1:7" ht="16.5">
+    <row r="32" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A32" s="13"/>
       <c r="B32" s="9"/>
       <c r="C32" s="10"/>
@@ -1451,7 +1484,7 @@
       <c r="F32" s="9"/>
       <c r="G32" s="9"/>
     </row>
-    <row r="33" spans="1:7" ht="16.5">
+    <row r="33" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A33" s="13"/>
       <c r="B33" s="9"/>
       <c r="C33" s="10"/>
@@ -1460,7 +1493,7 @@
       <c r="F33" s="9"/>
       <c r="G33" s="9"/>
     </row>
-    <row r="34" spans="1:7" ht="16.5">
+    <row r="34" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A34" s="13"/>
       <c r="B34" s="9"/>
       <c r="C34" s="10"/>
@@ -1469,7 +1502,7 @@
       <c r="F34" s="9"/>
       <c r="G34" s="9"/>
     </row>
-    <row r="35" spans="1:7" ht="16.5">
+    <row r="35" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A35" s="13"/>
       <c r="B35" s="3"/>
       <c r="C35" s="6"/>
@@ -1478,7 +1511,7 @@
       <c r="F35" s="3"/>
       <c r="G35" s="3"/>
     </row>
-    <row r="36" spans="1:7" ht="16.5">
+    <row r="36" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A36" s="13"/>
       <c r="B36" s="3"/>
       <c r="C36" s="6"/>
@@ -1487,7 +1520,7 @@
       <c r="F36" s="3"/>
       <c r="G36" s="3"/>
     </row>
-    <row r="37" spans="1:7" ht="16.5">
+    <row r="37" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A37" s="13"/>
       <c r="B37" s="3"/>
       <c r="C37" s="6"/>
@@ -1496,7 +1529,7 @@
       <c r="F37" s="3"/>
       <c r="G37" s="3"/>
     </row>
-    <row r="38" spans="1:7" ht="16.5">
+    <row r="38" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A38" s="13"/>
       <c r="B38" s="3"/>
       <c r="C38" s="6"/>
@@ -1505,7 +1538,7 @@
       <c r="F38" s="3"/>
       <c r="G38" s="3"/>
     </row>
-    <row r="39" spans="1:7" ht="16.5">
+    <row r="39" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A39" s="13"/>
       <c r="B39" s="3"/>
       <c r="C39" s="6"/>
@@ -1514,7 +1547,7 @@
       <c r="F39" s="3"/>
       <c r="G39" s="3"/>
     </row>
-    <row r="40" spans="1:7" ht="16.5">
+    <row r="40" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A40" s="13"/>
       <c r="B40" s="3"/>
       <c r="C40" s="6"/>
@@ -1523,7 +1556,7 @@
       <c r="F40" s="3"/>
       <c r="G40" s="3"/>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A41" s="14"/>
       <c r="B41" s="4"/>
       <c r="C41" s="7"/>
@@ -1532,7 +1565,7 @@
       <c r="F41" s="4"/>
       <c r="G41" s="4"/>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A42" s="12"/>
       <c r="B42" s="2"/>
       <c r="C42" s="5"/>
@@ -1545,7 +1578,7 @@
   <autoFilter ref="A1:G9"/>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
@@ -1556,7 +1589,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1569,7 +1602,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Docs/Testing Issue List.xlsx
+++ b/Docs/Testing Issue List.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Zhongding.git\trunk\Docs\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="195" windowWidth="20115" windowHeight="7875"/>
+    <workbookView xWindow="240" yWindow="255" windowWidth="20115" windowHeight="7815"/>
   </bookViews>
   <sheets>
     <sheet name="Issue List" sheetId="1" r:id="rId1"/>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="59">
   <si>
     <t>#</t>
   </si>
@@ -154,17 +149,84 @@
   <si>
     <t>Hold</t>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>帐号维护，如右图，为何帐号无效？</t>
+  </si>
+  <si>
+    <t>待解决</t>
+  </si>
+  <si>
+    <t>供应商合同的删除按钮没有作用</t>
+  </si>
+  <si>
+    <t>货品维护</t>
+  </si>
+  <si>
+    <t>供应商的textbox 稍微放长些；
+货品管理中的供应商没有按照帐套筛选，显示了别的帐套的供应商数据。</t>
+  </si>
+  <si>
+    <t>货品管理</t>
+  </si>
+  <si>
+    <t>货品定价管理</t>
+  </si>
+  <si>
+    <t>用户填写了价格以后，没有点击保存，离开页面前，需要提示用户，没有保存价格信息，确定是否要离开页面。</t>
+  </si>
+  <si>
+    <t>货品编号列的宽度变窄一点，把备注调宽一些
+规格也可以调窄一些，把货品名称变宽些</t>
+  </si>
+  <si>
+    <t>是否提醒/提醒期限 这2列不要换行</t>
+  </si>
+  <si>
+    <t>货品证照信息管理里，点编辑一个证照，证照信息没有默认加载。</t>
+  </si>
+  <si>
+    <t>客户+商业单位 需要验证是否重复。</t>
+  </si>
+  <si>
+    <t>银行账户管理，有跟#22 一样的问题，加横杠的帐号无法保存。</t>
+  </si>
+  <si>
+    <t>大包协议维护</t>
+  </si>
+  <si>
+    <t>医院名称的textbox 太短了。</t>
+  </si>
+  <si>
+    <t>医院设置要放在任务设置上方。
+大包协议判断重复是根据：客户+货品+规格+医院
+所以在维护医院名称的时候，不能判断医院的名字已经重复。</t>
+  </si>
+  <si>
+    <t>部门维护</t>
+  </si>
+  <si>
+    <t>员工管理</t>
+  </si>
+  <si>
+    <t>加上按部门筛选员工的功能</t>
+  </si>
+  <si>
+    <t>部门经理dropdown 不能清空选项； 新增部门时，部门经理dropdown应该为空。</t>
+  </si>
+  <si>
+    <t>所属部门 dropdown 一旦选了选项不能清空，检查系统中所有dropdown，需要增加一个空选项，允许用户清空dropdown。另外，允许用户新增员工，不属于任何一个部门。</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -191,7 +253,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -280,7 +342,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -677,11 +739,239 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>107277</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>66676</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>599104</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>2228850</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Picture 11"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7927302" y="28917901"/>
+          <a:ext cx="4559002" cy="2162174"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>322658</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>2410380</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Picture 12"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7848600" y="31127700"/>
+          <a:ext cx="8018858" cy="2400855"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>57149</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>446385</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>4559</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Picture 13"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7877174" y="33661350"/>
+          <a:ext cx="9333211" cy="3033509"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>28574</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>28576</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>541646</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>2294906</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Picture 14"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7848599" y="37557076"/>
+          <a:ext cx="5189847" cy="2266330"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>2352675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>265527</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>3544</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Picture 15"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7905750" y="39671625"/>
+          <a:ext cx="8514177" cy="2460994"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>170276</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>1532459</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="Picture 16"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7877175" y="43233975"/>
+          <a:ext cx="4789901" cy="1475309"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -723,7 +1013,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -758,7 +1048,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -967,26 +1257,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G42"/>
+  <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E22" sqref="E22"/>
+      <pane ySplit="1" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D35" sqref="D35:E36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="11.125" style="15" customWidth="1"/>
-    <col min="2" max="2" width="22.875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="34.625" style="8" customWidth="1"/>
-    <col min="4" max="4" width="18.75" style="20" customWidth="1"/>
-    <col min="5" max="5" width="15.625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14.375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="51.875" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.125" style="1"/>
+    <col min="1" max="1" width="11.140625" style="15" customWidth="1"/>
+    <col min="2" max="2" width="22.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="34.5703125" style="8" customWidth="1"/>
+    <col min="4" max="4" width="18.7109375" style="20" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="51.85546875" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -1007,7 +1297,7 @@
       </c>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:7" ht="133.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" ht="133.5" customHeight="1">
       <c r="A2" s="13">
         <v>1</v>
       </c>
@@ -1026,7 +1316,7 @@
       <c r="F2" s="9"/>
       <c r="G2" s="9"/>
     </row>
-    <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" ht="16.5">
       <c r="A3" s="13">
         <v>2</v>
       </c>
@@ -1045,7 +1335,7 @@
       <c r="F3" s="9"/>
       <c r="G3" s="9"/>
     </row>
-    <row r="4" spans="1:7" ht="191.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" ht="191.25" customHeight="1">
       <c r="A4" s="13">
         <v>3</v>
       </c>
@@ -1064,7 +1354,7 @@
       <c r="F4" s="9"/>
       <c r="G4" s="9"/>
     </row>
-    <row r="5" spans="1:7" ht="74.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" ht="74.25" customHeight="1">
       <c r="A5" s="13">
         <v>4</v>
       </c>
@@ -1083,7 +1373,7 @@
       <c r="F5" s="9"/>
       <c r="G5" s="9"/>
     </row>
-    <row r="6" spans="1:7" ht="217.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" ht="217.5" customHeight="1">
       <c r="A6" s="13">
         <v>5</v>
       </c>
@@ -1102,7 +1392,7 @@
       <c r="F6" s="9"/>
       <c r="G6" s="9"/>
     </row>
-    <row r="7" spans="1:7" ht="172.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" ht="172.5" customHeight="1">
       <c r="A7" s="13">
         <v>6</v>
       </c>
@@ -1121,7 +1411,7 @@
       <c r="F7" s="9"/>
       <c r="G7" s="9"/>
     </row>
-    <row r="8" spans="1:7" ht="243.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" ht="243.75" customHeight="1">
       <c r="A8" s="13">
         <v>7</v>
       </c>
@@ -1138,7 +1428,7 @@
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
     </row>
-    <row r="9" spans="1:7" ht="33" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7" ht="49.5">
       <c r="A9" s="13">
         <v>8</v>
       </c>
@@ -1155,8 +1445,10 @@
       <c r="F9" s="9"/>
       <c r="G9" s="9"/>
     </row>
-    <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A10" s="13"/>
+    <row r="10" spans="1:7" ht="16.5">
+      <c r="A10" s="13">
+        <v>9</v>
+      </c>
       <c r="B10" s="9" t="s">
         <v>18</v>
       </c>
@@ -1174,8 +1466,10 @@
       </c>
       <c r="G10" s="9"/>
     </row>
-    <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A11" s="13"/>
+    <row r="11" spans="1:7" ht="16.5">
+      <c r="A11" s="13">
+        <v>10</v>
+      </c>
       <c r="B11" s="9" t="s">
         <v>18</v>
       </c>
@@ -1193,8 +1487,10 @@
       </c>
       <c r="G11" s="9"/>
     </row>
-    <row r="12" spans="1:7" ht="33" x14ac:dyDescent="0.15">
-      <c r="A12" s="13"/>
+    <row r="12" spans="1:7" ht="33">
+      <c r="A12" s="13">
+        <v>11</v>
+      </c>
       <c r="B12" s="9" t="s">
         <v>18</v>
       </c>
@@ -1212,8 +1508,10 @@
       </c>
       <c r="G12" s="9"/>
     </row>
-    <row r="13" spans="1:7" ht="33" x14ac:dyDescent="0.15">
-      <c r="A13" s="13"/>
+    <row r="13" spans="1:7" ht="33">
+      <c r="A13" s="13">
+        <v>12</v>
+      </c>
       <c r="B13" s="9" t="s">
         <v>18</v>
       </c>
@@ -1231,8 +1529,10 @@
       </c>
       <c r="G13" s="9"/>
     </row>
-    <row r="14" spans="1:7" ht="66" x14ac:dyDescent="0.15">
-      <c r="A14" s="13"/>
+    <row r="14" spans="1:7" ht="66">
+      <c r="A14" s="13">
+        <v>13</v>
+      </c>
       <c r="B14" s="9" t="s">
         <v>18</v>
       </c>
@@ -1250,8 +1550,10 @@
       </c>
       <c r="G14" s="9"/>
     </row>
-    <row r="15" spans="1:7" ht="33" x14ac:dyDescent="0.15">
-      <c r="A15" s="13"/>
+    <row r="15" spans="1:7" ht="33">
+      <c r="A15" s="13">
+        <v>14</v>
+      </c>
       <c r="B15" s="9" t="s">
         <v>18</v>
       </c>
@@ -1269,8 +1571,10 @@
       </c>
       <c r="G15" s="9"/>
     </row>
-    <row r="16" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A16" s="13"/>
+    <row r="16" spans="1:7" ht="16.5">
+      <c r="A16" s="13">
+        <v>15</v>
+      </c>
       <c r="B16" s="9" t="s">
         <v>18</v>
       </c>
@@ -1288,8 +1592,10 @@
       </c>
       <c r="G16" s="9"/>
     </row>
-    <row r="17" spans="1:7" ht="186.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="13"/>
+    <row r="17" spans="1:7" ht="186.75" customHeight="1">
+      <c r="A17" s="13">
+        <v>16</v>
+      </c>
       <c r="B17" s="9" t="s">
         <v>18</v>
       </c>
@@ -1307,8 +1613,10 @@
       </c>
       <c r="G17" s="9"/>
     </row>
-    <row r="18" spans="1:7" ht="216.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="13"/>
+    <row r="18" spans="1:7" ht="216.75" customHeight="1">
+      <c r="A18" s="13">
+        <v>17</v>
+      </c>
       <c r="B18" s="9" t="s">
         <v>18</v>
       </c>
@@ -1326,8 +1634,10 @@
       </c>
       <c r="G18" s="9"/>
     </row>
-    <row r="19" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A19" s="13"/>
+    <row r="19" spans="1:7" ht="16.5">
+      <c r="A19" s="13">
+        <v>18</v>
+      </c>
       <c r="B19" s="9" t="s">
         <v>29</v>
       </c>
@@ -1345,8 +1655,10 @@
       </c>
       <c r="G19" s="9"/>
     </row>
-    <row r="20" spans="1:7" ht="199.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="13"/>
+    <row r="20" spans="1:7" ht="199.5" customHeight="1">
+      <c r="A20" s="13">
+        <v>19</v>
+      </c>
       <c r="B20" s="9" t="s">
         <v>29</v>
       </c>
@@ -1362,8 +1674,10 @@
       </c>
       <c r="G20" s="9"/>
     </row>
-    <row r="21" spans="1:7" ht="163.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="13"/>
+    <row r="21" spans="1:7" ht="163.5" customHeight="1">
+      <c r="A21" s="13">
+        <v>20</v>
+      </c>
       <c r="B21" s="9" t="s">
         <v>31</v>
       </c>
@@ -1379,8 +1693,10 @@
       </c>
       <c r="G21" s="9"/>
     </row>
-    <row r="22" spans="1:7" ht="162" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="13"/>
+    <row r="22" spans="1:7" ht="162" customHeight="1">
+      <c r="A22" s="13">
+        <v>21</v>
+      </c>
       <c r="B22" s="9" t="s">
         <v>31</v>
       </c>
@@ -1394,133 +1710,273 @@
       <c r="F22" s="9"/>
       <c r="G22" s="9"/>
     </row>
-    <row r="23" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A23" s="13"/>
-      <c r="B23" s="9"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="9"/>
+    <row r="23" spans="1:7" ht="178.5" customHeight="1">
+      <c r="A23" s="13">
+        <v>22</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D23" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="E23" s="11">
+        <v>41976</v>
+      </c>
       <c r="F23" s="9"/>
       <c r="G23" s="9"/>
     </row>
-    <row r="24" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A24" s="13"/>
-      <c r="B24" s="9"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="9"/>
+    <row r="24" spans="1:7" ht="198" customHeight="1">
+      <c r="A24" s="13">
+        <v>23</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D24" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="E24" s="11">
+        <v>41976</v>
+      </c>
       <c r="F24" s="9"/>
       <c r="G24" s="9"/>
     </row>
-    <row r="25" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A25" s="13"/>
-      <c r="B25" s="9"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="9"/>
+    <row r="25" spans="1:7" ht="240.75" customHeight="1">
+      <c r="A25" s="13">
+        <v>24</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D25" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="E25" s="11">
+        <v>41976</v>
+      </c>
       <c r="F25" s="9"/>
       <c r="G25" s="9"/>
     </row>
-    <row r="26" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A26" s="13"/>
-      <c r="B26" s="9"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="9"/>
+    <row r="26" spans="1:7" ht="49.5">
+      <c r="A26" s="13">
+        <v>25</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D26" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="E26" s="11">
+        <v>41976</v>
+      </c>
       <c r="F26" s="9"/>
       <c r="G26" s="9"/>
     </row>
-    <row r="27" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A27" s="13"/>
-      <c r="B27" s="9"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="17"/>
-      <c r="E27" s="9"/>
+    <row r="27" spans="1:7" ht="190.5" customHeight="1">
+      <c r="A27" s="13">
+        <v>26</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D27" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="E27" s="11">
+        <v>41976</v>
+      </c>
       <c r="F27" s="9"/>
       <c r="G27" s="9"/>
     </row>
-    <row r="28" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A28" s="13"/>
-      <c r="B28" s="9"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="9"/>
+    <row r="28" spans="1:7" ht="188.25" customHeight="1">
+      <c r="A28" s="13">
+        <v>27</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="D28" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="E28" s="11">
+        <v>41976</v>
+      </c>
       <c r="F28" s="9"/>
       <c r="G28" s="9"/>
     </row>
-    <row r="29" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A29" s="13"/>
-      <c r="B29" s="9"/>
-      <c r="C29" s="10"/>
-      <c r="D29" s="17"/>
-      <c r="E29" s="9"/>
+    <row r="29" spans="1:7" ht="33">
+      <c r="A29" s="13">
+        <v>28</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D29" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="E29" s="11">
+        <v>41976</v>
+      </c>
       <c r="F29" s="9"/>
       <c r="G29" s="9"/>
     </row>
-    <row r="30" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A30" s="13"/>
-      <c r="B30" s="9"/>
-      <c r="C30" s="10"/>
-      <c r="D30" s="17"/>
-      <c r="E30" s="9"/>
+    <row r="30" spans="1:7" ht="16.5">
+      <c r="A30" s="13">
+        <v>29</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D30" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="E30" s="11">
+        <v>41976</v>
+      </c>
       <c r="F30" s="9"/>
       <c r="G30" s="9"/>
     </row>
-    <row r="31" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A31" s="13"/>
-      <c r="B31" s="9"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="17"/>
-      <c r="E31" s="9"/>
+    <row r="31" spans="1:7" ht="33">
+      <c r="A31" s="13">
+        <v>30</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D31" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="E31" s="11">
+        <v>41976</v>
+      </c>
       <c r="F31" s="9"/>
       <c r="G31" s="9"/>
     </row>
-    <row r="32" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A32" s="13"/>
-      <c r="B32" s="9"/>
-      <c r="C32" s="10"/>
-      <c r="D32" s="17"/>
-      <c r="E32" s="9"/>
+    <row r="32" spans="1:7" ht="121.5" customHeight="1">
+      <c r="A32" s="13">
+        <v>31</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D32" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="E32" s="11">
+        <v>41976</v>
+      </c>
       <c r="F32" s="9"/>
       <c r="G32" s="9"/>
     </row>
-    <row r="33" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A33" s="13"/>
-      <c r="B33" s="9"/>
-      <c r="C33" s="10"/>
-      <c r="D33" s="17"/>
-      <c r="E33" s="9"/>
+    <row r="33" spans="1:7" ht="99">
+      <c r="A33" s="13">
+        <v>32</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="D33" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="E33" s="11">
+        <v>41976</v>
+      </c>
       <c r="F33" s="9"/>
       <c r="G33" s="9"/>
     </row>
-    <row r="34" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A34" s="13"/>
-      <c r="B34" s="9"/>
-      <c r="C34" s="10"/>
-      <c r="D34" s="17"/>
-      <c r="E34" s="9"/>
+    <row r="34" spans="1:7" ht="49.5">
+      <c r="A34" s="13">
+        <v>33</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="D34" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="E34" s="11">
+        <v>41976</v>
+      </c>
       <c r="F34" s="9"/>
       <c r="G34" s="9"/>
     </row>
-    <row r="35" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A35" s="13"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="6"/>
-      <c r="D35" s="18"/>
-      <c r="E35" s="3"/>
+    <row r="35" spans="1:7" ht="16.5">
+      <c r="A35" s="13">
+        <v>34</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D35" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="E35" s="11">
+        <v>41976</v>
+      </c>
       <c r="F35" s="3"/>
       <c r="G35" s="3"/>
     </row>
-    <row r="36" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A36" s="13"/>
-      <c r="B36" s="3"/>
-      <c r="C36" s="6"/>
-      <c r="D36" s="18"/>
-      <c r="E36" s="3"/>
+    <row r="36" spans="1:7" ht="82.5">
+      <c r="A36" s="13">
+        <v>35</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D36" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="E36" s="11">
+        <v>41976</v>
+      </c>
       <c r="F36" s="3"/>
       <c r="G36" s="3"/>
     </row>
-    <row r="37" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:7" ht="16.5">
       <c r="A37" s="13"/>
       <c r="B37" s="3"/>
       <c r="C37" s="6"/>
@@ -1529,7 +1985,7 @@
       <c r="F37" s="3"/>
       <c r="G37" s="3"/>
     </row>
-    <row r="38" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:7" ht="16.5">
       <c r="A38" s="13"/>
       <c r="B38" s="3"/>
       <c r="C38" s="6"/>
@@ -1538,7 +1994,7 @@
       <c r="F38" s="3"/>
       <c r="G38" s="3"/>
     </row>
-    <row r="39" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:7" ht="16.5">
       <c r="A39" s="13"/>
       <c r="B39" s="3"/>
       <c r="C39" s="6"/>
@@ -1547,32 +2003,23 @@
       <c r="F39" s="3"/>
       <c r="G39" s="3"/>
     </row>
-    <row r="40" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A40" s="13"/>
-      <c r="B40" s="3"/>
-      <c r="C40" s="6"/>
-      <c r="D40" s="18"/>
-      <c r="E40" s="3"/>
-      <c r="F40" s="3"/>
-      <c r="G40" s="3"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A41" s="14"/>
-      <c r="B41" s="4"/>
-      <c r="C41" s="7"/>
-      <c r="D41" s="19"/>
-      <c r="E41" s="4"/>
-      <c r="F41" s="4"/>
-      <c r="G41" s="4"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A42" s="12"/>
-      <c r="B42" s="2"/>
-      <c r="C42" s="5"/>
-      <c r="D42" s="16"/>
-      <c r="E42" s="2"/>
-      <c r="F42" s="2"/>
-      <c r="G42" s="2"/>
+    <row r="40" spans="1:7">
+      <c r="A40" s="14"/>
+      <c r="B40" s="4"/>
+      <c r="C40" s="7"/>
+      <c r="D40" s="19"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="4"/>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="12"/>
+      <c r="B41" s="2"/>
+      <c r="C41" s="5"/>
+      <c r="D41" s="16"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:G9"/>
@@ -1589,7 +2036,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1602,7 +2049,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Docs/Testing Issue List.xlsx
+++ b/Docs/Testing Issue List.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Zhongding.git\trunk\Docs\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="255" windowWidth="20115" windowHeight="7815"/>
   </bookViews>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="63">
   <si>
     <t>#</t>
   </si>
@@ -157,14 +162,7 @@
     <t>待解决</t>
   </si>
   <si>
-    <t>供应商合同的删除按钮没有作用</t>
-  </si>
-  <si>
     <t>货品维护</t>
-  </si>
-  <si>
-    <t>供应商的textbox 稍微放长些；
-货品管理中的供应商没有按照帐套筛选，显示了别的帐套的供应商数据。</t>
   </si>
   <si>
     <t>货品管理</t>
@@ -216,17 +214,42 @@
   </si>
   <si>
     <t>所属部门 dropdown 一旦选了选项不能清空，检查系统中所有dropdown，需要增加一个空选项，允许用户清空dropdown。另外，允许用户新增员工，不属于任何一个部门。</t>
+  </si>
+  <si>
+    <t>已解决</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>已解决</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>供应商合同的删除按钮没有作用</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>供应商的textbox 稍微放长些；
+货品管理中的供应商没有按照帐套筛选，显示了别的帐套的供应商数据。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>已解决</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>已解决</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -253,7 +276,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -342,7 +365,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -971,7 +994,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1013,7 +1036,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1048,7 +1071,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1259,24 +1282,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D35" sqref="D35:E36"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F28" sqref="F28:F29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="11.140625" style="15" customWidth="1"/>
-    <col min="2" max="2" width="22.85546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="34.5703125" style="8" customWidth="1"/>
-    <col min="4" max="4" width="18.7109375" style="20" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="51.85546875" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="11.125" style="15" customWidth="1"/>
+    <col min="2" max="2" width="22.875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="34.625" style="8" customWidth="1"/>
+    <col min="4" max="4" width="18.75" style="20" customWidth="1"/>
+    <col min="5" max="5" width="15.625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="51.875" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -1297,7 +1320,7 @@
       </c>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:7" ht="133.5" customHeight="1">
+    <row r="2" spans="1:7" ht="133.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="13">
         <v>1</v>
       </c>
@@ -1316,7 +1339,7 @@
       <c r="F2" s="9"/>
       <c r="G2" s="9"/>
     </row>
-    <row r="3" spans="1:7" ht="16.5">
+    <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="13">
         <v>2</v>
       </c>
@@ -1335,7 +1358,7 @@
       <c r="F3" s="9"/>
       <c r="G3" s="9"/>
     </row>
-    <row r="4" spans="1:7" ht="191.25" customHeight="1">
+    <row r="4" spans="1:7" ht="191.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="13">
         <v>3</v>
       </c>
@@ -1354,7 +1377,7 @@
       <c r="F4" s="9"/>
       <c r="G4" s="9"/>
     </row>
-    <row r="5" spans="1:7" ht="74.25" customHeight="1">
+    <row r="5" spans="1:7" ht="74.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="13">
         <v>4</v>
       </c>
@@ -1373,7 +1396,7 @@
       <c r="F5" s="9"/>
       <c r="G5" s="9"/>
     </row>
-    <row r="6" spans="1:7" ht="217.5" customHeight="1">
+    <row r="6" spans="1:7" ht="217.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="13">
         <v>5</v>
       </c>
@@ -1392,7 +1415,7 @@
       <c r="F6" s="9"/>
       <c r="G6" s="9"/>
     </row>
-    <row r="7" spans="1:7" ht="172.5" customHeight="1">
+    <row r="7" spans="1:7" ht="172.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="13">
         <v>6</v>
       </c>
@@ -1411,7 +1434,7 @@
       <c r="F7" s="9"/>
       <c r="G7" s="9"/>
     </row>
-    <row r="8" spans="1:7" ht="243.75" customHeight="1">
+    <row r="8" spans="1:7" ht="243.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="13">
         <v>7</v>
       </c>
@@ -1428,7 +1451,7 @@
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
     </row>
-    <row r="9" spans="1:7" ht="49.5">
+    <row r="9" spans="1:7" ht="33" x14ac:dyDescent="0.15">
       <c r="A9" s="13">
         <v>8</v>
       </c>
@@ -1445,7 +1468,7 @@
       <c r="F9" s="9"/>
       <c r="G9" s="9"/>
     </row>
-    <row r="10" spans="1:7" ht="16.5">
+    <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A10" s="13">
         <v>9</v>
       </c>
@@ -1466,7 +1489,7 @@
       </c>
       <c r="G10" s="9"/>
     </row>
-    <row r="11" spans="1:7" ht="16.5">
+    <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A11" s="13">
         <v>10</v>
       </c>
@@ -1487,7 +1510,7 @@
       </c>
       <c r="G11" s="9"/>
     </row>
-    <row r="12" spans="1:7" ht="33">
+    <row r="12" spans="1:7" ht="33" x14ac:dyDescent="0.15">
       <c r="A12" s="13">
         <v>11</v>
       </c>
@@ -1508,7 +1531,7 @@
       </c>
       <c r="G12" s="9"/>
     </row>
-    <row r="13" spans="1:7" ht="33">
+    <row r="13" spans="1:7" ht="33" x14ac:dyDescent="0.15">
       <c r="A13" s="13">
         <v>12</v>
       </c>
@@ -1529,7 +1552,7 @@
       </c>
       <c r="G13" s="9"/>
     </row>
-    <row r="14" spans="1:7" ht="66">
+    <row r="14" spans="1:7" ht="66" x14ac:dyDescent="0.15">
       <c r="A14" s="13">
         <v>13</v>
       </c>
@@ -1550,7 +1573,7 @@
       </c>
       <c r="G14" s="9"/>
     </row>
-    <row r="15" spans="1:7" ht="33">
+    <row r="15" spans="1:7" ht="33" x14ac:dyDescent="0.15">
       <c r="A15" s="13">
         <v>14</v>
       </c>
@@ -1571,7 +1594,7 @@
       </c>
       <c r="G15" s="9"/>
     </row>
-    <row r="16" spans="1:7" ht="16.5">
+    <row r="16" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A16" s="13">
         <v>15</v>
       </c>
@@ -1592,7 +1615,7 @@
       </c>
       <c r="G16" s="9"/>
     </row>
-    <row r="17" spans="1:7" ht="186.75" customHeight="1">
+    <row r="17" spans="1:7" ht="186.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="13">
         <v>16</v>
       </c>
@@ -1613,7 +1636,7 @@
       </c>
       <c r="G17" s="9"/>
     </row>
-    <row r="18" spans="1:7" ht="216.75" customHeight="1">
+    <row r="18" spans="1:7" ht="216.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="13">
         <v>17</v>
       </c>
@@ -1634,7 +1657,7 @@
       </c>
       <c r="G18" s="9"/>
     </row>
-    <row r="19" spans="1:7" ht="16.5">
+    <row r="19" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A19" s="13">
         <v>18</v>
       </c>
@@ -1655,7 +1678,7 @@
       </c>
       <c r="G19" s="9"/>
     </row>
-    <row r="20" spans="1:7" ht="199.5" customHeight="1">
+    <row r="20" spans="1:7" ht="199.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="13">
         <v>19</v>
       </c>
@@ -1674,7 +1697,7 @@
       </c>
       <c r="G20" s="9"/>
     </row>
-    <row r="21" spans="1:7" ht="163.5" customHeight="1">
+    <row r="21" spans="1:7" ht="163.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="13">
         <v>20</v>
       </c>
@@ -1693,7 +1716,7 @@
       </c>
       <c r="G21" s="9"/>
     </row>
-    <row r="22" spans="1:7" ht="162" customHeight="1">
+    <row r="22" spans="1:7" ht="162" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="13">
         <v>21</v>
       </c>
@@ -1710,7 +1733,7 @@
       <c r="F22" s="9"/>
       <c r="G22" s="9"/>
     </row>
-    <row r="23" spans="1:7" ht="178.5" customHeight="1">
+    <row r="23" spans="1:7" ht="178.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="13">
         <v>22</v>
       </c>
@@ -1721,15 +1744,17 @@
         <v>38</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="E23" s="11">
         <v>41976</v>
       </c>
-      <c r="F23" s="9"/>
+      <c r="F23" s="11">
+        <v>41981</v>
+      </c>
       <c r="G23" s="9"/>
     </row>
-    <row r="24" spans="1:7" ht="198" customHeight="1">
+    <row r="24" spans="1:7" ht="198" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="13">
         <v>23</v>
       </c>
@@ -1737,45 +1762,49 @@
         <v>18</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="E24" s="11">
         <v>41976</v>
       </c>
-      <c r="F24" s="9"/>
+      <c r="F24" s="11">
+        <v>41981</v>
+      </c>
       <c r="G24" s="9"/>
     </row>
-    <row r="25" spans="1:7" ht="240.75" customHeight="1">
+    <row r="25" spans="1:7" ht="240.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="13">
         <v>24</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="E25" s="11">
         <v>41976</v>
       </c>
-      <c r="F25" s="9"/>
+      <c r="F25" s="11">
+        <v>41981</v>
+      </c>
       <c r="G25" s="9"/>
     </row>
-    <row r="26" spans="1:7" ht="49.5">
+    <row r="26" spans="1:7" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A26" s="13">
         <v>25</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D26" s="17" t="s">
         <v>39</v>
@@ -1786,64 +1815,70 @@
       <c r="F26" s="9"/>
       <c r="G26" s="9"/>
     </row>
-    <row r="27" spans="1:7" ht="190.5" customHeight="1">
+    <row r="27" spans="1:7" ht="190.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="13">
         <v>26</v>
       </c>
       <c r="B27" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C27" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="C27" s="10" t="s">
-        <v>46</v>
-      </c>
       <c r="D27" s="17" t="s">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="E27" s="11">
         <v>41976</v>
       </c>
-      <c r="F27" s="9"/>
+      <c r="F27" s="11">
+        <v>41981</v>
+      </c>
       <c r="G27" s="9"/>
     </row>
-    <row r="28" spans="1:7" ht="188.25" customHeight="1">
+    <row r="28" spans="1:7" ht="188.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="13">
         <v>27</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="E28" s="11">
         <v>41976</v>
       </c>
-      <c r="F28" s="9"/>
+      <c r="F28" s="11">
+        <v>41981</v>
+      </c>
       <c r="G28" s="9"/>
     </row>
-    <row r="29" spans="1:7" ht="33">
+    <row r="29" spans="1:7" ht="33" x14ac:dyDescent="0.15">
       <c r="A29" s="13">
         <v>28</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="E29" s="11">
         <v>41976</v>
       </c>
-      <c r="F29" s="9"/>
+      <c r="F29" s="11">
+        <v>41981</v>
+      </c>
       <c r="G29" s="9"/>
     </row>
-    <row r="30" spans="1:7" ht="16.5">
+    <row r="30" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A30" s="13">
         <v>29</v>
       </c>
@@ -1851,7 +1886,7 @@
         <v>31</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D30" s="17" t="s">
         <v>39</v>
@@ -1862,7 +1897,7 @@
       <c r="F30" s="9"/>
       <c r="G30" s="9"/>
     </row>
-    <row r="31" spans="1:7" ht="33">
+    <row r="31" spans="1:7" ht="33" x14ac:dyDescent="0.15">
       <c r="A31" s="13">
         <v>30</v>
       </c>
@@ -1870,7 +1905,7 @@
         <v>31</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D31" s="17" t="s">
         <v>39</v>
@@ -1881,15 +1916,15 @@
       <c r="F31" s="9"/>
       <c r="G31" s="9"/>
     </row>
-    <row r="32" spans="1:7" ht="121.5" customHeight="1">
+    <row r="32" spans="1:7" ht="121.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="13">
         <v>31</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D32" s="17" t="s">
         <v>39</v>
@@ -1900,15 +1935,15 @@
       <c r="F32" s="9"/>
       <c r="G32" s="9"/>
     </row>
-    <row r="33" spans="1:7" ht="99">
+    <row r="33" spans="1:7" ht="99" x14ac:dyDescent="0.15">
       <c r="A33" s="13">
         <v>32</v>
       </c>
       <c r="B33" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C33" s="10" t="s">
         <v>51</v>
-      </c>
-      <c r="C33" s="10" t="s">
-        <v>53</v>
       </c>
       <c r="D33" s="17" t="s">
         <v>39</v>
@@ -1919,15 +1954,15 @@
       <c r="F33" s="9"/>
       <c r="G33" s="9"/>
     </row>
-    <row r="34" spans="1:7" ht="49.5">
+    <row r="34" spans="1:7" ht="33" x14ac:dyDescent="0.15">
       <c r="A34" s="13">
         <v>33</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D34" s="17" t="s">
         <v>39</v>
@@ -1938,15 +1973,15 @@
       <c r="F34" s="9"/>
       <c r="G34" s="9"/>
     </row>
-    <row r="35" spans="1:7" ht="16.5">
+    <row r="35" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A35" s="13">
         <v>34</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D35" s="17" t="s">
         <v>39</v>
@@ -1957,15 +1992,15 @@
       <c r="F35" s="3"/>
       <c r="G35" s="3"/>
     </row>
-    <row r="36" spans="1:7" ht="82.5">
+    <row r="36" spans="1:7" ht="66" x14ac:dyDescent="0.35">
       <c r="A36" s="13">
         <v>35</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D36" s="17" t="s">
         <v>39</v>
@@ -1976,7 +2011,7 @@
       <c r="F36" s="3"/>
       <c r="G36" s="3"/>
     </row>
-    <row r="37" spans="1:7" ht="16.5">
+    <row r="37" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A37" s="13"/>
       <c r="B37" s="3"/>
       <c r="C37" s="6"/>
@@ -1985,7 +2020,7 @@
       <c r="F37" s="3"/>
       <c r="G37" s="3"/>
     </row>
-    <row r="38" spans="1:7" ht="16.5">
+    <row r="38" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A38" s="13"/>
       <c r="B38" s="3"/>
       <c r="C38" s="6"/>
@@ -1994,7 +2029,7 @@
       <c r="F38" s="3"/>
       <c r="G38" s="3"/>
     </row>
-    <row r="39" spans="1:7" ht="16.5">
+    <row r="39" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A39" s="13"/>
       <c r="B39" s="3"/>
       <c r="C39" s="6"/>
@@ -2003,7 +2038,7 @@
       <c r="F39" s="3"/>
       <c r="G39" s="3"/>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A40" s="14"/>
       <c r="B40" s="4"/>
       <c r="C40" s="7"/>
@@ -2012,7 +2047,7 @@
       <c r="F40" s="4"/>
       <c r="G40" s="4"/>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A41" s="12"/>
       <c r="B41" s="2"/>
       <c r="C41" s="5"/>
@@ -2036,7 +2071,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2049,7 +2084,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Docs/Testing Issue List.xlsx
+++ b/Docs/Testing Issue List.xlsx
@@ -196,48 +196,51 @@
     <t>医院名称的textbox 太短了。</t>
   </si>
   <si>
+    <t>部门维护</t>
+  </si>
+  <si>
+    <t>员工管理</t>
+  </si>
+  <si>
+    <t>加上按部门筛选员工的功能</t>
+  </si>
+  <si>
+    <t>已解决</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>已解决</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>供应商合同的删除按钮没有作用</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>供应商的textbox 稍微放长些；
+货品管理中的供应商没有按照帐套筛选，显示了别的帐套的供应商数据。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>已解决</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>已解决</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>医院设置要放在任务设置上方。
 大包协议判断重复是根据：客户+货品+规格+医院
 所以在维护医院名称的时候，不能判断医院的名字已经重复。</t>
-  </si>
-  <si>
-    <t>部门维护</t>
-  </si>
-  <si>
-    <t>员工管理</t>
-  </si>
-  <si>
-    <t>加上按部门筛选员工的功能</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>部门经理dropdown 不能清空选项； 新增部门时，部门经理dropdown应该为空。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>所属部门 dropdown 一旦选了选项不能清空，检查系统中所有dropdown，需要增加一个空选项，允许用户清空dropdown。另外，允许用户新增员工，不属于任何一个部门。</t>
-  </si>
-  <si>
-    <t>已解决</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>已解决</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>供应商合同的删除按钮没有作用</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>供应商的textbox 稍微放长些；
-货品管理中的供应商没有按照帐套筛选，显示了别的帐套的供应商数据。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>已解决</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>已解决</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -980,8 +983,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7877175" y="43233975"/>
-          <a:ext cx="4789901" cy="1475309"/>
+          <a:off x="9001125" y="43024425"/>
+          <a:ext cx="5456651" cy="1475309"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1283,8 +1286,8 @@
   <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F28" sqref="F28:F29"/>
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1744,7 +1747,7 @@
         <v>38</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E23" s="11">
         <v>41976</v>
@@ -1762,10 +1765,10 @@
         <v>18</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E24" s="11">
         <v>41976</v>
@@ -1783,10 +1786,10 @@
         <v>40</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E25" s="11">
         <v>41976</v>
@@ -1826,7 +1829,7 @@
         <v>44</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E27" s="11">
         <v>41976</v>
@@ -1868,7 +1871,7 @@
         <v>46</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E29" s="11">
         <v>41976</v>
@@ -1889,12 +1892,14 @@
         <v>47</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="E30" s="11">
         <v>41976</v>
       </c>
-      <c r="F30" s="9"/>
+      <c r="F30" s="11">
+        <v>41983</v>
+      </c>
       <c r="G30" s="9"/>
     </row>
     <row r="31" spans="1:7" ht="33" x14ac:dyDescent="0.15">
@@ -1908,12 +1913,14 @@
         <v>48</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="E31" s="11">
         <v>41976</v>
       </c>
-      <c r="F31" s="9"/>
+      <c r="F31" s="11">
+        <v>41983</v>
+      </c>
       <c r="G31" s="9"/>
     </row>
     <row r="32" spans="1:7" ht="121.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -1927,12 +1934,14 @@
         <v>50</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="E32" s="11">
         <v>41976</v>
       </c>
-      <c r="F32" s="9"/>
+      <c r="F32" s="11">
+        <v>41983</v>
+      </c>
       <c r="G32" s="9"/>
     </row>
     <row r="33" spans="1:7" ht="99" x14ac:dyDescent="0.15">
@@ -1943,15 +1952,17 @@
         <v>49</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="E33" s="11">
         <v>41976</v>
       </c>
-      <c r="F33" s="9"/>
+      <c r="F33" s="11">
+        <v>41983</v>
+      </c>
       <c r="G33" s="9"/>
     </row>
     <row r="34" spans="1:7" ht="33" x14ac:dyDescent="0.15">
@@ -1959,10 +1970,10 @@
         <v>33</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="D34" s="17" t="s">
         <v>39</v>
@@ -1978,10 +1989,10 @@
         <v>34</v>
       </c>
       <c r="B35" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C35" s="6" t="s">
         <v>53</v>
-      </c>
-      <c r="C35" s="6" t="s">
-        <v>54</v>
       </c>
       <c r="D35" s="17" t="s">
         <v>39</v>
@@ -1997,10 +2008,10 @@
         <v>35</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="D36" s="17" t="s">
         <v>39</v>

--- a/Docs/Testing Issue List.xlsx
+++ b/Docs/Testing Issue List.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="65">
   <si>
     <t>#</t>
   </si>
@@ -159,9 +159,6 @@
     <t>帐号维护，如右图，为何帐号无效？</t>
   </si>
   <si>
-    <t>待解决</t>
-  </si>
-  <si>
     <t>货品维护</t>
   </si>
   <si>
@@ -169,9 +166,6 @@
   </si>
   <si>
     <t>货品定价管理</t>
-  </si>
-  <si>
-    <t>用户填写了价格以后，没有点击保存，离开页面前，需要提示用户，没有保存价格信息，确定是否要离开页面。</t>
   </si>
   <si>
     <t>货品编号列的宽度变窄一点，把备注调宽一些
@@ -240,7 +234,23 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
+    <t>已解决</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>已解决</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>所属部门 dropdown 一旦选了选项不能清空，检查系统中所有dropdown，需要增加一个空选项，允许用户清空dropdown。另外，允许用户新增员工，不属于任何一个部门。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户填写了价格以后，没有点击保存，离开页面前，需要提示用户，没有保存价格信息，确定是否要离开页面。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>已解决</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1286,8 +1296,8 @@
   <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D33" sqref="D33"/>
+      <pane ySplit="1" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1747,7 +1757,7 @@
         <v>38</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E23" s="11">
         <v>41976</v>
@@ -1765,10 +1775,10 @@
         <v>18</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E24" s="11">
         <v>41976</v>
@@ -1783,13 +1793,13 @@
         <v>24</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E25" s="11">
         <v>41976</v>
@@ -1804,18 +1814,20 @@
         <v>25</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="E26" s="11">
         <v>41976</v>
       </c>
-      <c r="F26" s="9"/>
+      <c r="F26" s="11">
+        <v>41984</v>
+      </c>
       <c r="G26" s="9"/>
     </row>
     <row r="27" spans="1:7" ht="190.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -1823,13 +1835,13 @@
         <v>26</v>
       </c>
       <c r="B27" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C27" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="C27" s="10" t="s">
-        <v>44</v>
-      </c>
       <c r="D27" s="17" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E27" s="11">
         <v>41976</v>
@@ -1844,10 +1856,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D28" s="17" t="s">
         <v>13</v>
@@ -1865,13 +1877,13 @@
         <v>28</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E29" s="11">
         <v>41976</v>
@@ -1889,7 +1901,7 @@
         <v>31</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D30" s="17" t="s">
         <v>13</v>
@@ -1910,7 +1922,7 @@
         <v>31</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D31" s="17" t="s">
         <v>13</v>
@@ -1928,10 +1940,10 @@
         <v>31</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D32" s="17" t="s">
         <v>13</v>
@@ -1949,10 +1961,10 @@
         <v>32</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D33" s="17" t="s">
         <v>34</v>
@@ -1970,18 +1982,20 @@
         <v>33</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="E34" s="11">
         <v>41976</v>
       </c>
-      <c r="F34" s="9"/>
+      <c r="F34" s="11">
+        <v>41984</v>
+      </c>
       <c r="G34" s="9"/>
     </row>
     <row r="35" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
@@ -1989,18 +2003,20 @@
         <v>34</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="E35" s="11">
         <v>41976</v>
       </c>
-      <c r="F35" s="3"/>
+      <c r="F35" s="11">
+        <v>41984</v>
+      </c>
       <c r="G35" s="3"/>
     </row>
     <row r="36" spans="1:7" ht="66" x14ac:dyDescent="0.35">
@@ -2008,18 +2024,20 @@
         <v>35</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C36" s="6" t="s">
         <v>62</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>39</v>
+        <v>64</v>
       </c>
       <c r="E36" s="11">
         <v>41976</v>
       </c>
-      <c r="F36" s="3"/>
+      <c r="F36" s="11">
+        <v>41984</v>
+      </c>
       <c r="G36" s="3"/>
     </row>
     <row r="37" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">

--- a/Docs/Testing Issue List.xlsx
+++ b/Docs/Testing Issue List.xlsx
@@ -1,19 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Zhongding.git\trunk\Docs\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="255" windowWidth="20115" windowHeight="7815"/>
+    <workbookView xWindow="240" yWindow="255" windowWidth="20115" windowHeight="7815" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Issue List" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="01-2015" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="73">
   <si>
     <t>#</t>
   </si>
@@ -252,17 +247,46 @@
   <si>
     <t>已解决</t>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>采购订单</t>
+  </si>
+  <si>
+    <t>采购订单的grid header 不要换行</t>
+  </si>
+  <si>
+    <t>待解决</t>
+  </si>
+  <si>
+    <t>备注框在创建订单第一个步骤时，不要显示。
+因为用户在正式提交或暂存订单之前，备注应该是可以修改的。</t>
+  </si>
+  <si>
+    <t>将采购订单的备注和审核意见分开来显示。</t>
+  </si>
+  <si>
+    <t>采购订单列表，只有暂存和退回状态的订单才可以被删除</t>
+  </si>
+  <si>
+    <t>修改：采购订单列表页面，订单新增和修改权限的用户可以查询到所有状态的订单，包括自己的和别人提交的。
+但用户只能修改和删除自己暂存的或退回的订单，其他状态的订单或其他人的订单，用户只能查看，不能修改和删除。
+拥有审核权限或支付权限的用户，只能看到待审核或待支付的订单
+拥有修改权限的用户，可以看到所有状态的订单，并可以修改。</t>
+  </si>
+  <si>
+    <t>出纳用户点了确认支付以后，在订单列表页面仍然可以看到已经支付完成的订单，这个不正确。
+出纳只能看到待支付的订单。</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -289,7 +313,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -330,7 +354,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -376,9 +400,22 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1006,8 +1043,89 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>28576</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>503540</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>2652570</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9001125" y="219076"/>
+          <a:ext cx="8828390" cy="2623994"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>36823</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>1628586</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8972550" y="13687425"/>
+          <a:ext cx="10219048" cy="1514286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1049,7 +1167,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1084,7 +1202,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1295,24 +1413,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F36" sqref="F36"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G1" sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="11.125" style="15" customWidth="1"/>
-    <col min="2" max="2" width="22.875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="34.625" style="8" customWidth="1"/>
-    <col min="4" max="4" width="18.75" style="20" customWidth="1"/>
-    <col min="5" max="5" width="15.625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14.375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="51.875" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.125" style="1"/>
+    <col min="1" max="1" width="11.140625" style="15" customWidth="1"/>
+    <col min="2" max="2" width="22.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="34.5703125" style="8" customWidth="1"/>
+    <col min="4" max="4" width="18.7109375" style="20" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="51.85546875" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -1333,7 +1451,7 @@
       </c>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:7" ht="133.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" ht="133.5" customHeight="1">
       <c r="A2" s="13">
         <v>1</v>
       </c>
@@ -1352,7 +1470,7 @@
       <c r="F2" s="9"/>
       <c r="G2" s="9"/>
     </row>
-    <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" ht="16.5">
       <c r="A3" s="13">
         <v>2</v>
       </c>
@@ -1371,7 +1489,7 @@
       <c r="F3" s="9"/>
       <c r="G3" s="9"/>
     </row>
-    <row r="4" spans="1:7" ht="191.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" ht="191.25" customHeight="1">
       <c r="A4" s="13">
         <v>3</v>
       </c>
@@ -1390,7 +1508,7 @@
       <c r="F4" s="9"/>
       <c r="G4" s="9"/>
     </row>
-    <row r="5" spans="1:7" ht="74.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" ht="74.25" customHeight="1">
       <c r="A5" s="13">
         <v>4</v>
       </c>
@@ -1409,7 +1527,7 @@
       <c r="F5" s="9"/>
       <c r="G5" s="9"/>
     </row>
-    <row r="6" spans="1:7" ht="217.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" ht="217.5" customHeight="1">
       <c r="A6" s="13">
         <v>5</v>
       </c>
@@ -1428,7 +1546,7 @@
       <c r="F6" s="9"/>
       <c r="G6" s="9"/>
     </row>
-    <row r="7" spans="1:7" ht="172.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" ht="172.5" customHeight="1">
       <c r="A7" s="13">
         <v>6</v>
       </c>
@@ -1447,7 +1565,7 @@
       <c r="F7" s="9"/>
       <c r="G7" s="9"/>
     </row>
-    <row r="8" spans="1:7" ht="243.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" ht="243.75" customHeight="1">
       <c r="A8" s="13">
         <v>7</v>
       </c>
@@ -1464,7 +1582,7 @@
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
     </row>
-    <row r="9" spans="1:7" ht="33" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7" ht="49.5">
       <c r="A9" s="13">
         <v>8</v>
       </c>
@@ -1481,7 +1599,7 @@
       <c r="F9" s="9"/>
       <c r="G9" s="9"/>
     </row>
-    <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7" ht="16.5">
       <c r="A10" s="13">
         <v>9</v>
       </c>
@@ -1502,7 +1620,7 @@
       </c>
       <c r="G10" s="9"/>
     </row>
-    <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7" ht="16.5">
       <c r="A11" s="13">
         <v>10</v>
       </c>
@@ -1523,7 +1641,7 @@
       </c>
       <c r="G11" s="9"/>
     </row>
-    <row r="12" spans="1:7" ht="33" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" ht="33">
       <c r="A12" s="13">
         <v>11</v>
       </c>
@@ -1544,7 +1662,7 @@
       </c>
       <c r="G12" s="9"/>
     </row>
-    <row r="13" spans="1:7" ht="33" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7" ht="33">
       <c r="A13" s="13">
         <v>12</v>
       </c>
@@ -1565,7 +1683,7 @@
       </c>
       <c r="G13" s="9"/>
     </row>
-    <row r="14" spans="1:7" ht="66" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" ht="66">
       <c r="A14" s="13">
         <v>13</v>
       </c>
@@ -1586,7 +1704,7 @@
       </c>
       <c r="G14" s="9"/>
     </row>
-    <row r="15" spans="1:7" ht="33" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7" ht="33">
       <c r="A15" s="13">
         <v>14</v>
       </c>
@@ -1607,7 +1725,7 @@
       </c>
       <c r="G15" s="9"/>
     </row>
-    <row r="16" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7" ht="16.5">
       <c r="A16" s="13">
         <v>15</v>
       </c>
@@ -1628,7 +1746,7 @@
       </c>
       <c r="G16" s="9"/>
     </row>
-    <row r="17" spans="1:7" ht="186.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:7" ht="186.75" customHeight="1">
       <c r="A17" s="13">
         <v>16</v>
       </c>
@@ -1649,7 +1767,7 @@
       </c>
       <c r="G17" s="9"/>
     </row>
-    <row r="18" spans="1:7" ht="216.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:7" ht="216.75" customHeight="1">
       <c r="A18" s="13">
         <v>17</v>
       </c>
@@ -1670,7 +1788,7 @@
       </c>
       <c r="G18" s="9"/>
     </row>
-    <row r="19" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:7" ht="16.5">
       <c r="A19" s="13">
         <v>18</v>
       </c>
@@ -1691,7 +1809,7 @@
       </c>
       <c r="G19" s="9"/>
     </row>
-    <row r="20" spans="1:7" ht="199.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:7" ht="199.5" customHeight="1">
       <c r="A20" s="13">
         <v>19</v>
       </c>
@@ -1710,7 +1828,7 @@
       </c>
       <c r="G20" s="9"/>
     </row>
-    <row r="21" spans="1:7" ht="163.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:7" ht="163.5" customHeight="1">
       <c r="A21" s="13">
         <v>20</v>
       </c>
@@ -1729,7 +1847,7 @@
       </c>
       <c r="G21" s="9"/>
     </row>
-    <row r="22" spans="1:7" ht="162" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:7" ht="162" customHeight="1">
       <c r="A22" s="13">
         <v>21</v>
       </c>
@@ -1746,7 +1864,7 @@
       <c r="F22" s="9"/>
       <c r="G22" s="9"/>
     </row>
-    <row r="23" spans="1:7" ht="178.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:7" ht="178.5" customHeight="1">
       <c r="A23" s="13">
         <v>22</v>
       </c>
@@ -1767,7 +1885,7 @@
       </c>
       <c r="G23" s="9"/>
     </row>
-    <row r="24" spans="1:7" ht="198" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:7" ht="198" customHeight="1">
       <c r="A24" s="13">
         <v>23</v>
       </c>
@@ -1788,7 +1906,7 @@
       </c>
       <c r="G24" s="9"/>
     </row>
-    <row r="25" spans="1:7" ht="240.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:7" ht="240.75" customHeight="1">
       <c r="A25" s="13">
         <v>24</v>
       </c>
@@ -1809,7 +1927,7 @@
       </c>
       <c r="G25" s="9"/>
     </row>
-    <row r="26" spans="1:7" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:7" ht="49.5">
       <c r="A26" s="13">
         <v>25</v>
       </c>
@@ -1830,7 +1948,7 @@
       </c>
       <c r="G26" s="9"/>
     </row>
-    <row r="27" spans="1:7" ht="190.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:7" ht="190.5" customHeight="1">
       <c r="A27" s="13">
         <v>26</v>
       </c>
@@ -1851,7 +1969,7 @@
       </c>
       <c r="G27" s="9"/>
     </row>
-    <row r="28" spans="1:7" ht="188.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:7" ht="188.25" customHeight="1">
       <c r="A28" s="13">
         <v>27</v>
       </c>
@@ -1872,7 +1990,7 @@
       </c>
       <c r="G28" s="9"/>
     </row>
-    <row r="29" spans="1:7" ht="33" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:7" ht="33">
       <c r="A29" s="13">
         <v>28</v>
       </c>
@@ -1893,7 +2011,7 @@
       </c>
       <c r="G29" s="9"/>
     </row>
-    <row r="30" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:7" ht="16.5">
       <c r="A30" s="13">
         <v>29</v>
       </c>
@@ -1914,7 +2032,7 @@
       </c>
       <c r="G30" s="9"/>
     </row>
-    <row r="31" spans="1:7" ht="33" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:7" ht="33">
       <c r="A31" s="13">
         <v>30</v>
       </c>
@@ -1935,7 +2053,7 @@
       </c>
       <c r="G31" s="9"/>
     </row>
-    <row r="32" spans="1:7" ht="121.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:7" ht="121.5" customHeight="1">
       <c r="A32" s="13">
         <v>31</v>
       </c>
@@ -1956,7 +2074,7 @@
       </c>
       <c r="G32" s="9"/>
     </row>
-    <row r="33" spans="1:7" ht="99" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:7" ht="99">
       <c r="A33" s="13">
         <v>32</v>
       </c>
@@ -1977,7 +2095,7 @@
       </c>
       <c r="G33" s="9"/>
     </row>
-    <row r="34" spans="1:7" ht="33" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:7" ht="49.5">
       <c r="A34" s="13">
         <v>33</v>
       </c>
@@ -1998,7 +2116,7 @@
       </c>
       <c r="G34" s="9"/>
     </row>
-    <row r="35" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:7" ht="16.5">
       <c r="A35" s="13">
         <v>34</v>
       </c>
@@ -2019,7 +2137,7 @@
       </c>
       <c r="G35" s="3"/>
     </row>
-    <row r="36" spans="1:7" ht="66" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:7" ht="82.5">
       <c r="A36" s="13">
         <v>35</v>
       </c>
@@ -2040,7 +2158,7 @@
       </c>
       <c r="G36" s="3"/>
     </row>
-    <row r="37" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:7" ht="16.5">
       <c r="A37" s="13"/>
       <c r="B37" s="3"/>
       <c r="C37" s="6"/>
@@ -2049,7 +2167,7 @@
       <c r="F37" s="3"/>
       <c r="G37" s="3"/>
     </row>
-    <row r="38" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:7" ht="16.5">
       <c r="A38" s="13"/>
       <c r="B38" s="3"/>
       <c r="C38" s="6"/>
@@ -2058,7 +2176,7 @@
       <c r="F38" s="3"/>
       <c r="G38" s="3"/>
     </row>
-    <row r="39" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:7" ht="16.5">
       <c r="A39" s="13"/>
       <c r="B39" s="3"/>
       <c r="C39" s="6"/>
@@ -2067,7 +2185,7 @@
       <c r="F39" s="3"/>
       <c r="G39" s="3"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:7">
       <c r="A40" s="14"/>
       <c r="B40" s="4"/>
       <c r="C40" s="7"/>
@@ -2076,7 +2194,7 @@
       <c r="F40" s="4"/>
       <c r="G40" s="4"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:7">
       <c r="A41" s="12"/>
       <c r="B41" s="2"/>
       <c r="C41" s="5"/>
@@ -2096,14 +2214,776 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G77"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="11.85546875" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" customWidth="1"/>
+    <col min="3" max="3" width="56" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" customWidth="1"/>
+    <col min="6" max="6" width="19" customWidth="1"/>
+    <col min="7" max="7" width="61.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2"/>
+    </row>
+    <row r="2" spans="1:7" ht="210.75" customHeight="1">
+      <c r="A2" s="22">
+        <v>1</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="D2" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="E2" s="24">
+        <v>42008</v>
+      </c>
+      <c r="F2" s="22"/>
+      <c r="G2" s="21"/>
+    </row>
+    <row r="3" spans="1:7" ht="210.75" customHeight="1">
+      <c r="A3" s="22">
+        <v>2</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="E3" s="24">
+        <v>42008</v>
+      </c>
+      <c r="F3" s="22"/>
+      <c r="G3" s="21"/>
+    </row>
+    <row r="4" spans="1:7" ht="210.75" customHeight="1">
+      <c r="A4" s="22">
+        <v>3</v>
+      </c>
+      <c r="B4" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="C4" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="D4" s="22"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="21"/>
+    </row>
+    <row r="5" spans="1:7" ht="210.75" customHeight="1">
+      <c r="A5" s="22">
+        <v>4</v>
+      </c>
+      <c r="B5" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="C5" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="D5" s="22"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="21"/>
+    </row>
+    <row r="6" spans="1:7" ht="210.75" customHeight="1">
+      <c r="A6" s="22">
+        <v>5</v>
+      </c>
+      <c r="B6" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="D6" s="22"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="21"/>
+    </row>
+    <row r="7" spans="1:7" ht="130.5" customHeight="1">
+      <c r="A7" s="22">
+        <v>6</v>
+      </c>
+      <c r="B7" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="C7" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="D7" s="22"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="21"/>
+    </row>
+    <row r="8" spans="1:7" ht="210.75" customHeight="1">
+      <c r="A8" s="22"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="21"/>
+    </row>
+    <row r="9" spans="1:7" ht="210.75" customHeight="1">
+      <c r="A9" s="22"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="21"/>
+    </row>
+    <row r="10" spans="1:7" ht="210.75" customHeight="1">
+      <c r="A10" s="22"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="21"/>
+    </row>
+    <row r="11" spans="1:7" ht="210.75" customHeight="1">
+      <c r="A11" s="22"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="21"/>
+    </row>
+    <row r="12" spans="1:7" ht="210.75" customHeight="1">
+      <c r="A12" s="22"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="21"/>
+    </row>
+    <row r="13" spans="1:7" ht="210.75" customHeight="1">
+      <c r="A13" s="22"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="21"/>
+    </row>
+    <row r="14" spans="1:7" ht="210.75" customHeight="1">
+      <c r="A14" s="22"/>
+      <c r="B14" s="22"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="21"/>
+    </row>
+    <row r="15" spans="1:7" ht="210.75" customHeight="1">
+      <c r="A15" s="22"/>
+      <c r="B15" s="22"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="21"/>
+    </row>
+    <row r="16" spans="1:7" ht="210.75" customHeight="1">
+      <c r="A16" s="22"/>
+      <c r="B16" s="22"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="21"/>
+    </row>
+    <row r="17" spans="1:7" ht="210.75" customHeight="1">
+      <c r="A17" s="22"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="21"/>
+    </row>
+    <row r="18" spans="1:7" ht="210.75" customHeight="1">
+      <c r="A18" s="22"/>
+      <c r="B18" s="22"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="21"/>
+    </row>
+    <row r="19" spans="1:7" ht="210.75" customHeight="1">
+      <c r="A19" s="22"/>
+      <c r="B19" s="22"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="21"/>
+    </row>
+    <row r="20" spans="1:7" ht="210.75" customHeight="1">
+      <c r="A20" s="22"/>
+      <c r="B20" s="22"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="21"/>
+    </row>
+    <row r="21" spans="1:7" ht="210.75" customHeight="1">
+      <c r="A21" s="22"/>
+      <c r="B21" s="22"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="21"/>
+    </row>
+    <row r="22" spans="1:7" ht="210.75" customHeight="1">
+      <c r="A22" s="22"/>
+      <c r="B22" s="22"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="24"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="21"/>
+    </row>
+    <row r="23" spans="1:7" ht="210.75" customHeight="1">
+      <c r="A23" s="22"/>
+      <c r="B23" s="22"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="24"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="21"/>
+    </row>
+    <row r="24" spans="1:7" ht="210.75" customHeight="1">
+      <c r="A24" s="22"/>
+      <c r="B24" s="22"/>
+      <c r="C24" s="23"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="24"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="21"/>
+    </row>
+    <row r="25" spans="1:7" ht="210.75" customHeight="1">
+      <c r="A25" s="22"/>
+      <c r="B25" s="22"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="24"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="21"/>
+    </row>
+    <row r="26" spans="1:7" ht="210.75" customHeight="1">
+      <c r="A26" s="22"/>
+      <c r="B26" s="22"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="24"/>
+      <c r="F26" s="22"/>
+      <c r="G26" s="21"/>
+    </row>
+    <row r="27" spans="1:7" ht="210.75" customHeight="1">
+      <c r="A27" s="22"/>
+      <c r="B27" s="22"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="22"/>
+      <c r="G27" s="21"/>
+    </row>
+    <row r="28" spans="1:7" ht="210.75" customHeight="1">
+      <c r="A28" s="22"/>
+      <c r="B28" s="22"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="22"/>
+      <c r="E28" s="24"/>
+      <c r="F28" s="22"/>
+      <c r="G28" s="21"/>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="21"/>
+      <c r="B29" s="21"/>
+      <c r="C29" s="21"/>
+      <c r="D29" s="21"/>
+      <c r="E29" s="21"/>
+      <c r="F29" s="21"/>
+      <c r="G29" s="21"/>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="21"/>
+      <c r="B30" s="21"/>
+      <c r="C30" s="21"/>
+      <c r="D30" s="21"/>
+      <c r="E30" s="21"/>
+      <c r="F30" s="21"/>
+      <c r="G30" s="21"/>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="21"/>
+      <c r="B31" s="21"/>
+      <c r="C31" s="21"/>
+      <c r="D31" s="21"/>
+      <c r="E31" s="21"/>
+      <c r="F31" s="21"/>
+      <c r="G31" s="21"/>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="21"/>
+      <c r="B32" s="21"/>
+      <c r="C32" s="21"/>
+      <c r="D32" s="21"/>
+      <c r="E32" s="21"/>
+      <c r="F32" s="21"/>
+      <c r="G32" s="21"/>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="21"/>
+      <c r="B33" s="21"/>
+      <c r="C33" s="21"/>
+      <c r="D33" s="21"/>
+      <c r="E33" s="21"/>
+      <c r="F33" s="21"/>
+      <c r="G33" s="21"/>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="21"/>
+      <c r="B34" s="21"/>
+      <c r="C34" s="21"/>
+      <c r="D34" s="21"/>
+      <c r="E34" s="21"/>
+      <c r="F34" s="21"/>
+      <c r="G34" s="21"/>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="21"/>
+      <c r="B35" s="21"/>
+      <c r="C35" s="21"/>
+      <c r="D35" s="21"/>
+      <c r="E35" s="21"/>
+      <c r="F35" s="21"/>
+      <c r="G35" s="21"/>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="21"/>
+      <c r="B36" s="21"/>
+      <c r="C36" s="21"/>
+      <c r="D36" s="21"/>
+      <c r="E36" s="21"/>
+      <c r="F36" s="21"/>
+      <c r="G36" s="21"/>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="21"/>
+      <c r="B37" s="21"/>
+      <c r="C37" s="21"/>
+      <c r="D37" s="21"/>
+      <c r="E37" s="21"/>
+      <c r="F37" s="21"/>
+      <c r="G37" s="21"/>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="21"/>
+      <c r="B38" s="21"/>
+      <c r="C38" s="21"/>
+      <c r="D38" s="21"/>
+      <c r="E38" s="21"/>
+      <c r="F38" s="21"/>
+      <c r="G38" s="21"/>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="21"/>
+      <c r="B39" s="21"/>
+      <c r="C39" s="21"/>
+      <c r="D39" s="21"/>
+      <c r="E39" s="21"/>
+      <c r="F39" s="21"/>
+      <c r="G39" s="21"/>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="21"/>
+      <c r="B40" s="21"/>
+      <c r="C40" s="21"/>
+      <c r="D40" s="21"/>
+      <c r="E40" s="21"/>
+      <c r="F40" s="21"/>
+      <c r="G40" s="21"/>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="21"/>
+      <c r="B41" s="21"/>
+      <c r="C41" s="21"/>
+      <c r="D41" s="21"/>
+      <c r="E41" s="21"/>
+      <c r="F41" s="21"/>
+      <c r="G41" s="21"/>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="21"/>
+      <c r="B42" s="21"/>
+      <c r="C42" s="21"/>
+      <c r="D42" s="21"/>
+      <c r="E42" s="21"/>
+      <c r="F42" s="21"/>
+      <c r="G42" s="21"/>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="21"/>
+      <c r="B43" s="21"/>
+      <c r="C43" s="21"/>
+      <c r="D43" s="21"/>
+      <c r="E43" s="21"/>
+      <c r="F43" s="21"/>
+      <c r="G43" s="21"/>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="21"/>
+      <c r="B44" s="21"/>
+      <c r="C44" s="21"/>
+      <c r="D44" s="21"/>
+      <c r="E44" s="21"/>
+      <c r="F44" s="21"/>
+      <c r="G44" s="21"/>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" s="21"/>
+      <c r="B45" s="21"/>
+      <c r="C45" s="21"/>
+      <c r="D45" s="21"/>
+      <c r="E45" s="21"/>
+      <c r="F45" s="21"/>
+      <c r="G45" s="21"/>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" s="21"/>
+      <c r="B46" s="21"/>
+      <c r="C46" s="21"/>
+      <c r="D46" s="21"/>
+      <c r="E46" s="21"/>
+      <c r="F46" s="21"/>
+      <c r="G46" s="21"/>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" s="21"/>
+      <c r="B47" s="21"/>
+      <c r="C47" s="21"/>
+      <c r="D47" s="21"/>
+      <c r="E47" s="21"/>
+      <c r="F47" s="21"/>
+      <c r="G47" s="21"/>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" s="21"/>
+      <c r="B48" s="21"/>
+      <c r="C48" s="21"/>
+      <c r="D48" s="21"/>
+      <c r="E48" s="21"/>
+      <c r="F48" s="21"/>
+      <c r="G48" s="21"/>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" s="21"/>
+      <c r="B49" s="21"/>
+      <c r="C49" s="21"/>
+      <c r="D49" s="21"/>
+      <c r="E49" s="21"/>
+      <c r="F49" s="21"/>
+      <c r="G49" s="21"/>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" s="21"/>
+      <c r="B50" s="21"/>
+      <c r="C50" s="21"/>
+      <c r="D50" s="21"/>
+      <c r="E50" s="21"/>
+      <c r="F50" s="21"/>
+      <c r="G50" s="21"/>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" s="21"/>
+      <c r="B51" s="21"/>
+      <c r="C51" s="21"/>
+      <c r="D51" s="21"/>
+      <c r="E51" s="21"/>
+      <c r="F51" s="21"/>
+      <c r="G51" s="21"/>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" s="21"/>
+      <c r="B52" s="21"/>
+      <c r="C52" s="21"/>
+      <c r="D52" s="21"/>
+      <c r="E52" s="21"/>
+      <c r="F52" s="21"/>
+      <c r="G52" s="21"/>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" s="21"/>
+      <c r="B53" s="21"/>
+      <c r="C53" s="21"/>
+      <c r="D53" s="21"/>
+      <c r="E53" s="21"/>
+      <c r="F53" s="21"/>
+      <c r="G53" s="21"/>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54" s="21"/>
+      <c r="B54" s="21"/>
+      <c r="C54" s="21"/>
+      <c r="D54" s="21"/>
+      <c r="E54" s="21"/>
+      <c r="F54" s="21"/>
+      <c r="G54" s="21"/>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55" s="21"/>
+      <c r="B55" s="21"/>
+      <c r="C55" s="21"/>
+      <c r="D55" s="21"/>
+      <c r="E55" s="21"/>
+      <c r="F55" s="21"/>
+      <c r="G55" s="21"/>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56" s="21"/>
+      <c r="B56" s="21"/>
+      <c r="C56" s="21"/>
+      <c r="D56" s="21"/>
+      <c r="E56" s="21"/>
+      <c r="F56" s="21"/>
+      <c r="G56" s="21"/>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57" s="21"/>
+      <c r="B57" s="21"/>
+      <c r="C57" s="21"/>
+      <c r="D57" s="21"/>
+      <c r="E57" s="21"/>
+      <c r="F57" s="21"/>
+      <c r="G57" s="21"/>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58" s="21"/>
+      <c r="B58" s="21"/>
+      <c r="C58" s="21"/>
+      <c r="D58" s="21"/>
+      <c r="E58" s="21"/>
+      <c r="F58" s="21"/>
+      <c r="G58" s="21"/>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59" s="21"/>
+      <c r="B59" s="21"/>
+      <c r="C59" s="21"/>
+      <c r="D59" s="21"/>
+      <c r="E59" s="21"/>
+      <c r="F59" s="21"/>
+      <c r="G59" s="21"/>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60" s="21"/>
+      <c r="B60" s="21"/>
+      <c r="C60" s="21"/>
+      <c r="D60" s="21"/>
+      <c r="E60" s="21"/>
+      <c r="F60" s="21"/>
+      <c r="G60" s="21"/>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61" s="21"/>
+      <c r="B61" s="21"/>
+      <c r="C61" s="21"/>
+      <c r="D61" s="21"/>
+      <c r="E61" s="21"/>
+      <c r="F61" s="21"/>
+      <c r="G61" s="21"/>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62" s="21"/>
+      <c r="B62" s="21"/>
+      <c r="C62" s="21"/>
+      <c r="D62" s="21"/>
+      <c r="E62" s="21"/>
+      <c r="F62" s="21"/>
+      <c r="G62" s="21"/>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="A63" s="21"/>
+      <c r="B63" s="21"/>
+      <c r="C63" s="21"/>
+      <c r="D63" s="21"/>
+      <c r="E63" s="21"/>
+      <c r="F63" s="21"/>
+      <c r="G63" s="21"/>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64" s="21"/>
+      <c r="B64" s="21"/>
+      <c r="C64" s="21"/>
+      <c r="D64" s="21"/>
+      <c r="E64" s="21"/>
+      <c r="F64" s="21"/>
+      <c r="G64" s="21"/>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="A65" s="21"/>
+      <c r="B65" s="21"/>
+      <c r="C65" s="21"/>
+      <c r="D65" s="21"/>
+      <c r="E65" s="21"/>
+      <c r="F65" s="21"/>
+      <c r="G65" s="21"/>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="A66" s="21"/>
+      <c r="B66" s="21"/>
+      <c r="C66" s="21"/>
+      <c r="D66" s="21"/>
+      <c r="E66" s="21"/>
+      <c r="F66" s="21"/>
+      <c r="G66" s="21"/>
+    </row>
+    <row r="67" spans="1:7">
+      <c r="A67" s="21"/>
+      <c r="B67" s="21"/>
+      <c r="C67" s="21"/>
+      <c r="D67" s="21"/>
+      <c r="E67" s="21"/>
+      <c r="F67" s="21"/>
+      <c r="G67" s="21"/>
+    </row>
+    <row r="68" spans="1:7">
+      <c r="A68" s="21"/>
+      <c r="B68" s="21"/>
+      <c r="C68" s="21"/>
+      <c r="D68" s="21"/>
+      <c r="E68" s="21"/>
+      <c r="F68" s="21"/>
+      <c r="G68" s="21"/>
+    </row>
+    <row r="69" spans="1:7">
+      <c r="A69" s="21"/>
+      <c r="B69" s="21"/>
+      <c r="C69" s="21"/>
+      <c r="D69" s="21"/>
+      <c r="E69" s="21"/>
+      <c r="F69" s="21"/>
+      <c r="G69" s="21"/>
+    </row>
+    <row r="70" spans="1:7">
+      <c r="A70" s="21"/>
+      <c r="B70" s="21"/>
+      <c r="C70" s="21"/>
+      <c r="D70" s="21"/>
+      <c r="E70" s="21"/>
+      <c r="F70" s="21"/>
+      <c r="G70" s="21"/>
+    </row>
+    <row r="71" spans="1:7">
+      <c r="A71" s="21"/>
+      <c r="B71" s="21"/>
+      <c r="C71" s="21"/>
+      <c r="D71" s="21"/>
+      <c r="E71" s="21"/>
+      <c r="F71" s="21"/>
+      <c r="G71" s="21"/>
+    </row>
+    <row r="72" spans="1:7">
+      <c r="A72" s="21"/>
+      <c r="B72" s="21"/>
+      <c r="C72" s="21"/>
+      <c r="D72" s="21"/>
+      <c r="E72" s="21"/>
+      <c r="F72" s="21"/>
+      <c r="G72" s="21"/>
+    </row>
+    <row r="73" spans="1:7">
+      <c r="A73" s="21"/>
+      <c r="B73" s="21"/>
+      <c r="C73" s="21"/>
+      <c r="D73" s="21"/>
+      <c r="E73" s="21"/>
+      <c r="F73" s="21"/>
+      <c r="G73" s="21"/>
+    </row>
+    <row r="74" spans="1:7">
+      <c r="A74" s="21"/>
+      <c r="B74" s="21"/>
+      <c r="C74" s="21"/>
+      <c r="D74" s="21"/>
+      <c r="E74" s="21"/>
+      <c r="F74" s="21"/>
+      <c r="G74" s="21"/>
+    </row>
+    <row r="75" spans="1:7">
+      <c r="A75" s="21"/>
+      <c r="B75" s="21"/>
+      <c r="C75" s="21"/>
+      <c r="D75" s="21"/>
+      <c r="E75" s="21"/>
+      <c r="F75" s="21"/>
+      <c r="G75" s="21"/>
+    </row>
+    <row r="76" spans="1:7">
+      <c r="A76" s="21"/>
+      <c r="B76" s="21"/>
+      <c r="C76" s="21"/>
+      <c r="D76" s="21"/>
+      <c r="E76" s="21"/>
+      <c r="F76" s="21"/>
+      <c r="G76" s="21"/>
+    </row>
+    <row r="77" spans="1:7">
+      <c r="A77" s="21"/>
+      <c r="B77" s="21"/>
+      <c r="C77" s="21"/>
+      <c r="D77" s="21"/>
+      <c r="E77" s="21"/>
+      <c r="F77" s="21"/>
+      <c r="G77" s="21"/>
+    </row>
+  </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2113,7 +2993,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Docs/Testing Issue List.xlsx
+++ b/Docs/Testing Issue List.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Zhongding.git\trunk\Docs\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="255" windowWidth="20115" windowHeight="7815" activeTab="1"/>
   </bookViews>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="75">
   <si>
     <t>#</t>
   </si>
@@ -255,38 +260,50 @@
     <t>采购订单的grid header 不要换行</t>
   </si>
   <si>
-    <t>待解决</t>
-  </si>
-  <si>
     <t>备注框在创建订单第一个步骤时，不要显示。
 因为用户在正式提交或暂存订单之前，备注应该是可以修改的。</t>
   </si>
   <si>
-    <t>将采购订单的备注和审核意见分开来显示。</t>
-  </si>
-  <si>
-    <t>采购订单列表，只有暂存和退回状态的订单才可以被删除</t>
+    <t>出纳用户点了确认支付以后，在订单列表页面仍然可以看到已经支付完成的订单，这个不正确。
+出纳只能看到待支付的订单。</t>
+  </si>
+  <si>
+    <t>已解决</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>修改：采购订单列表页面，订单新增和修改权限的用户可以查询到所有状态的订单，包括自己的和别人提交的。
 但用户只能修改和删除自己暂存的或退回的订单，其他状态的订单或其他人的订单，用户只能查看，不能修改和删除。
 拥有审核权限或支付权限的用户，只能看到待审核或待支付的订单
 拥有修改权限的用户，可以看到所有状态的订单，并可以修改。</t>
-  </si>
-  <si>
-    <t>出纳用户点了确认支付以后，在订单列表页面仍然可以看到已经支付完成的订单，这个不正确。
-出纳只能看到待支付的订单。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>将采购订单的备注和审核意见分开来显示。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>采购订单列表，只有暂存和退回状态的订单才可以被删除</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>已解决</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>已解决</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -313,7 +330,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -415,7 +432,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1073,8 +1090,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9001125" y="219076"/>
-          <a:ext cx="8828390" cy="2623994"/>
+          <a:off x="10277475" y="200026"/>
+          <a:ext cx="9952340" cy="2623994"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1125,7 +1142,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1167,7 +1184,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1202,7 +1219,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1418,19 +1435,19 @@
       <selection pane="bottomLeft" activeCell="G1" sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="11.140625" style="15" customWidth="1"/>
-    <col min="2" max="2" width="22.85546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="34.5703125" style="8" customWidth="1"/>
-    <col min="4" max="4" width="18.7109375" style="20" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="51.85546875" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="11.125" style="15" customWidth="1"/>
+    <col min="2" max="2" width="22.875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="34.625" style="8" customWidth="1"/>
+    <col min="4" max="4" width="18.75" style="20" customWidth="1"/>
+    <col min="5" max="5" width="15.625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="51.875" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -1451,7 +1468,7 @@
       </c>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:7" ht="133.5" customHeight="1">
+    <row r="2" spans="1:7" ht="133.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="13">
         <v>1</v>
       </c>
@@ -1470,7 +1487,7 @@
       <c r="F2" s="9"/>
       <c r="G2" s="9"/>
     </row>
-    <row r="3" spans="1:7" ht="16.5">
+    <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="13">
         <v>2</v>
       </c>
@@ -1489,7 +1506,7 @@
       <c r="F3" s="9"/>
       <c r="G3" s="9"/>
     </row>
-    <row r="4" spans="1:7" ht="191.25" customHeight="1">
+    <row r="4" spans="1:7" ht="191.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="13">
         <v>3</v>
       </c>
@@ -1508,7 +1525,7 @@
       <c r="F4" s="9"/>
       <c r="G4" s="9"/>
     </row>
-    <row r="5" spans="1:7" ht="74.25" customHeight="1">
+    <row r="5" spans="1:7" ht="74.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="13">
         <v>4</v>
       </c>
@@ -1527,7 +1544,7 @@
       <c r="F5" s="9"/>
       <c r="G5" s="9"/>
     </row>
-    <row r="6" spans="1:7" ht="217.5" customHeight="1">
+    <row r="6" spans="1:7" ht="217.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="13">
         <v>5</v>
       </c>
@@ -1546,7 +1563,7 @@
       <c r="F6" s="9"/>
       <c r="G6" s="9"/>
     </row>
-    <row r="7" spans="1:7" ht="172.5" customHeight="1">
+    <row r="7" spans="1:7" ht="172.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="13">
         <v>6</v>
       </c>
@@ -1565,7 +1582,7 @@
       <c r="F7" s="9"/>
       <c r="G7" s="9"/>
     </row>
-    <row r="8" spans="1:7" ht="243.75" customHeight="1">
+    <row r="8" spans="1:7" ht="243.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="13">
         <v>7</v>
       </c>
@@ -1582,7 +1599,7 @@
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
     </row>
-    <row r="9" spans="1:7" ht="49.5">
+    <row r="9" spans="1:7" ht="33" x14ac:dyDescent="0.15">
       <c r="A9" s="13">
         <v>8</v>
       </c>
@@ -1599,7 +1616,7 @@
       <c r="F9" s="9"/>
       <c r="G9" s="9"/>
     </row>
-    <row r="10" spans="1:7" ht="16.5">
+    <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A10" s="13">
         <v>9</v>
       </c>
@@ -1620,7 +1637,7 @@
       </c>
       <c r="G10" s="9"/>
     </row>
-    <row r="11" spans="1:7" ht="16.5">
+    <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A11" s="13">
         <v>10</v>
       </c>
@@ -1641,7 +1658,7 @@
       </c>
       <c r="G11" s="9"/>
     </row>
-    <row r="12" spans="1:7" ht="33">
+    <row r="12" spans="1:7" ht="33" x14ac:dyDescent="0.15">
       <c r="A12" s="13">
         <v>11</v>
       </c>
@@ -1662,7 +1679,7 @@
       </c>
       <c r="G12" s="9"/>
     </row>
-    <row r="13" spans="1:7" ht="33">
+    <row r="13" spans="1:7" ht="33" x14ac:dyDescent="0.15">
       <c r="A13" s="13">
         <v>12</v>
       </c>
@@ -1683,7 +1700,7 @@
       </c>
       <c r="G13" s="9"/>
     </row>
-    <row r="14" spans="1:7" ht="66">
+    <row r="14" spans="1:7" ht="66" x14ac:dyDescent="0.15">
       <c r="A14" s="13">
         <v>13</v>
       </c>
@@ -1704,7 +1721,7 @@
       </c>
       <c r="G14" s="9"/>
     </row>
-    <row r="15" spans="1:7" ht="33">
+    <row r="15" spans="1:7" ht="33" x14ac:dyDescent="0.15">
       <c r="A15" s="13">
         <v>14</v>
       </c>
@@ -1725,7 +1742,7 @@
       </c>
       <c r="G15" s="9"/>
     </row>
-    <row r="16" spans="1:7" ht="16.5">
+    <row r="16" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A16" s="13">
         <v>15</v>
       </c>
@@ -1746,7 +1763,7 @@
       </c>
       <c r="G16" s="9"/>
     </row>
-    <row r="17" spans="1:7" ht="186.75" customHeight="1">
+    <row r="17" spans="1:7" ht="186.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="13">
         <v>16</v>
       </c>
@@ -1767,7 +1784,7 @@
       </c>
       <c r="G17" s="9"/>
     </row>
-    <row r="18" spans="1:7" ht="216.75" customHeight="1">
+    <row r="18" spans="1:7" ht="216.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="13">
         <v>17</v>
       </c>
@@ -1788,7 +1805,7 @@
       </c>
       <c r="G18" s="9"/>
     </row>
-    <row r="19" spans="1:7" ht="16.5">
+    <row r="19" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A19" s="13">
         <v>18</v>
       </c>
@@ -1809,7 +1826,7 @@
       </c>
       <c r="G19" s="9"/>
     </row>
-    <row r="20" spans="1:7" ht="199.5" customHeight="1">
+    <row r="20" spans="1:7" ht="199.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="13">
         <v>19</v>
       </c>
@@ -1828,7 +1845,7 @@
       </c>
       <c r="G20" s="9"/>
     </row>
-    <row r="21" spans="1:7" ht="163.5" customHeight="1">
+    <row r="21" spans="1:7" ht="163.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="13">
         <v>20</v>
       </c>
@@ -1847,7 +1864,7 @@
       </c>
       <c r="G21" s="9"/>
     </row>
-    <row r="22" spans="1:7" ht="162" customHeight="1">
+    <row r="22" spans="1:7" ht="162" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="13">
         <v>21</v>
       </c>
@@ -1864,7 +1881,7 @@
       <c r="F22" s="9"/>
       <c r="G22" s="9"/>
     </row>
-    <row r="23" spans="1:7" ht="178.5" customHeight="1">
+    <row r="23" spans="1:7" ht="178.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="13">
         <v>22</v>
       </c>
@@ -1885,7 +1902,7 @@
       </c>
       <c r="G23" s="9"/>
     </row>
-    <row r="24" spans="1:7" ht="198" customHeight="1">
+    <row r="24" spans="1:7" ht="198" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="13">
         <v>23</v>
       </c>
@@ -1906,7 +1923,7 @@
       </c>
       <c r="G24" s="9"/>
     </row>
-    <row r="25" spans="1:7" ht="240.75" customHeight="1">
+    <row r="25" spans="1:7" ht="240.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="13">
         <v>24</v>
       </c>
@@ -1927,7 +1944,7 @@
       </c>
       <c r="G25" s="9"/>
     </row>
-    <row r="26" spans="1:7" ht="49.5">
+    <row r="26" spans="1:7" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A26" s="13">
         <v>25</v>
       </c>
@@ -1948,7 +1965,7 @@
       </c>
       <c r="G26" s="9"/>
     </row>
-    <row r="27" spans="1:7" ht="190.5" customHeight="1">
+    <row r="27" spans="1:7" ht="190.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="13">
         <v>26</v>
       </c>
@@ -1969,7 +1986,7 @@
       </c>
       <c r="G27" s="9"/>
     </row>
-    <row r="28" spans="1:7" ht="188.25" customHeight="1">
+    <row r="28" spans="1:7" ht="188.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="13">
         <v>27</v>
       </c>
@@ -1990,7 +2007,7 @@
       </c>
       <c r="G28" s="9"/>
     </row>
-    <row r="29" spans="1:7" ht="33">
+    <row r="29" spans="1:7" ht="33" x14ac:dyDescent="0.15">
       <c r="A29" s="13">
         <v>28</v>
       </c>
@@ -2011,7 +2028,7 @@
       </c>
       <c r="G29" s="9"/>
     </row>
-    <row r="30" spans="1:7" ht="16.5">
+    <row r="30" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A30" s="13">
         <v>29</v>
       </c>
@@ -2032,7 +2049,7 @@
       </c>
       <c r="G30" s="9"/>
     </row>
-    <row r="31" spans="1:7" ht="33">
+    <row r="31" spans="1:7" ht="33" x14ac:dyDescent="0.15">
       <c r="A31" s="13">
         <v>30</v>
       </c>
@@ -2053,7 +2070,7 @@
       </c>
       <c r="G31" s="9"/>
     </row>
-    <row r="32" spans="1:7" ht="121.5" customHeight="1">
+    <row r="32" spans="1:7" ht="121.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="13">
         <v>31</v>
       </c>
@@ -2074,7 +2091,7 @@
       </c>
       <c r="G32" s="9"/>
     </row>
-    <row r="33" spans="1:7" ht="99">
+    <row r="33" spans="1:7" ht="99" x14ac:dyDescent="0.15">
       <c r="A33" s="13">
         <v>32</v>
       </c>
@@ -2095,7 +2112,7 @@
       </c>
       <c r="G33" s="9"/>
     </row>
-    <row r="34" spans="1:7" ht="49.5">
+    <row r="34" spans="1:7" ht="33" x14ac:dyDescent="0.15">
       <c r="A34" s="13">
         <v>33</v>
       </c>
@@ -2116,7 +2133,7 @@
       </c>
       <c r="G34" s="9"/>
     </row>
-    <row r="35" spans="1:7" ht="16.5">
+    <row r="35" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A35" s="13">
         <v>34</v>
       </c>
@@ -2137,7 +2154,7 @@
       </c>
       <c r="G35" s="3"/>
     </row>
-    <row r="36" spans="1:7" ht="82.5">
+    <row r="36" spans="1:7" ht="66" x14ac:dyDescent="0.35">
       <c r="A36" s="13">
         <v>35</v>
       </c>
@@ -2158,7 +2175,7 @@
       </c>
       <c r="G36" s="3"/>
     </row>
-    <row r="37" spans="1:7" ht="16.5">
+    <row r="37" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A37" s="13"/>
       <c r="B37" s="3"/>
       <c r="C37" s="6"/>
@@ -2167,7 +2184,7 @@
       <c r="F37" s="3"/>
       <c r="G37" s="3"/>
     </row>
-    <row r="38" spans="1:7" ht="16.5">
+    <row r="38" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A38" s="13"/>
       <c r="B38" s="3"/>
       <c r="C38" s="6"/>
@@ -2176,7 +2193,7 @@
       <c r="F38" s="3"/>
       <c r="G38" s="3"/>
     </row>
-    <row r="39" spans="1:7" ht="16.5">
+    <row r="39" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A39" s="13"/>
       <c r="B39" s="3"/>
       <c r="C39" s="6"/>
@@ -2185,7 +2202,7 @@
       <c r="F39" s="3"/>
       <c r="G39" s="3"/>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A40" s="14"/>
       <c r="B40" s="4"/>
       <c r="C40" s="7"/>
@@ -2194,7 +2211,7 @@
       <c r="F40" s="4"/>
       <c r="G40" s="4"/>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A41" s="12"/>
       <c r="B41" s="2"/>
       <c r="C41" s="5"/>
@@ -2216,22 +2233,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="11.85546875" customWidth="1"/>
-    <col min="2" max="2" width="15.85546875" customWidth="1"/>
+    <col min="1" max="1" width="11.875" customWidth="1"/>
+    <col min="2" max="2" width="15.875" customWidth="1"/>
     <col min="3" max="3" width="56" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" customWidth="1"/>
-    <col min="5" max="5" width="15.85546875" customWidth="1"/>
+    <col min="4" max="4" width="15.375" customWidth="1"/>
+    <col min="5" max="5" width="15.875" customWidth="1"/>
     <col min="6" max="6" width="19" customWidth="1"/>
-    <col min="7" max="7" width="61.85546875" customWidth="1"/>
+    <col min="7" max="7" width="61.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -2252,7 +2269,7 @@
       </c>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:7" ht="210.75" customHeight="1">
+    <row r="2" spans="1:7" ht="210.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22">
         <v>1</v>
       </c>
@@ -2263,15 +2280,17 @@
         <v>66</v>
       </c>
       <c r="D2" s="22" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="E2" s="24">
         <v>42008</v>
       </c>
-      <c r="F2" s="22"/>
+      <c r="F2" s="24">
+        <v>42019</v>
+      </c>
       <c r="G2" s="21"/>
     </row>
-    <row r="3" spans="1:7" ht="210.75" customHeight="1">
+    <row r="3" spans="1:7" ht="210.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="22">
         <v>2</v>
       </c>
@@ -2279,18 +2298,20 @@
         <v>65</v>
       </c>
       <c r="C3" s="25" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D3" s="22" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E3" s="24">
         <v>42008</v>
       </c>
-      <c r="F3" s="22"/>
+      <c r="F3" s="24">
+        <v>42019</v>
+      </c>
       <c r="G3" s="21"/>
     </row>
-    <row r="4" spans="1:7" ht="210.75" customHeight="1">
+    <row r="4" spans="1:7" ht="210.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="22">
         <v>3</v>
       </c>
@@ -2298,14 +2319,18 @@
         <v>65</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>68</v>
-      </c>
-      <c r="D4" s="22"/>
+        <v>67</v>
+      </c>
+      <c r="D4" s="22" t="s">
+        <v>69</v>
+      </c>
       <c r="E4" s="24"/>
-      <c r="F4" s="22"/>
+      <c r="F4" s="24">
+        <v>42019</v>
+      </c>
       <c r="G4" s="21"/>
     </row>
-    <row r="5" spans="1:7" ht="210.75" customHeight="1">
+    <row r="5" spans="1:7" ht="210.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="22">
         <v>4</v>
       </c>
@@ -2313,14 +2338,18 @@
         <v>65</v>
       </c>
       <c r="C5" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="D5" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="D5" s="22"/>
       <c r="E5" s="24"/>
-      <c r="F5" s="22"/>
+      <c r="F5" s="24">
+        <v>42019</v>
+      </c>
       <c r="G5" s="21"/>
     </row>
-    <row r="6" spans="1:7" ht="210.75" customHeight="1">
+    <row r="6" spans="1:7" ht="210.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="22">
         <v>5</v>
       </c>
@@ -2328,14 +2357,18 @@
         <v>65</v>
       </c>
       <c r="C6" s="23" t="s">
-        <v>70</v>
-      </c>
-      <c r="D6" s="22"/>
+        <v>72</v>
+      </c>
+      <c r="D6" s="22" t="s">
+        <v>74</v>
+      </c>
       <c r="E6" s="24"/>
-      <c r="F6" s="22"/>
+      <c r="F6" s="24">
+        <v>42019</v>
+      </c>
       <c r="G6" s="21"/>
     </row>
-    <row r="7" spans="1:7" ht="130.5" customHeight="1">
+    <row r="7" spans="1:7" ht="130.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="22">
         <v>6</v>
       </c>
@@ -2343,14 +2376,18 @@
         <v>65</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="D7" s="22"/>
+        <v>68</v>
+      </c>
+      <c r="D7" s="22" t="s">
+        <v>69</v>
+      </c>
       <c r="E7" s="24"/>
-      <c r="F7" s="22"/>
+      <c r="F7" s="24">
+        <v>42019</v>
+      </c>
       <c r="G7" s="21"/>
     </row>
-    <row r="8" spans="1:7" ht="210.75" customHeight="1">
+    <row r="8" spans="1:7" ht="210.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="22"/>
       <c r="B8" s="22"/>
       <c r="C8" s="23"/>
@@ -2359,7 +2396,7 @@
       <c r="F8" s="22"/>
       <c r="G8" s="21"/>
     </row>
-    <row r="9" spans="1:7" ht="210.75" customHeight="1">
+    <row r="9" spans="1:7" ht="210.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="22"/>
       <c r="B9" s="22"/>
       <c r="C9" s="23"/>
@@ -2368,7 +2405,7 @@
       <c r="F9" s="22"/>
       <c r="G9" s="21"/>
     </row>
-    <row r="10" spans="1:7" ht="210.75" customHeight="1">
+    <row r="10" spans="1:7" ht="210.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="22"/>
       <c r="B10" s="22"/>
       <c r="C10" s="23"/>
@@ -2377,7 +2414,7 @@
       <c r="F10" s="22"/>
       <c r="G10" s="21"/>
     </row>
-    <row r="11" spans="1:7" ht="210.75" customHeight="1">
+    <row r="11" spans="1:7" ht="210.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="22"/>
       <c r="B11" s="22"/>
       <c r="C11" s="23"/>
@@ -2386,7 +2423,7 @@
       <c r="F11" s="22"/>
       <c r="G11" s="21"/>
     </row>
-    <row r="12" spans="1:7" ht="210.75" customHeight="1">
+    <row r="12" spans="1:7" ht="210.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="22"/>
       <c r="B12" s="22"/>
       <c r="C12" s="23"/>
@@ -2395,7 +2432,7 @@
       <c r="F12" s="22"/>
       <c r="G12" s="21"/>
     </row>
-    <row r="13" spans="1:7" ht="210.75" customHeight="1">
+    <row r="13" spans="1:7" ht="210.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="22"/>
       <c r="B13" s="22"/>
       <c r="C13" s="23"/>
@@ -2404,7 +2441,7 @@
       <c r="F13" s="22"/>
       <c r="G13" s="21"/>
     </row>
-    <row r="14" spans="1:7" ht="210.75" customHeight="1">
+    <row r="14" spans="1:7" ht="210.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="22"/>
       <c r="B14" s="22"/>
       <c r="C14" s="23"/>
@@ -2413,7 +2450,7 @@
       <c r="F14" s="22"/>
       <c r="G14" s="21"/>
     </row>
-    <row r="15" spans="1:7" ht="210.75" customHeight="1">
+    <row r="15" spans="1:7" ht="210.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="22"/>
       <c r="B15" s="22"/>
       <c r="C15" s="23"/>
@@ -2422,7 +2459,7 @@
       <c r="F15" s="22"/>
       <c r="G15" s="21"/>
     </row>
-    <row r="16" spans="1:7" ht="210.75" customHeight="1">
+    <row r="16" spans="1:7" ht="210.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="22"/>
       <c r="B16" s="22"/>
       <c r="C16" s="23"/>
@@ -2431,7 +2468,7 @@
       <c r="F16" s="22"/>
       <c r="G16" s="21"/>
     </row>
-    <row r="17" spans="1:7" ht="210.75" customHeight="1">
+    <row r="17" spans="1:7" ht="210.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="22"/>
       <c r="B17" s="22"/>
       <c r="C17" s="23"/>
@@ -2440,7 +2477,7 @@
       <c r="F17" s="22"/>
       <c r="G17" s="21"/>
     </row>
-    <row r="18" spans="1:7" ht="210.75" customHeight="1">
+    <row r="18" spans="1:7" ht="210.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="22"/>
       <c r="B18" s="22"/>
       <c r="C18" s="23"/>
@@ -2449,7 +2486,7 @@
       <c r="F18" s="22"/>
       <c r="G18" s="21"/>
     </row>
-    <row r="19" spans="1:7" ht="210.75" customHeight="1">
+    <row r="19" spans="1:7" ht="210.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="22"/>
       <c r="B19" s="22"/>
       <c r="C19" s="23"/>
@@ -2458,7 +2495,7 @@
       <c r="F19" s="22"/>
       <c r="G19" s="21"/>
     </row>
-    <row r="20" spans="1:7" ht="210.75" customHeight="1">
+    <row r="20" spans="1:7" ht="210.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="22"/>
       <c r="B20" s="22"/>
       <c r="C20" s="23"/>
@@ -2467,7 +2504,7 @@
       <c r="F20" s="22"/>
       <c r="G20" s="21"/>
     </row>
-    <row r="21" spans="1:7" ht="210.75" customHeight="1">
+    <row r="21" spans="1:7" ht="210.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="22"/>
       <c r="B21" s="22"/>
       <c r="C21" s="23"/>
@@ -2476,7 +2513,7 @@
       <c r="F21" s="22"/>
       <c r="G21" s="21"/>
     </row>
-    <row r="22" spans="1:7" ht="210.75" customHeight="1">
+    <row r="22" spans="1:7" ht="210.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="22"/>
       <c r="B22" s="22"/>
       <c r="C22" s="23"/>
@@ -2485,7 +2522,7 @@
       <c r="F22" s="22"/>
       <c r="G22" s="21"/>
     </row>
-    <row r="23" spans="1:7" ht="210.75" customHeight="1">
+    <row r="23" spans="1:7" ht="210.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="22"/>
       <c r="B23" s="22"/>
       <c r="C23" s="23"/>
@@ -2494,7 +2531,7 @@
       <c r="F23" s="22"/>
       <c r="G23" s="21"/>
     </row>
-    <row r="24" spans="1:7" ht="210.75" customHeight="1">
+    <row r="24" spans="1:7" ht="210.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="22"/>
       <c r="B24" s="22"/>
       <c r="C24" s="23"/>
@@ -2503,7 +2540,7 @@
       <c r="F24" s="22"/>
       <c r="G24" s="21"/>
     </row>
-    <row r="25" spans="1:7" ht="210.75" customHeight="1">
+    <row r="25" spans="1:7" ht="210.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="22"/>
       <c r="B25" s="22"/>
       <c r="C25" s="23"/>
@@ -2512,7 +2549,7 @@
       <c r="F25" s="22"/>
       <c r="G25" s="21"/>
     </row>
-    <row r="26" spans="1:7" ht="210.75" customHeight="1">
+    <row r="26" spans="1:7" ht="210.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="22"/>
       <c r="B26" s="22"/>
       <c r="C26" s="23"/>
@@ -2521,7 +2558,7 @@
       <c r="F26" s="22"/>
       <c r="G26" s="21"/>
     </row>
-    <row r="27" spans="1:7" ht="210.75" customHeight="1">
+    <row r="27" spans="1:7" ht="210.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="22"/>
       <c r="B27" s="22"/>
       <c r="C27" s="23"/>
@@ -2530,7 +2567,7 @@
       <c r="F27" s="22"/>
       <c r="G27" s="21"/>
     </row>
-    <row r="28" spans="1:7" ht="210.75" customHeight="1">
+    <row r="28" spans="1:7" ht="210.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="22"/>
       <c r="B28" s="22"/>
       <c r="C28" s="23"/>
@@ -2539,7 +2576,7 @@
       <c r="F28" s="22"/>
       <c r="G28" s="21"/>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A29" s="21"/>
       <c r="B29" s="21"/>
       <c r="C29" s="21"/>
@@ -2548,7 +2585,7 @@
       <c r="F29" s="21"/>
       <c r="G29" s="21"/>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A30" s="21"/>
       <c r="B30" s="21"/>
       <c r="C30" s="21"/>
@@ -2557,7 +2594,7 @@
       <c r="F30" s="21"/>
       <c r="G30" s="21"/>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A31" s="21"/>
       <c r="B31" s="21"/>
       <c r="C31" s="21"/>
@@ -2566,7 +2603,7 @@
       <c r="F31" s="21"/>
       <c r="G31" s="21"/>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A32" s="21"/>
       <c r="B32" s="21"/>
       <c r="C32" s="21"/>
@@ -2575,7 +2612,7 @@
       <c r="F32" s="21"/>
       <c r="G32" s="21"/>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A33" s="21"/>
       <c r="B33" s="21"/>
       <c r="C33" s="21"/>
@@ -2584,7 +2621,7 @@
       <c r="F33" s="21"/>
       <c r="G33" s="21"/>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A34" s="21"/>
       <c r="B34" s="21"/>
       <c r="C34" s="21"/>
@@ -2593,7 +2630,7 @@
       <c r="F34" s="21"/>
       <c r="G34" s="21"/>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A35" s="21"/>
       <c r="B35" s="21"/>
       <c r="C35" s="21"/>
@@ -2602,7 +2639,7 @@
       <c r="F35" s="21"/>
       <c r="G35" s="21"/>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A36" s="21"/>
       <c r="B36" s="21"/>
       <c r="C36" s="21"/>
@@ -2611,7 +2648,7 @@
       <c r="F36" s="21"/>
       <c r="G36" s="21"/>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A37" s="21"/>
       <c r="B37" s="21"/>
       <c r="C37" s="21"/>
@@ -2620,7 +2657,7 @@
       <c r="F37" s="21"/>
       <c r="G37" s="21"/>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A38" s="21"/>
       <c r="B38" s="21"/>
       <c r="C38" s="21"/>
@@ -2629,7 +2666,7 @@
       <c r="F38" s="21"/>
       <c r="G38" s="21"/>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A39" s="21"/>
       <c r="B39" s="21"/>
       <c r="C39" s="21"/>
@@ -2638,7 +2675,7 @@
       <c r="F39" s="21"/>
       <c r="G39" s="21"/>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A40" s="21"/>
       <c r="B40" s="21"/>
       <c r="C40" s="21"/>
@@ -2647,7 +2684,7 @@
       <c r="F40" s="21"/>
       <c r="G40" s="21"/>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A41" s="21"/>
       <c r="B41" s="21"/>
       <c r="C41" s="21"/>
@@ -2656,7 +2693,7 @@
       <c r="F41" s="21"/>
       <c r="G41" s="21"/>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A42" s="21"/>
       <c r="B42" s="21"/>
       <c r="C42" s="21"/>
@@ -2665,7 +2702,7 @@
       <c r="F42" s="21"/>
       <c r="G42" s="21"/>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A43" s="21"/>
       <c r="B43" s="21"/>
       <c r="C43" s="21"/>
@@ -2674,7 +2711,7 @@
       <c r="F43" s="21"/>
       <c r="G43" s="21"/>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A44" s="21"/>
       <c r="B44" s="21"/>
       <c r="C44" s="21"/>
@@ -2683,7 +2720,7 @@
       <c r="F44" s="21"/>
       <c r="G44" s="21"/>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A45" s="21"/>
       <c r="B45" s="21"/>
       <c r="C45" s="21"/>
@@ -2692,7 +2729,7 @@
       <c r="F45" s="21"/>
       <c r="G45" s="21"/>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A46" s="21"/>
       <c r="B46" s="21"/>
       <c r="C46" s="21"/>
@@ -2701,7 +2738,7 @@
       <c r="F46" s="21"/>
       <c r="G46" s="21"/>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A47" s="21"/>
       <c r="B47" s="21"/>
       <c r="C47" s="21"/>
@@ -2710,7 +2747,7 @@
       <c r="F47" s="21"/>
       <c r="G47" s="21"/>
     </row>
-    <row r="48" spans="1:7">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A48" s="21"/>
       <c r="B48" s="21"/>
       <c r="C48" s="21"/>
@@ -2719,7 +2756,7 @@
       <c r="F48" s="21"/>
       <c r="G48" s="21"/>
     </row>
-    <row r="49" spans="1:7">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A49" s="21"/>
       <c r="B49" s="21"/>
       <c r="C49" s="21"/>
@@ -2728,7 +2765,7 @@
       <c r="F49" s="21"/>
       <c r="G49" s="21"/>
     </row>
-    <row r="50" spans="1:7">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A50" s="21"/>
       <c r="B50" s="21"/>
       <c r="C50" s="21"/>
@@ -2737,7 +2774,7 @@
       <c r="F50" s="21"/>
       <c r="G50" s="21"/>
     </row>
-    <row r="51" spans="1:7">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A51" s="21"/>
       <c r="B51" s="21"/>
       <c r="C51" s="21"/>
@@ -2746,7 +2783,7 @@
       <c r="F51" s="21"/>
       <c r="G51" s="21"/>
     </row>
-    <row r="52" spans="1:7">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A52" s="21"/>
       <c r="B52" s="21"/>
       <c r="C52" s="21"/>
@@ -2755,7 +2792,7 @@
       <c r="F52" s="21"/>
       <c r="G52" s="21"/>
     </row>
-    <row r="53" spans="1:7">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A53" s="21"/>
       <c r="B53" s="21"/>
       <c r="C53" s="21"/>
@@ -2764,7 +2801,7 @@
       <c r="F53" s="21"/>
       <c r="G53" s="21"/>
     </row>
-    <row r="54" spans="1:7">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A54" s="21"/>
       <c r="B54" s="21"/>
       <c r="C54" s="21"/>
@@ -2773,7 +2810,7 @@
       <c r="F54" s="21"/>
       <c r="G54" s="21"/>
     </row>
-    <row r="55" spans="1:7">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A55" s="21"/>
       <c r="B55" s="21"/>
       <c r="C55" s="21"/>
@@ -2782,7 +2819,7 @@
       <c r="F55" s="21"/>
       <c r="G55" s="21"/>
     </row>
-    <row r="56" spans="1:7">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A56" s="21"/>
       <c r="B56" s="21"/>
       <c r="C56" s="21"/>
@@ -2791,7 +2828,7 @@
       <c r="F56" s="21"/>
       <c r="G56" s="21"/>
     </row>
-    <row r="57" spans="1:7">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A57" s="21"/>
       <c r="B57" s="21"/>
       <c r="C57" s="21"/>
@@ -2800,7 +2837,7 @@
       <c r="F57" s="21"/>
       <c r="G57" s="21"/>
     </row>
-    <row r="58" spans="1:7">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A58" s="21"/>
       <c r="B58" s="21"/>
       <c r="C58" s="21"/>
@@ -2809,7 +2846,7 @@
       <c r="F58" s="21"/>
       <c r="G58" s="21"/>
     </row>
-    <row r="59" spans="1:7">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A59" s="21"/>
       <c r="B59" s="21"/>
       <c r="C59" s="21"/>
@@ -2818,7 +2855,7 @@
       <c r="F59" s="21"/>
       <c r="G59" s="21"/>
     </row>
-    <row r="60" spans="1:7">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A60" s="21"/>
       <c r="B60" s="21"/>
       <c r="C60" s="21"/>
@@ -2827,7 +2864,7 @@
       <c r="F60" s="21"/>
       <c r="G60" s="21"/>
     </row>
-    <row r="61" spans="1:7">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A61" s="21"/>
       <c r="B61" s="21"/>
       <c r="C61" s="21"/>
@@ -2836,7 +2873,7 @@
       <c r="F61" s="21"/>
       <c r="G61" s="21"/>
     </row>
-    <row r="62" spans="1:7">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A62" s="21"/>
       <c r="B62" s="21"/>
       <c r="C62" s="21"/>
@@ -2845,7 +2882,7 @@
       <c r="F62" s="21"/>
       <c r="G62" s="21"/>
     </row>
-    <row r="63" spans="1:7">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A63" s="21"/>
       <c r="B63" s="21"/>
       <c r="C63" s="21"/>
@@ -2854,7 +2891,7 @@
       <c r="F63" s="21"/>
       <c r="G63" s="21"/>
     </row>
-    <row r="64" spans="1:7">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A64" s="21"/>
       <c r="B64" s="21"/>
       <c r="C64" s="21"/>
@@ -2863,7 +2900,7 @@
       <c r="F64" s="21"/>
       <c r="G64" s="21"/>
     </row>
-    <row r="65" spans="1:7">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A65" s="21"/>
       <c r="B65" s="21"/>
       <c r="C65" s="21"/>
@@ -2872,7 +2909,7 @@
       <c r="F65" s="21"/>
       <c r="G65" s="21"/>
     </row>
-    <row r="66" spans="1:7">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A66" s="21"/>
       <c r="B66" s="21"/>
       <c r="C66" s="21"/>
@@ -2881,7 +2918,7 @@
       <c r="F66" s="21"/>
       <c r="G66" s="21"/>
     </row>
-    <row r="67" spans="1:7">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A67" s="21"/>
       <c r="B67" s="21"/>
       <c r="C67" s="21"/>
@@ -2890,7 +2927,7 @@
       <c r="F67" s="21"/>
       <c r="G67" s="21"/>
     </row>
-    <row r="68" spans="1:7">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A68" s="21"/>
       <c r="B68" s="21"/>
       <c r="C68" s="21"/>
@@ -2899,7 +2936,7 @@
       <c r="F68" s="21"/>
       <c r="G68" s="21"/>
     </row>
-    <row r="69" spans="1:7">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A69" s="21"/>
       <c r="B69" s="21"/>
       <c r="C69" s="21"/>
@@ -2908,7 +2945,7 @@
       <c r="F69" s="21"/>
       <c r="G69" s="21"/>
     </row>
-    <row r="70" spans="1:7">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A70" s="21"/>
       <c r="B70" s="21"/>
       <c r="C70" s="21"/>
@@ -2917,7 +2954,7 @@
       <c r="F70" s="21"/>
       <c r="G70" s="21"/>
     </row>
-    <row r="71" spans="1:7">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A71" s="21"/>
       <c r="B71" s="21"/>
       <c r="C71" s="21"/>
@@ -2926,7 +2963,7 @@
       <c r="F71" s="21"/>
       <c r="G71" s="21"/>
     </row>
-    <row r="72" spans="1:7">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A72" s="21"/>
       <c r="B72" s="21"/>
       <c r="C72" s="21"/>
@@ -2935,7 +2972,7 @@
       <c r="F72" s="21"/>
       <c r="G72" s="21"/>
     </row>
-    <row r="73" spans="1:7">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A73" s="21"/>
       <c r="B73" s="21"/>
       <c r="C73" s="21"/>
@@ -2944,7 +2981,7 @@
       <c r="F73" s="21"/>
       <c r="G73" s="21"/>
     </row>
-    <row r="74" spans="1:7">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A74" s="21"/>
       <c r="B74" s="21"/>
       <c r="C74" s="21"/>
@@ -2953,7 +2990,7 @@
       <c r="F74" s="21"/>
       <c r="G74" s="21"/>
     </row>
-    <row r="75" spans="1:7">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A75" s="21"/>
       <c r="B75" s="21"/>
       <c r="C75" s="21"/>
@@ -2962,7 +2999,7 @@
       <c r="F75" s="21"/>
       <c r="G75" s="21"/>
     </row>
-    <row r="76" spans="1:7">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A76" s="21"/>
       <c r="B76" s="21"/>
       <c r="C76" s="21"/>
@@ -2971,7 +3008,7 @@
       <c r="F76" s="21"/>
       <c r="G76" s="21"/>
     </row>
-    <row r="77" spans="1:7">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A77" s="21"/>
       <c r="B77" s="21"/>
       <c r="C77" s="21"/>
@@ -2983,7 +3020,8 @@
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -2993,7 +3031,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Docs/Testing Issue List.xlsx
+++ b/Docs/Testing Issue List.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Zhongding.git\trunk\Docs\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="255" windowWidth="20115" windowHeight="7815" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="315" windowWidth="20115" windowHeight="7755" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Issue List" sheetId="1" r:id="rId1"/>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="89">
   <si>
     <t>#</t>
   </si>
@@ -294,16 +289,61 @@
     <t>已解决</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
+  <si>
+    <t>支付信息填写时，需要加一个验证，如果支付总金额大于或小于订单总金额，用户可以保存但不能提交。</t>
+  </si>
+  <si>
+    <t>待解决</t>
+  </si>
+  <si>
+    <t>入库单</t>
+  </si>
+  <si>
+    <t>入库单明细里，最后多了一列</t>
+  </si>
+  <si>
+    <t>入库单上的申请人，改为"操作人"</t>
+  </si>
+  <si>
+    <t>入库单，当货品入库的时候，现在会自动增加一条备注，这个不需要。 “入库单已入库（由系统自动生成）”</t>
+  </si>
+  <si>
+    <t>大包申请单</t>
+  </si>
+  <si>
+    <t>部门选项，应该显示跟当前申请人相关的部门</t>
+  </si>
+  <si>
+    <t>业务经理没有数据加载，导致协议不能保存</t>
+  </si>
+  <si>
+    <t>大包配送申请单，删除列能不能不是单独的列？做为申请人，为什么不能删除申请单？</t>
+  </si>
+  <si>
+    <t>大包配送申请单</t>
+  </si>
+  <si>
+    <t>为什么只能看到2种货品？
+这里的货品，不要用业务经理来筛选，按部门筛选就可以了。</t>
+  </si>
+  <si>
+    <t>采购订单的货品没有按照帐套来筛选
+采购的货品列表应该根据帐套+供应商来筛选</t>
+  </si>
+  <si>
+    <t>具有审核权限的用户，没有看到审核按钮，只有查看
+最后一列的空白列是什么？</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -330,7 +370,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -432,7 +472,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1138,11 +1178,277 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>2657475</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>341641</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>2392099</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9020175" y="17887950"/>
+          <a:ext cx="8647441" cy="2411149"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>77062</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>2999832</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>2428875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9011512" y="21193125"/>
+          <a:ext cx="2922770" cy="2390775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>104774</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>1769</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>522606</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>2419350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9039224" y="23633294"/>
+          <a:ext cx="8199757" cy="2417581"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>49433</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>332109</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>2484508</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8934450" y="26357483"/>
+          <a:ext cx="8723634" cy="2435075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>66676</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>323851</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>2456268</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9001126" y="29022675"/>
+          <a:ext cx="5600700" cy="2418168"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>98747</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>66676</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>170478</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>2638425</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9033197" y="31527751"/>
+          <a:ext cx="5415256" cy="2571749"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>190499</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>484507</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>2370161</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9124949" y="34232850"/>
+          <a:ext cx="8075933" cy="2274911"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1184,7 +1490,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1219,7 +1525,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1435,19 +1741,19 @@
       <selection pane="bottomLeft" activeCell="G1" sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="11.125" style="15" customWidth="1"/>
-    <col min="2" max="2" width="22.875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="34.625" style="8" customWidth="1"/>
-    <col min="4" max="4" width="18.75" style="20" customWidth="1"/>
-    <col min="5" max="5" width="15.625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14.375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="51.875" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.125" style="1"/>
+    <col min="1" max="1" width="11.140625" style="15" customWidth="1"/>
+    <col min="2" max="2" width="22.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="34.5703125" style="8" customWidth="1"/>
+    <col min="4" max="4" width="18.7109375" style="20" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="51.85546875" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -1468,7 +1774,7 @@
       </c>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:7" ht="133.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" ht="133.5" customHeight="1">
       <c r="A2" s="13">
         <v>1</v>
       </c>
@@ -1487,7 +1793,7 @@
       <c r="F2" s="9"/>
       <c r="G2" s="9"/>
     </row>
-    <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" ht="16.5">
       <c r="A3" s="13">
         <v>2</v>
       </c>
@@ -1506,7 +1812,7 @@
       <c r="F3" s="9"/>
       <c r="G3" s="9"/>
     </row>
-    <row r="4" spans="1:7" ht="191.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" ht="191.25" customHeight="1">
       <c r="A4" s="13">
         <v>3</v>
       </c>
@@ -1525,7 +1831,7 @@
       <c r="F4" s="9"/>
       <c r="G4" s="9"/>
     </row>
-    <row r="5" spans="1:7" ht="74.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" ht="74.25" customHeight="1">
       <c r="A5" s="13">
         <v>4</v>
       </c>
@@ -1544,7 +1850,7 @@
       <c r="F5" s="9"/>
       <c r="G5" s="9"/>
     </row>
-    <row r="6" spans="1:7" ht="217.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" ht="217.5" customHeight="1">
       <c r="A6" s="13">
         <v>5</v>
       </c>
@@ -1563,7 +1869,7 @@
       <c r="F6" s="9"/>
       <c r="G6" s="9"/>
     </row>
-    <row r="7" spans="1:7" ht="172.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" ht="172.5" customHeight="1">
       <c r="A7" s="13">
         <v>6</v>
       </c>
@@ -1582,7 +1888,7 @@
       <c r="F7" s="9"/>
       <c r="G7" s="9"/>
     </row>
-    <row r="8" spans="1:7" ht="243.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" ht="243.75" customHeight="1">
       <c r="A8" s="13">
         <v>7</v>
       </c>
@@ -1599,7 +1905,7 @@
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
     </row>
-    <row r="9" spans="1:7" ht="33" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7" ht="49.5">
       <c r="A9" s="13">
         <v>8</v>
       </c>
@@ -1616,7 +1922,7 @@
       <c r="F9" s="9"/>
       <c r="G9" s="9"/>
     </row>
-    <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7" ht="16.5">
       <c r="A10" s="13">
         <v>9</v>
       </c>
@@ -1637,7 +1943,7 @@
       </c>
       <c r="G10" s="9"/>
     </row>
-    <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7" ht="16.5">
       <c r="A11" s="13">
         <v>10</v>
       </c>
@@ -1658,7 +1964,7 @@
       </c>
       <c r="G11" s="9"/>
     </row>
-    <row r="12" spans="1:7" ht="33" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" ht="33">
       <c r="A12" s="13">
         <v>11</v>
       </c>
@@ -1679,7 +1985,7 @@
       </c>
       <c r="G12" s="9"/>
     </row>
-    <row r="13" spans="1:7" ht="33" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7" ht="33">
       <c r="A13" s="13">
         <v>12</v>
       </c>
@@ -1700,7 +2006,7 @@
       </c>
       <c r="G13" s="9"/>
     </row>
-    <row r="14" spans="1:7" ht="66" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" ht="66">
       <c r="A14" s="13">
         <v>13</v>
       </c>
@@ -1721,7 +2027,7 @@
       </c>
       <c r="G14" s="9"/>
     </row>
-    <row r="15" spans="1:7" ht="33" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7" ht="33">
       <c r="A15" s="13">
         <v>14</v>
       </c>
@@ -1742,7 +2048,7 @@
       </c>
       <c r="G15" s="9"/>
     </row>
-    <row r="16" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7" ht="16.5">
       <c r="A16" s="13">
         <v>15</v>
       </c>
@@ -1763,7 +2069,7 @@
       </c>
       <c r="G16" s="9"/>
     </row>
-    <row r="17" spans="1:7" ht="186.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:7" ht="186.75" customHeight="1">
       <c r="A17" s="13">
         <v>16</v>
       </c>
@@ -1784,7 +2090,7 @@
       </c>
       <c r="G17" s="9"/>
     </row>
-    <row r="18" spans="1:7" ht="216.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:7" ht="216.75" customHeight="1">
       <c r="A18" s="13">
         <v>17</v>
       </c>
@@ -1805,7 +2111,7 @@
       </c>
       <c r="G18" s="9"/>
     </row>
-    <row r="19" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:7" ht="16.5">
       <c r="A19" s="13">
         <v>18</v>
       </c>
@@ -1826,7 +2132,7 @@
       </c>
       <c r="G19" s="9"/>
     </row>
-    <row r="20" spans="1:7" ht="199.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:7" ht="199.5" customHeight="1">
       <c r="A20" s="13">
         <v>19</v>
       </c>
@@ -1845,7 +2151,7 @@
       </c>
       <c r="G20" s="9"/>
     </row>
-    <row r="21" spans="1:7" ht="163.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:7" ht="163.5" customHeight="1">
       <c r="A21" s="13">
         <v>20</v>
       </c>
@@ -1864,7 +2170,7 @@
       </c>
       <c r="G21" s="9"/>
     </row>
-    <row r="22" spans="1:7" ht="162" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:7" ht="162" customHeight="1">
       <c r="A22" s="13">
         <v>21</v>
       </c>
@@ -1881,7 +2187,7 @@
       <c r="F22" s="9"/>
       <c r="G22" s="9"/>
     </row>
-    <row r="23" spans="1:7" ht="178.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:7" ht="178.5" customHeight="1">
       <c r="A23" s="13">
         <v>22</v>
       </c>
@@ -1902,7 +2208,7 @@
       </c>
       <c r="G23" s="9"/>
     </row>
-    <row r="24" spans="1:7" ht="198" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:7" ht="198" customHeight="1">
       <c r="A24" s="13">
         <v>23</v>
       </c>
@@ -1923,7 +2229,7 @@
       </c>
       <c r="G24" s="9"/>
     </row>
-    <row r="25" spans="1:7" ht="240.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:7" ht="240.75" customHeight="1">
       <c r="A25" s="13">
         <v>24</v>
       </c>
@@ -1944,7 +2250,7 @@
       </c>
       <c r="G25" s="9"/>
     </row>
-    <row r="26" spans="1:7" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:7" ht="49.5">
       <c r="A26" s="13">
         <v>25</v>
       </c>
@@ -1965,7 +2271,7 @@
       </c>
       <c r="G26" s="9"/>
     </row>
-    <row r="27" spans="1:7" ht="190.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:7" ht="190.5" customHeight="1">
       <c r="A27" s="13">
         <v>26</v>
       </c>
@@ -1986,7 +2292,7 @@
       </c>
       <c r="G27" s="9"/>
     </row>
-    <row r="28" spans="1:7" ht="188.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:7" ht="188.25" customHeight="1">
       <c r="A28" s="13">
         <v>27</v>
       </c>
@@ -2007,7 +2313,7 @@
       </c>
       <c r="G28" s="9"/>
     </row>
-    <row r="29" spans="1:7" ht="33" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:7" ht="33">
       <c r="A29" s="13">
         <v>28</v>
       </c>
@@ -2028,7 +2334,7 @@
       </c>
       <c r="G29" s="9"/>
     </row>
-    <row r="30" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:7" ht="16.5">
       <c r="A30" s="13">
         <v>29</v>
       </c>
@@ -2049,7 +2355,7 @@
       </c>
       <c r="G30" s="9"/>
     </row>
-    <row r="31" spans="1:7" ht="33" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:7" ht="33">
       <c r="A31" s="13">
         <v>30</v>
       </c>
@@ -2070,7 +2376,7 @@
       </c>
       <c r="G31" s="9"/>
     </row>
-    <row r="32" spans="1:7" ht="121.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:7" ht="121.5" customHeight="1">
       <c r="A32" s="13">
         <v>31</v>
       </c>
@@ -2091,7 +2397,7 @@
       </c>
       <c r="G32" s="9"/>
     </row>
-    <row r="33" spans="1:7" ht="99" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:7" ht="99">
       <c r="A33" s="13">
         <v>32</v>
       </c>
@@ -2112,7 +2418,7 @@
       </c>
       <c r="G33" s="9"/>
     </row>
-    <row r="34" spans="1:7" ht="33" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:7" ht="49.5">
       <c r="A34" s="13">
         <v>33</v>
       </c>
@@ -2133,7 +2439,7 @@
       </c>
       <c r="G34" s="9"/>
     </row>
-    <row r="35" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:7" ht="16.5">
       <c r="A35" s="13">
         <v>34</v>
       </c>
@@ -2154,7 +2460,7 @@
       </c>
       <c r="G35" s="3"/>
     </row>
-    <row r="36" spans="1:7" ht="66" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:7" ht="82.5">
       <c r="A36" s="13">
         <v>35</v>
       </c>
@@ -2175,7 +2481,7 @@
       </c>
       <c r="G36" s="3"/>
     </row>
-    <row r="37" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:7" ht="16.5">
       <c r="A37" s="13"/>
       <c r="B37" s="3"/>
       <c r="C37" s="6"/>
@@ -2184,7 +2490,7 @@
       <c r="F37" s="3"/>
       <c r="G37" s="3"/>
     </row>
-    <row r="38" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:7" ht="16.5">
       <c r="A38" s="13"/>
       <c r="B38" s="3"/>
       <c r="C38" s="6"/>
@@ -2193,7 +2499,7 @@
       <c r="F38" s="3"/>
       <c r="G38" s="3"/>
     </row>
-    <row r="39" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:7" ht="16.5">
       <c r="A39" s="13"/>
       <c r="B39" s="3"/>
       <c r="C39" s="6"/>
@@ -2202,7 +2508,7 @@
       <c r="F39" s="3"/>
       <c r="G39" s="3"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:7">
       <c r="A40" s="14"/>
       <c r="B40" s="4"/>
       <c r="C40" s="7"/>
@@ -2211,7 +2517,7 @@
       <c r="F40" s="4"/>
       <c r="G40" s="4"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:7">
       <c r="A41" s="12"/>
       <c r="B41" s="2"/>
       <c r="C41" s="5"/>
@@ -2233,22 +2539,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G77"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.875" customWidth="1"/>
-    <col min="2" max="2" width="15.875" customWidth="1"/>
+    <col min="1" max="1" width="11.85546875" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" customWidth="1"/>
     <col min="3" max="3" width="56" customWidth="1"/>
-    <col min="4" max="4" width="15.375" customWidth="1"/>
-    <col min="5" max="5" width="15.875" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" customWidth="1"/>
     <col min="6" max="6" width="19" customWidth="1"/>
-    <col min="7" max="7" width="61.875" customWidth="1"/>
+    <col min="7" max="7" width="61.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -2269,7 +2575,7 @@
       </c>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:7" ht="210.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" ht="210.75" customHeight="1">
       <c r="A2" s="22">
         <v>1</v>
       </c>
@@ -2290,7 +2596,7 @@
       </c>
       <c r="G2" s="21"/>
     </row>
-    <row r="3" spans="1:7" ht="210.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" ht="210.75" customHeight="1">
       <c r="A3" s="22">
         <v>2</v>
       </c>
@@ -2311,7 +2617,7 @@
       </c>
       <c r="G3" s="21"/>
     </row>
-    <row r="4" spans="1:7" ht="210.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" ht="210.75" customHeight="1">
       <c r="A4" s="22">
         <v>3</v>
       </c>
@@ -2330,7 +2636,7 @@
       </c>
       <c r="G4" s="21"/>
     </row>
-    <row r="5" spans="1:7" ht="210.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" ht="210.75" customHeight="1">
       <c r="A5" s="22">
         <v>4</v>
       </c>
@@ -2349,7 +2655,7 @@
       </c>
       <c r="G5" s="21"/>
     </row>
-    <row r="6" spans="1:7" ht="210.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" ht="210.75" customHeight="1">
       <c r="A6" s="22">
         <v>5</v>
       </c>
@@ -2368,7 +2674,7 @@
       </c>
       <c r="G6" s="21"/>
     </row>
-    <row r="7" spans="1:7" ht="130.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" ht="130.5" customHeight="1">
       <c r="A7" s="22">
         <v>6</v>
       </c>
@@ -2387,98 +2693,200 @@
       </c>
       <c r="G7" s="21"/>
     </row>
-    <row r="8" spans="1:7" ht="210.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="22"/>
-      <c r="B8" s="22"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="22"/>
+    <row r="8" spans="1:7" ht="210.75" customHeight="1">
+      <c r="A8" s="22">
+        <v>7</v>
+      </c>
+      <c r="B8" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="C8" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="D8" s="22" t="s">
+        <v>76</v>
+      </c>
       <c r="E8" s="24"/>
-      <c r="F8" s="22"/>
+      <c r="F8" s="24">
+        <v>42024</v>
+      </c>
       <c r="G8" s="21"/>
     </row>
-    <row r="9" spans="1:7" ht="210.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="22"/>
-      <c r="B9" s="22"/>
-      <c r="C9" s="23"/>
-      <c r="D9" s="22"/>
+    <row r="9" spans="1:7" ht="210.75" customHeight="1">
+      <c r="A9" s="22">
+        <v>8</v>
+      </c>
+      <c r="B9" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="C9" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="D9" s="22" t="s">
+        <v>76</v>
+      </c>
       <c r="E9" s="24"/>
-      <c r="F9" s="22"/>
+      <c r="F9" s="24">
+        <v>42024</v>
+      </c>
       <c r="G9" s="21"/>
     </row>
-    <row r="10" spans="1:7" ht="210.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="22"/>
-      <c r="B10" s="22"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="22"/>
+    <row r="10" spans="1:7">
+      <c r="A10" s="22">
+        <v>9</v>
+      </c>
+      <c r="B10" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="C10" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="D10" s="22" t="s">
+        <v>76</v>
+      </c>
       <c r="E10" s="24"/>
-      <c r="F10" s="22"/>
+      <c r="F10" s="24">
+        <v>42024</v>
+      </c>
       <c r="G10" s="21"/>
     </row>
-    <row r="11" spans="1:7" ht="210.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="22"/>
-      <c r="B11" s="22"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="22"/>
+    <row r="11" spans="1:7" ht="30">
+      <c r="A11" s="22">
+        <v>10</v>
+      </c>
+      <c r="B11" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="C11" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="D11" s="22" t="s">
+        <v>76</v>
+      </c>
       <c r="E11" s="24"/>
-      <c r="F11" s="22"/>
+      <c r="F11" s="24">
+        <v>42024</v>
+      </c>
       <c r="G11" s="21"/>
     </row>
-    <row r="12" spans="1:7" ht="210.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="22"/>
-      <c r="B12" s="22"/>
-      <c r="C12" s="23"/>
-      <c r="D12" s="22"/>
+    <row r="12" spans="1:7" ht="195" customHeight="1">
+      <c r="A12" s="22">
+        <v>11</v>
+      </c>
+      <c r="B12" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="C12" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="D12" s="22" t="s">
+        <v>76</v>
+      </c>
       <c r="E12" s="24"/>
-      <c r="F12" s="22"/>
+      <c r="F12" s="24">
+        <v>42024</v>
+      </c>
       <c r="G12" s="21"/>
     </row>
-    <row r="13" spans="1:7" ht="210.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="22"/>
-      <c r="B13" s="22"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="22"/>
+    <row r="13" spans="1:7" ht="210.75" customHeight="1">
+      <c r="A13" s="22">
+        <v>12</v>
+      </c>
+      <c r="B13" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="D13" s="22" t="s">
+        <v>76</v>
+      </c>
       <c r="E13" s="24"/>
-      <c r="F13" s="22"/>
+      <c r="F13" s="24">
+        <v>42024</v>
+      </c>
       <c r="G13" s="21"/>
     </row>
-    <row r="14" spans="1:7" ht="210.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="22"/>
-      <c r="B14" s="22"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="22"/>
+    <row r="14" spans="1:7" ht="210.75" customHeight="1">
+      <c r="A14" s="22">
+        <v>13</v>
+      </c>
+      <c r="B14" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="C14" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="D14" s="22" t="s">
+        <v>76</v>
+      </c>
       <c r="E14" s="24"/>
-      <c r="F14" s="22"/>
+      <c r="F14" s="24">
+        <v>42024</v>
+      </c>
       <c r="G14" s="21"/>
     </row>
-    <row r="15" spans="1:7" ht="210.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="22"/>
-      <c r="B15" s="22"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="22"/>
+    <row r="15" spans="1:7" ht="195" customHeight="1">
+      <c r="A15" s="22">
+        <v>14</v>
+      </c>
+      <c r="B15" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="C15" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="D15" s="22" t="s">
+        <v>76</v>
+      </c>
       <c r="E15" s="24"/>
-      <c r="F15" s="22"/>
+      <c r="F15" s="24">
+        <v>42024</v>
+      </c>
       <c r="G15" s="21"/>
     </row>
-    <row r="16" spans="1:7" ht="210.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="22"/>
-      <c r="B16" s="22"/>
-      <c r="C16" s="23"/>
-      <c r="D16" s="22"/>
+    <row r="16" spans="1:7" ht="210.75" customHeight="1">
+      <c r="A16" s="22">
+        <v>15</v>
+      </c>
+      <c r="B16" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="C16" s="25" t="s">
+        <v>87</v>
+      </c>
+      <c r="D16" s="22" t="s">
+        <v>76</v>
+      </c>
       <c r="E16" s="24"/>
-      <c r="F16" s="22"/>
+      <c r="F16" s="24">
+        <v>42024</v>
+      </c>
       <c r="G16" s="21"/>
     </row>
-    <row r="17" spans="1:7" ht="210.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="22"/>
-      <c r="B17" s="22"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="22"/>
+    <row r="17" spans="1:7" ht="210.75" customHeight="1">
+      <c r="A17" s="22">
+        <v>16</v>
+      </c>
+      <c r="B17" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="C17" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="D17" s="22" t="s">
+        <v>76</v>
+      </c>
       <c r="E17" s="24"/>
-      <c r="F17" s="22"/>
+      <c r="F17" s="24">
+        <v>42024</v>
+      </c>
       <c r="G17" s="21"/>
     </row>
-    <row r="18" spans="1:7" ht="210.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="22"/>
+    <row r="18" spans="1:7" ht="210.75" customHeight="1">
+      <c r="A18" s="22">
+        <v>17</v>
+      </c>
       <c r="B18" s="22"/>
       <c r="C18" s="23"/>
       <c r="D18" s="22"/>
@@ -2486,7 +2894,7 @@
       <c r="F18" s="22"/>
       <c r="G18" s="21"/>
     </row>
-    <row r="19" spans="1:7" ht="210.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:7" ht="210.75" customHeight="1">
       <c r="A19" s="22"/>
       <c r="B19" s="22"/>
       <c r="C19" s="23"/>
@@ -2495,7 +2903,7 @@
       <c r="F19" s="22"/>
       <c r="G19" s="21"/>
     </row>
-    <row r="20" spans="1:7" ht="210.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:7" ht="210.75" customHeight="1">
       <c r="A20" s="22"/>
       <c r="B20" s="22"/>
       <c r="C20" s="23"/>
@@ -2504,7 +2912,7 @@
       <c r="F20" s="22"/>
       <c r="G20" s="21"/>
     </row>
-    <row r="21" spans="1:7" ht="210.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:7" ht="210.75" customHeight="1">
       <c r="A21" s="22"/>
       <c r="B21" s="22"/>
       <c r="C21" s="23"/>
@@ -2513,7 +2921,7 @@
       <c r="F21" s="22"/>
       <c r="G21" s="21"/>
     </row>
-    <row r="22" spans="1:7" ht="210.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:7" ht="210.75" customHeight="1">
       <c r="A22" s="22"/>
       <c r="B22" s="22"/>
       <c r="C22" s="23"/>
@@ -2522,7 +2930,7 @@
       <c r="F22" s="22"/>
       <c r="G22" s="21"/>
     </row>
-    <row r="23" spans="1:7" ht="210.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:7" ht="210.75" customHeight="1">
       <c r="A23" s="22"/>
       <c r="B23" s="22"/>
       <c r="C23" s="23"/>
@@ -2531,7 +2939,7 @@
       <c r="F23" s="22"/>
       <c r="G23" s="21"/>
     </row>
-    <row r="24" spans="1:7" ht="210.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:7" ht="210.75" customHeight="1">
       <c r="A24" s="22"/>
       <c r="B24" s="22"/>
       <c r="C24" s="23"/>
@@ -2540,7 +2948,7 @@
       <c r="F24" s="22"/>
       <c r="G24" s="21"/>
     </row>
-    <row r="25" spans="1:7" ht="210.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:7" ht="210.75" customHeight="1">
       <c r="A25" s="22"/>
       <c r="B25" s="22"/>
       <c r="C25" s="23"/>
@@ -2549,7 +2957,7 @@
       <c r="F25" s="22"/>
       <c r="G25" s="21"/>
     </row>
-    <row r="26" spans="1:7" ht="210.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:7" ht="210.75" customHeight="1">
       <c r="A26" s="22"/>
       <c r="B26" s="22"/>
       <c r="C26" s="23"/>
@@ -2558,7 +2966,7 @@
       <c r="F26" s="22"/>
       <c r="G26" s="21"/>
     </row>
-    <row r="27" spans="1:7" ht="210.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:7" ht="210.75" customHeight="1">
       <c r="A27" s="22"/>
       <c r="B27" s="22"/>
       <c r="C27" s="23"/>
@@ -2567,7 +2975,7 @@
       <c r="F27" s="22"/>
       <c r="G27" s="21"/>
     </row>
-    <row r="28" spans="1:7" ht="210.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:7" ht="210.75" customHeight="1">
       <c r="A28" s="22"/>
       <c r="B28" s="22"/>
       <c r="C28" s="23"/>
@@ -2576,7 +2984,7 @@
       <c r="F28" s="22"/>
       <c r="G28" s="21"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:7">
       <c r="A29" s="21"/>
       <c r="B29" s="21"/>
       <c r="C29" s="21"/>
@@ -2585,7 +2993,7 @@
       <c r="F29" s="21"/>
       <c r="G29" s="21"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:7">
       <c r="A30" s="21"/>
       <c r="B30" s="21"/>
       <c r="C30" s="21"/>
@@ -2594,7 +3002,7 @@
       <c r="F30" s="21"/>
       <c r="G30" s="21"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:7">
       <c r="A31" s="21"/>
       <c r="B31" s="21"/>
       <c r="C31" s="21"/>
@@ -2603,7 +3011,7 @@
       <c r="F31" s="21"/>
       <c r="G31" s="21"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:7">
       <c r="A32" s="21"/>
       <c r="B32" s="21"/>
       <c r="C32" s="21"/>
@@ -2612,7 +3020,7 @@
       <c r="F32" s="21"/>
       <c r="G32" s="21"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:7">
       <c r="A33" s="21"/>
       <c r="B33" s="21"/>
       <c r="C33" s="21"/>
@@ -2621,7 +3029,7 @@
       <c r="F33" s="21"/>
       <c r="G33" s="21"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:7">
       <c r="A34" s="21"/>
       <c r="B34" s="21"/>
       <c r="C34" s="21"/>
@@ -2630,7 +3038,7 @@
       <c r="F34" s="21"/>
       <c r="G34" s="21"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:7">
       <c r="A35" s="21"/>
       <c r="B35" s="21"/>
       <c r="C35" s="21"/>
@@ -2639,7 +3047,7 @@
       <c r="F35" s="21"/>
       <c r="G35" s="21"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:7">
       <c r="A36" s="21"/>
       <c r="B36" s="21"/>
       <c r="C36" s="21"/>
@@ -2648,7 +3056,7 @@
       <c r="F36" s="21"/>
       <c r="G36" s="21"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:7">
       <c r="A37" s="21"/>
       <c r="B37" s="21"/>
       <c r="C37" s="21"/>
@@ -2657,7 +3065,7 @@
       <c r="F37" s="21"/>
       <c r="G37" s="21"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:7">
       <c r="A38" s="21"/>
       <c r="B38" s="21"/>
       <c r="C38" s="21"/>
@@ -2666,7 +3074,7 @@
       <c r="F38" s="21"/>
       <c r="G38" s="21"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:7">
       <c r="A39" s="21"/>
       <c r="B39" s="21"/>
       <c r="C39" s="21"/>
@@ -2675,7 +3083,7 @@
       <c r="F39" s="21"/>
       <c r="G39" s="21"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:7">
       <c r="A40" s="21"/>
       <c r="B40" s="21"/>
       <c r="C40" s="21"/>
@@ -2684,7 +3092,7 @@
       <c r="F40" s="21"/>
       <c r="G40" s="21"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:7">
       <c r="A41" s="21"/>
       <c r="B41" s="21"/>
       <c r="C41" s="21"/>
@@ -2693,7 +3101,7 @@
       <c r="F41" s="21"/>
       <c r="G41" s="21"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:7">
       <c r="A42" s="21"/>
       <c r="B42" s="21"/>
       <c r="C42" s="21"/>
@@ -2702,7 +3110,7 @@
       <c r="F42" s="21"/>
       <c r="G42" s="21"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:7">
       <c r="A43" s="21"/>
       <c r="B43" s="21"/>
       <c r="C43" s="21"/>
@@ -2711,7 +3119,7 @@
       <c r="F43" s="21"/>
       <c r="G43" s="21"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:7">
       <c r="A44" s="21"/>
       <c r="B44" s="21"/>
       <c r="C44" s="21"/>
@@ -2720,7 +3128,7 @@
       <c r="F44" s="21"/>
       <c r="G44" s="21"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:7">
       <c r="A45" s="21"/>
       <c r="B45" s="21"/>
       <c r="C45" s="21"/>
@@ -2729,7 +3137,7 @@
       <c r="F45" s="21"/>
       <c r="G45" s="21"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:7">
       <c r="A46" s="21"/>
       <c r="B46" s="21"/>
       <c r="C46" s="21"/>
@@ -2738,7 +3146,7 @@
       <c r="F46" s="21"/>
       <c r="G46" s="21"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:7">
       <c r="A47" s="21"/>
       <c r="B47" s="21"/>
       <c r="C47" s="21"/>
@@ -2747,7 +3155,7 @@
       <c r="F47" s="21"/>
       <c r="G47" s="21"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:7">
       <c r="A48" s="21"/>
       <c r="B48" s="21"/>
       <c r="C48" s="21"/>
@@ -2756,7 +3164,7 @@
       <c r="F48" s="21"/>
       <c r="G48" s="21"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:7">
       <c r="A49" s="21"/>
       <c r="B49" s="21"/>
       <c r="C49" s="21"/>
@@ -2765,7 +3173,7 @@
       <c r="F49" s="21"/>
       <c r="G49" s="21"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:7">
       <c r="A50" s="21"/>
       <c r="B50" s="21"/>
       <c r="C50" s="21"/>
@@ -2774,7 +3182,7 @@
       <c r="F50" s="21"/>
       <c r="G50" s="21"/>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:7">
       <c r="A51" s="21"/>
       <c r="B51" s="21"/>
       <c r="C51" s="21"/>
@@ -2783,7 +3191,7 @@
       <c r="F51" s="21"/>
       <c r="G51" s="21"/>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:7">
       <c r="A52" s="21"/>
       <c r="B52" s="21"/>
       <c r="C52" s="21"/>
@@ -2792,7 +3200,7 @@
       <c r="F52" s="21"/>
       <c r="G52" s="21"/>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:7">
       <c r="A53" s="21"/>
       <c r="B53" s="21"/>
       <c r="C53" s="21"/>
@@ -2801,7 +3209,7 @@
       <c r="F53" s="21"/>
       <c r="G53" s="21"/>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:7">
       <c r="A54" s="21"/>
       <c r="B54" s="21"/>
       <c r="C54" s="21"/>
@@ -2810,7 +3218,7 @@
       <c r="F54" s="21"/>
       <c r="G54" s="21"/>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:7">
       <c r="A55" s="21"/>
       <c r="B55" s="21"/>
       <c r="C55" s="21"/>
@@ -2819,7 +3227,7 @@
       <c r="F55" s="21"/>
       <c r="G55" s="21"/>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:7">
       <c r="A56" s="21"/>
       <c r="B56" s="21"/>
       <c r="C56" s="21"/>
@@ -2828,7 +3236,7 @@
       <c r="F56" s="21"/>
       <c r="G56" s="21"/>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:7">
       <c r="A57" s="21"/>
       <c r="B57" s="21"/>
       <c r="C57" s="21"/>
@@ -2837,7 +3245,7 @@
       <c r="F57" s="21"/>
       <c r="G57" s="21"/>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:7">
       <c r="A58" s="21"/>
       <c r="B58" s="21"/>
       <c r="C58" s="21"/>
@@ -2846,7 +3254,7 @@
       <c r="F58" s="21"/>
       <c r="G58" s="21"/>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:7">
       <c r="A59" s="21"/>
       <c r="B59" s="21"/>
       <c r="C59" s="21"/>
@@ -2855,7 +3263,7 @@
       <c r="F59" s="21"/>
       <c r="G59" s="21"/>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:7">
       <c r="A60" s="21"/>
       <c r="B60" s="21"/>
       <c r="C60" s="21"/>
@@ -2864,7 +3272,7 @@
       <c r="F60" s="21"/>
       <c r="G60" s="21"/>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:7">
       <c r="A61" s="21"/>
       <c r="B61" s="21"/>
       <c r="C61" s="21"/>
@@ -2873,7 +3281,7 @@
       <c r="F61" s="21"/>
       <c r="G61" s="21"/>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:7">
       <c r="A62" s="21"/>
       <c r="B62" s="21"/>
       <c r="C62" s="21"/>
@@ -2882,7 +3290,7 @@
       <c r="F62" s="21"/>
       <c r="G62" s="21"/>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:7">
       <c r="A63" s="21"/>
       <c r="B63" s="21"/>
       <c r="C63" s="21"/>
@@ -2891,7 +3299,7 @@
       <c r="F63" s="21"/>
       <c r="G63" s="21"/>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:7">
       <c r="A64" s="21"/>
       <c r="B64" s="21"/>
       <c r="C64" s="21"/>
@@ -2900,7 +3308,7 @@
       <c r="F64" s="21"/>
       <c r="G64" s="21"/>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:7">
       <c r="A65" s="21"/>
       <c r="B65" s="21"/>
       <c r="C65" s="21"/>
@@ -2909,7 +3317,7 @@
       <c r="F65" s="21"/>
       <c r="G65" s="21"/>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:7">
       <c r="A66" s="21"/>
       <c r="B66" s="21"/>
       <c r="C66" s="21"/>
@@ -2918,7 +3326,7 @@
       <c r="F66" s="21"/>
       <c r="G66" s="21"/>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:7">
       <c r="A67" s="21"/>
       <c r="B67" s="21"/>
       <c r="C67" s="21"/>
@@ -2927,7 +3335,7 @@
       <c r="F67" s="21"/>
       <c r="G67" s="21"/>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:7">
       <c r="A68" s="21"/>
       <c r="B68" s="21"/>
       <c r="C68" s="21"/>
@@ -2936,7 +3344,7 @@
       <c r="F68" s="21"/>
       <c r="G68" s="21"/>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:7">
       <c r="A69" s="21"/>
       <c r="B69" s="21"/>
       <c r="C69" s="21"/>
@@ -2945,7 +3353,7 @@
       <c r="F69" s="21"/>
       <c r="G69" s="21"/>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:7">
       <c r="A70" s="21"/>
       <c r="B70" s="21"/>
       <c r="C70" s="21"/>
@@ -2954,7 +3362,7 @@
       <c r="F70" s="21"/>
       <c r="G70" s="21"/>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:7">
       <c r="A71" s="21"/>
       <c r="B71" s="21"/>
       <c r="C71" s="21"/>
@@ -2963,7 +3371,7 @@
       <c r="F71" s="21"/>
       <c r="G71" s="21"/>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:7">
       <c r="A72" s="21"/>
       <c r="B72" s="21"/>
       <c r="C72" s="21"/>
@@ -2972,7 +3380,7 @@
       <c r="F72" s="21"/>
       <c r="G72" s="21"/>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:7">
       <c r="A73" s="21"/>
       <c r="B73" s="21"/>
       <c r="C73" s="21"/>
@@ -2981,7 +3389,7 @@
       <c r="F73" s="21"/>
       <c r="G73" s="21"/>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:7">
       <c r="A74" s="21"/>
       <c r="B74" s="21"/>
       <c r="C74" s="21"/>
@@ -2990,7 +3398,7 @@
       <c r="F74" s="21"/>
       <c r="G74" s="21"/>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:7">
       <c r="A75" s="21"/>
       <c r="B75" s="21"/>
       <c r="C75" s="21"/>
@@ -2999,7 +3407,7 @@
       <c r="F75" s="21"/>
       <c r="G75" s="21"/>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:7">
       <c r="A76" s="21"/>
       <c r="B76" s="21"/>
       <c r="C76" s="21"/>
@@ -3008,7 +3416,7 @@
       <c r="F76" s="21"/>
       <c r="G76" s="21"/>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:7">
       <c r="A77" s="21"/>
       <c r="B77" s="21"/>
       <c r="C77" s="21"/>
@@ -3031,7 +3439,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Docs/Testing Issue List.xlsx
+++ b/Docs/Testing Issue List.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Zhongding.git\trunk\Docs\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="315" windowWidth="20115" windowHeight="7755" activeTab="1"/>
   </bookViews>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="97">
   <si>
     <t>#</t>
   </si>
@@ -290,60 +295,100 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
+    <t>待解决</t>
+  </si>
+  <si>
+    <t>入库单</t>
+  </si>
+  <si>
+    <t>入库单上的申请人，改为"操作人"</t>
+  </si>
+  <si>
+    <t>大包申请单</t>
+  </si>
+  <si>
+    <t>大包配送申请单</t>
+  </si>
+  <si>
+    <t>采购订单的货品没有按照帐套来筛选
+采购的货品列表应该根据帐套+供应商来筛选</t>
+  </si>
+  <si>
     <t>支付信息填写时，需要加一个验证，如果支付总金额大于或小于订单总金额，用户可以保存但不能提交。</t>
-  </si>
-  <si>
-    <t>待解决</t>
-  </si>
-  <si>
-    <t>入库单</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>已解决</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>入库单明细里，最后多了一列</t>
-  </si>
-  <si>
-    <t>入库单上的申请人，改为"操作人"</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>已解决</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>已解决</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>入库单，当货品入库的时候，现在会自动增加一条备注，这个不需要。 “入库单已入库（由系统自动生成）”</t>
-  </si>
-  <si>
-    <t>大包申请单</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>部门选项，应该显示跟当前申请人相关的部门</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>无需修改</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>已解决</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>业务经理没有数据加载，导致协议不能保存</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>大包配送申请单，删除列能不能不是单独的列？做为申请人，为什么不能删除申请单？</t>
-  </si>
-  <si>
-    <t>大包配送申请单</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>为什么只能看到2种货品？
 这里的货品，不要用业务经理来筛选，按部门筛选就可以了。</t>
-  </si>
-  <si>
-    <t>采购订单的货品没有按照帐套来筛选
-采购的货品列表应该根据帐套+供应商来筛选</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>具有审核权限的用户，没有看到审核按钮，只有查看
 最后一列的空白列是什么？</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>无需修改</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>无需修改</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>已解决</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -370,7 +415,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -472,7 +517,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1448,7 +1493,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1490,7 +1535,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1525,7 +1570,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1741,19 +1786,19 @@
       <selection pane="bottomLeft" activeCell="G1" sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="11.140625" style="15" customWidth="1"/>
-    <col min="2" max="2" width="22.85546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="34.5703125" style="8" customWidth="1"/>
-    <col min="4" max="4" width="18.7109375" style="20" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="51.85546875" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="11.125" style="15" customWidth="1"/>
+    <col min="2" max="2" width="22.875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="34.625" style="8" customWidth="1"/>
+    <col min="4" max="4" width="18.75" style="20" customWidth="1"/>
+    <col min="5" max="5" width="15.625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="51.875" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -1774,7 +1819,7 @@
       </c>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:7" ht="133.5" customHeight="1">
+    <row r="2" spans="1:7" ht="133.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="13">
         <v>1</v>
       </c>
@@ -1793,7 +1838,7 @@
       <c r="F2" s="9"/>
       <c r="G2" s="9"/>
     </row>
-    <row r="3" spans="1:7" ht="16.5">
+    <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="13">
         <v>2</v>
       </c>
@@ -1812,7 +1857,7 @@
       <c r="F3" s="9"/>
       <c r="G3" s="9"/>
     </row>
-    <row r="4" spans="1:7" ht="191.25" customHeight="1">
+    <row r="4" spans="1:7" ht="191.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="13">
         <v>3</v>
       </c>
@@ -1831,7 +1876,7 @@
       <c r="F4" s="9"/>
       <c r="G4" s="9"/>
     </row>
-    <row r="5" spans="1:7" ht="74.25" customHeight="1">
+    <row r="5" spans="1:7" ht="74.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="13">
         <v>4</v>
       </c>
@@ -1850,7 +1895,7 @@
       <c r="F5" s="9"/>
       <c r="G5" s="9"/>
     </row>
-    <row r="6" spans="1:7" ht="217.5" customHeight="1">
+    <row r="6" spans="1:7" ht="217.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="13">
         <v>5</v>
       </c>
@@ -1869,7 +1914,7 @@
       <c r="F6" s="9"/>
       <c r="G6" s="9"/>
     </row>
-    <row r="7" spans="1:7" ht="172.5" customHeight="1">
+    <row r="7" spans="1:7" ht="172.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="13">
         <v>6</v>
       </c>
@@ -1888,7 +1933,7 @@
       <c r="F7" s="9"/>
       <c r="G7" s="9"/>
     </row>
-    <row r="8" spans="1:7" ht="243.75" customHeight="1">
+    <row r="8" spans="1:7" ht="243.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="13">
         <v>7</v>
       </c>
@@ -1905,7 +1950,7 @@
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
     </row>
-    <row r="9" spans="1:7" ht="49.5">
+    <row r="9" spans="1:7" ht="33" x14ac:dyDescent="0.15">
       <c r="A9" s="13">
         <v>8</v>
       </c>
@@ -1922,7 +1967,7 @@
       <c r="F9" s="9"/>
       <c r="G9" s="9"/>
     </row>
-    <row r="10" spans="1:7" ht="16.5">
+    <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A10" s="13">
         <v>9</v>
       </c>
@@ -1943,7 +1988,7 @@
       </c>
       <c r="G10" s="9"/>
     </row>
-    <row r="11" spans="1:7" ht="16.5">
+    <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A11" s="13">
         <v>10</v>
       </c>
@@ -1964,7 +2009,7 @@
       </c>
       <c r="G11" s="9"/>
     </row>
-    <row r="12" spans="1:7" ht="33">
+    <row r="12" spans="1:7" ht="33" x14ac:dyDescent="0.15">
       <c r="A12" s="13">
         <v>11</v>
       </c>
@@ -1985,7 +2030,7 @@
       </c>
       <c r="G12" s="9"/>
     </row>
-    <row r="13" spans="1:7" ht="33">
+    <row r="13" spans="1:7" ht="33" x14ac:dyDescent="0.15">
       <c r="A13" s="13">
         <v>12</v>
       </c>
@@ -2006,7 +2051,7 @@
       </c>
       <c r="G13" s="9"/>
     </row>
-    <row r="14" spans="1:7" ht="66">
+    <row r="14" spans="1:7" ht="66" x14ac:dyDescent="0.15">
       <c r="A14" s="13">
         <v>13</v>
       </c>
@@ -2027,7 +2072,7 @@
       </c>
       <c r="G14" s="9"/>
     </row>
-    <row r="15" spans="1:7" ht="33">
+    <row r="15" spans="1:7" ht="33" x14ac:dyDescent="0.15">
       <c r="A15" s="13">
         <v>14</v>
       </c>
@@ -2048,7 +2093,7 @@
       </c>
       <c r="G15" s="9"/>
     </row>
-    <row r="16" spans="1:7" ht="16.5">
+    <row r="16" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A16" s="13">
         <v>15</v>
       </c>
@@ -2069,7 +2114,7 @@
       </c>
       <c r="G16" s="9"/>
     </row>
-    <row r="17" spans="1:7" ht="186.75" customHeight="1">
+    <row r="17" spans="1:7" ht="186.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="13">
         <v>16</v>
       </c>
@@ -2090,7 +2135,7 @@
       </c>
       <c r="G17" s="9"/>
     </row>
-    <row r="18" spans="1:7" ht="216.75" customHeight="1">
+    <row r="18" spans="1:7" ht="216.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="13">
         <v>17</v>
       </c>
@@ -2111,7 +2156,7 @@
       </c>
       <c r="G18" s="9"/>
     </row>
-    <row r="19" spans="1:7" ht="16.5">
+    <row r="19" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A19" s="13">
         <v>18</v>
       </c>
@@ -2132,7 +2177,7 @@
       </c>
       <c r="G19" s="9"/>
     </row>
-    <row r="20" spans="1:7" ht="199.5" customHeight="1">
+    <row r="20" spans="1:7" ht="199.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="13">
         <v>19</v>
       </c>
@@ -2151,7 +2196,7 @@
       </c>
       <c r="G20" s="9"/>
     </row>
-    <row r="21" spans="1:7" ht="163.5" customHeight="1">
+    <row r="21" spans="1:7" ht="163.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="13">
         <v>20</v>
       </c>
@@ -2170,7 +2215,7 @@
       </c>
       <c r="G21" s="9"/>
     </row>
-    <row r="22" spans="1:7" ht="162" customHeight="1">
+    <row r="22" spans="1:7" ht="162" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="13">
         <v>21</v>
       </c>
@@ -2187,7 +2232,7 @@
       <c r="F22" s="9"/>
       <c r="G22" s="9"/>
     </row>
-    <row r="23" spans="1:7" ht="178.5" customHeight="1">
+    <row r="23" spans="1:7" ht="178.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="13">
         <v>22</v>
       </c>
@@ -2208,7 +2253,7 @@
       </c>
       <c r="G23" s="9"/>
     </row>
-    <row r="24" spans="1:7" ht="198" customHeight="1">
+    <row r="24" spans="1:7" ht="198" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="13">
         <v>23</v>
       </c>
@@ -2229,7 +2274,7 @@
       </c>
       <c r="G24" s="9"/>
     </row>
-    <row r="25" spans="1:7" ht="240.75" customHeight="1">
+    <row r="25" spans="1:7" ht="240.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="13">
         <v>24</v>
       </c>
@@ -2250,7 +2295,7 @@
       </c>
       <c r="G25" s="9"/>
     </row>
-    <row r="26" spans="1:7" ht="49.5">
+    <row r="26" spans="1:7" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A26" s="13">
         <v>25</v>
       </c>
@@ -2271,7 +2316,7 @@
       </c>
       <c r="G26" s="9"/>
     </row>
-    <row r="27" spans="1:7" ht="190.5" customHeight="1">
+    <row r="27" spans="1:7" ht="190.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="13">
         <v>26</v>
       </c>
@@ -2292,7 +2337,7 @@
       </c>
       <c r="G27" s="9"/>
     </row>
-    <row r="28" spans="1:7" ht="188.25" customHeight="1">
+    <row r="28" spans="1:7" ht="188.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="13">
         <v>27</v>
       </c>
@@ -2313,7 +2358,7 @@
       </c>
       <c r="G28" s="9"/>
     </row>
-    <row r="29" spans="1:7" ht="33">
+    <row r="29" spans="1:7" ht="33" x14ac:dyDescent="0.15">
       <c r="A29" s="13">
         <v>28</v>
       </c>
@@ -2334,7 +2379,7 @@
       </c>
       <c r="G29" s="9"/>
     </row>
-    <row r="30" spans="1:7" ht="16.5">
+    <row r="30" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A30" s="13">
         <v>29</v>
       </c>
@@ -2355,7 +2400,7 @@
       </c>
       <c r="G30" s="9"/>
     </row>
-    <row r="31" spans="1:7" ht="33">
+    <row r="31" spans="1:7" ht="33" x14ac:dyDescent="0.15">
       <c r="A31" s="13">
         <v>30</v>
       </c>
@@ -2376,7 +2421,7 @@
       </c>
       <c r="G31" s="9"/>
     </row>
-    <row r="32" spans="1:7" ht="121.5" customHeight="1">
+    <row r="32" spans="1:7" ht="121.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="13">
         <v>31</v>
       </c>
@@ -2397,7 +2442,7 @@
       </c>
       <c r="G32" s="9"/>
     </row>
-    <row r="33" spans="1:7" ht="99">
+    <row r="33" spans="1:7" ht="99" x14ac:dyDescent="0.15">
       <c r="A33" s="13">
         <v>32</v>
       </c>
@@ -2418,7 +2463,7 @@
       </c>
       <c r="G33" s="9"/>
     </row>
-    <row r="34" spans="1:7" ht="49.5">
+    <row r="34" spans="1:7" ht="33" x14ac:dyDescent="0.15">
       <c r="A34" s="13">
         <v>33</v>
       </c>
@@ -2439,7 +2484,7 @@
       </c>
       <c r="G34" s="9"/>
     </row>
-    <row r="35" spans="1:7" ht="16.5">
+    <row r="35" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A35" s="13">
         <v>34</v>
       </c>
@@ -2460,7 +2505,7 @@
       </c>
       <c r="G35" s="3"/>
     </row>
-    <row r="36" spans="1:7" ht="82.5">
+    <row r="36" spans="1:7" ht="66" x14ac:dyDescent="0.35">
       <c r="A36" s="13">
         <v>35</v>
       </c>
@@ -2481,7 +2526,7 @@
       </c>
       <c r="G36" s="3"/>
     </row>
-    <row r="37" spans="1:7" ht="16.5">
+    <row r="37" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A37" s="13"/>
       <c r="B37" s="3"/>
       <c r="C37" s="6"/>
@@ -2490,7 +2535,7 @@
       <c r="F37" s="3"/>
       <c r="G37" s="3"/>
     </row>
-    <row r="38" spans="1:7" ht="16.5">
+    <row r="38" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A38" s="13"/>
       <c r="B38" s="3"/>
       <c r="C38" s="6"/>
@@ -2499,7 +2544,7 @@
       <c r="F38" s="3"/>
       <c r="G38" s="3"/>
     </row>
-    <row r="39" spans="1:7" ht="16.5">
+    <row r="39" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A39" s="13"/>
       <c r="B39" s="3"/>
       <c r="C39" s="6"/>
@@ -2508,7 +2553,7 @@
       <c r="F39" s="3"/>
       <c r="G39" s="3"/>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A40" s="14"/>
       <c r="B40" s="4"/>
       <c r="C40" s="7"/>
@@ -2517,7 +2562,7 @@
       <c r="F40" s="4"/>
       <c r="G40" s="4"/>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A41" s="12"/>
       <c r="B41" s="2"/>
       <c r="C41" s="5"/>
@@ -2539,22 +2584,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E16" sqref="E16:F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="11.85546875" customWidth="1"/>
-    <col min="2" max="2" width="15.85546875" customWidth="1"/>
+    <col min="1" max="1" width="11.875" customWidth="1"/>
+    <col min="2" max="2" width="15.875" customWidth="1"/>
     <col min="3" max="3" width="56" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" customWidth="1"/>
-    <col min="5" max="5" width="15.85546875" customWidth="1"/>
+    <col min="4" max="4" width="15.375" customWidth="1"/>
+    <col min="5" max="5" width="15.875" customWidth="1"/>
     <col min="6" max="6" width="19" customWidth="1"/>
-    <col min="7" max="7" width="61.85546875" customWidth="1"/>
+    <col min="7" max="7" width="61.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -2575,7 +2621,7 @@
       </c>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:7" ht="210.75" customHeight="1">
+    <row r="2" spans="1:7" ht="210.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22">
         <v>1</v>
       </c>
@@ -2596,7 +2642,7 @@
       </c>
       <c r="G2" s="21"/>
     </row>
-    <row r="3" spans="1:7" ht="210.75" customHeight="1">
+    <row r="3" spans="1:7" ht="210.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="22">
         <v>2</v>
       </c>
@@ -2617,7 +2663,7 @@
       </c>
       <c r="G3" s="21"/>
     </row>
-    <row r="4" spans="1:7" ht="210.75" customHeight="1">
+    <row r="4" spans="1:7" ht="210.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="22">
         <v>3</v>
       </c>
@@ -2636,7 +2682,7 @@
       </c>
       <c r="G4" s="21"/>
     </row>
-    <row r="5" spans="1:7" ht="210.75" customHeight="1">
+    <row r="5" spans="1:7" ht="210.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="22">
         <v>4</v>
       </c>
@@ -2655,7 +2701,7 @@
       </c>
       <c r="G5" s="21"/>
     </row>
-    <row r="6" spans="1:7" ht="210.75" customHeight="1">
+    <row r="6" spans="1:7" ht="210.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="22">
         <v>5</v>
       </c>
@@ -2674,7 +2720,7 @@
       </c>
       <c r="G6" s="21"/>
     </row>
-    <row r="7" spans="1:7" ht="130.5" customHeight="1">
+    <row r="7" spans="1:7" ht="130.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="22">
         <v>6</v>
       </c>
@@ -2693,7 +2739,7 @@
       </c>
       <c r="G7" s="21"/>
     </row>
-    <row r="8" spans="1:7" ht="210.75" customHeight="1">
+    <row r="8" spans="1:7" ht="210.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="22">
         <v>7</v>
       </c>
@@ -2701,94 +2747,102 @@
         <v>65</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="D8" s="22" t="s">
-        <v>76</v>
-      </c>
-      <c r="E8" s="24"/>
+        <v>82</v>
+      </c>
+      <c r="E8" s="24">
+        <v>42024</v>
+      </c>
       <c r="F8" s="24">
         <v>42024</v>
       </c>
       <c r="G8" s="21"/>
     </row>
-    <row r="9" spans="1:7" ht="210.75" customHeight="1">
+    <row r="9" spans="1:7" ht="210.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="22">
         <v>8</v>
       </c>
       <c r="B9" s="22" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C9" s="23" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="D9" s="22" t="s">
-        <v>76</v>
-      </c>
-      <c r="E9" s="24"/>
+        <v>85</v>
+      </c>
+      <c r="E9" s="24">
+        <v>42024</v>
+      </c>
       <c r="F9" s="24">
         <v>42024</v>
       </c>
       <c r="G9" s="21"/>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" s="22">
         <v>9</v>
       </c>
       <c r="B10" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="C10" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="C10" s="23" t="s">
-        <v>79</v>
-      </c>
       <c r="D10" s="22" t="s">
-        <v>76</v>
-      </c>
-      <c r="E10" s="24"/>
+        <v>84</v>
+      </c>
+      <c r="E10" s="24">
+        <v>42024</v>
+      </c>
       <c r="F10" s="24">
         <v>42024</v>
       </c>
       <c r="G10" s="21"/>
     </row>
-    <row r="11" spans="1:7" ht="30">
+    <row r="11" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A11" s="22">
         <v>10</v>
       </c>
       <c r="B11" s="22" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C11" s="25" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="D11" s="22" t="s">
-        <v>76</v>
-      </c>
-      <c r="E11" s="24"/>
+        <v>89</v>
+      </c>
+      <c r="E11" s="24">
+        <v>42024</v>
+      </c>
       <c r="F11" s="24">
         <v>42024</v>
       </c>
       <c r="G11" s="21"/>
     </row>
-    <row r="12" spans="1:7" ht="195" customHeight="1">
+    <row r="12" spans="1:7" ht="195" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="22">
         <v>11</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C12" s="23" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="D12" s="22" t="s">
-        <v>76</v>
-      </c>
-      <c r="E12" s="24"/>
-      <c r="F12" s="24">
+        <v>94</v>
+      </c>
+      <c r="E12" s="24">
         <v>42024</v>
       </c>
+      <c r="F12" s="24"/>
       <c r="G12" s="21"/>
     </row>
-    <row r="13" spans="1:7" ht="210.75" customHeight="1">
+    <row r="13" spans="1:7" ht="210.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="22">
         <v>12</v>
       </c>
@@ -2796,56 +2850,58 @@
         <v>47</v>
       </c>
       <c r="C13" s="23" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="D13" s="22" t="s">
-        <v>76</v>
-      </c>
-      <c r="E13" s="24"/>
+        <v>57</v>
+      </c>
+      <c r="E13" s="24">
+        <v>42024</v>
+      </c>
       <c r="F13" s="24">
         <v>42024</v>
       </c>
       <c r="G13" s="21"/>
     </row>
-    <row r="14" spans="1:7" ht="210.75" customHeight="1">
+    <row r="14" spans="1:7" ht="210.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="22">
         <v>13</v>
       </c>
       <c r="B14" s="22" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C14" s="25" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="D14" s="22" t="s">
-        <v>76</v>
-      </c>
-      <c r="E14" s="24"/>
-      <c r="F14" s="24">
+        <v>88</v>
+      </c>
+      <c r="E14" s="24">
         <v>42024</v>
       </c>
+      <c r="F14" s="24"/>
       <c r="G14" s="21"/>
     </row>
-    <row r="15" spans="1:7" ht="195" customHeight="1">
+    <row r="15" spans="1:7" ht="195" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="22">
         <v>14</v>
       </c>
       <c r="B15" s="22" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C15" s="25" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="D15" s="22" t="s">
-        <v>76</v>
-      </c>
-      <c r="E15" s="24"/>
-      <c r="F15" s="24">
+        <v>75</v>
+      </c>
+      <c r="E15" s="24">
         <v>42024</v>
       </c>
+      <c r="F15" s="24"/>
       <c r="G15" s="21"/>
     </row>
-    <row r="16" spans="1:7" ht="210.75" customHeight="1">
+    <row r="16" spans="1:7" ht="210.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="22">
         <v>15</v>
       </c>
@@ -2853,37 +2909,39 @@
         <v>65</v>
       </c>
       <c r="C16" s="25" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="D16" s="22" t="s">
-        <v>76</v>
-      </c>
-      <c r="E16" s="24"/>
+        <v>96</v>
+      </c>
+      <c r="E16" s="24">
+        <v>42024</v>
+      </c>
       <c r="F16" s="24">
         <v>42024</v>
       </c>
       <c r="G16" s="21"/>
     </row>
-    <row r="17" spans="1:7" ht="210.75" customHeight="1">
+    <row r="17" spans="1:7" ht="210.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="22">
         <v>16</v>
       </c>
       <c r="B17" s="22" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C17" s="25" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="D17" s="22" t="s">
-        <v>76</v>
-      </c>
-      <c r="E17" s="24"/>
-      <c r="F17" s="24">
+        <v>95</v>
+      </c>
+      <c r="E17" s="24">
         <v>42024</v>
       </c>
+      <c r="F17" s="24"/>
       <c r="G17" s="21"/>
     </row>
-    <row r="18" spans="1:7" ht="210.75" customHeight="1">
+    <row r="18" spans="1:7" ht="210.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="22">
         <v>17</v>
       </c>
@@ -2894,7 +2952,7 @@
       <c r="F18" s="22"/>
       <c r="G18" s="21"/>
     </row>
-    <row r="19" spans="1:7" ht="210.75" customHeight="1">
+    <row r="19" spans="1:7" ht="210.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="22"/>
       <c r="B19" s="22"/>
       <c r="C19" s="23"/>
@@ -2903,7 +2961,7 @@
       <c r="F19" s="22"/>
       <c r="G19" s="21"/>
     </row>
-    <row r="20" spans="1:7" ht="210.75" customHeight="1">
+    <row r="20" spans="1:7" ht="210.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="22"/>
       <c r="B20" s="22"/>
       <c r="C20" s="23"/>
@@ -2912,7 +2970,7 @@
       <c r="F20" s="22"/>
       <c r="G20" s="21"/>
     </row>
-    <row r="21" spans="1:7" ht="210.75" customHeight="1">
+    <row r="21" spans="1:7" ht="210.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="22"/>
       <c r="B21" s="22"/>
       <c r="C21" s="23"/>
@@ -2921,7 +2979,7 @@
       <c r="F21" s="22"/>
       <c r="G21" s="21"/>
     </row>
-    <row r="22" spans="1:7" ht="210.75" customHeight="1">
+    <row r="22" spans="1:7" ht="210.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="22"/>
       <c r="B22" s="22"/>
       <c r="C22" s="23"/>
@@ -2930,7 +2988,7 @@
       <c r="F22" s="22"/>
       <c r="G22" s="21"/>
     </row>
-    <row r="23" spans="1:7" ht="210.75" customHeight="1">
+    <row r="23" spans="1:7" ht="210.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="22"/>
       <c r="B23" s="22"/>
       <c r="C23" s="23"/>
@@ -2939,7 +2997,7 @@
       <c r="F23" s="22"/>
       <c r="G23" s="21"/>
     </row>
-    <row r="24" spans="1:7" ht="210.75" customHeight="1">
+    <row r="24" spans="1:7" ht="210.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="22"/>
       <c r="B24" s="22"/>
       <c r="C24" s="23"/>
@@ -2948,7 +3006,7 @@
       <c r="F24" s="22"/>
       <c r="G24" s="21"/>
     </row>
-    <row r="25" spans="1:7" ht="210.75" customHeight="1">
+    <row r="25" spans="1:7" ht="210.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="22"/>
       <c r="B25" s="22"/>
       <c r="C25" s="23"/>
@@ -2957,7 +3015,7 @@
       <c r="F25" s="22"/>
       <c r="G25" s="21"/>
     </row>
-    <row r="26" spans="1:7" ht="210.75" customHeight="1">
+    <row r="26" spans="1:7" ht="210.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="22"/>
       <c r="B26" s="22"/>
       <c r="C26" s="23"/>
@@ -2966,7 +3024,7 @@
       <c r="F26" s="22"/>
       <c r="G26" s="21"/>
     </row>
-    <row r="27" spans="1:7" ht="210.75" customHeight="1">
+    <row r="27" spans="1:7" ht="210.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="22"/>
       <c r="B27" s="22"/>
       <c r="C27" s="23"/>
@@ -2975,7 +3033,7 @@
       <c r="F27" s="22"/>
       <c r="G27" s="21"/>
     </row>
-    <row r="28" spans="1:7" ht="210.75" customHeight="1">
+    <row r="28" spans="1:7" ht="210.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="22"/>
       <c r="B28" s="22"/>
       <c r="C28" s="23"/>
@@ -2984,7 +3042,7 @@
       <c r="F28" s="22"/>
       <c r="G28" s="21"/>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A29" s="21"/>
       <c r="B29" s="21"/>
       <c r="C29" s="21"/>
@@ -2993,7 +3051,7 @@
       <c r="F29" s="21"/>
       <c r="G29" s="21"/>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A30" s="21"/>
       <c r="B30" s="21"/>
       <c r="C30" s="21"/>
@@ -3002,7 +3060,7 @@
       <c r="F30" s="21"/>
       <c r="G30" s="21"/>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A31" s="21"/>
       <c r="B31" s="21"/>
       <c r="C31" s="21"/>
@@ -3011,7 +3069,7 @@
       <c r="F31" s="21"/>
       <c r="G31" s="21"/>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A32" s="21"/>
       <c r="B32" s="21"/>
       <c r="C32" s="21"/>
@@ -3020,7 +3078,7 @@
       <c r="F32" s="21"/>
       <c r="G32" s="21"/>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A33" s="21"/>
       <c r="B33" s="21"/>
       <c r="C33" s="21"/>
@@ -3029,7 +3087,7 @@
       <c r="F33" s="21"/>
       <c r="G33" s="21"/>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A34" s="21"/>
       <c r="B34" s="21"/>
       <c r="C34" s="21"/>
@@ -3038,7 +3096,7 @@
       <c r="F34" s="21"/>
       <c r="G34" s="21"/>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A35" s="21"/>
       <c r="B35" s="21"/>
       <c r="C35" s="21"/>
@@ -3047,7 +3105,7 @@
       <c r="F35" s="21"/>
       <c r="G35" s="21"/>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A36" s="21"/>
       <c r="B36" s="21"/>
       <c r="C36" s="21"/>
@@ -3056,7 +3114,7 @@
       <c r="F36" s="21"/>
       <c r="G36" s="21"/>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A37" s="21"/>
       <c r="B37" s="21"/>
       <c r="C37" s="21"/>
@@ -3065,7 +3123,7 @@
       <c r="F37" s="21"/>
       <c r="G37" s="21"/>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A38" s="21"/>
       <c r="B38" s="21"/>
       <c r="C38" s="21"/>
@@ -3074,7 +3132,7 @@
       <c r="F38" s="21"/>
       <c r="G38" s="21"/>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A39" s="21"/>
       <c r="B39" s="21"/>
       <c r="C39" s="21"/>
@@ -3083,7 +3141,7 @@
       <c r="F39" s="21"/>
       <c r="G39" s="21"/>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A40" s="21"/>
       <c r="B40" s="21"/>
       <c r="C40" s="21"/>
@@ -3092,7 +3150,7 @@
       <c r="F40" s="21"/>
       <c r="G40" s="21"/>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A41" s="21"/>
       <c r="B41" s="21"/>
       <c r="C41" s="21"/>
@@ -3101,7 +3159,7 @@
       <c r="F41" s="21"/>
       <c r="G41" s="21"/>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A42" s="21"/>
       <c r="B42" s="21"/>
       <c r="C42" s="21"/>
@@ -3110,7 +3168,7 @@
       <c r="F42" s="21"/>
       <c r="G42" s="21"/>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A43" s="21"/>
       <c r="B43" s="21"/>
       <c r="C43" s="21"/>
@@ -3119,7 +3177,7 @@
       <c r="F43" s="21"/>
       <c r="G43" s="21"/>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A44" s="21"/>
       <c r="B44" s="21"/>
       <c r="C44" s="21"/>
@@ -3128,7 +3186,7 @@
       <c r="F44" s="21"/>
       <c r="G44" s="21"/>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A45" s="21"/>
       <c r="B45" s="21"/>
       <c r="C45" s="21"/>
@@ -3137,7 +3195,7 @@
       <c r="F45" s="21"/>
       <c r="G45" s="21"/>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A46" s="21"/>
       <c r="B46" s="21"/>
       <c r="C46" s="21"/>
@@ -3146,7 +3204,7 @@
       <c r="F46" s="21"/>
       <c r="G46" s="21"/>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A47" s="21"/>
       <c r="B47" s="21"/>
       <c r="C47" s="21"/>
@@ -3155,7 +3213,7 @@
       <c r="F47" s="21"/>
       <c r="G47" s="21"/>
     </row>
-    <row r="48" spans="1:7">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A48" s="21"/>
       <c r="B48" s="21"/>
       <c r="C48" s="21"/>
@@ -3164,7 +3222,7 @@
       <c r="F48" s="21"/>
       <c r="G48" s="21"/>
     </row>
-    <row r="49" spans="1:7">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A49" s="21"/>
       <c r="B49" s="21"/>
       <c r="C49" s="21"/>
@@ -3173,7 +3231,7 @@
       <c r="F49" s="21"/>
       <c r="G49" s="21"/>
     </row>
-    <row r="50" spans="1:7">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A50" s="21"/>
       <c r="B50" s="21"/>
       <c r="C50" s="21"/>
@@ -3182,7 +3240,7 @@
       <c r="F50" s="21"/>
       <c r="G50" s="21"/>
     </row>
-    <row r="51" spans="1:7">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A51" s="21"/>
       <c r="B51" s="21"/>
       <c r="C51" s="21"/>
@@ -3191,7 +3249,7 @@
       <c r="F51" s="21"/>
       <c r="G51" s="21"/>
     </row>
-    <row r="52" spans="1:7">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A52" s="21"/>
       <c r="B52" s="21"/>
       <c r="C52" s="21"/>
@@ -3200,7 +3258,7 @@
       <c r="F52" s="21"/>
       <c r="G52" s="21"/>
     </row>
-    <row r="53" spans="1:7">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A53" s="21"/>
       <c r="B53" s="21"/>
       <c r="C53" s="21"/>
@@ -3209,7 +3267,7 @@
       <c r="F53" s="21"/>
       <c r="G53" s="21"/>
     </row>
-    <row r="54" spans="1:7">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A54" s="21"/>
       <c r="B54" s="21"/>
       <c r="C54" s="21"/>
@@ -3218,7 +3276,7 @@
       <c r="F54" s="21"/>
       <c r="G54" s="21"/>
     </row>
-    <row r="55" spans="1:7">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A55" s="21"/>
       <c r="B55" s="21"/>
       <c r="C55" s="21"/>
@@ -3227,7 +3285,7 @@
       <c r="F55" s="21"/>
       <c r="G55" s="21"/>
     </row>
-    <row r="56" spans="1:7">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A56" s="21"/>
       <c r="B56" s="21"/>
       <c r="C56" s="21"/>
@@ -3236,7 +3294,7 @@
       <c r="F56" s="21"/>
       <c r="G56" s="21"/>
     </row>
-    <row r="57" spans="1:7">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A57" s="21"/>
       <c r="B57" s="21"/>
       <c r="C57" s="21"/>
@@ -3245,7 +3303,7 @@
       <c r="F57" s="21"/>
       <c r="G57" s="21"/>
     </row>
-    <row r="58" spans="1:7">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A58" s="21"/>
       <c r="B58" s="21"/>
       <c r="C58" s="21"/>
@@ -3254,7 +3312,7 @@
       <c r="F58" s="21"/>
       <c r="G58" s="21"/>
     </row>
-    <row r="59" spans="1:7">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A59" s="21"/>
       <c r="B59" s="21"/>
       <c r="C59" s="21"/>
@@ -3263,7 +3321,7 @@
       <c r="F59" s="21"/>
       <c r="G59" s="21"/>
     </row>
-    <row r="60" spans="1:7">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A60" s="21"/>
       <c r="B60" s="21"/>
       <c r="C60" s="21"/>
@@ -3272,7 +3330,7 @@
       <c r="F60" s="21"/>
       <c r="G60" s="21"/>
     </row>
-    <row r="61" spans="1:7">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A61" s="21"/>
       <c r="B61" s="21"/>
       <c r="C61" s="21"/>
@@ -3281,7 +3339,7 @@
       <c r="F61" s="21"/>
       <c r="G61" s="21"/>
     </row>
-    <row r="62" spans="1:7">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A62" s="21"/>
       <c r="B62" s="21"/>
       <c r="C62" s="21"/>
@@ -3290,7 +3348,7 @@
       <c r="F62" s="21"/>
       <c r="G62" s="21"/>
     </row>
-    <row r="63" spans="1:7">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A63" s="21"/>
       <c r="B63" s="21"/>
       <c r="C63" s="21"/>
@@ -3299,7 +3357,7 @@
       <c r="F63" s="21"/>
       <c r="G63" s="21"/>
     </row>
-    <row r="64" spans="1:7">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A64" s="21"/>
       <c r="B64" s="21"/>
       <c r="C64" s="21"/>
@@ -3308,7 +3366,7 @@
       <c r="F64" s="21"/>
       <c r="G64" s="21"/>
     </row>
-    <row r="65" spans="1:7">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A65" s="21"/>
       <c r="B65" s="21"/>
       <c r="C65" s="21"/>
@@ -3317,7 +3375,7 @@
       <c r="F65" s="21"/>
       <c r="G65" s="21"/>
     </row>
-    <row r="66" spans="1:7">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A66" s="21"/>
       <c r="B66" s="21"/>
       <c r="C66" s="21"/>
@@ -3326,7 +3384,7 @@
       <c r="F66" s="21"/>
       <c r="G66" s="21"/>
     </row>
-    <row r="67" spans="1:7">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A67" s="21"/>
       <c r="B67" s="21"/>
       <c r="C67" s="21"/>
@@ -3335,7 +3393,7 @@
       <c r="F67" s="21"/>
       <c r="G67" s="21"/>
     </row>
-    <row r="68" spans="1:7">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A68" s="21"/>
       <c r="B68" s="21"/>
       <c r="C68" s="21"/>
@@ -3344,7 +3402,7 @@
       <c r="F68" s="21"/>
       <c r="G68" s="21"/>
     </row>
-    <row r="69" spans="1:7">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A69" s="21"/>
       <c r="B69" s="21"/>
       <c r="C69" s="21"/>
@@ -3353,7 +3411,7 @@
       <c r="F69" s="21"/>
       <c r="G69" s="21"/>
     </row>
-    <row r="70" spans="1:7">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A70" s="21"/>
       <c r="B70" s="21"/>
       <c r="C70" s="21"/>
@@ -3362,7 +3420,7 @@
       <c r="F70" s="21"/>
       <c r="G70" s="21"/>
     </row>
-    <row r="71" spans="1:7">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A71" s="21"/>
       <c r="B71" s="21"/>
       <c r="C71" s="21"/>
@@ -3371,7 +3429,7 @@
       <c r="F71" s="21"/>
       <c r="G71" s="21"/>
     </row>
-    <row r="72" spans="1:7">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A72" s="21"/>
       <c r="B72" s="21"/>
       <c r="C72" s="21"/>
@@ -3380,7 +3438,7 @@
       <c r="F72" s="21"/>
       <c r="G72" s="21"/>
     </row>
-    <row r="73" spans="1:7">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A73" s="21"/>
       <c r="B73" s="21"/>
       <c r="C73" s="21"/>
@@ -3389,7 +3447,7 @@
       <c r="F73" s="21"/>
       <c r="G73" s="21"/>
     </row>
-    <row r="74" spans="1:7">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A74" s="21"/>
       <c r="B74" s="21"/>
       <c r="C74" s="21"/>
@@ -3398,7 +3456,7 @@
       <c r="F74" s="21"/>
       <c r="G74" s="21"/>
     </row>
-    <row r="75" spans="1:7">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A75" s="21"/>
       <c r="B75" s="21"/>
       <c r="C75" s="21"/>
@@ -3407,7 +3465,7 @@
       <c r="F75" s="21"/>
       <c r="G75" s="21"/>
     </row>
-    <row r="76" spans="1:7">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A76" s="21"/>
       <c r="B76" s="21"/>
       <c r="C76" s="21"/>
@@ -3416,7 +3474,7 @@
       <c r="F76" s="21"/>
       <c r="G76" s="21"/>
     </row>
-    <row r="77" spans="1:7">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A77" s="21"/>
       <c r="B77" s="21"/>
       <c r="C77" s="21"/>
@@ -3439,7 +3497,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Docs/Testing Issue List.xlsx
+++ b/Docs/Testing Issue List.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Zhongding.git\trunk\Docs\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="315" windowWidth="20115" windowHeight="7755" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="375" windowWidth="20115" windowHeight="7695" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Issue List" sheetId="1" r:id="rId1"/>
     <sheet name="01-2015" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="03-2015" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Issue List'!$A$1:$G$9</definedName>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="100">
   <si>
     <t>#</t>
   </si>
@@ -140,18 +135,6 @@
 客户名称查询也应该使用dropdown 控件</t>
   </si>
   <si>
-    <t>已解决</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>已解决</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>已解决</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>Hold</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -199,24 +182,12 @@
     <t>加上按部门筛选员工的功能</t>
   </si>
   <si>
-    <t>已解决</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>已解决</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>供应商合同的删除按钮没有作用</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>供应商的textbox 稍微放长些；
 货品管理中的供应商没有按照帐套筛选，显示了别的帐套的供应商数据。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>已解决</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -230,27 +201,7 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>部门经理dropdown 不能清空选项； 新增部门时，部门经理dropdown应该为空。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>已解决</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>已解决</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>所属部门 dropdown 一旦选了选项不能清空，检查系统中所有dropdown，需要增加一个空选项，允许用户清空dropdown。另外，允许用户新增员工，不属于任何一个部门。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>用户填写了价格以后，没有点击保存，离开页面前，需要提示用户，没有保存价格信息，确定是否要离开页面。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>已解决</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -291,10 +242,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>已解决</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>待解决</t>
   </si>
   <si>
@@ -378,17 +325,65 @@
   <si>
     <t>已解决</t>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统中供应商管理是分帐套的。在供应商合同管理中，选择货品的时候，会显示别的帐套的货品。
+这里能否改成，只显示当前帐套该供应商相关的货品？</t>
+  </si>
+  <si>
+    <t>未解决</t>
+  </si>
+  <si>
+    <t>大包客户协议维护</t>
+  </si>
+  <si>
+    <t>新建医院之后，点击编辑，之前输入的医院名称在dropdown 中没有显示。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">测试通过 </t>
+  </si>
+  <si>
+    <t>部门经理dropdown 不能清空选项； 新增部门时，部门经理dropdown应该为空。</t>
+  </si>
+  <si>
+    <t>新增部门时，部门经理dropdown应该为空。</t>
+  </si>
+  <si>
+    <t>部门管理</t>
+  </si>
+  <si>
+    <t>部门考核产品维护- 选择的货品应该是当前部门负责的货品，目前显示了所有帐套的货品</t>
+  </si>
+  <si>
+    <t xml:space="preserve">用户可以在货品管理设置货品对应的部门，比如把一个招商货品从事业一部变更为事业二部。
+如果此货品，已经在事业一部的部门管理里设置了产品线设置或考核产品设置，应不允许用户更改部门，提示用户，先改部门设置，再更新货品。
+</t>
+  </si>
+  <si>
+    <t>部门管理页面，产品线设置已经保存过了，当我点部门管理页面的保存按钮时，弹出alert 提示。</t>
+  </si>
+  <si>
+    <t>部门经理选项清空后，点击保存后，之前的选项没有被清空。</t>
+  </si>
+  <si>
+    <t>测试未通过</t>
+  </si>
+  <si>
+    <t>允许用户清空dropdown。另外，允许用户新增员工，不属于任何一个部门。</t>
+  </si>
+  <si>
+    <t>所属部门 dropdown 一旦选了选项不能清空，检查系统中所有dropdown，需要增加一个空选项，允许用户清空dropdown。</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -415,7 +410,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -429,7 +424,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -452,11 +447,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -466,19 +474,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -515,9 +511,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1492,8 +1504,127 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>180541</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>2009524</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9277350" y="1257300"/>
+          <a:ext cx="3476191" cy="2009524"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>170929</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>1600006</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12839700" y="1304925"/>
+          <a:ext cx="4171429" cy="1552381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>93991</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>1910108</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9515475" y="5029200"/>
+          <a:ext cx="3989716" cy="1900583"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1535,7 +1666,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1570,7 +1701,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1782,33 +1913,33 @@
   <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G1" sqref="A1:G1"/>
+      <pane ySplit="1" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="11.125" style="15" customWidth="1"/>
-    <col min="2" max="2" width="22.875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="34.625" style="8" customWidth="1"/>
-    <col min="4" max="4" width="18.75" style="20" customWidth="1"/>
-    <col min="5" max="5" width="15.625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14.375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="51.875" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.125" style="1"/>
+    <col min="1" max="1" width="11.140625" style="11" customWidth="1"/>
+    <col min="2" max="2" width="22.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="34.5703125" style="26" customWidth="1"/>
+    <col min="4" max="4" width="18.7109375" style="16" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="51.85546875" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:7">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="12" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
@@ -1819,754 +1950,764 @@
       </c>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:7" ht="133.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="13">
+    <row r="2" spans="1:7" ht="133.5" customHeight="1">
+      <c r="A2" s="9">
         <v>1</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="7">
+        <v>41950</v>
+      </c>
+      <c r="F2" s="7">
+        <v>42068</v>
+      </c>
+      <c r="G2" s="6"/>
+    </row>
+    <row r="3" spans="1:7" ht="16.5">
+      <c r="A3" s="9">
+        <v>2</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" s="7">
+        <v>41950</v>
+      </c>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+    </row>
+    <row r="4" spans="1:7" ht="191.25" customHeight="1">
+      <c r="A4" s="9">
+        <v>3</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="7">
+        <v>41950</v>
+      </c>
+      <c r="F4" s="7">
+        <v>42068</v>
+      </c>
+      <c r="G4" s="6"/>
+    </row>
+    <row r="5" spans="1:7" ht="74.25" customHeight="1">
+      <c r="A5" s="9">
+        <v>4</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="7">
+        <v>41950</v>
+      </c>
+      <c r="F5" s="7">
+        <v>42068</v>
+      </c>
+      <c r="G5" s="6"/>
+    </row>
+    <row r="6" spans="1:7" ht="217.5" customHeight="1">
+      <c r="A6" s="9">
+        <v>5</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="7">
+        <v>41950</v>
+      </c>
+      <c r="F6" s="7">
+        <v>42068</v>
+      </c>
+      <c r="G6" s="6"/>
+    </row>
+    <row r="7" spans="1:7" ht="172.5" customHeight="1">
+      <c r="A7" s="9">
+        <v>6</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="7">
+        <v>41950</v>
+      </c>
+      <c r="F7" s="7">
+        <v>42068</v>
+      </c>
+      <c r="G7" s="6"/>
+    </row>
+    <row r="8" spans="1:7" ht="243.75" customHeight="1">
+      <c r="A8" s="9">
+        <v>7</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+    </row>
+    <row r="9" spans="1:7" ht="49.5">
+      <c r="A9" s="9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+    </row>
+    <row r="10" spans="1:7" ht="16.5">
+      <c r="A10" s="9">
+        <v>9</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="7">
+        <v>41953</v>
+      </c>
+      <c r="F10" s="7">
+        <v>41954</v>
+      </c>
+      <c r="G10" s="6"/>
+    </row>
+    <row r="11" spans="1:7" ht="16.5">
+      <c r="A11" s="9">
+        <v>10</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" s="7">
+        <v>41953</v>
+      </c>
+      <c r="F11" s="7">
+        <v>41955</v>
+      </c>
+      <c r="G11" s="6"/>
+    </row>
+    <row r="12" spans="1:7" ht="33">
+      <c r="A12" s="9">
+        <v>11</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" s="7">
+        <v>41953</v>
+      </c>
+      <c r="F12" s="7">
+        <v>41954</v>
+      </c>
+      <c r="G12" s="6"/>
+    </row>
+    <row r="13" spans="1:7" ht="33">
+      <c r="A13" s="9">
+        <v>12</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" s="7">
+        <v>41953</v>
+      </c>
+      <c r="F13" s="7">
+        <v>41954</v>
+      </c>
+      <c r="G13" s="6"/>
+    </row>
+    <row r="14" spans="1:7" ht="66">
+      <c r="A14" s="9">
+        <v>13</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" s="7">
+        <v>41953</v>
+      </c>
+      <c r="F14" s="7">
+        <v>41955</v>
+      </c>
+      <c r="G14" s="6"/>
+    </row>
+    <row r="15" spans="1:7" ht="33">
+      <c r="A15" s="9">
+        <v>14</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15" s="7">
+        <v>41953</v>
+      </c>
+      <c r="F15" s="7">
+        <v>41954</v>
+      </c>
+      <c r="G15" s="6"/>
+    </row>
+    <row r="16" spans="1:7" ht="16.5">
+      <c r="A16" s="9">
+        <v>15</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16" s="7">
+        <v>41953</v>
+      </c>
+      <c r="F16" s="7">
+        <v>41955</v>
+      </c>
+      <c r="G16" s="6"/>
+    </row>
+    <row r="17" spans="1:7" ht="186.75" customHeight="1">
+      <c r="A17" s="9">
+        <v>16</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17" s="7">
+        <v>41956</v>
+      </c>
+      <c r="F17" s="7">
+        <v>42068</v>
+      </c>
+      <c r="G17" s="6"/>
+    </row>
+    <row r="18" spans="1:7" ht="216.75" customHeight="1">
+      <c r="A18" s="9">
+        <v>17</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18" s="7">
+        <v>41956</v>
+      </c>
+      <c r="F18" s="7">
+        <v>41956</v>
+      </c>
+      <c r="G18" s="6"/>
+    </row>
+    <row r="19" spans="1:7" ht="16.5">
+      <c r="A19" s="9">
+        <v>18</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E19" s="7">
+        <v>41962</v>
+      </c>
+      <c r="F19" s="7">
+        <v>42068</v>
+      </c>
+      <c r="G19" s="6"/>
+    </row>
+    <row r="20" spans="1:7" ht="199.5" customHeight="1">
+      <c r="A20" s="9">
+        <v>19</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E20" s="6"/>
+      <c r="F20" s="7">
+        <v>42068</v>
+      </c>
+      <c r="G20" s="6"/>
+    </row>
+    <row r="21" spans="1:7" ht="163.5" customHeight="1">
+      <c r="A21" s="9">
+        <v>20</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E21" s="6"/>
+      <c r="F21" s="7">
+        <v>42068</v>
+      </c>
+      <c r="G21" s="6"/>
+    </row>
+    <row r="22" spans="1:7" ht="162" customHeight="1">
+      <c r="A22" s="9">
+        <v>21</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+    </row>
+    <row r="23" spans="1:7" ht="178.5" customHeight="1">
+      <c r="A23" s="9">
+        <v>22</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C23" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E23" s="7">
+        <v>41976</v>
+      </c>
+      <c r="F23" s="7">
+        <v>42068</v>
+      </c>
+      <c r="G23" s="6"/>
+    </row>
+    <row r="24" spans="1:7" ht="198" customHeight="1">
+      <c r="A24" s="9">
+        <v>23</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C24" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E24" s="7">
+        <v>41976</v>
+      </c>
+      <c r="F24" s="7">
+        <v>42068</v>
+      </c>
+      <c r="G24" s="6"/>
+    </row>
+    <row r="25" spans="1:7" ht="240.75" customHeight="1">
+      <c r="A25" s="9">
+        <v>24</v>
+      </c>
+      <c r="B25" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="11">
-        <v>41950</v>
-      </c>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-    </row>
-    <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A3" s="13">
-        <v>2</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="17" t="s">
+      <c r="C25" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="D25" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="E3" s="11">
-        <v>41950</v>
-      </c>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-    </row>
-    <row r="4" spans="1:7" ht="191.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="13">
-        <v>3</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="11">
-        <v>41950</v>
-      </c>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-    </row>
-    <row r="5" spans="1:7" ht="74.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="13">
-        <v>4</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="11">
-        <v>41950</v>
-      </c>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-    </row>
-    <row r="6" spans="1:7" ht="217.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="13">
-        <v>5</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="11">
-        <v>41950</v>
-      </c>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-    </row>
-    <row r="7" spans="1:7" ht="172.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="13">
-        <v>6</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="11">
-        <v>41950</v>
-      </c>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-    </row>
-    <row r="8" spans="1:7" ht="243.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="13">
-        <v>7</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-    </row>
-    <row r="9" spans="1:7" ht="33" x14ac:dyDescent="0.15">
-      <c r="A9" s="13">
-        <v>8</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-    </row>
-    <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A10" s="13">
-        <v>9</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="17" t="s">
+      <c r="E25" s="7">
+        <v>41976</v>
+      </c>
+      <c r="F25" s="7">
+        <v>42068</v>
+      </c>
+      <c r="G25" s="6"/>
+    </row>
+    <row r="26" spans="1:7" ht="49.5">
+      <c r="A26" s="9">
+        <v>25</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C26" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="D26" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="E10" s="11">
-        <v>41953</v>
-      </c>
-      <c r="F10" s="11">
-        <v>41954</v>
-      </c>
-      <c r="G10" s="9"/>
-    </row>
-    <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A11" s="13">
-        <v>10</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11" s="17" t="s">
+      <c r="E26" s="7">
+        <v>41976</v>
+      </c>
+      <c r="F26" s="7">
+        <v>42068</v>
+      </c>
+      <c r="G26" s="6"/>
+    </row>
+    <row r="27" spans="1:7" ht="190.5" customHeight="1">
+      <c r="A27" s="9">
+        <v>26</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C27" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="D27" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="E11" s="11">
-        <v>41953</v>
-      </c>
-      <c r="F11" s="11">
-        <v>41955</v>
-      </c>
-      <c r="G11" s="9"/>
-    </row>
-    <row r="12" spans="1:7" ht="33" x14ac:dyDescent="0.15">
-      <c r="A12" s="13">
-        <v>11</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D12" s="17" t="s">
+      <c r="E27" s="7">
+        <v>41976</v>
+      </c>
+      <c r="F27" s="7">
+        <v>42068</v>
+      </c>
+      <c r="G27" s="6"/>
+    </row>
+    <row r="28" spans="1:7" ht="188.25" customHeight="1">
+      <c r="A28" s="9">
         <v>27</v>
       </c>
-      <c r="E12" s="11">
-        <v>41953</v>
-      </c>
-      <c r="F12" s="11">
-        <v>41954</v>
-      </c>
-      <c r="G12" s="9"/>
-    </row>
-    <row r="13" spans="1:7" ht="33" x14ac:dyDescent="0.15">
-      <c r="A13" s="13">
-        <v>12</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="D13" s="17" t="s">
+      <c r="B28" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C28" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="D28" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="E13" s="11">
-        <v>41953</v>
-      </c>
-      <c r="F13" s="11">
-        <v>41954</v>
-      </c>
-      <c r="G13" s="9"/>
-    </row>
-    <row r="14" spans="1:7" ht="66" x14ac:dyDescent="0.15">
-      <c r="A14" s="13">
-        <v>13</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" s="17" t="s">
+      <c r="E28" s="7">
+        <v>41976</v>
+      </c>
+      <c r="F28" s="7">
+        <v>42068</v>
+      </c>
+      <c r="G28" s="6"/>
+    </row>
+    <row r="29" spans="1:7" ht="33">
+      <c r="A29" s="9">
+        <v>28</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C29" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="D29" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="E14" s="11">
-        <v>41953</v>
-      </c>
-      <c r="F14" s="11">
-        <v>41955</v>
-      </c>
-      <c r="G14" s="9"/>
-    </row>
-    <row r="15" spans="1:7" ht="33" x14ac:dyDescent="0.15">
-      <c r="A15" s="13">
-        <v>14</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D15" s="17" t="s">
+      <c r="E29" s="7">
+        <v>41976</v>
+      </c>
+      <c r="F29" s="7">
+        <v>42068</v>
+      </c>
+      <c r="G29" s="6"/>
+    </row>
+    <row r="30" spans="1:7" ht="16.5">
+      <c r="A30" s="9">
+        <v>29</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C30" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="D30" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="11">
-        <v>41953</v>
-      </c>
-      <c r="F15" s="11">
-        <v>41954</v>
-      </c>
-      <c r="G15" s="9"/>
-    </row>
-    <row r="16" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A16" s="13">
-        <v>15</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" s="17" t="s">
+      <c r="E30" s="7">
+        <v>41976</v>
+      </c>
+      <c r="F30" s="7">
+        <v>42068</v>
+      </c>
+      <c r="G30" s="6"/>
+    </row>
+    <row r="31" spans="1:7" ht="33">
+      <c r="A31" s="9">
+        <v>30</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="D31" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="E16" s="11">
-        <v>41953</v>
-      </c>
-      <c r="F16" s="11">
-        <v>41955</v>
-      </c>
-      <c r="G16" s="9"/>
-    </row>
-    <row r="17" spans="1:7" ht="186.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="13">
-        <v>16</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D17" s="17" t="s">
+      <c r="E31" s="7">
+        <v>41976</v>
+      </c>
+      <c r="F31" s="7">
+        <v>42068</v>
+      </c>
+      <c r="G31" s="6"/>
+    </row>
+    <row r="32" spans="1:7" ht="121.5" customHeight="1">
+      <c r="A32" s="9">
+        <v>31</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C32" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="D32" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E32" s="7">
+        <v>41976</v>
+      </c>
+      <c r="F32" s="7">
+        <v>42068</v>
+      </c>
+      <c r="G32" s="6"/>
+    </row>
+    <row r="33" spans="1:7" ht="99">
+      <c r="A33" s="9">
+        <v>32</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C33" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="D33" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="E33" s="7">
+        <v>41976</v>
+      </c>
+      <c r="F33" s="7">
+        <v>42068</v>
+      </c>
+      <c r="G33" s="6"/>
+    </row>
+    <row r="34" spans="1:7" ht="49.5">
+      <c r="A34" s="9">
+        <v>33</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C34" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="D34" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="E34" s="7">
+        <v>41976</v>
+      </c>
+      <c r="F34" s="7">
+        <v>41984</v>
+      </c>
+      <c r="G34" s="6"/>
+    </row>
+    <row r="35" spans="1:7" ht="16.5">
+      <c r="A35" s="9">
         <v>34</v>
       </c>
-      <c r="E17" s="11">
-        <v>41956</v>
-      </c>
-      <c r="F17" s="11">
-        <v>41963</v>
-      </c>
-      <c r="G17" s="9"/>
-    </row>
-    <row r="18" spans="1:7" ht="216.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="13">
-        <v>17</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="D18" s="17" t="s">
+      <c r="B35" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C35" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="D35" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="E18" s="11">
-        <v>41956</v>
-      </c>
-      <c r="F18" s="11">
-        <v>41956</v>
-      </c>
-      <c r="G18" s="9"/>
-    </row>
-    <row r="19" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A19" s="13">
-        <v>18</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="D19" s="17" t="s">
+      <c r="E35" s="7">
+        <v>41976</v>
+      </c>
+      <c r="F35" s="7">
+        <v>42068</v>
+      </c>
+      <c r="G35" s="3"/>
+    </row>
+    <row r="36" spans="1:7" ht="66">
+      <c r="A36" s="9">
         <v>35</v>
       </c>
-      <c r="E19" s="11">
-        <v>41962</v>
-      </c>
-      <c r="F19" s="11">
-        <v>41964</v>
-      </c>
-      <c r="G19" s="9"/>
-    </row>
-    <row r="20" spans="1:7" ht="199.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="13">
-        <v>19</v>
-      </c>
-      <c r="B20" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D20" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="E20" s="9"/>
-      <c r="F20" s="11">
-        <v>41963</v>
-      </c>
-      <c r="G20" s="9"/>
-    </row>
-    <row r="21" spans="1:7" ht="163.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="13">
-        <v>20</v>
-      </c>
-      <c r="B21" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="D21" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="E21" s="9"/>
-      <c r="F21" s="11">
-        <v>41963</v>
-      </c>
-      <c r="G21" s="9"/>
-    </row>
-    <row r="22" spans="1:7" ht="162" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="13">
-        <v>21</v>
-      </c>
-      <c r="B22" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="D22" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
-    </row>
-    <row r="23" spans="1:7" ht="178.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="13">
-        <v>22</v>
-      </c>
-      <c r="B23" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C23" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="D23" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="E23" s="11">
+      <c r="B36" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="C36" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="D36" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E36" s="7">
         <v>41976</v>
       </c>
-      <c r="F23" s="11">
-        <v>41981</v>
-      </c>
-      <c r="G23" s="9"/>
-    </row>
-    <row r="24" spans="1:7" ht="198" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="13">
-        <v>23</v>
-      </c>
-      <c r="B24" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="D24" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="E24" s="11">
-        <v>41976</v>
-      </c>
-      <c r="F24" s="11">
-        <v>41981</v>
-      </c>
-      <c r="G24" s="9"/>
-    </row>
-    <row r="25" spans="1:7" ht="240.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="13">
-        <v>24</v>
-      </c>
-      <c r="B25" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C25" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="D25" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="E25" s="11">
-        <v>41976</v>
-      </c>
-      <c r="F25" s="11">
-        <v>41981</v>
-      </c>
-      <c r="G25" s="9"/>
-    </row>
-    <row r="26" spans="1:7" ht="49.5" x14ac:dyDescent="0.15">
-      <c r="A26" s="13">
-        <v>25</v>
-      </c>
-      <c r="B26" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="C26" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="D26" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="E26" s="11">
-        <v>41976</v>
-      </c>
-      <c r="F26" s="11">
-        <v>41984</v>
-      </c>
-      <c r="G26" s="9"/>
-    </row>
-    <row r="27" spans="1:7" ht="190.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="13">
-        <v>26</v>
-      </c>
-      <c r="B27" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="C27" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="D27" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="E27" s="11">
-        <v>41976</v>
-      </c>
-      <c r="F27" s="11">
-        <v>41981</v>
-      </c>
-      <c r="G27" s="9"/>
-    </row>
-    <row r="28" spans="1:7" ht="188.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="13">
-        <v>27</v>
-      </c>
-      <c r="B28" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="C28" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="D28" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E28" s="11">
-        <v>41976</v>
-      </c>
-      <c r="F28" s="11">
-        <v>41981</v>
-      </c>
-      <c r="G28" s="9"/>
-    </row>
-    <row r="29" spans="1:7" ht="33" x14ac:dyDescent="0.15">
-      <c r="A29" s="13">
-        <v>28</v>
-      </c>
-      <c r="B29" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="C29" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="D29" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="E29" s="11">
-        <v>41976</v>
-      </c>
-      <c r="F29" s="11">
-        <v>41981</v>
-      </c>
-      <c r="G29" s="9"/>
-    </row>
-    <row r="30" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A30" s="13">
-        <v>29</v>
-      </c>
-      <c r="B30" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="C30" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="D30" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E30" s="11">
-        <v>41976</v>
-      </c>
-      <c r="F30" s="11">
-        <v>41983</v>
-      </c>
-      <c r="G30" s="9"/>
-    </row>
-    <row r="31" spans="1:7" ht="33" x14ac:dyDescent="0.15">
-      <c r="A31" s="13">
-        <v>30</v>
-      </c>
-      <c r="B31" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="C31" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="D31" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E31" s="11">
-        <v>41976</v>
-      </c>
-      <c r="F31" s="11">
-        <v>41983</v>
-      </c>
-      <c r="G31" s="9"/>
-    </row>
-    <row r="32" spans="1:7" ht="121.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="13">
-        <v>31</v>
-      </c>
-      <c r="B32" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="C32" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="D32" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E32" s="11">
-        <v>41976</v>
-      </c>
-      <c r="F32" s="11">
-        <v>41983</v>
-      </c>
-      <c r="G32" s="9"/>
-    </row>
-    <row r="33" spans="1:7" ht="99" x14ac:dyDescent="0.15">
-      <c r="A33" s="13">
-        <v>32</v>
-      </c>
-      <c r="B33" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="C33" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="D33" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="E33" s="11">
-        <v>41976</v>
-      </c>
-      <c r="F33" s="11">
-        <v>41983</v>
-      </c>
-      <c r="G33" s="9"/>
-    </row>
-    <row r="34" spans="1:7" ht="33" x14ac:dyDescent="0.15">
-      <c r="A34" s="13">
-        <v>33</v>
-      </c>
-      <c r="B34" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="C34" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="D34" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="E34" s="11">
-        <v>41976</v>
-      </c>
-      <c r="F34" s="11">
-        <v>41984</v>
-      </c>
-      <c r="G34" s="9"/>
-    </row>
-    <row r="35" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A35" s="13">
-        <v>34</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C35" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="D35" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="E35" s="11">
-        <v>41976</v>
-      </c>
-      <c r="F35" s="11">
-        <v>41984</v>
-      </c>
-      <c r="G35" s="3"/>
-    </row>
-    <row r="36" spans="1:7" ht="66" x14ac:dyDescent="0.35">
-      <c r="A36" s="13">
-        <v>35</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C36" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="D36" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="E36" s="11">
-        <v>41976</v>
-      </c>
-      <c r="F36" s="11">
-        <v>41984</v>
+      <c r="F36" s="7">
+        <v>42068</v>
       </c>
       <c r="G36" s="3"/>
     </row>
-    <row r="37" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A37" s="13"/>
-      <c r="B37" s="3"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="18"/>
+    <row r="37" spans="1:7" ht="207" customHeight="1">
+      <c r="A37" s="9"/>
+      <c r="B37" s="22"/>
+      <c r="C37" s="24"/>
+      <c r="D37" s="14"/>
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
       <c r="G37" s="3"/>
     </row>
-    <row r="38" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A38" s="13"/>
+    <row r="38" spans="1:7" ht="16.5">
+      <c r="A38" s="9"/>
       <c r="B38" s="3"/>
-      <c r="C38" s="6"/>
-      <c r="D38" s="18"/>
+      <c r="C38" s="24"/>
+      <c r="D38" s="14"/>
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
       <c r="G38" s="3"/>
     </row>
-    <row r="39" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A39" s="13"/>
+    <row r="39" spans="1:7" ht="16.5">
+      <c r="A39" s="9"/>
       <c r="B39" s="3"/>
-      <c r="C39" s="6"/>
-      <c r="D39" s="18"/>
+      <c r="C39" s="24"/>
+      <c r="D39" s="14"/>
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
       <c r="G39" s="3"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A40" s="14"/>
+    <row r="40" spans="1:7">
+      <c r="A40" s="10"/>
       <c r="B40" s="4"/>
-      <c r="C40" s="7"/>
-      <c r="D40" s="19"/>
+      <c r="C40" s="25"/>
+      <c r="D40" s="15"/>
       <c r="E40" s="4"/>
       <c r="F40" s="4"/>
       <c r="G40" s="4"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A41" s="12"/>
+    <row r="41" spans="1:7">
+      <c r="A41" s="8"/>
       <c r="B41" s="2"/>
-      <c r="C41" s="5"/>
-      <c r="D41" s="16"/>
+      <c r="C41" s="23"/>
+      <c r="D41" s="12"/>
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
       <c r="G41" s="2"/>
@@ -2584,24 +2725,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E16" sqref="E16:F16"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.875" customWidth="1"/>
-    <col min="2" max="2" width="15.875" customWidth="1"/>
+    <col min="1" max="1" width="11.85546875" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" customWidth="1"/>
     <col min="3" max="3" width="56" customWidth="1"/>
-    <col min="4" max="4" width="15.375" customWidth="1"/>
-    <col min="5" max="5" width="15.875" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" customWidth="1"/>
     <col min="6" max="6" width="19" customWidth="1"/>
-    <col min="7" max="7" width="61.875" customWidth="1"/>
+    <col min="7" max="7" width="61.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:7">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -2610,7 +2751,7 @@
       <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="12" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
@@ -2621,867 +2762,867 @@
       </c>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:7" ht="210.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="22">
+    <row r="2" spans="1:7" ht="210.75" customHeight="1">
+      <c r="A2" s="18">
         <v>1</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="20">
+        <v>42008</v>
+      </c>
+      <c r="F2" s="20">
+        <v>42068</v>
+      </c>
+      <c r="G2" s="17"/>
+    </row>
+    <row r="3" spans="1:7" ht="210.75" customHeight="1">
+      <c r="A3" s="18">
+        <v>2</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="E3" s="20">
+        <v>42008</v>
+      </c>
+      <c r="F3" s="20">
+        <v>42019</v>
+      </c>
+      <c r="G3" s="17"/>
+    </row>
+    <row r="4" spans="1:7" ht="210.75" customHeight="1">
+      <c r="A4" s="18">
+        <v>3</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20">
+        <v>42019</v>
+      </c>
+      <c r="G4" s="17"/>
+    </row>
+    <row r="5" spans="1:7" ht="210.75" customHeight="1">
+      <c r="A5" s="18">
+        <v>4</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20">
+        <v>42019</v>
+      </c>
+      <c r="G5" s="17"/>
+    </row>
+    <row r="6" spans="1:7" ht="210.75" customHeight="1">
+      <c r="A6" s="18">
+        <v>5</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20">
+        <v>42019</v>
+      </c>
+      <c r="G6" s="17"/>
+    </row>
+    <row r="7" spans="1:7" ht="130.5" customHeight="1">
+      <c r="A7" s="18">
+        <v>6</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20">
+        <v>42019</v>
+      </c>
+      <c r="G7" s="17"/>
+    </row>
+    <row r="8" spans="1:7" ht="210.75" customHeight="1">
+      <c r="A8" s="18">
+        <v>7</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="E8" s="20">
+        <v>42024</v>
+      </c>
+      <c r="F8" s="20">
+        <v>42024</v>
+      </c>
+      <c r="G8" s="17"/>
+    </row>
+    <row r="9" spans="1:7" ht="210.75" customHeight="1">
+      <c r="A9" s="18">
+        <v>8</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="E9" s="20">
+        <v>42024</v>
+      </c>
+      <c r="F9" s="20">
+        <v>42024</v>
+      </c>
+      <c r="G9" s="17"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="18">
+        <v>9</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="C10" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="C2" s="23" t="s">
+      <c r="D10" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="E10" s="20">
+        <v>42024</v>
+      </c>
+      <c r="F10" s="20">
+        <v>42024</v>
+      </c>
+      <c r="G10" s="17"/>
+    </row>
+    <row r="11" spans="1:7" ht="30">
+      <c r="A11" s="18">
+        <v>10</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="C11" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="D11" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="E11" s="20">
+        <v>42024</v>
+      </c>
+      <c r="F11" s="20">
+        <v>42024</v>
+      </c>
+      <c r="G11" s="17"/>
+    </row>
+    <row r="12" spans="1:7" ht="195" customHeight="1">
+      <c r="A12" s="18">
+        <v>11</v>
+      </c>
+      <c r="B12" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="D2" s="22" t="s">
-        <v>73</v>
-      </c>
-      <c r="E2" s="24">
-        <v>42008</v>
-      </c>
-      <c r="F2" s="24">
-        <v>42019</v>
-      </c>
-      <c r="G2" s="21"/>
-    </row>
-    <row r="3" spans="1:7" ht="210.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="22">
-        <v>2</v>
-      </c>
-      <c r="B3" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="C3" s="25" t="s">
-        <v>70</v>
-      </c>
-      <c r="D3" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="E3" s="24">
-        <v>42008</v>
-      </c>
-      <c r="F3" s="24">
-        <v>42019</v>
-      </c>
-      <c r="G3" s="21"/>
-    </row>
-    <row r="4" spans="1:7" ht="210.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="22">
-        <v>3</v>
-      </c>
-      <c r="B4" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="C4" s="25" t="s">
+      <c r="C12" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="E12" s="20">
+        <v>42024</v>
+      </c>
+      <c r="F12" s="20"/>
+      <c r="G12" s="17"/>
+    </row>
+    <row r="13" spans="1:7" ht="210.75" customHeight="1">
+      <c r="A13" s="18">
+        <v>12</v>
+      </c>
+      <c r="B13" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="E13" s="20">
+        <v>42024</v>
+      </c>
+      <c r="F13" s="20">
+        <v>42024</v>
+      </c>
+      <c r="G13" s="17"/>
+    </row>
+    <row r="14" spans="1:7" ht="210.75" customHeight="1">
+      <c r="A14" s="18">
+        <v>13</v>
+      </c>
+      <c r="B14" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="D4" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24">
-        <v>42019</v>
-      </c>
-      <c r="G4" s="21"/>
-    </row>
-    <row r="5" spans="1:7" ht="210.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="22">
-        <v>4</v>
-      </c>
-      <c r="B5" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="C5" s="23" t="s">
-        <v>71</v>
-      </c>
-      <c r="D5" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24">
-        <v>42019</v>
-      </c>
-      <c r="G5" s="21"/>
-    </row>
-    <row r="6" spans="1:7" ht="210.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="22">
-        <v>5</v>
-      </c>
-      <c r="B6" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="C6" s="23" t="s">
-        <v>72</v>
-      </c>
-      <c r="D6" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="E6" s="24"/>
-      <c r="F6" s="24">
-        <v>42019</v>
-      </c>
-      <c r="G6" s="21"/>
-    </row>
-    <row r="7" spans="1:7" ht="130.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="22">
-        <v>6</v>
-      </c>
-      <c r="B7" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="C7" s="25" t="s">
+      <c r="C14" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="E14" s="20">
+        <v>42024</v>
+      </c>
+      <c r="F14" s="20"/>
+      <c r="G14" s="17"/>
+    </row>
+    <row r="15" spans="1:7" ht="195" customHeight="1">
+      <c r="A15" s="18">
+        <v>14</v>
+      </c>
+      <c r="B15" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="C15" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="D15" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="E15" s="20">
+        <v>42024</v>
+      </c>
+      <c r="F15" s="20"/>
+      <c r="G15" s="17"/>
+    </row>
+    <row r="16" spans="1:7" ht="210.75" customHeight="1">
+      <c r="A16" s="18">
+        <v>15</v>
+      </c>
+      <c r="B16" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="C16" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="D7" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24">
-        <v>42019</v>
-      </c>
-      <c r="G7" s="21"/>
-    </row>
-    <row r="8" spans="1:7" ht="210.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="22">
-        <v>7</v>
-      </c>
-      <c r="B8" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="C8" s="25" t="s">
+      <c r="D16" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="E16" s="20">
+        <v>42024</v>
+      </c>
+      <c r="F16" s="20">
+        <v>42024</v>
+      </c>
+      <c r="G16" s="17"/>
+    </row>
+    <row r="17" spans="1:7" ht="210.75" customHeight="1">
+      <c r="A17" s="18">
+        <v>16</v>
+      </c>
+      <c r="B17" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="C17" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="D8" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="E8" s="24">
+      <c r="D17" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="E17" s="20">
         <v>42024</v>
       </c>
-      <c r="F8" s="24">
-        <v>42024</v>
-      </c>
-      <c r="G8" s="21"/>
-    </row>
-    <row r="9" spans="1:7" ht="210.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="22">
-        <v>8</v>
-      </c>
-      <c r="B9" s="22" t="s">
-        <v>76</v>
-      </c>
-      <c r="C9" s="23" t="s">
-        <v>83</v>
-      </c>
-      <c r="D9" s="22" t="s">
-        <v>85</v>
-      </c>
-      <c r="E9" s="24">
-        <v>42024</v>
-      </c>
-      <c r="F9" s="24">
-        <v>42024</v>
-      </c>
-      <c r="G9" s="21"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A10" s="22">
-        <v>9</v>
-      </c>
-      <c r="B10" s="22" t="s">
-        <v>76</v>
-      </c>
-      <c r="C10" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="D10" s="22" t="s">
-        <v>84</v>
-      </c>
-      <c r="E10" s="24">
-        <v>42024</v>
-      </c>
-      <c r="F10" s="24">
-        <v>42024</v>
-      </c>
-      <c r="G10" s="21"/>
-    </row>
-    <row r="11" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A11" s="22">
-        <v>10</v>
-      </c>
-      <c r="B11" s="22" t="s">
-        <v>76</v>
-      </c>
-      <c r="C11" s="25" t="s">
-        <v>86</v>
-      </c>
-      <c r="D11" s="22" t="s">
-        <v>89</v>
-      </c>
-      <c r="E11" s="24">
-        <v>42024</v>
-      </c>
-      <c r="F11" s="24">
-        <v>42024</v>
-      </c>
-      <c r="G11" s="21"/>
-    </row>
-    <row r="12" spans="1:7" ht="195" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="22">
-        <v>11</v>
-      </c>
-      <c r="B12" s="22" t="s">
-        <v>78</v>
-      </c>
-      <c r="C12" s="23" t="s">
-        <v>87</v>
-      </c>
-      <c r="D12" s="22" t="s">
-        <v>94</v>
-      </c>
-      <c r="E12" s="24">
-        <v>42024</v>
-      </c>
-      <c r="F12" s="24"/>
-      <c r="G12" s="21"/>
-    </row>
-    <row r="13" spans="1:7" ht="210.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="22">
-        <v>12</v>
-      </c>
-      <c r="B13" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="C13" s="23" t="s">
-        <v>90</v>
-      </c>
-      <c r="D13" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="E13" s="24">
-        <v>42024</v>
-      </c>
-      <c r="F13" s="24">
-        <v>42024</v>
-      </c>
-      <c r="G13" s="21"/>
-    </row>
-    <row r="14" spans="1:7" ht="210.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="22">
-        <v>13</v>
-      </c>
-      <c r="B14" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="C14" s="25" t="s">
-        <v>91</v>
-      </c>
-      <c r="D14" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="E14" s="24">
-        <v>42024</v>
-      </c>
-      <c r="F14" s="24"/>
-      <c r="G14" s="21"/>
-    </row>
-    <row r="15" spans="1:7" ht="195" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="22">
-        <v>14</v>
-      </c>
-      <c r="B15" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="C15" s="25" t="s">
-        <v>92</v>
-      </c>
-      <c r="D15" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="E15" s="24">
-        <v>42024</v>
-      </c>
-      <c r="F15" s="24"/>
-      <c r="G15" s="21"/>
-    </row>
-    <row r="16" spans="1:7" ht="210.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="22">
-        <v>15</v>
-      </c>
-      <c r="B16" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="C16" s="25" t="s">
-        <v>80</v>
-      </c>
-      <c r="D16" s="22" t="s">
-        <v>96</v>
-      </c>
-      <c r="E16" s="24">
-        <v>42024</v>
-      </c>
-      <c r="F16" s="24">
-        <v>42024</v>
-      </c>
-      <c r="G16" s="21"/>
-    </row>
-    <row r="17" spans="1:7" ht="210.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="22">
-        <v>16</v>
-      </c>
-      <c r="B17" s="22" t="s">
-        <v>78</v>
-      </c>
-      <c r="C17" s="25" t="s">
-        <v>93</v>
-      </c>
-      <c r="D17" s="22" t="s">
-        <v>95</v>
-      </c>
-      <c r="E17" s="24">
-        <v>42024</v>
-      </c>
-      <c r="F17" s="24"/>
-      <c r="G17" s="21"/>
-    </row>
-    <row r="18" spans="1:7" ht="210.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="22">
+      <c r="F17" s="20"/>
+      <c r="G17" s="17"/>
+    </row>
+    <row r="18" spans="1:7" ht="210.75" customHeight="1">
+      <c r="A18" s="18">
         <v>17</v>
       </c>
-      <c r="B18" s="22"/>
-      <c r="C18" s="23"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="24"/>
-      <c r="F18" s="22"/>
-      <c r="G18" s="21"/>
-    </row>
-    <row r="19" spans="1:7" ht="210.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="22"/>
-      <c r="B19" s="22"/>
-      <c r="C19" s="23"/>
-      <c r="D19" s="22"/>
-      <c r="E19" s="24"/>
-      <c r="F19" s="22"/>
-      <c r="G19" s="21"/>
-    </row>
-    <row r="20" spans="1:7" ht="210.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="22"/>
-      <c r="B20" s="22"/>
-      <c r="C20" s="23"/>
-      <c r="D20" s="22"/>
-      <c r="E20" s="24"/>
-      <c r="F20" s="22"/>
-      <c r="G20" s="21"/>
-    </row>
-    <row r="21" spans="1:7" ht="210.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="22"/>
-      <c r="B21" s="22"/>
-      <c r="C21" s="23"/>
-      <c r="D21" s="22"/>
-      <c r="E21" s="24"/>
-      <c r="F21" s="22"/>
-      <c r="G21" s="21"/>
-    </row>
-    <row r="22" spans="1:7" ht="210.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="22"/>
-      <c r="B22" s="22"/>
-      <c r="C22" s="23"/>
-      <c r="D22" s="22"/>
-      <c r="E22" s="24"/>
-      <c r="F22" s="22"/>
-      <c r="G22" s="21"/>
-    </row>
-    <row r="23" spans="1:7" ht="210.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="22"/>
-      <c r="B23" s="22"/>
-      <c r="C23" s="23"/>
-      <c r="D23" s="22"/>
-      <c r="E23" s="24"/>
-      <c r="F23" s="22"/>
-      <c r="G23" s="21"/>
-    </row>
-    <row r="24" spans="1:7" ht="210.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="22"/>
-      <c r="B24" s="22"/>
-      <c r="C24" s="23"/>
-      <c r="D24" s="22"/>
-      <c r="E24" s="24"/>
-      <c r="F24" s="22"/>
-      <c r="G24" s="21"/>
-    </row>
-    <row r="25" spans="1:7" ht="210.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="22"/>
-      <c r="B25" s="22"/>
-      <c r="C25" s="23"/>
-      <c r="D25" s="22"/>
-      <c r="E25" s="24"/>
-      <c r="F25" s="22"/>
-      <c r="G25" s="21"/>
-    </row>
-    <row r="26" spans="1:7" ht="210.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="22"/>
-      <c r="B26" s="22"/>
-      <c r="C26" s="23"/>
-      <c r="D26" s="22"/>
-      <c r="E26" s="24"/>
-      <c r="F26" s="22"/>
-      <c r="G26" s="21"/>
-    </row>
-    <row r="27" spans="1:7" ht="210.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="22"/>
-      <c r="B27" s="22"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="22"/>
-      <c r="E27" s="24"/>
-      <c r="F27" s="22"/>
-      <c r="G27" s="21"/>
-    </row>
-    <row r="28" spans="1:7" ht="210.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="22"/>
-      <c r="B28" s="22"/>
-      <c r="C28" s="23"/>
-      <c r="D28" s="22"/>
-      <c r="E28" s="24"/>
-      <c r="F28" s="22"/>
-      <c r="G28" s="21"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A29" s="21"/>
-      <c r="B29" s="21"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="21"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A30" s="21"/>
-      <c r="B30" s="21"/>
-      <c r="C30" s="21"/>
-      <c r="D30" s="21"/>
-      <c r="E30" s="21"/>
-      <c r="F30" s="21"/>
-      <c r="G30" s="21"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A31" s="21"/>
-      <c r="B31" s="21"/>
-      <c r="C31" s="21"/>
-      <c r="D31" s="21"/>
-      <c r="E31" s="21"/>
-      <c r="F31" s="21"/>
-      <c r="G31" s="21"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A32" s="21"/>
-      <c r="B32" s="21"/>
-      <c r="C32" s="21"/>
-      <c r="D32" s="21"/>
-      <c r="E32" s="21"/>
-      <c r="F32" s="21"/>
-      <c r="G32" s="21"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A33" s="21"/>
-      <c r="B33" s="21"/>
-      <c r="C33" s="21"/>
-      <c r="D33" s="21"/>
-      <c r="E33" s="21"/>
-      <c r="F33" s="21"/>
-      <c r="G33" s="21"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A34" s="21"/>
-      <c r="B34" s="21"/>
-      <c r="C34" s="21"/>
-      <c r="D34" s="21"/>
-      <c r="E34" s="21"/>
-      <c r="F34" s="21"/>
-      <c r="G34" s="21"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A35" s="21"/>
-      <c r="B35" s="21"/>
-      <c r="C35" s="21"/>
-      <c r="D35" s="21"/>
-      <c r="E35" s="21"/>
-      <c r="F35" s="21"/>
-      <c r="G35" s="21"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A36" s="21"/>
-      <c r="B36" s="21"/>
-      <c r="C36" s="21"/>
-      <c r="D36" s="21"/>
-      <c r="E36" s="21"/>
-      <c r="F36" s="21"/>
-      <c r="G36" s="21"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A37" s="21"/>
-      <c r="B37" s="21"/>
-      <c r="C37" s="21"/>
-      <c r="D37" s="21"/>
-      <c r="E37" s="21"/>
-      <c r="F37" s="21"/>
-      <c r="G37" s="21"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A38" s="21"/>
-      <c r="B38" s="21"/>
-      <c r="C38" s="21"/>
-      <c r="D38" s="21"/>
-      <c r="E38" s="21"/>
-      <c r="F38" s="21"/>
-      <c r="G38" s="21"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A39" s="21"/>
-      <c r="B39" s="21"/>
-      <c r="C39" s="21"/>
-      <c r="D39" s="21"/>
-      <c r="E39" s="21"/>
-      <c r="F39" s="21"/>
-      <c r="G39" s="21"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A40" s="21"/>
-      <c r="B40" s="21"/>
-      <c r="C40" s="21"/>
-      <c r="D40" s="21"/>
-      <c r="E40" s="21"/>
-      <c r="F40" s="21"/>
-      <c r="G40" s="21"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A41" s="21"/>
-      <c r="B41" s="21"/>
-      <c r="C41" s="21"/>
-      <c r="D41" s="21"/>
-      <c r="E41" s="21"/>
-      <c r="F41" s="21"/>
-      <c r="G41" s="21"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A42" s="21"/>
-      <c r="B42" s="21"/>
-      <c r="C42" s="21"/>
-      <c r="D42" s="21"/>
-      <c r="E42" s="21"/>
-      <c r="F42" s="21"/>
-      <c r="G42" s="21"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A43" s="21"/>
-      <c r="B43" s="21"/>
-      <c r="C43" s="21"/>
-      <c r="D43" s="21"/>
-      <c r="E43" s="21"/>
-      <c r="F43" s="21"/>
-      <c r="G43" s="21"/>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A44" s="21"/>
-      <c r="B44" s="21"/>
-      <c r="C44" s="21"/>
-      <c r="D44" s="21"/>
-      <c r="E44" s="21"/>
-      <c r="F44" s="21"/>
-      <c r="G44" s="21"/>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A45" s="21"/>
-      <c r="B45" s="21"/>
-      <c r="C45" s="21"/>
-      <c r="D45" s="21"/>
-      <c r="E45" s="21"/>
-      <c r="F45" s="21"/>
-      <c r="G45" s="21"/>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A46" s="21"/>
-      <c r="B46" s="21"/>
-      <c r="C46" s="21"/>
-      <c r="D46" s="21"/>
-      <c r="E46" s="21"/>
-      <c r="F46" s="21"/>
-      <c r="G46" s="21"/>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A47" s="21"/>
-      <c r="B47" s="21"/>
-      <c r="C47" s="21"/>
-      <c r="D47" s="21"/>
-      <c r="E47" s="21"/>
-      <c r="F47" s="21"/>
-      <c r="G47" s="21"/>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A48" s="21"/>
-      <c r="B48" s="21"/>
-      <c r="C48" s="21"/>
-      <c r="D48" s="21"/>
-      <c r="E48" s="21"/>
-      <c r="F48" s="21"/>
-      <c r="G48" s="21"/>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A49" s="21"/>
-      <c r="B49" s="21"/>
-      <c r="C49" s="21"/>
-      <c r="D49" s="21"/>
-      <c r="E49" s="21"/>
-      <c r="F49" s="21"/>
-      <c r="G49" s="21"/>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A50" s="21"/>
-      <c r="B50" s="21"/>
-      <c r="C50" s="21"/>
-      <c r="D50" s="21"/>
-      <c r="E50" s="21"/>
-      <c r="F50" s="21"/>
-      <c r="G50" s="21"/>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A51" s="21"/>
-      <c r="B51" s="21"/>
-      <c r="C51" s="21"/>
-      <c r="D51" s="21"/>
-      <c r="E51" s="21"/>
-      <c r="F51" s="21"/>
-      <c r="G51" s="21"/>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A52" s="21"/>
-      <c r="B52" s="21"/>
-      <c r="C52" s="21"/>
-      <c r="D52" s="21"/>
-      <c r="E52" s="21"/>
-      <c r="F52" s="21"/>
-      <c r="G52" s="21"/>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A53" s="21"/>
-      <c r="B53" s="21"/>
-      <c r="C53" s="21"/>
-      <c r="D53" s="21"/>
-      <c r="E53" s="21"/>
-      <c r="F53" s="21"/>
-      <c r="G53" s="21"/>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A54" s="21"/>
-      <c r="B54" s="21"/>
-      <c r="C54" s="21"/>
-      <c r="D54" s="21"/>
-      <c r="E54" s="21"/>
-      <c r="F54" s="21"/>
-      <c r="G54" s="21"/>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A55" s="21"/>
-      <c r="B55" s="21"/>
-      <c r="C55" s="21"/>
-      <c r="D55" s="21"/>
-      <c r="E55" s="21"/>
-      <c r="F55" s="21"/>
-      <c r="G55" s="21"/>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A56" s="21"/>
-      <c r="B56" s="21"/>
-      <c r="C56" s="21"/>
-      <c r="D56" s="21"/>
-      <c r="E56" s="21"/>
-      <c r="F56" s="21"/>
-      <c r="G56" s="21"/>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A57" s="21"/>
-      <c r="B57" s="21"/>
-      <c r="C57" s="21"/>
-      <c r="D57" s="21"/>
-      <c r="E57" s="21"/>
-      <c r="F57" s="21"/>
-      <c r="G57" s="21"/>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A58" s="21"/>
-      <c r="B58" s="21"/>
-      <c r="C58" s="21"/>
-      <c r="D58" s="21"/>
-      <c r="E58" s="21"/>
-      <c r="F58" s="21"/>
-      <c r="G58" s="21"/>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A59" s="21"/>
-      <c r="B59" s="21"/>
-      <c r="C59" s="21"/>
-      <c r="D59" s="21"/>
-      <c r="E59" s="21"/>
-      <c r="F59" s="21"/>
-      <c r="G59" s="21"/>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A60" s="21"/>
-      <c r="B60" s="21"/>
-      <c r="C60" s="21"/>
-      <c r="D60" s="21"/>
-      <c r="E60" s="21"/>
-      <c r="F60" s="21"/>
-      <c r="G60" s="21"/>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A61" s="21"/>
-      <c r="B61" s="21"/>
-      <c r="C61" s="21"/>
-      <c r="D61" s="21"/>
-      <c r="E61" s="21"/>
-      <c r="F61" s="21"/>
-      <c r="G61" s="21"/>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A62" s="21"/>
-      <c r="B62" s="21"/>
-      <c r="C62" s="21"/>
-      <c r="D62" s="21"/>
-      <c r="E62" s="21"/>
-      <c r="F62" s="21"/>
-      <c r="G62" s="21"/>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A63" s="21"/>
-      <c r="B63" s="21"/>
-      <c r="C63" s="21"/>
-      <c r="D63" s="21"/>
-      <c r="E63" s="21"/>
-      <c r="F63" s="21"/>
-      <c r="G63" s="21"/>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A64" s="21"/>
-      <c r="B64" s="21"/>
-      <c r="C64" s="21"/>
-      <c r="D64" s="21"/>
-      <c r="E64" s="21"/>
-      <c r="F64" s="21"/>
-      <c r="G64" s="21"/>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A65" s="21"/>
-      <c r="B65" s="21"/>
-      <c r="C65" s="21"/>
-      <c r="D65" s="21"/>
-      <c r="E65" s="21"/>
-      <c r="F65" s="21"/>
-      <c r="G65" s="21"/>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A66" s="21"/>
-      <c r="B66" s="21"/>
-      <c r="C66" s="21"/>
-      <c r="D66" s="21"/>
-      <c r="E66" s="21"/>
-      <c r="F66" s="21"/>
-      <c r="G66" s="21"/>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A67" s="21"/>
-      <c r="B67" s="21"/>
-      <c r="C67" s="21"/>
-      <c r="D67" s="21"/>
-      <c r="E67" s="21"/>
-      <c r="F67" s="21"/>
-      <c r="G67" s="21"/>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A68" s="21"/>
-      <c r="B68" s="21"/>
-      <c r="C68" s="21"/>
-      <c r="D68" s="21"/>
-      <c r="E68" s="21"/>
-      <c r="F68" s="21"/>
-      <c r="G68" s="21"/>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A69" s="21"/>
-      <c r="B69" s="21"/>
-      <c r="C69" s="21"/>
-      <c r="D69" s="21"/>
-      <c r="E69" s="21"/>
-      <c r="F69" s="21"/>
-      <c r="G69" s="21"/>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A70" s="21"/>
-      <c r="B70" s="21"/>
-      <c r="C70" s="21"/>
-      <c r="D70" s="21"/>
-      <c r="E70" s="21"/>
-      <c r="F70" s="21"/>
-      <c r="G70" s="21"/>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A71" s="21"/>
-      <c r="B71" s="21"/>
-      <c r="C71" s="21"/>
-      <c r="D71" s="21"/>
-      <c r="E71" s="21"/>
-      <c r="F71" s="21"/>
-      <c r="G71" s="21"/>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A72" s="21"/>
-      <c r="B72" s="21"/>
-      <c r="C72" s="21"/>
-      <c r="D72" s="21"/>
-      <c r="E72" s="21"/>
-      <c r="F72" s="21"/>
-      <c r="G72" s="21"/>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A73" s="21"/>
-      <c r="B73" s="21"/>
-      <c r="C73" s="21"/>
-      <c r="D73" s="21"/>
-      <c r="E73" s="21"/>
-      <c r="F73" s="21"/>
-      <c r="G73" s="21"/>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A74" s="21"/>
-      <c r="B74" s="21"/>
-      <c r="C74" s="21"/>
-      <c r="D74" s="21"/>
-      <c r="E74" s="21"/>
-      <c r="F74" s="21"/>
-      <c r="G74" s="21"/>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A75" s="21"/>
-      <c r="B75" s="21"/>
-      <c r="C75" s="21"/>
-      <c r="D75" s="21"/>
-      <c r="E75" s="21"/>
-      <c r="F75" s="21"/>
-      <c r="G75" s="21"/>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A76" s="21"/>
-      <c r="B76" s="21"/>
-      <c r="C76" s="21"/>
-      <c r="D76" s="21"/>
-      <c r="E76" s="21"/>
-      <c r="F76" s="21"/>
-      <c r="G76" s="21"/>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A77" s="21"/>
-      <c r="B77" s="21"/>
-      <c r="C77" s="21"/>
-      <c r="D77" s="21"/>
-      <c r="E77" s="21"/>
-      <c r="F77" s="21"/>
-      <c r="G77" s="21"/>
+      <c r="B18" s="18"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="17"/>
+    </row>
+    <row r="19" spans="1:7" ht="210.75" customHeight="1">
+      <c r="A19" s="18"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="17"/>
+    </row>
+    <row r="20" spans="1:7" ht="210.75" customHeight="1">
+      <c r="A20" s="18"/>
+      <c r="B20" s="18"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="17"/>
+    </row>
+    <row r="21" spans="1:7" ht="210.75" customHeight="1">
+      <c r="A21" s="18"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="17"/>
+    </row>
+    <row r="22" spans="1:7" ht="210.75" customHeight="1">
+      <c r="A22" s="18"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="17"/>
+    </row>
+    <row r="23" spans="1:7" ht="210.75" customHeight="1">
+      <c r="A23" s="18"/>
+      <c r="B23" s="18"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="17"/>
+    </row>
+    <row r="24" spans="1:7" ht="210.75" customHeight="1">
+      <c r="A24" s="18"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="17"/>
+    </row>
+    <row r="25" spans="1:7" ht="210.75" customHeight="1">
+      <c r="A25" s="18"/>
+      <c r="B25" s="18"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="17"/>
+    </row>
+    <row r="26" spans="1:7" ht="210.75" customHeight="1">
+      <c r="A26" s="18"/>
+      <c r="B26" s="18"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="20"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="17"/>
+    </row>
+    <row r="27" spans="1:7" ht="210.75" customHeight="1">
+      <c r="A27" s="18"/>
+      <c r="B27" s="18"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="20"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="17"/>
+    </row>
+    <row r="28" spans="1:7" ht="210.75" customHeight="1">
+      <c r="A28" s="18"/>
+      <c r="B28" s="18"/>
+      <c r="C28" s="19"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="20"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="17"/>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="17"/>
+      <c r="B29" s="17"/>
+      <c r="C29" s="17"/>
+      <c r="D29" s="17"/>
+      <c r="E29" s="17"/>
+      <c r="F29" s="17"/>
+      <c r="G29" s="17"/>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="17"/>
+      <c r="B30" s="17"/>
+      <c r="C30" s="17"/>
+      <c r="D30" s="17"/>
+      <c r="E30" s="17"/>
+      <c r="F30" s="17"/>
+      <c r="G30" s="17"/>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="17"/>
+      <c r="B31" s="17"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="17"/>
+      <c r="G31" s="17"/>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="17"/>
+      <c r="B32" s="17"/>
+      <c r="C32" s="17"/>
+      <c r="D32" s="17"/>
+      <c r="E32" s="17"/>
+      <c r="F32" s="17"/>
+      <c r="G32" s="17"/>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="17"/>
+      <c r="B33" s="17"/>
+      <c r="C33" s="17"/>
+      <c r="D33" s="17"/>
+      <c r="E33" s="17"/>
+      <c r="F33" s="17"/>
+      <c r="G33" s="17"/>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="17"/>
+      <c r="B34" s="17"/>
+      <c r="C34" s="17"/>
+      <c r="D34" s="17"/>
+      <c r="E34" s="17"/>
+      <c r="F34" s="17"/>
+      <c r="G34" s="17"/>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="17"/>
+      <c r="B35" s="17"/>
+      <c r="C35" s="17"/>
+      <c r="D35" s="17"/>
+      <c r="E35" s="17"/>
+      <c r="F35" s="17"/>
+      <c r="G35" s="17"/>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="17"/>
+      <c r="B36" s="17"/>
+      <c r="C36" s="17"/>
+      <c r="D36" s="17"/>
+      <c r="E36" s="17"/>
+      <c r="F36" s="17"/>
+      <c r="G36" s="17"/>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="17"/>
+      <c r="B37" s="17"/>
+      <c r="C37" s="17"/>
+      <c r="D37" s="17"/>
+      <c r="E37" s="17"/>
+      <c r="F37" s="17"/>
+      <c r="G37" s="17"/>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="17"/>
+      <c r="B38" s="17"/>
+      <c r="C38" s="17"/>
+      <c r="D38" s="17"/>
+      <c r="E38" s="17"/>
+      <c r="F38" s="17"/>
+      <c r="G38" s="17"/>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="17"/>
+      <c r="B39" s="17"/>
+      <c r="C39" s="17"/>
+      <c r="D39" s="17"/>
+      <c r="E39" s="17"/>
+      <c r="F39" s="17"/>
+      <c r="G39" s="17"/>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="17"/>
+      <c r="B40" s="17"/>
+      <c r="C40" s="17"/>
+      <c r="D40" s="17"/>
+      <c r="E40" s="17"/>
+      <c r="F40" s="17"/>
+      <c r="G40" s="17"/>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="17"/>
+      <c r="B41" s="17"/>
+      <c r="C41" s="17"/>
+      <c r="D41" s="17"/>
+      <c r="E41" s="17"/>
+      <c r="F41" s="17"/>
+      <c r="G41" s="17"/>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="17"/>
+      <c r="B42" s="17"/>
+      <c r="C42" s="17"/>
+      <c r="D42" s="17"/>
+      <c r="E42" s="17"/>
+      <c r="F42" s="17"/>
+      <c r="G42" s="17"/>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="17"/>
+      <c r="B43" s="17"/>
+      <c r="C43" s="17"/>
+      <c r="D43" s="17"/>
+      <c r="E43" s="17"/>
+      <c r="F43" s="17"/>
+      <c r="G43" s="17"/>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="17"/>
+      <c r="B44" s="17"/>
+      <c r="C44" s="17"/>
+      <c r="D44" s="17"/>
+      <c r="E44" s="17"/>
+      <c r="F44" s="17"/>
+      <c r="G44" s="17"/>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" s="17"/>
+      <c r="B45" s="17"/>
+      <c r="C45" s="17"/>
+      <c r="D45" s="17"/>
+      <c r="E45" s="17"/>
+      <c r="F45" s="17"/>
+      <c r="G45" s="17"/>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" s="17"/>
+      <c r="B46" s="17"/>
+      <c r="C46" s="17"/>
+      <c r="D46" s="17"/>
+      <c r="E46" s="17"/>
+      <c r="F46" s="17"/>
+      <c r="G46" s="17"/>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" s="17"/>
+      <c r="B47" s="17"/>
+      <c r="C47" s="17"/>
+      <c r="D47" s="17"/>
+      <c r="E47" s="17"/>
+      <c r="F47" s="17"/>
+      <c r="G47" s="17"/>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" s="17"/>
+      <c r="B48" s="17"/>
+      <c r="C48" s="17"/>
+      <c r="D48" s="17"/>
+      <c r="E48" s="17"/>
+      <c r="F48" s="17"/>
+      <c r="G48" s="17"/>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" s="17"/>
+      <c r="B49" s="17"/>
+      <c r="C49" s="17"/>
+      <c r="D49" s="17"/>
+      <c r="E49" s="17"/>
+      <c r="F49" s="17"/>
+      <c r="G49" s="17"/>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" s="17"/>
+      <c r="B50" s="17"/>
+      <c r="C50" s="17"/>
+      <c r="D50" s="17"/>
+      <c r="E50" s="17"/>
+      <c r="F50" s="17"/>
+      <c r="G50" s="17"/>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" s="17"/>
+      <c r="B51" s="17"/>
+      <c r="C51" s="17"/>
+      <c r="D51" s="17"/>
+      <c r="E51" s="17"/>
+      <c r="F51" s="17"/>
+      <c r="G51" s="17"/>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" s="17"/>
+      <c r="B52" s="17"/>
+      <c r="C52" s="17"/>
+      <c r="D52" s="17"/>
+      <c r="E52" s="17"/>
+      <c r="F52" s="17"/>
+      <c r="G52" s="17"/>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" s="17"/>
+      <c r="B53" s="17"/>
+      <c r="C53" s="17"/>
+      <c r="D53" s="17"/>
+      <c r="E53" s="17"/>
+      <c r="F53" s="17"/>
+      <c r="G53" s="17"/>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54" s="17"/>
+      <c r="B54" s="17"/>
+      <c r="C54" s="17"/>
+      <c r="D54" s="17"/>
+      <c r="E54" s="17"/>
+      <c r="F54" s="17"/>
+      <c r="G54" s="17"/>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55" s="17"/>
+      <c r="B55" s="17"/>
+      <c r="C55" s="17"/>
+      <c r="D55" s="17"/>
+      <c r="E55" s="17"/>
+      <c r="F55" s="17"/>
+      <c r="G55" s="17"/>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56" s="17"/>
+      <c r="B56" s="17"/>
+      <c r="C56" s="17"/>
+      <c r="D56" s="17"/>
+      <c r="E56" s="17"/>
+      <c r="F56" s="17"/>
+      <c r="G56" s="17"/>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57" s="17"/>
+      <c r="B57" s="17"/>
+      <c r="C57" s="17"/>
+      <c r="D57" s="17"/>
+      <c r="E57" s="17"/>
+      <c r="F57" s="17"/>
+      <c r="G57" s="17"/>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58" s="17"/>
+      <c r="B58" s="17"/>
+      <c r="C58" s="17"/>
+      <c r="D58" s="17"/>
+      <c r="E58" s="17"/>
+      <c r="F58" s="17"/>
+      <c r="G58" s="17"/>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59" s="17"/>
+      <c r="B59" s="17"/>
+      <c r="C59" s="17"/>
+      <c r="D59" s="17"/>
+      <c r="E59" s="17"/>
+      <c r="F59" s="17"/>
+      <c r="G59" s="17"/>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60" s="17"/>
+      <c r="B60" s="17"/>
+      <c r="C60" s="17"/>
+      <c r="D60" s="17"/>
+      <c r="E60" s="17"/>
+      <c r="F60" s="17"/>
+      <c r="G60" s="17"/>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61" s="17"/>
+      <c r="B61" s="17"/>
+      <c r="C61" s="17"/>
+      <c r="D61" s="17"/>
+      <c r="E61" s="17"/>
+      <c r="F61" s="17"/>
+      <c r="G61" s="17"/>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62" s="17"/>
+      <c r="B62" s="17"/>
+      <c r="C62" s="17"/>
+      <c r="D62" s="17"/>
+      <c r="E62" s="17"/>
+      <c r="F62" s="17"/>
+      <c r="G62" s="17"/>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="A63" s="17"/>
+      <c r="B63" s="17"/>
+      <c r="C63" s="17"/>
+      <c r="D63" s="17"/>
+      <c r="E63" s="17"/>
+      <c r="F63" s="17"/>
+      <c r="G63" s="17"/>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64" s="17"/>
+      <c r="B64" s="17"/>
+      <c r="C64" s="17"/>
+      <c r="D64" s="17"/>
+      <c r="E64" s="17"/>
+      <c r="F64" s="17"/>
+      <c r="G64" s="17"/>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="A65" s="17"/>
+      <c r="B65" s="17"/>
+      <c r="C65" s="17"/>
+      <c r="D65" s="17"/>
+      <c r="E65" s="17"/>
+      <c r="F65" s="17"/>
+      <c r="G65" s="17"/>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="A66" s="17"/>
+      <c r="B66" s="17"/>
+      <c r="C66" s="17"/>
+      <c r="D66" s="17"/>
+      <c r="E66" s="17"/>
+      <c r="F66" s="17"/>
+      <c r="G66" s="17"/>
+    </row>
+    <row r="67" spans="1:7">
+      <c r="A67" s="17"/>
+      <c r="B67" s="17"/>
+      <c r="C67" s="17"/>
+      <c r="D67" s="17"/>
+      <c r="E67" s="17"/>
+      <c r="F67" s="17"/>
+      <c r="G67" s="17"/>
+    </row>
+    <row r="68" spans="1:7">
+      <c r="A68" s="17"/>
+      <c r="B68" s="17"/>
+      <c r="C68" s="17"/>
+      <c r="D68" s="17"/>
+      <c r="E68" s="17"/>
+      <c r="F68" s="17"/>
+      <c r="G68" s="17"/>
+    </row>
+    <row r="69" spans="1:7">
+      <c r="A69" s="17"/>
+      <c r="B69" s="17"/>
+      <c r="C69" s="17"/>
+      <c r="D69" s="17"/>
+      <c r="E69" s="17"/>
+      <c r="F69" s="17"/>
+      <c r="G69" s="17"/>
+    </row>
+    <row r="70" spans="1:7">
+      <c r="A70" s="17"/>
+      <c r="B70" s="17"/>
+      <c r="C70" s="17"/>
+      <c r="D70" s="17"/>
+      <c r="E70" s="17"/>
+      <c r="F70" s="17"/>
+      <c r="G70" s="17"/>
+    </row>
+    <row r="71" spans="1:7">
+      <c r="A71" s="17"/>
+      <c r="B71" s="17"/>
+      <c r="C71" s="17"/>
+      <c r="D71" s="17"/>
+      <c r="E71" s="17"/>
+      <c r="F71" s="17"/>
+      <c r="G71" s="17"/>
+    </row>
+    <row r="72" spans="1:7">
+      <c r="A72" s="17"/>
+      <c r="B72" s="17"/>
+      <c r="C72" s="17"/>
+      <c r="D72" s="17"/>
+      <c r="E72" s="17"/>
+      <c r="F72" s="17"/>
+      <c r="G72" s="17"/>
+    </row>
+    <row r="73" spans="1:7">
+      <c r="A73" s="17"/>
+      <c r="B73" s="17"/>
+      <c r="C73" s="17"/>
+      <c r="D73" s="17"/>
+      <c r="E73" s="17"/>
+      <c r="F73" s="17"/>
+      <c r="G73" s="17"/>
+    </row>
+    <row r="74" spans="1:7">
+      <c r="A74" s="17"/>
+      <c r="B74" s="17"/>
+      <c r="C74" s="17"/>
+      <c r="D74" s="17"/>
+      <c r="E74" s="17"/>
+      <c r="F74" s="17"/>
+      <c r="G74" s="17"/>
+    </row>
+    <row r="75" spans="1:7">
+      <c r="A75" s="17"/>
+      <c r="B75" s="17"/>
+      <c r="C75" s="17"/>
+      <c r="D75" s="17"/>
+      <c r="E75" s="17"/>
+      <c r="F75" s="17"/>
+      <c r="G75" s="17"/>
+    </row>
+    <row r="76" spans="1:7">
+      <c r="A76" s="17"/>
+      <c r="B76" s="17"/>
+      <c r="C76" s="17"/>
+      <c r="D76" s="17"/>
+      <c r="E76" s="17"/>
+      <c r="F76" s="17"/>
+      <c r="G76" s="17"/>
+    </row>
+    <row r="77" spans="1:7">
+      <c r="A77" s="17"/>
+      <c r="B77" s="17"/>
+      <c r="C77" s="17"/>
+      <c r="D77" s="17"/>
+      <c r="E77" s="17"/>
+      <c r="F77" s="17"/>
+      <c r="G77" s="17"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -3493,13 +3634,187 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="18.7109375" customWidth="1"/>
+    <col min="3" max="3" width="86.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.5703125" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" customWidth="1"/>
+    <col min="7" max="7" width="49.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="84" customHeight="1">
+      <c r="A2" s="18">
+        <v>1</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="E2" s="20">
+        <v>42068</v>
+      </c>
+      <c r="F2" s="20"/>
+    </row>
+    <row r="3" spans="1:7" ht="176.25" customHeight="1">
+      <c r="A3" s="18">
+        <v>2</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="E3" s="20">
+        <v>42068</v>
+      </c>
+      <c r="F3" s="18"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="17"/>
+      <c r="B4" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="17"/>
+      <c r="B5" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+    </row>
+    <row r="6" spans="1:7" ht="90">
+      <c r="A6" s="19"/>
+      <c r="B6" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+    </row>
+    <row r="7" spans="1:7" ht="152.25" customHeight="1">
+      <c r="A7" s="17"/>
+      <c r="B7" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="C7" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="D7" s="14"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="27"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="17"/>
+      <c r="B8" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+    </row>
+    <row r="9" spans="1:7" ht="24" customHeight="1">
+      <c r="A9" s="17"/>
+      <c r="B9" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="17"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="17"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="17"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="17"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+    </row>
+  </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Docs/Testing Issue List.xlsx
+++ b/Docs/Testing Issue List.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="375" windowWidth="20115" windowHeight="7695" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="435" windowWidth="20115" windowHeight="7635" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Issue List" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="107">
   <si>
     <t>#</t>
   </si>
@@ -373,6 +373,29 @@
   </si>
   <si>
     <t>所属部门 dropdown 一旦选了选项不能清空，检查系统中所有dropdown，需要增加一个空选项，允许用户清空dropdown。</t>
+  </si>
+  <si>
+    <t>采购管理</t>
+  </si>
+  <si>
+    <t>有采购订单权限的用户仍然可以删除其他用户暂存的采购订单</t>
+  </si>
+  <si>
+    <t>需要跟Yinzhi 讨论采购中止执行的逻辑</t>
+  </si>
+  <si>
+    <t>部门性质与负责区域是否应该为非必选选项，例如财务部门，人事部门等等</t>
+  </si>
+  <si>
+    <t>采购订单管理</t>
+  </si>
+  <si>
+    <t>支付信息信息维护，选过的支付帐号不能再选，这是一个bug，可以选同一个支付帐号，付款到不同的供应商帐户；
+供应商帐户也有相同的问题；
+不需要过滤支付帐号和供应商帐号，让用户自己选择。</t>
+  </si>
+  <si>
+    <t>采购单价没有预填</t>
   </si>
 </sst>
 </file>
@@ -464,7 +487,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -527,6 +550,27 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1620,6 +1664,82 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>122494</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>2110986</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10125075" y="7477125"/>
+          <a:ext cx="5189794" cy="2082411"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>1624875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10067925" y="10915651"/>
+          <a:ext cx="3829050" cy="1624874"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2727,7 +2847,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
+      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3634,18 +3754,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="18.7109375" customWidth="1"/>
-    <col min="3" max="3" width="86.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" customWidth="1"/>
-    <col min="5" max="5" width="11.85546875" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" style="30" customWidth="1"/>
+    <col min="3" max="3" width="86.140625" style="31" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.5703125" style="30" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" style="30" customWidth="1"/>
     <col min="6" max="6" width="10.5703125" customWidth="1"/>
     <col min="7" max="7" width="49.42578125" customWidth="1"/>
   </cols>
@@ -3654,16 +3774,16 @@
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="28" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
@@ -3695,7 +3815,7 @@
       <c r="B3" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="21" t="s">
         <v>88</v>
       </c>
       <c r="D3" s="18" t="s">
@@ -3708,26 +3828,26 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="17"/>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="29" t="s">
         <v>92</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
       <c r="F4" s="17"/>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="17"/>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="29" t="s">
         <v>92</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
       <c r="F5" s="17"/>
     </row>
     <row r="6" spans="1:7" ht="90">
@@ -3738,8 +3858,8 @@
       <c r="C6" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
       <c r="F6" s="17"/>
     </row>
     <row r="7" spans="1:7" ht="152.25" customHeight="1">
@@ -3750,66 +3870,94 @@
       <c r="C7" s="24" t="s">
         <v>95</v>
       </c>
-      <c r="D7" s="14"/>
-      <c r="E7" s="3"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="22"/>
       <c r="F7" s="3"/>
       <c r="G7" s="27"/>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="17"/>
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="29" t="s">
         <v>92</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="C8" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
       <c r="F8" s="17"/>
     </row>
     <row r="9" spans="1:7" ht="24" customHeight="1">
       <c r="A9" s="17"/>
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="C9" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="29"/>
       <c r="F9" s="17"/>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" ht="183" customHeight="1">
       <c r="A10" s="17"/>
-      <c r="B10" s="17"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
+      <c r="B10" s="29" t="s">
+        <v>104</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
       <c r="F10" s="17"/>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="17"/>
-      <c r="B11" s="17"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
+      <c r="B11" s="29" t="s">
+        <v>100</v>
+      </c>
+      <c r="C11" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="D11" s="29"/>
+      <c r="E11" s="29"/>
       <c r="F11" s="17"/>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="17"/>
-      <c r="B12" s="17"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
+      <c r="B12" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="D12" s="29"/>
+      <c r="E12" s="29"/>
       <c r="F12" s="17"/>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" ht="60">
       <c r="A13" s="17"/>
-      <c r="B13" s="17"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
+      <c r="B13" s="29" t="s">
+        <v>104</v>
+      </c>
+      <c r="C13" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="D13" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="E13" s="34">
+        <v>42073</v>
+      </c>
       <c r="F13" s="17"/>
+    </row>
+    <row r="14" spans="1:7" ht="129" customHeight="1">
+      <c r="B14" s="29" t="s">
+        <v>104</v>
+      </c>
+      <c r="C14" s="31" t="s">
+        <v>106</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>

--- a/Docs/Testing Issue List.xlsx
+++ b/Docs/Testing Issue List.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Zhongding.git\trunk\Docs\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="435" windowWidth="20115" windowHeight="7635" activeTab="2"/>
   </bookViews>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="108">
   <si>
     <t>#</t>
   </si>
@@ -331,9 +336,6 @@
 这里能否改成，只显示当前帐套该供应商相关的货品？</t>
   </si>
   <si>
-    <t>未解决</t>
-  </si>
-  <si>
     <t>大包客户协议维护</t>
   </si>
   <si>
@@ -352,61 +354,72 @@
     <t>部门管理</t>
   </si>
   <si>
+    <t>部门管理页面，产品线设置已经保存过了，当我点部门管理页面的保存按钮时，弹出alert 提示。</t>
+  </si>
+  <si>
+    <t>部门经理选项清空后，点击保存后，之前的选项没有被清空。</t>
+  </si>
+  <si>
+    <t>测试未通过</t>
+  </si>
+  <si>
+    <t>允许用户清空dropdown。另外，允许用户新增员工，不属于任何一个部门。</t>
+  </si>
+  <si>
+    <t>所属部门 dropdown 一旦选了选项不能清空，检查系统中所有dropdown，需要增加一个空选项，允许用户清空dropdown。</t>
+  </si>
+  <si>
+    <t>采购管理</t>
+  </si>
+  <si>
+    <t>有采购订单权限的用户仍然可以删除其他用户暂存的采购订单</t>
+  </si>
+  <si>
+    <t>需要跟Yinzhi 讨论采购中止执行的逻辑</t>
+  </si>
+  <si>
+    <t>部门性质与负责区域是否应该为非必选选项，例如财务部门，人事部门等等</t>
+  </si>
+  <si>
+    <t>采购订单管理</t>
+  </si>
+  <si>
+    <t>支付信息信息维护，选过的支付帐号不能再选，这是一个bug，可以选同一个支付帐号，付款到不同的供应商帐户；
+供应商帐户也有相同的问题；
+不需要过滤支付帐号和供应商帐号，让用户自己选择。</t>
+  </si>
+  <si>
+    <t>已解决</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>部门考核产品维护- 选择的货品应该是当前部门负责的货品，目前显示了所有帐套的货品</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">用户可以在货品管理设置货品对应的部门，比如把一个招商货品从事业一部变更为事业二部。
 如果此货品，已经在事业一部的部门管理里设置了产品线设置或考核产品设置，应不允许用户更改部门，提示用户，先改部门设置，再更新货品。
 </t>
-  </si>
-  <si>
-    <t>部门管理页面，产品线设置已经保存过了，当我点部门管理页面的保存按钮时，弹出alert 提示。</t>
-  </si>
-  <si>
-    <t>部门经理选项清空后，点击保存后，之前的选项没有被清空。</t>
-  </si>
-  <si>
-    <t>测试未通过</t>
-  </si>
-  <si>
-    <t>允许用户清空dropdown。另外，允许用户新增员工，不属于任何一个部门。</t>
-  </si>
-  <si>
-    <t>所属部门 dropdown 一旦选了选项不能清空，检查系统中所有dropdown，需要增加一个空选项，允许用户清空dropdown。</t>
-  </si>
-  <si>
-    <t>采购管理</t>
-  </si>
-  <si>
-    <t>有采购订单权限的用户仍然可以删除其他用户暂存的采购订单</t>
-  </si>
-  <si>
-    <t>需要跟Yinzhi 讨论采购中止执行的逻辑</t>
-  </si>
-  <si>
-    <t>部门性质与负责区域是否应该为非必选选项，例如财务部门，人事部门等等</t>
-  </si>
-  <si>
-    <t>采购订单管理</t>
-  </si>
-  <si>
-    <t>支付信息信息维护，选过的支付帐号不能再选，这是一个bug，可以选同一个支付帐号，付款到不同的供应商帐户；
-供应商帐户也有相同的问题；
-不需要过滤支付帐号和供应商帐号，让用户自己选择。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>已解决</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>采购单价没有预填</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -433,7 +446,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -565,15 +578,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1553,15 +1564,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>200025</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>180541</xdr:colOff>
+      <xdr:colOff>380566</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>2009524</xdr:rowOff>
+      <xdr:rowOff>2076199</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1578,8 +1589,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9277350" y="1257300"/>
-          <a:ext cx="3476191" cy="2009524"/>
+          <a:off x="11706225" y="1304925"/>
+          <a:ext cx="3942916" cy="2009524"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1705,15 +1716,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>47625</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:rowOff>28576</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>1624875</xdr:rowOff>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>15150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1730,8 +1741,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10067925" y="10915651"/>
-          <a:ext cx="3829050" cy="1624874"/>
+          <a:off x="11553825" y="10467976"/>
+          <a:ext cx="4295775" cy="1624874"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1744,7 +1755,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1786,7 +1797,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1821,7 +1832,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2033,23 +2044,23 @@
   <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="11.140625" style="11" customWidth="1"/>
-    <col min="2" max="2" width="22.85546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="34.5703125" style="26" customWidth="1"/>
-    <col min="4" max="4" width="18.7109375" style="16" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="51.85546875" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="11.125" style="11" customWidth="1"/>
+    <col min="2" max="2" width="22.875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="34.625" style="26" customWidth="1"/>
+    <col min="4" max="4" width="18.75" style="16" customWidth="1"/>
+    <col min="5" max="5" width="15.625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="51.875" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -2070,7 +2081,7 @@
       </c>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:7" ht="133.5" customHeight="1">
+    <row r="2" spans="1:7" ht="133.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="9">
         <v>1</v>
       </c>
@@ -2091,7 +2102,7 @@
       </c>
       <c r="G2" s="6"/>
     </row>
-    <row r="3" spans="1:7" ht="16.5">
+    <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="9">
         <v>2</v>
       </c>
@@ -2110,7 +2121,7 @@
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
     </row>
-    <row r="4" spans="1:7" ht="191.25" customHeight="1">
+    <row r="4" spans="1:7" ht="191.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="9">
         <v>3</v>
       </c>
@@ -2131,7 +2142,7 @@
       </c>
       <c r="G4" s="6"/>
     </row>
-    <row r="5" spans="1:7" ht="74.25" customHeight="1">
+    <row r="5" spans="1:7" ht="74.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="9">
         <v>4</v>
       </c>
@@ -2152,7 +2163,7 @@
       </c>
       <c r="G5" s="6"/>
     </row>
-    <row r="6" spans="1:7" ht="217.5" customHeight="1">
+    <row r="6" spans="1:7" ht="217.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="9">
         <v>5</v>
       </c>
@@ -2173,7 +2184,7 @@
       </c>
       <c r="G6" s="6"/>
     </row>
-    <row r="7" spans="1:7" ht="172.5" customHeight="1">
+    <row r="7" spans="1:7" ht="172.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="9">
         <v>6</v>
       </c>
@@ -2194,7 +2205,7 @@
       </c>
       <c r="G7" s="6"/>
     </row>
-    <row r="8" spans="1:7" ht="243.75" customHeight="1">
+    <row r="8" spans="1:7" ht="243.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="9">
         <v>7</v>
       </c>
@@ -2211,7 +2222,7 @@
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
     </row>
-    <row r="9" spans="1:7" ht="49.5">
+    <row r="9" spans="1:7" ht="33" x14ac:dyDescent="0.15">
       <c r="A9" s="9">
         <v>8</v>
       </c>
@@ -2228,7 +2239,7 @@
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
     </row>
-    <row r="10" spans="1:7" ht="16.5">
+    <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A10" s="9">
         <v>9</v>
       </c>
@@ -2249,7 +2260,7 @@
       </c>
       <c r="G10" s="6"/>
     </row>
-    <row r="11" spans="1:7" ht="16.5">
+    <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A11" s="9">
         <v>10</v>
       </c>
@@ -2270,7 +2281,7 @@
       </c>
       <c r="G11" s="6"/>
     </row>
-    <row r="12" spans="1:7" ht="33">
+    <row r="12" spans="1:7" ht="33" x14ac:dyDescent="0.15">
       <c r="A12" s="9">
         <v>11</v>
       </c>
@@ -2291,7 +2302,7 @@
       </c>
       <c r="G12" s="6"/>
     </row>
-    <row r="13" spans="1:7" ht="33">
+    <row r="13" spans="1:7" ht="33" x14ac:dyDescent="0.15">
       <c r="A13" s="9">
         <v>12</v>
       </c>
@@ -2312,7 +2323,7 @@
       </c>
       <c r="G13" s="6"/>
     </row>
-    <row r="14" spans="1:7" ht="66">
+    <row r="14" spans="1:7" ht="66" x14ac:dyDescent="0.15">
       <c r="A14" s="9">
         <v>13</v>
       </c>
@@ -2333,7 +2344,7 @@
       </c>
       <c r="G14" s="6"/>
     </row>
-    <row r="15" spans="1:7" ht="33">
+    <row r="15" spans="1:7" ht="33" x14ac:dyDescent="0.15">
       <c r="A15" s="9">
         <v>14</v>
       </c>
@@ -2354,7 +2365,7 @@
       </c>
       <c r="G15" s="6"/>
     </row>
-    <row r="16" spans="1:7" ht="16.5">
+    <row r="16" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A16" s="9">
         <v>15</v>
       </c>
@@ -2375,7 +2386,7 @@
       </c>
       <c r="G16" s="6"/>
     </row>
-    <row r="17" spans="1:7" ht="186.75" customHeight="1">
+    <row r="17" spans="1:7" ht="186.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="9">
         <v>16</v>
       </c>
@@ -2396,7 +2407,7 @@
       </c>
       <c r="G17" s="6"/>
     </row>
-    <row r="18" spans="1:7" ht="216.75" customHeight="1">
+    <row r="18" spans="1:7" ht="216.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="9">
         <v>17</v>
       </c>
@@ -2417,7 +2428,7 @@
       </c>
       <c r="G18" s="6"/>
     </row>
-    <row r="19" spans="1:7" ht="16.5">
+    <row r="19" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A19" s="9">
         <v>18</v>
       </c>
@@ -2438,7 +2449,7 @@
       </c>
       <c r="G19" s="6"/>
     </row>
-    <row r="20" spans="1:7" ht="199.5" customHeight="1">
+    <row r="20" spans="1:7" ht="199.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="9">
         <v>19</v>
       </c>
@@ -2457,7 +2468,7 @@
       </c>
       <c r="G20" s="6"/>
     </row>
-    <row r="21" spans="1:7" ht="163.5" customHeight="1">
+    <row r="21" spans="1:7" ht="163.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="9">
         <v>20</v>
       </c>
@@ -2476,7 +2487,7 @@
       </c>
       <c r="G21" s="6"/>
     </row>
-    <row r="22" spans="1:7" ht="162" customHeight="1">
+    <row r="22" spans="1:7" ht="162" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="9">
         <v>21</v>
       </c>
@@ -2493,7 +2504,7 @@
       <c r="F22" s="6"/>
       <c r="G22" s="6"/>
     </row>
-    <row r="23" spans="1:7" ht="178.5" customHeight="1">
+    <row r="23" spans="1:7" ht="178.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="9">
         <v>22</v>
       </c>
@@ -2514,7 +2525,7 @@
       </c>
       <c r="G23" s="6"/>
     </row>
-    <row r="24" spans="1:7" ht="198" customHeight="1">
+    <row r="24" spans="1:7" ht="198" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="9">
         <v>23</v>
       </c>
@@ -2535,7 +2546,7 @@
       </c>
       <c r="G24" s="6"/>
     </row>
-    <row r="25" spans="1:7" ht="240.75" customHeight="1">
+    <row r="25" spans="1:7" ht="240.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="9">
         <v>24</v>
       </c>
@@ -2556,7 +2567,7 @@
       </c>
       <c r="G25" s="6"/>
     </row>
-    <row r="26" spans="1:7" ht="49.5">
+    <row r="26" spans="1:7" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A26" s="9">
         <v>25</v>
       </c>
@@ -2577,7 +2588,7 @@
       </c>
       <c r="G26" s="6"/>
     </row>
-    <row r="27" spans="1:7" ht="190.5" customHeight="1">
+    <row r="27" spans="1:7" ht="190.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="9">
         <v>26</v>
       </c>
@@ -2598,7 +2609,7 @@
       </c>
       <c r="G27" s="6"/>
     </row>
-    <row r="28" spans="1:7" ht="188.25" customHeight="1">
+    <row r="28" spans="1:7" ht="188.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="9">
         <v>27</v>
       </c>
@@ -2619,7 +2630,7 @@
       </c>
       <c r="G28" s="6"/>
     </row>
-    <row r="29" spans="1:7" ht="33">
+    <row r="29" spans="1:7" ht="33" x14ac:dyDescent="0.15">
       <c r="A29" s="9">
         <v>28</v>
       </c>
@@ -2640,7 +2651,7 @@
       </c>
       <c r="G29" s="6"/>
     </row>
-    <row r="30" spans="1:7" ht="16.5">
+    <row r="30" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A30" s="9">
         <v>29</v>
       </c>
@@ -2661,7 +2672,7 @@
       </c>
       <c r="G30" s="6"/>
     </row>
-    <row r="31" spans="1:7" ht="33">
+    <row r="31" spans="1:7" ht="33" x14ac:dyDescent="0.15">
       <c r="A31" s="9">
         <v>30</v>
       </c>
@@ -2682,7 +2693,7 @@
       </c>
       <c r="G31" s="6"/>
     </row>
-    <row r="32" spans="1:7" ht="121.5" customHeight="1">
+    <row r="32" spans="1:7" ht="121.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="9">
         <v>31</v>
       </c>
@@ -2703,7 +2714,7 @@
       </c>
       <c r="G32" s="6"/>
     </row>
-    <row r="33" spans="1:7" ht="99">
+    <row r="33" spans="1:7" ht="99" x14ac:dyDescent="0.15">
       <c r="A33" s="9">
         <v>32</v>
       </c>
@@ -2714,7 +2725,7 @@
         <v>52</v>
       </c>
       <c r="D33" s="13" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E33" s="7">
         <v>41976</v>
@@ -2724,7 +2735,7 @@
       </c>
       <c r="G33" s="6"/>
     </row>
-    <row r="34" spans="1:7" ht="49.5">
+    <row r="34" spans="1:7" ht="33" x14ac:dyDescent="0.15">
       <c r="A34" s="9">
         <v>33</v>
       </c>
@@ -2732,10 +2743,10 @@
         <v>46</v>
       </c>
       <c r="C34" s="24" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D34" s="13" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E34" s="7">
         <v>41976</v>
@@ -2745,7 +2756,7 @@
       </c>
       <c r="G34" s="6"/>
     </row>
-    <row r="35" spans="1:7" ht="16.5">
+    <row r="35" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A35" s="9">
         <v>34</v>
       </c>
@@ -2766,7 +2777,7 @@
       </c>
       <c r="G35" s="3"/>
     </row>
-    <row r="36" spans="1:7" ht="66">
+    <row r="36" spans="1:7" ht="49.5" x14ac:dyDescent="0.35">
       <c r="A36" s="9">
         <v>35</v>
       </c>
@@ -2774,7 +2785,7 @@
         <v>47</v>
       </c>
       <c r="C36" s="24" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D36" s="13" t="s">
         <v>27</v>
@@ -2787,7 +2798,7 @@
       </c>
       <c r="G36" s="3"/>
     </row>
-    <row r="37" spans="1:7" ht="207" customHeight="1">
+    <row r="37" spans="1:7" ht="207" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="9"/>
       <c r="B37" s="22"/>
       <c r="C37" s="24"/>
@@ -2796,7 +2807,7 @@
       <c r="F37" s="3"/>
       <c r="G37" s="3"/>
     </row>
-    <row r="38" spans="1:7" ht="16.5">
+    <row r="38" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A38" s="9"/>
       <c r="B38" s="3"/>
       <c r="C38" s="24"/>
@@ -2805,7 +2816,7 @@
       <c r="F38" s="3"/>
       <c r="G38" s="3"/>
     </row>
-    <row r="39" spans="1:7" ht="16.5">
+    <row r="39" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A39" s="9"/>
       <c r="B39" s="3"/>
       <c r="C39" s="24"/>
@@ -2814,7 +2825,7 @@
       <c r="F39" s="3"/>
       <c r="G39" s="3"/>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A40" s="10"/>
       <c r="B40" s="4"/>
       <c r="C40" s="25"/>
@@ -2823,7 +2834,7 @@
       <c r="F40" s="4"/>
       <c r="G40" s="4"/>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A41" s="8"/>
       <c r="B41" s="2"/>
       <c r="C41" s="23"/>
@@ -2850,18 +2861,18 @@
       <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="11.85546875" customWidth="1"/>
-    <col min="2" max="2" width="15.85546875" customWidth="1"/>
+    <col min="1" max="1" width="11.875" customWidth="1"/>
+    <col min="2" max="2" width="15.875" customWidth="1"/>
     <col min="3" max="3" width="56" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" customWidth="1"/>
-    <col min="5" max="5" width="15.85546875" customWidth="1"/>
+    <col min="4" max="4" width="15.375" customWidth="1"/>
+    <col min="5" max="5" width="15.875" customWidth="1"/>
     <col min="6" max="6" width="19" customWidth="1"/>
-    <col min="7" max="7" width="61.85546875" customWidth="1"/>
+    <col min="7" max="7" width="61.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -2882,7 +2893,7 @@
       </c>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:7" ht="210.75" customHeight="1">
+    <row r="2" spans="1:7" ht="210.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="18">
         <v>1</v>
       </c>
@@ -2903,7 +2914,7 @@
       </c>
       <c r="G2" s="17"/>
     </row>
-    <row r="3" spans="1:7" ht="210.75" customHeight="1">
+    <row r="3" spans="1:7" ht="210.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="18">
         <v>2</v>
       </c>
@@ -2924,7 +2935,7 @@
       </c>
       <c r="G3" s="17"/>
     </row>
-    <row r="4" spans="1:7" ht="210.75" customHeight="1">
+    <row r="4" spans="1:7" ht="210.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="18">
         <v>3</v>
       </c>
@@ -2943,7 +2954,7 @@
       </c>
       <c r="G4" s="17"/>
     </row>
-    <row r="5" spans="1:7" ht="210.75" customHeight="1">
+    <row r="5" spans="1:7" ht="210.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="18">
         <v>4</v>
       </c>
@@ -2962,7 +2973,7 @@
       </c>
       <c r="G5" s="17"/>
     </row>
-    <row r="6" spans="1:7" ht="210.75" customHeight="1">
+    <row r="6" spans="1:7" ht="210.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="18">
         <v>5</v>
       </c>
@@ -2981,7 +2992,7 @@
       </c>
       <c r="G6" s="17"/>
     </row>
-    <row r="7" spans="1:7" ht="130.5" customHeight="1">
+    <row r="7" spans="1:7" ht="130.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="18">
         <v>6</v>
       </c>
@@ -3000,7 +3011,7 @@
       </c>
       <c r="G7" s="17"/>
     </row>
-    <row r="8" spans="1:7" ht="210.75" customHeight="1">
+    <row r="8" spans="1:7" ht="210.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="18">
         <v>7</v>
       </c>
@@ -3021,7 +3032,7 @@
       </c>
       <c r="G8" s="17"/>
     </row>
-    <row r="9" spans="1:7" ht="210.75" customHeight="1">
+    <row r="9" spans="1:7" ht="210.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="18">
         <v>8</v>
       </c>
@@ -3042,7 +3053,7 @@
       </c>
       <c r="G9" s="17"/>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" s="18">
         <v>9</v>
       </c>
@@ -3063,7 +3074,7 @@
       </c>
       <c r="G10" s="17"/>
     </row>
-    <row r="11" spans="1:7" ht="30">
+    <row r="11" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A11" s="18">
         <v>10</v>
       </c>
@@ -3084,7 +3095,7 @@
       </c>
       <c r="G11" s="17"/>
     </row>
-    <row r="12" spans="1:7" ht="195" customHeight="1">
+    <row r="12" spans="1:7" ht="195" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="18">
         <v>11</v>
       </c>
@@ -3103,7 +3114,7 @@
       <c r="F12" s="20"/>
       <c r="G12" s="17"/>
     </row>
-    <row r="13" spans="1:7" ht="210.75" customHeight="1">
+    <row r="13" spans="1:7" ht="210.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="18">
         <v>12</v>
       </c>
@@ -3124,7 +3135,7 @@
       </c>
       <c r="G13" s="17"/>
     </row>
-    <row r="14" spans="1:7" ht="210.75" customHeight="1">
+    <row r="14" spans="1:7" ht="210.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="18">
         <v>13</v>
       </c>
@@ -3143,7 +3154,7 @@
       <c r="F14" s="20"/>
       <c r="G14" s="17"/>
     </row>
-    <row r="15" spans="1:7" ht="195" customHeight="1">
+    <row r="15" spans="1:7" ht="195" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="18">
         <v>14</v>
       </c>
@@ -3162,7 +3173,7 @@
       <c r="F15" s="20"/>
       <c r="G15" s="17"/>
     </row>
-    <row r="16" spans="1:7" ht="210.75" customHeight="1">
+    <row r="16" spans="1:7" ht="210.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="18">
         <v>15</v>
       </c>
@@ -3183,7 +3194,7 @@
       </c>
       <c r="G16" s="17"/>
     </row>
-    <row r="17" spans="1:7" ht="210.75" customHeight="1">
+    <row r="17" spans="1:7" ht="210.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="18">
         <v>16</v>
       </c>
@@ -3202,7 +3213,7 @@
       <c r="F17" s="20"/>
       <c r="G17" s="17"/>
     </row>
-    <row r="18" spans="1:7" ht="210.75" customHeight="1">
+    <row r="18" spans="1:7" ht="210.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="18">
         <v>17</v>
       </c>
@@ -3213,7 +3224,7 @@
       <c r="F18" s="18"/>
       <c r="G18" s="17"/>
     </row>
-    <row r="19" spans="1:7" ht="210.75" customHeight="1">
+    <row r="19" spans="1:7" ht="210.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="18"/>
       <c r="B19" s="18"/>
       <c r="C19" s="19"/>
@@ -3222,7 +3233,7 @@
       <c r="F19" s="18"/>
       <c r="G19" s="17"/>
     </row>
-    <row r="20" spans="1:7" ht="210.75" customHeight="1">
+    <row r="20" spans="1:7" ht="210.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="18"/>
       <c r="B20" s="18"/>
       <c r="C20" s="19"/>
@@ -3231,7 +3242,7 @@
       <c r="F20" s="18"/>
       <c r="G20" s="17"/>
     </row>
-    <row r="21" spans="1:7" ht="210.75" customHeight="1">
+    <row r="21" spans="1:7" ht="210.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="18"/>
       <c r="B21" s="18"/>
       <c r="C21" s="19"/>
@@ -3240,7 +3251,7 @@
       <c r="F21" s="18"/>
       <c r="G21" s="17"/>
     </row>
-    <row r="22" spans="1:7" ht="210.75" customHeight="1">
+    <row r="22" spans="1:7" ht="210.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="18"/>
       <c r="B22" s="18"/>
       <c r="C22" s="19"/>
@@ -3249,7 +3260,7 @@
       <c r="F22" s="18"/>
       <c r="G22" s="17"/>
     </row>
-    <row r="23" spans="1:7" ht="210.75" customHeight="1">
+    <row r="23" spans="1:7" ht="210.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="18"/>
       <c r="B23" s="18"/>
       <c r="C23" s="19"/>
@@ -3258,7 +3269,7 @@
       <c r="F23" s="18"/>
       <c r="G23" s="17"/>
     </row>
-    <row r="24" spans="1:7" ht="210.75" customHeight="1">
+    <row r="24" spans="1:7" ht="210.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="18"/>
       <c r="B24" s="18"/>
       <c r="C24" s="19"/>
@@ -3267,7 +3278,7 @@
       <c r="F24" s="18"/>
       <c r="G24" s="17"/>
     </row>
-    <row r="25" spans="1:7" ht="210.75" customHeight="1">
+    <row r="25" spans="1:7" ht="210.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="18"/>
       <c r="B25" s="18"/>
       <c r="C25" s="19"/>
@@ -3276,7 +3287,7 @@
       <c r="F25" s="18"/>
       <c r="G25" s="17"/>
     </row>
-    <row r="26" spans="1:7" ht="210.75" customHeight="1">
+    <row r="26" spans="1:7" ht="210.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="18"/>
       <c r="B26" s="18"/>
       <c r="C26" s="19"/>
@@ -3285,7 +3296,7 @@
       <c r="F26" s="18"/>
       <c r="G26" s="17"/>
     </row>
-    <row r="27" spans="1:7" ht="210.75" customHeight="1">
+    <row r="27" spans="1:7" ht="210.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="18"/>
       <c r="B27" s="18"/>
       <c r="C27" s="19"/>
@@ -3294,7 +3305,7 @@
       <c r="F27" s="18"/>
       <c r="G27" s="17"/>
     </row>
-    <row r="28" spans="1:7" ht="210.75" customHeight="1">
+    <row r="28" spans="1:7" ht="210.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="18"/>
       <c r="B28" s="18"/>
       <c r="C28" s="19"/>
@@ -3303,7 +3314,7 @@
       <c r="F28" s="18"/>
       <c r="G28" s="17"/>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A29" s="17"/>
       <c r="B29" s="17"/>
       <c r="C29" s="17"/>
@@ -3312,7 +3323,7 @@
       <c r="F29" s="17"/>
       <c r="G29" s="17"/>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A30" s="17"/>
       <c r="B30" s="17"/>
       <c r="C30" s="17"/>
@@ -3321,7 +3332,7 @@
       <c r="F30" s="17"/>
       <c r="G30" s="17"/>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A31" s="17"/>
       <c r="B31" s="17"/>
       <c r="C31" s="17"/>
@@ -3330,7 +3341,7 @@
       <c r="F31" s="17"/>
       <c r="G31" s="17"/>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A32" s="17"/>
       <c r="B32" s="17"/>
       <c r="C32" s="17"/>
@@ -3339,7 +3350,7 @@
       <c r="F32" s="17"/>
       <c r="G32" s="17"/>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A33" s="17"/>
       <c r="B33" s="17"/>
       <c r="C33" s="17"/>
@@ -3348,7 +3359,7 @@
       <c r="F33" s="17"/>
       <c r="G33" s="17"/>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A34" s="17"/>
       <c r="B34" s="17"/>
       <c r="C34" s="17"/>
@@ -3357,7 +3368,7 @@
       <c r="F34" s="17"/>
       <c r="G34" s="17"/>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A35" s="17"/>
       <c r="B35" s="17"/>
       <c r="C35" s="17"/>
@@ -3366,7 +3377,7 @@
       <c r="F35" s="17"/>
       <c r="G35" s="17"/>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A36" s="17"/>
       <c r="B36" s="17"/>
       <c r="C36" s="17"/>
@@ -3375,7 +3386,7 @@
       <c r="F36" s="17"/>
       <c r="G36" s="17"/>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A37" s="17"/>
       <c r="B37" s="17"/>
       <c r="C37" s="17"/>
@@ -3384,7 +3395,7 @@
       <c r="F37" s="17"/>
       <c r="G37" s="17"/>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A38" s="17"/>
       <c r="B38" s="17"/>
       <c r="C38" s="17"/>
@@ -3393,7 +3404,7 @@
       <c r="F38" s="17"/>
       <c r="G38" s="17"/>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A39" s="17"/>
       <c r="B39" s="17"/>
       <c r="C39" s="17"/>
@@ -3402,7 +3413,7 @@
       <c r="F39" s="17"/>
       <c r="G39" s="17"/>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A40" s="17"/>
       <c r="B40" s="17"/>
       <c r="C40" s="17"/>
@@ -3411,7 +3422,7 @@
       <c r="F40" s="17"/>
       <c r="G40" s="17"/>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A41" s="17"/>
       <c r="B41" s="17"/>
       <c r="C41" s="17"/>
@@ -3420,7 +3431,7 @@
       <c r="F41" s="17"/>
       <c r="G41" s="17"/>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A42" s="17"/>
       <c r="B42" s="17"/>
       <c r="C42" s="17"/>
@@ -3429,7 +3440,7 @@
       <c r="F42" s="17"/>
       <c r="G42" s="17"/>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A43" s="17"/>
       <c r="B43" s="17"/>
       <c r="C43" s="17"/>
@@ -3438,7 +3449,7 @@
       <c r="F43" s="17"/>
       <c r="G43" s="17"/>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A44" s="17"/>
       <c r="B44" s="17"/>
       <c r="C44" s="17"/>
@@ -3447,7 +3458,7 @@
       <c r="F44" s="17"/>
       <c r="G44" s="17"/>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A45" s="17"/>
       <c r="B45" s="17"/>
       <c r="C45" s="17"/>
@@ -3456,7 +3467,7 @@
       <c r="F45" s="17"/>
       <c r="G45" s="17"/>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A46" s="17"/>
       <c r="B46" s="17"/>
       <c r="C46" s="17"/>
@@ -3465,7 +3476,7 @@
       <c r="F46" s="17"/>
       <c r="G46" s="17"/>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A47" s="17"/>
       <c r="B47" s="17"/>
       <c r="C47" s="17"/>
@@ -3474,7 +3485,7 @@
       <c r="F47" s="17"/>
       <c r="G47" s="17"/>
     </row>
-    <row r="48" spans="1:7">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A48" s="17"/>
       <c r="B48" s="17"/>
       <c r="C48" s="17"/>
@@ -3483,7 +3494,7 @@
       <c r="F48" s="17"/>
       <c r="G48" s="17"/>
     </row>
-    <row r="49" spans="1:7">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A49" s="17"/>
       <c r="B49" s="17"/>
       <c r="C49" s="17"/>
@@ -3492,7 +3503,7 @@
       <c r="F49" s="17"/>
       <c r="G49" s="17"/>
     </row>
-    <row r="50" spans="1:7">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A50" s="17"/>
       <c r="B50" s="17"/>
       <c r="C50" s="17"/>
@@ -3501,7 +3512,7 @@
       <c r="F50" s="17"/>
       <c r="G50" s="17"/>
     </row>
-    <row r="51" spans="1:7">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A51" s="17"/>
       <c r="B51" s="17"/>
       <c r="C51" s="17"/>
@@ -3510,7 +3521,7 @@
       <c r="F51" s="17"/>
       <c r="G51" s="17"/>
     </row>
-    <row r="52" spans="1:7">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A52" s="17"/>
       <c r="B52" s="17"/>
       <c r="C52" s="17"/>
@@ -3519,7 +3530,7 @@
       <c r="F52" s="17"/>
       <c r="G52" s="17"/>
     </row>
-    <row r="53" spans="1:7">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A53" s="17"/>
       <c r="B53" s="17"/>
       <c r="C53" s="17"/>
@@ -3528,7 +3539,7 @@
       <c r="F53" s="17"/>
       <c r="G53" s="17"/>
     </row>
-    <row r="54" spans="1:7">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A54" s="17"/>
       <c r="B54" s="17"/>
       <c r="C54" s="17"/>
@@ -3537,7 +3548,7 @@
       <c r="F54" s="17"/>
       <c r="G54" s="17"/>
     </row>
-    <row r="55" spans="1:7">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A55" s="17"/>
       <c r="B55" s="17"/>
       <c r="C55" s="17"/>
@@ -3546,7 +3557,7 @@
       <c r="F55" s="17"/>
       <c r="G55" s="17"/>
     </row>
-    <row r="56" spans="1:7">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A56" s="17"/>
       <c r="B56" s="17"/>
       <c r="C56" s="17"/>
@@ -3555,7 +3566,7 @@
       <c r="F56" s="17"/>
       <c r="G56" s="17"/>
     </row>
-    <row r="57" spans="1:7">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A57" s="17"/>
       <c r="B57" s="17"/>
       <c r="C57" s="17"/>
@@ -3564,7 +3575,7 @@
       <c r="F57" s="17"/>
       <c r="G57" s="17"/>
     </row>
-    <row r="58" spans="1:7">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A58" s="17"/>
       <c r="B58" s="17"/>
       <c r="C58" s="17"/>
@@ -3573,7 +3584,7 @@
       <c r="F58" s="17"/>
       <c r="G58" s="17"/>
     </row>
-    <row r="59" spans="1:7">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A59" s="17"/>
       <c r="B59" s="17"/>
       <c r="C59" s="17"/>
@@ -3582,7 +3593,7 @@
       <c r="F59" s="17"/>
       <c r="G59" s="17"/>
     </row>
-    <row r="60" spans="1:7">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A60" s="17"/>
       <c r="B60" s="17"/>
       <c r="C60" s="17"/>
@@ -3591,7 +3602,7 @@
       <c r="F60" s="17"/>
       <c r="G60" s="17"/>
     </row>
-    <row r="61" spans="1:7">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A61" s="17"/>
       <c r="B61" s="17"/>
       <c r="C61" s="17"/>
@@ -3600,7 +3611,7 @@
       <c r="F61" s="17"/>
       <c r="G61" s="17"/>
     </row>
-    <row r="62" spans="1:7">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A62" s="17"/>
       <c r="B62" s="17"/>
       <c r="C62" s="17"/>
@@ -3609,7 +3620,7 @@
       <c r="F62" s="17"/>
       <c r="G62" s="17"/>
     </row>
-    <row r="63" spans="1:7">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A63" s="17"/>
       <c r="B63" s="17"/>
       <c r="C63" s="17"/>
@@ -3618,7 +3629,7 @@
       <c r="F63" s="17"/>
       <c r="G63" s="17"/>
     </row>
-    <row r="64" spans="1:7">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A64" s="17"/>
       <c r="B64" s="17"/>
       <c r="C64" s="17"/>
@@ -3627,7 +3638,7 @@
       <c r="F64" s="17"/>
       <c r="G64" s="17"/>
     </row>
-    <row r="65" spans="1:7">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A65" s="17"/>
       <c r="B65" s="17"/>
       <c r="C65" s="17"/>
@@ -3636,7 +3647,7 @@
       <c r="F65" s="17"/>
       <c r="G65" s="17"/>
     </row>
-    <row r="66" spans="1:7">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A66" s="17"/>
       <c r="B66" s="17"/>
       <c r="C66" s="17"/>
@@ -3645,7 +3656,7 @@
       <c r="F66" s="17"/>
       <c r="G66" s="17"/>
     </row>
-    <row r="67" spans="1:7">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A67" s="17"/>
       <c r="B67" s="17"/>
       <c r="C67" s="17"/>
@@ -3654,7 +3665,7 @@
       <c r="F67" s="17"/>
       <c r="G67" s="17"/>
     </row>
-    <row r="68" spans="1:7">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A68" s="17"/>
       <c r="B68" s="17"/>
       <c r="C68" s="17"/>
@@ -3663,7 +3674,7 @@
       <c r="F68" s="17"/>
       <c r="G68" s="17"/>
     </row>
-    <row r="69" spans="1:7">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A69" s="17"/>
       <c r="B69" s="17"/>
       <c r="C69" s="17"/>
@@ -3672,7 +3683,7 @@
       <c r="F69" s="17"/>
       <c r="G69" s="17"/>
     </row>
-    <row r="70" spans="1:7">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A70" s="17"/>
       <c r="B70" s="17"/>
       <c r="C70" s="17"/>
@@ -3681,7 +3692,7 @@
       <c r="F70" s="17"/>
       <c r="G70" s="17"/>
     </row>
-    <row r="71" spans="1:7">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A71" s="17"/>
       <c r="B71" s="17"/>
       <c r="C71" s="17"/>
@@ -3690,7 +3701,7 @@
       <c r="F71" s="17"/>
       <c r="G71" s="17"/>
     </row>
-    <row r="72" spans="1:7">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A72" s="17"/>
       <c r="B72" s="17"/>
       <c r="C72" s="17"/>
@@ -3699,7 +3710,7 @@
       <c r="F72" s="17"/>
       <c r="G72" s="17"/>
     </row>
-    <row r="73" spans="1:7">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A73" s="17"/>
       <c r="B73" s="17"/>
       <c r="C73" s="17"/>
@@ -3708,7 +3719,7 @@
       <c r="F73" s="17"/>
       <c r="G73" s="17"/>
     </row>
-    <row r="74" spans="1:7">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A74" s="17"/>
       <c r="B74" s="17"/>
       <c r="C74" s="17"/>
@@ -3717,7 +3728,7 @@
       <c r="F74" s="17"/>
       <c r="G74" s="17"/>
     </row>
-    <row r="75" spans="1:7">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A75" s="17"/>
       <c r="B75" s="17"/>
       <c r="C75" s="17"/>
@@ -3726,7 +3737,7 @@
       <c r="F75" s="17"/>
       <c r="G75" s="17"/>
     </row>
-    <row r="76" spans="1:7">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A76" s="17"/>
       <c r="B76" s="17"/>
       <c r="C76" s="17"/>
@@ -3735,7 +3746,7 @@
       <c r="F76" s="17"/>
       <c r="G76" s="17"/>
     </row>
-    <row r="77" spans="1:7">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A77" s="17"/>
       <c r="B77" s="17"/>
       <c r="C77" s="17"/>
@@ -3756,21 +3767,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" topLeftCell="C13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="18.7109375" style="30" customWidth="1"/>
-    <col min="3" max="3" width="86.140625" style="31" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="30" customWidth="1"/>
-    <col min="5" max="5" width="11.85546875" style="30" customWidth="1"/>
-    <col min="6" max="6" width="10.5703125" customWidth="1"/>
-    <col min="7" max="7" width="49.42578125" customWidth="1"/>
+    <col min="2" max="2" width="18.75" style="30" customWidth="1"/>
+    <col min="3" max="3" width="86.125" style="31" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.625" style="30" customWidth="1"/>
+    <col min="5" max="5" width="11.875" style="30" customWidth="1"/>
+    <col min="6" max="6" width="10.625" customWidth="1"/>
+    <col min="7" max="7" width="49.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -3790,7 +3801,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="84" customHeight="1">
+    <row r="2" spans="1:7" ht="84" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="18">
         <v>1</v>
       </c>
@@ -3801,168 +3812,236 @@
         <v>85</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>86</v>
+        <v>106</v>
       </c>
       <c r="E2" s="20">
         <v>42068</v>
       </c>
-      <c r="F2" s="20"/>
-    </row>
-    <row r="3" spans="1:7" ht="176.25" customHeight="1">
+      <c r="F2" s="33">
+        <v>42076</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="176.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="18">
         <v>2</v>
       </c>
       <c r="B3" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="C3" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="C3" s="21" t="s">
-        <v>88</v>
-      </c>
       <c r="D3" s="18" t="s">
-        <v>86</v>
+        <v>106</v>
       </c>
       <c r="E3" s="20">
         <v>42068</v>
       </c>
-      <c r="F3" s="18"/>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="17"/>
+      <c r="F3" s="33">
+        <v>42076</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4" s="18">
+        <v>3</v>
+      </c>
       <c r="B4" s="29" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C4" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="E4" s="29"/>
+      <c r="F4" s="34">
+        <v>42075</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" s="18">
+        <v>4</v>
+      </c>
+      <c r="B5" s="29" t="s">
         <v>91</v>
       </c>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="17"/>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="17"/>
-      <c r="B5" s="29" t="s">
-        <v>92</v>
-      </c>
       <c r="C5" s="21" t="s">
-        <v>93</v>
-      </c>
-      <c r="D5" s="29"/>
+        <v>104</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>103</v>
+      </c>
       <c r="E5" s="29"/>
-      <c r="F5" s="17"/>
-    </row>
-    <row r="6" spans="1:7" ht="90">
-      <c r="A6" s="19"/>
+      <c r="F5" s="34">
+        <v>42075</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A6" s="18">
+        <v>5</v>
+      </c>
       <c r="B6" s="19" t="s">
         <v>37</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>94</v>
-      </c>
-      <c r="D6" s="29"/>
+        <v>105</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>103</v>
+      </c>
       <c r="E6" s="29"/>
-      <c r="F6" s="17"/>
-    </row>
-    <row r="7" spans="1:7" ht="152.25" customHeight="1">
-      <c r="A7" s="17"/>
+      <c r="F6" s="33">
+        <v>42075</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="152.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="18">
+        <v>6</v>
+      </c>
       <c r="B7" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="C7" s="24" t="s">
         <v>92</v>
       </c>
-      <c r="C7" s="24" t="s">
-        <v>95</v>
-      </c>
-      <c r="D7" s="33"/>
+      <c r="D7" s="18" t="s">
+        <v>103</v>
+      </c>
       <c r="E7" s="22"/>
-      <c r="F7" s="3"/>
+      <c r="F7" s="20">
+        <v>42075</v>
+      </c>
       <c r="G7" s="27"/>
     </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="17"/>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A8" s="18">
+        <v>7</v>
+      </c>
       <c r="B8" s="29" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>96</v>
-      </c>
-      <c r="D8" s="29"/>
+        <v>93</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>103</v>
+      </c>
       <c r="E8" s="29"/>
-      <c r="F8" s="17"/>
-    </row>
-    <row r="9" spans="1:7" ht="24" customHeight="1">
-      <c r="A9" s="17"/>
+      <c r="F8" s="20">
+        <v>42075</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="18">
+        <v>8</v>
+      </c>
       <c r="B9" s="29" t="s">
         <v>47</v>
       </c>
       <c r="C9" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="E9" s="29"/>
+      <c r="F9" s="20">
+        <v>42075</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="183" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="18">
+        <v>9</v>
+      </c>
+      <c r="B10" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="C10" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="D9" s="29"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="17"/>
-    </row>
-    <row r="10" spans="1:7" ht="183" customHeight="1">
-      <c r="A10" s="17"/>
-      <c r="B10" s="29" t="s">
-        <v>104</v>
-      </c>
-      <c r="C10" s="21" t="s">
-        <v>101</v>
-      </c>
-      <c r="D10" s="29"/>
+      <c r="D10" s="18" t="s">
+        <v>103</v>
+      </c>
       <c r="E10" s="29"/>
-      <c r="F10" s="17"/>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="17"/>
+      <c r="F10" s="33">
+        <v>42075</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A11" s="18">
+        <v>10</v>
+      </c>
       <c r="B11" s="29" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D11" s="29"/>
       <c r="E11" s="29"/>
       <c r="F11" s="17"/>
     </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="17"/>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A12" s="18">
+        <v>11</v>
+      </c>
       <c r="B12" s="29" t="s">
         <v>46</v>
       </c>
       <c r="C12" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="D12" s="18" t="s">
         <v>103</v>
       </c>
-      <c r="D12" s="29"/>
       <c r="E12" s="29"/>
-      <c r="F12" s="17"/>
-    </row>
-    <row r="13" spans="1:7" ht="60">
-      <c r="A13" s="17"/>
+      <c r="F12" s="33">
+        <v>42075</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="54" x14ac:dyDescent="0.15">
+      <c r="A13" s="18">
+        <v>12</v>
+      </c>
       <c r="B13" s="29" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C13" s="21" t="s">
-        <v>105</v>
-      </c>
-      <c r="D13" s="29" t="s">
-        <v>86</v>
-      </c>
-      <c r="E13" s="34">
+        <v>102</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="33">
         <v>42073</v>
       </c>
-      <c r="F13" s="17"/>
-    </row>
-    <row r="14" spans="1:7" ht="129" customHeight="1">
+      <c r="F13" s="33">
+        <v>42076</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="129" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="18">
+        <v>13</v>
+      </c>
       <c r="B14" s="29" t="s">
-        <v>104</v>
-      </c>
-      <c r="C14" s="31" t="s">
-        <v>106</v>
+        <v>101</v>
+      </c>
+      <c r="C14" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="33"/>
+      <c r="F14" s="33">
+        <v>42076</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Docs/Testing Issue List.xlsx
+++ b/Docs/Testing Issue List.xlsx
@@ -1,20 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Zhongding.git\trunk\Docs\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="435" windowWidth="20115" windowHeight="7635" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="435" windowWidth="20115" windowHeight="7635" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Issue List" sheetId="1" r:id="rId1"/>
     <sheet name="01-2015" sheetId="2" r:id="rId2"/>
     <sheet name="03-2015" sheetId="3" r:id="rId3"/>
+    <sheet name="05-2015" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Issue List'!$A$1:$G$9</definedName>
@@ -24,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="122">
   <si>
     <t>#</t>
   </si>
@@ -410,16 +406,61 @@
     <t>采购单价没有预填</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
+  <si>
+    <t xml:space="preserve"> 待解决</t>
+  </si>
+  <si>
+    <t>负责人</t>
+  </si>
+  <si>
+    <t>Li Hong</t>
+  </si>
+  <si>
+    <t>grid中，header， 中止为什么比其他列的字小？</t>
+  </si>
+  <si>
+    <t>供应商余额抵扣功能需要考虑 - 需要讨论</t>
+  </si>
+  <si>
+    <t>将查询订单的功能，放在Grid上会更好，做成“+” 功能</t>
+  </si>
+  <si>
+    <t>入库单打印，格式有问题，列过宽， 可否将打印页面默认设为横向的？</t>
+  </si>
+  <si>
+    <t>入库单详情里，货品件数计算不正确
+小于1时，应该保留2位小数</t>
+  </si>
+  <si>
+    <t>支付完成，但未入库的订单，也应该允许用户中止订单</t>
+  </si>
+  <si>
+    <t>入库单的件数计算有误。 
+此产品，我在规格里配置为，每件50个，此处件数应为10，非20。
+同时，我更新了基本数量，件数没有相应变化</t>
+  </si>
+  <si>
+    <t>货品批号等信息都填写了，点击Grid上的保存，仍会提示。</t>
+  </si>
+  <si>
+    <t>把新增入库单，确认入库和修改入库单的权限分配给一个人， 此时，不能提交入库单，也不能确认入库</t>
+  </si>
+  <si>
+    <t>允许修改入库单权限用户，删除掉待入库的 入库单</t>
+  </si>
+  <si>
+    <t>当采购订单被中止，待入库的订单应该不允许用户 点击"确认入库"， 是否应该把状态改为“已中止”？</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -446,7 +487,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -460,7 +501,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -496,11 +537,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -582,9 +636,30 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1754,8 +1829,203 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>20959</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>103502</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>1981200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10736584" y="200025"/>
+          <a:ext cx="4959343" cy="1971675"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>485265</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>1881400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10772775" y="2609851"/>
+          <a:ext cx="2256915" cy="1862349"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>284655</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>1695243</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10772775" y="4543425"/>
+          <a:ext cx="8761905" cy="1657143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>12680</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>551289</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>1581150</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10728305" y="6448425"/>
+          <a:ext cx="6634609" cy="1590675"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>600074</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>2381251</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>551275</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>1865441</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10706099" y="8839201"/>
+          <a:ext cx="6656801" cy="1874965"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1797,7 +2067,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1832,7 +2102,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2048,19 +2318,19 @@
       <selection pane="bottomLeft" activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="11.125" style="11" customWidth="1"/>
-    <col min="2" max="2" width="22.875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="34.625" style="26" customWidth="1"/>
-    <col min="4" max="4" width="18.75" style="16" customWidth="1"/>
-    <col min="5" max="5" width="15.625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14.375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="51.875" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.125" style="1"/>
+    <col min="1" max="1" width="11.140625" style="11" customWidth="1"/>
+    <col min="2" max="2" width="22.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="34.5703125" style="26" customWidth="1"/>
+    <col min="4" max="4" width="18.7109375" style="16" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="51.85546875" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -2081,7 +2351,7 @@
       </c>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:7" ht="133.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" ht="133.5" customHeight="1">
       <c r="A2" s="9">
         <v>1</v>
       </c>
@@ -2102,7 +2372,7 @@
       </c>
       <c r="G2" s="6"/>
     </row>
-    <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" ht="16.5">
       <c r="A3" s="9">
         <v>2</v>
       </c>
@@ -2121,7 +2391,7 @@
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
     </row>
-    <row r="4" spans="1:7" ht="191.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" ht="191.25" customHeight="1">
       <c r="A4" s="9">
         <v>3</v>
       </c>
@@ -2142,7 +2412,7 @@
       </c>
       <c r="G4" s="6"/>
     </row>
-    <row r="5" spans="1:7" ht="74.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" ht="74.25" customHeight="1">
       <c r="A5" s="9">
         <v>4</v>
       </c>
@@ -2163,7 +2433,7 @@
       </c>
       <c r="G5" s="6"/>
     </row>
-    <row r="6" spans="1:7" ht="217.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" ht="217.5" customHeight="1">
       <c r="A6" s="9">
         <v>5</v>
       </c>
@@ -2184,7 +2454,7 @@
       </c>
       <c r="G6" s="6"/>
     </row>
-    <row r="7" spans="1:7" ht="172.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" ht="172.5" customHeight="1">
       <c r="A7" s="9">
         <v>6</v>
       </c>
@@ -2205,7 +2475,7 @@
       </c>
       <c r="G7" s="6"/>
     </row>
-    <row r="8" spans="1:7" ht="243.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" ht="243.75" customHeight="1">
       <c r="A8" s="9">
         <v>7</v>
       </c>
@@ -2222,7 +2492,7 @@
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
     </row>
-    <row r="9" spans="1:7" ht="33" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7" ht="49.5">
       <c r="A9" s="9">
         <v>8</v>
       </c>
@@ -2239,7 +2509,7 @@
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
     </row>
-    <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7" ht="16.5">
       <c r="A10" s="9">
         <v>9</v>
       </c>
@@ -2260,7 +2530,7 @@
       </c>
       <c r="G10" s="6"/>
     </row>
-    <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7" ht="16.5">
       <c r="A11" s="9">
         <v>10</v>
       </c>
@@ -2281,7 +2551,7 @@
       </c>
       <c r="G11" s="6"/>
     </row>
-    <row r="12" spans="1:7" ht="33" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" ht="33">
       <c r="A12" s="9">
         <v>11</v>
       </c>
@@ -2302,7 +2572,7 @@
       </c>
       <c r="G12" s="6"/>
     </row>
-    <row r="13" spans="1:7" ht="33" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7" ht="33">
       <c r="A13" s="9">
         <v>12</v>
       </c>
@@ -2323,7 +2593,7 @@
       </c>
       <c r="G13" s="6"/>
     </row>
-    <row r="14" spans="1:7" ht="66" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" ht="66">
       <c r="A14" s="9">
         <v>13</v>
       </c>
@@ -2344,7 +2614,7 @@
       </c>
       <c r="G14" s="6"/>
     </row>
-    <row r="15" spans="1:7" ht="33" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7" ht="33">
       <c r="A15" s="9">
         <v>14</v>
       </c>
@@ -2365,7 +2635,7 @@
       </c>
       <c r="G15" s="6"/>
     </row>
-    <row r="16" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7" ht="16.5">
       <c r="A16" s="9">
         <v>15</v>
       </c>
@@ -2386,7 +2656,7 @@
       </c>
       <c r="G16" s="6"/>
     </row>
-    <row r="17" spans="1:7" ht="186.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:7" ht="186.75" customHeight="1">
       <c r="A17" s="9">
         <v>16</v>
       </c>
@@ -2407,7 +2677,7 @@
       </c>
       <c r="G17" s="6"/>
     </row>
-    <row r="18" spans="1:7" ht="216.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:7" ht="216.75" customHeight="1">
       <c r="A18" s="9">
         <v>17</v>
       </c>
@@ -2428,7 +2698,7 @@
       </c>
       <c r="G18" s="6"/>
     </row>
-    <row r="19" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:7" ht="16.5">
       <c r="A19" s="9">
         <v>18</v>
       </c>
@@ -2449,7 +2719,7 @@
       </c>
       <c r="G19" s="6"/>
     </row>
-    <row r="20" spans="1:7" ht="199.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:7" ht="199.5" customHeight="1">
       <c r="A20" s="9">
         <v>19</v>
       </c>
@@ -2468,7 +2738,7 @@
       </c>
       <c r="G20" s="6"/>
     </row>
-    <row r="21" spans="1:7" ht="163.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:7" ht="163.5" customHeight="1">
       <c r="A21" s="9">
         <v>20</v>
       </c>
@@ -2487,7 +2757,7 @@
       </c>
       <c r="G21" s="6"/>
     </row>
-    <row r="22" spans="1:7" ht="162" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:7" ht="162" customHeight="1">
       <c r="A22" s="9">
         <v>21</v>
       </c>
@@ -2504,7 +2774,7 @@
       <c r="F22" s="6"/>
       <c r="G22" s="6"/>
     </row>
-    <row r="23" spans="1:7" ht="178.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:7" ht="178.5" customHeight="1">
       <c r="A23" s="9">
         <v>22</v>
       </c>
@@ -2525,7 +2795,7 @@
       </c>
       <c r="G23" s="6"/>
     </row>
-    <row r="24" spans="1:7" ht="198" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:7" ht="198" customHeight="1">
       <c r="A24" s="9">
         <v>23</v>
       </c>
@@ -2546,7 +2816,7 @@
       </c>
       <c r="G24" s="6"/>
     </row>
-    <row r="25" spans="1:7" ht="240.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:7" ht="240.75" customHeight="1">
       <c r="A25" s="9">
         <v>24</v>
       </c>
@@ -2567,7 +2837,7 @@
       </c>
       <c r="G25" s="6"/>
     </row>
-    <row r="26" spans="1:7" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:7" ht="49.5">
       <c r="A26" s="9">
         <v>25</v>
       </c>
@@ -2588,7 +2858,7 @@
       </c>
       <c r="G26" s="6"/>
     </row>
-    <row r="27" spans="1:7" ht="190.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:7" ht="190.5" customHeight="1">
       <c r="A27" s="9">
         <v>26</v>
       </c>
@@ -2609,7 +2879,7 @@
       </c>
       <c r="G27" s="6"/>
     </row>
-    <row r="28" spans="1:7" ht="188.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:7" ht="188.25" customHeight="1">
       <c r="A28" s="9">
         <v>27</v>
       </c>
@@ -2630,7 +2900,7 @@
       </c>
       <c r="G28" s="6"/>
     </row>
-    <row r="29" spans="1:7" ht="33" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:7" ht="33">
       <c r="A29" s="9">
         <v>28</v>
       </c>
@@ -2651,7 +2921,7 @@
       </c>
       <c r="G29" s="6"/>
     </row>
-    <row r="30" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:7" ht="16.5">
       <c r="A30" s="9">
         <v>29</v>
       </c>
@@ -2672,7 +2942,7 @@
       </c>
       <c r="G30" s="6"/>
     </row>
-    <row r="31" spans="1:7" ht="33" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:7" ht="33">
       <c r="A31" s="9">
         <v>30</v>
       </c>
@@ -2693,7 +2963,7 @@
       </c>
       <c r="G31" s="6"/>
     </row>
-    <row r="32" spans="1:7" ht="121.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:7" ht="121.5" customHeight="1">
       <c r="A32" s="9">
         <v>31</v>
       </c>
@@ -2714,7 +2984,7 @@
       </c>
       <c r="G32" s="6"/>
     </row>
-    <row r="33" spans="1:7" ht="99" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:7" ht="99">
       <c r="A33" s="9">
         <v>32</v>
       </c>
@@ -2735,7 +3005,7 @@
       </c>
       <c r="G33" s="6"/>
     </row>
-    <row r="34" spans="1:7" ht="33" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:7" ht="49.5">
       <c r="A34" s="9">
         <v>33</v>
       </c>
@@ -2756,7 +3026,7 @@
       </c>
       <c r="G34" s="6"/>
     </row>
-    <row r="35" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:7" ht="16.5">
       <c r="A35" s="9">
         <v>34</v>
       </c>
@@ -2777,7 +3047,7 @@
       </c>
       <c r="G35" s="3"/>
     </row>
-    <row r="36" spans="1:7" ht="49.5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:7" ht="66">
       <c r="A36" s="9">
         <v>35</v>
       </c>
@@ -2798,7 +3068,7 @@
       </c>
       <c r="G36" s="3"/>
     </row>
-    <row r="37" spans="1:7" ht="207" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:7" ht="207" customHeight="1">
       <c r="A37" s="9"/>
       <c r="B37" s="22"/>
       <c r="C37" s="24"/>
@@ -2807,7 +3077,7 @@
       <c r="F37" s="3"/>
       <c r="G37" s="3"/>
     </row>
-    <row r="38" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:7" ht="16.5">
       <c r="A38" s="9"/>
       <c r="B38" s="3"/>
       <c r="C38" s="24"/>
@@ -2816,7 +3086,7 @@
       <c r="F38" s="3"/>
       <c r="G38" s="3"/>
     </row>
-    <row r="39" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:7" ht="16.5">
       <c r="A39" s="9"/>
       <c r="B39" s="3"/>
       <c r="C39" s="24"/>
@@ -2825,7 +3095,7 @@
       <c r="F39" s="3"/>
       <c r="G39" s="3"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:7">
       <c r="A40" s="10"/>
       <c r="B40" s="4"/>
       <c r="C40" s="25"/>
@@ -2834,7 +3104,7 @@
       <c r="F40" s="4"/>
       <c r="G40" s="4"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:7">
       <c r="A41" s="8"/>
       <c r="B41" s="2"/>
       <c r="C41" s="23"/>
@@ -2861,18 +3131,18 @@
       <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.875" customWidth="1"/>
-    <col min="2" max="2" width="15.875" customWidth="1"/>
+    <col min="1" max="1" width="11.85546875" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" customWidth="1"/>
     <col min="3" max="3" width="56" customWidth="1"/>
-    <col min="4" max="4" width="15.375" customWidth="1"/>
-    <col min="5" max="5" width="15.875" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" customWidth="1"/>
     <col min="6" max="6" width="19" customWidth="1"/>
-    <col min="7" max="7" width="61.875" customWidth="1"/>
+    <col min="7" max="7" width="61.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -2893,7 +3163,7 @@
       </c>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:7" ht="210.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" ht="210.75" customHeight="1">
       <c r="A2" s="18">
         <v>1</v>
       </c>
@@ -2914,7 +3184,7 @@
       </c>
       <c r="G2" s="17"/>
     </row>
-    <row r="3" spans="1:7" ht="210.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" ht="210.75" customHeight="1">
       <c r="A3" s="18">
         <v>2</v>
       </c>
@@ -2935,7 +3205,7 @@
       </c>
       <c r="G3" s="17"/>
     </row>
-    <row r="4" spans="1:7" ht="210.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" ht="210.75" customHeight="1">
       <c r="A4" s="18">
         <v>3</v>
       </c>
@@ -2954,7 +3224,7 @@
       </c>
       <c r="G4" s="17"/>
     </row>
-    <row r="5" spans="1:7" ht="210.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" ht="210.75" customHeight="1">
       <c r="A5" s="18">
         <v>4</v>
       </c>
@@ -2973,7 +3243,7 @@
       </c>
       <c r="G5" s="17"/>
     </row>
-    <row r="6" spans="1:7" ht="210.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" ht="210.75" customHeight="1">
       <c r="A6" s="18">
         <v>5</v>
       </c>
@@ -2992,7 +3262,7 @@
       </c>
       <c r="G6" s="17"/>
     </row>
-    <row r="7" spans="1:7" ht="130.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" ht="130.5" customHeight="1">
       <c r="A7" s="18">
         <v>6</v>
       </c>
@@ -3011,7 +3281,7 @@
       </c>
       <c r="G7" s="17"/>
     </row>
-    <row r="8" spans="1:7" ht="210.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" ht="210.75" customHeight="1">
       <c r="A8" s="18">
         <v>7</v>
       </c>
@@ -3032,7 +3302,7 @@
       </c>
       <c r="G8" s="17"/>
     </row>
-    <row r="9" spans="1:7" ht="210.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7" ht="210.75" customHeight="1">
       <c r="A9" s="18">
         <v>8</v>
       </c>
@@ -3053,7 +3323,7 @@
       </c>
       <c r="G9" s="17"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7">
       <c r="A10" s="18">
         <v>9</v>
       </c>
@@ -3074,7 +3344,7 @@
       </c>
       <c r="G10" s="17"/>
     </row>
-    <row r="11" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7" ht="30">
       <c r="A11" s="18">
         <v>10</v>
       </c>
@@ -3095,7 +3365,7 @@
       </c>
       <c r="G11" s="17"/>
     </row>
-    <row r="12" spans="1:7" ht="195" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" ht="195" customHeight="1">
       <c r="A12" s="18">
         <v>11</v>
       </c>
@@ -3114,7 +3384,7 @@
       <c r="F12" s="20"/>
       <c r="G12" s="17"/>
     </row>
-    <row r="13" spans="1:7" ht="210.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7" ht="210.75" customHeight="1">
       <c r="A13" s="18">
         <v>12</v>
       </c>
@@ -3135,7 +3405,7 @@
       </c>
       <c r="G13" s="17"/>
     </row>
-    <row r="14" spans="1:7" ht="210.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" ht="210.75" customHeight="1">
       <c r="A14" s="18">
         <v>13</v>
       </c>
@@ -3154,7 +3424,7 @@
       <c r="F14" s="20"/>
       <c r="G14" s="17"/>
     </row>
-    <row r="15" spans="1:7" ht="195" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7" ht="195" customHeight="1">
       <c r="A15" s="18">
         <v>14</v>
       </c>
@@ -3173,7 +3443,7 @@
       <c r="F15" s="20"/>
       <c r="G15" s="17"/>
     </row>
-    <row r="16" spans="1:7" ht="210.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7" ht="210.75" customHeight="1">
       <c r="A16" s="18">
         <v>15</v>
       </c>
@@ -3194,7 +3464,7 @@
       </c>
       <c r="G16" s="17"/>
     </row>
-    <row r="17" spans="1:7" ht="210.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:7" ht="210.75" customHeight="1">
       <c r="A17" s="18">
         <v>16</v>
       </c>
@@ -3213,7 +3483,7 @@
       <c r="F17" s="20"/>
       <c r="G17" s="17"/>
     </row>
-    <row r="18" spans="1:7" ht="210.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:7" ht="210.75" customHeight="1">
       <c r="A18" s="18">
         <v>17</v>
       </c>
@@ -3224,7 +3494,7 @@
       <c r="F18" s="18"/>
       <c r="G18" s="17"/>
     </row>
-    <row r="19" spans="1:7" ht="210.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:7" ht="210.75" customHeight="1">
       <c r="A19" s="18"/>
       <c r="B19" s="18"/>
       <c r="C19" s="19"/>
@@ -3233,7 +3503,7 @@
       <c r="F19" s="18"/>
       <c r="G19" s="17"/>
     </row>
-    <row r="20" spans="1:7" ht="210.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:7" ht="210.75" customHeight="1">
       <c r="A20" s="18"/>
       <c r="B20" s="18"/>
       <c r="C20" s="19"/>
@@ -3242,7 +3512,7 @@
       <c r="F20" s="18"/>
       <c r="G20" s="17"/>
     </row>
-    <row r="21" spans="1:7" ht="210.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:7" ht="210.75" customHeight="1">
       <c r="A21" s="18"/>
       <c r="B21" s="18"/>
       <c r="C21" s="19"/>
@@ -3251,7 +3521,7 @@
       <c r="F21" s="18"/>
       <c r="G21" s="17"/>
     </row>
-    <row r="22" spans="1:7" ht="210.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:7" ht="210.75" customHeight="1">
       <c r="A22" s="18"/>
       <c r="B22" s="18"/>
       <c r="C22" s="19"/>
@@ -3260,7 +3530,7 @@
       <c r="F22" s="18"/>
       <c r="G22" s="17"/>
     </row>
-    <row r="23" spans="1:7" ht="210.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:7" ht="210.75" customHeight="1">
       <c r="A23" s="18"/>
       <c r="B23" s="18"/>
       <c r="C23" s="19"/>
@@ -3269,7 +3539,7 @@
       <c r="F23" s="18"/>
       <c r="G23" s="17"/>
     </row>
-    <row r="24" spans="1:7" ht="210.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:7" ht="210.75" customHeight="1">
       <c r="A24" s="18"/>
       <c r="B24" s="18"/>
       <c r="C24" s="19"/>
@@ -3278,7 +3548,7 @@
       <c r="F24" s="18"/>
       <c r="G24" s="17"/>
     </row>
-    <row r="25" spans="1:7" ht="210.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:7" ht="210.75" customHeight="1">
       <c r="A25" s="18"/>
       <c r="B25" s="18"/>
       <c r="C25" s="19"/>
@@ -3287,7 +3557,7 @@
       <c r="F25" s="18"/>
       <c r="G25" s="17"/>
     </row>
-    <row r="26" spans="1:7" ht="210.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:7" ht="210.75" customHeight="1">
       <c r="A26" s="18"/>
       <c r="B26" s="18"/>
       <c r="C26" s="19"/>
@@ -3296,7 +3566,7 @@
       <c r="F26" s="18"/>
       <c r="G26" s="17"/>
     </row>
-    <row r="27" spans="1:7" ht="210.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:7" ht="210.75" customHeight="1">
       <c r="A27" s="18"/>
       <c r="B27" s="18"/>
       <c r="C27" s="19"/>
@@ -3305,7 +3575,7 @@
       <c r="F27" s="18"/>
       <c r="G27" s="17"/>
     </row>
-    <row r="28" spans="1:7" ht="210.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:7" ht="210.75" customHeight="1">
       <c r="A28" s="18"/>
       <c r="B28" s="18"/>
       <c r="C28" s="19"/>
@@ -3314,7 +3584,7 @@
       <c r="F28" s="18"/>
       <c r="G28" s="17"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:7">
       <c r="A29" s="17"/>
       <c r="B29" s="17"/>
       <c r="C29" s="17"/>
@@ -3323,7 +3593,7 @@
       <c r="F29" s="17"/>
       <c r="G29" s="17"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:7">
       <c r="A30" s="17"/>
       <c r="B30" s="17"/>
       <c r="C30" s="17"/>
@@ -3332,7 +3602,7 @@
       <c r="F30" s="17"/>
       <c r="G30" s="17"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:7">
       <c r="A31" s="17"/>
       <c r="B31" s="17"/>
       <c r="C31" s="17"/>
@@ -3341,7 +3611,7 @@
       <c r="F31" s="17"/>
       <c r="G31" s="17"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:7">
       <c r="A32" s="17"/>
       <c r="B32" s="17"/>
       <c r="C32" s="17"/>
@@ -3350,7 +3620,7 @@
       <c r="F32" s="17"/>
       <c r="G32" s="17"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:7">
       <c r="A33" s="17"/>
       <c r="B33" s="17"/>
       <c r="C33" s="17"/>
@@ -3359,7 +3629,7 @@
       <c r="F33" s="17"/>
       <c r="G33" s="17"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:7">
       <c r="A34" s="17"/>
       <c r="B34" s="17"/>
       <c r="C34" s="17"/>
@@ -3368,7 +3638,7 @@
       <c r="F34" s="17"/>
       <c r="G34" s="17"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:7">
       <c r="A35" s="17"/>
       <c r="B35" s="17"/>
       <c r="C35" s="17"/>
@@ -3377,7 +3647,7 @@
       <c r="F35" s="17"/>
       <c r="G35" s="17"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:7">
       <c r="A36" s="17"/>
       <c r="B36" s="17"/>
       <c r="C36" s="17"/>
@@ -3386,7 +3656,7 @@
       <c r="F36" s="17"/>
       <c r="G36" s="17"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:7">
       <c r="A37" s="17"/>
       <c r="B37" s="17"/>
       <c r="C37" s="17"/>
@@ -3395,7 +3665,7 @@
       <c r="F37" s="17"/>
       <c r="G37" s="17"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:7">
       <c r="A38" s="17"/>
       <c r="B38" s="17"/>
       <c r="C38" s="17"/>
@@ -3404,7 +3674,7 @@
       <c r="F38" s="17"/>
       <c r="G38" s="17"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:7">
       <c r="A39" s="17"/>
       <c r="B39" s="17"/>
       <c r="C39" s="17"/>
@@ -3413,7 +3683,7 @@
       <c r="F39" s="17"/>
       <c r="G39" s="17"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:7">
       <c r="A40" s="17"/>
       <c r="B40" s="17"/>
       <c r="C40" s="17"/>
@@ -3422,7 +3692,7 @@
       <c r="F40" s="17"/>
       <c r="G40" s="17"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:7">
       <c r="A41" s="17"/>
       <c r="B41" s="17"/>
       <c r="C41" s="17"/>
@@ -3431,7 +3701,7 @@
       <c r="F41" s="17"/>
       <c r="G41" s="17"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:7">
       <c r="A42" s="17"/>
       <c r="B42" s="17"/>
       <c r="C42" s="17"/>
@@ -3440,7 +3710,7 @@
       <c r="F42" s="17"/>
       <c r="G42" s="17"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:7">
       <c r="A43" s="17"/>
       <c r="B43" s="17"/>
       <c r="C43" s="17"/>
@@ -3449,7 +3719,7 @@
       <c r="F43" s="17"/>
       <c r="G43" s="17"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:7">
       <c r="A44" s="17"/>
       <c r="B44" s="17"/>
       <c r="C44" s="17"/>
@@ -3458,7 +3728,7 @@
       <c r="F44" s="17"/>
       <c r="G44" s="17"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:7">
       <c r="A45" s="17"/>
       <c r="B45" s="17"/>
       <c r="C45" s="17"/>
@@ -3467,7 +3737,7 @@
       <c r="F45" s="17"/>
       <c r="G45" s="17"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:7">
       <c r="A46" s="17"/>
       <c r="B46" s="17"/>
       <c r="C46" s="17"/>
@@ -3476,7 +3746,7 @@
       <c r="F46" s="17"/>
       <c r="G46" s="17"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:7">
       <c r="A47" s="17"/>
       <c r="B47" s="17"/>
       <c r="C47" s="17"/>
@@ -3485,7 +3755,7 @@
       <c r="F47" s="17"/>
       <c r="G47" s="17"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:7">
       <c r="A48" s="17"/>
       <c r="B48" s="17"/>
       <c r="C48" s="17"/>
@@ -3494,7 +3764,7 @@
       <c r="F48" s="17"/>
       <c r="G48" s="17"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:7">
       <c r="A49" s="17"/>
       <c r="B49" s="17"/>
       <c r="C49" s="17"/>
@@ -3503,7 +3773,7 @@
       <c r="F49" s="17"/>
       <c r="G49" s="17"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:7">
       <c r="A50" s="17"/>
       <c r="B50" s="17"/>
       <c r="C50" s="17"/>
@@ -3512,7 +3782,7 @@
       <c r="F50" s="17"/>
       <c r="G50" s="17"/>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:7">
       <c r="A51" s="17"/>
       <c r="B51" s="17"/>
       <c r="C51" s="17"/>
@@ -3521,7 +3791,7 @@
       <c r="F51" s="17"/>
       <c r="G51" s="17"/>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:7">
       <c r="A52" s="17"/>
       <c r="B52" s="17"/>
       <c r="C52" s="17"/>
@@ -3530,7 +3800,7 @@
       <c r="F52" s="17"/>
       <c r="G52" s="17"/>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:7">
       <c r="A53" s="17"/>
       <c r="B53" s="17"/>
       <c r="C53" s="17"/>
@@ -3539,7 +3809,7 @@
       <c r="F53" s="17"/>
       <c r="G53" s="17"/>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:7">
       <c r="A54" s="17"/>
       <c r="B54" s="17"/>
       <c r="C54" s="17"/>
@@ -3548,7 +3818,7 @@
       <c r="F54" s="17"/>
       <c r="G54" s="17"/>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:7">
       <c r="A55" s="17"/>
       <c r="B55" s="17"/>
       <c r="C55" s="17"/>
@@ -3557,7 +3827,7 @@
       <c r="F55" s="17"/>
       <c r="G55" s="17"/>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:7">
       <c r="A56" s="17"/>
       <c r="B56" s="17"/>
       <c r="C56" s="17"/>
@@ -3566,7 +3836,7 @@
       <c r="F56" s="17"/>
       <c r="G56" s="17"/>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:7">
       <c r="A57" s="17"/>
       <c r="B57" s="17"/>
       <c r="C57" s="17"/>
@@ -3575,7 +3845,7 @@
       <c r="F57" s="17"/>
       <c r="G57" s="17"/>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:7">
       <c r="A58" s="17"/>
       <c r="B58" s="17"/>
       <c r="C58" s="17"/>
@@ -3584,7 +3854,7 @@
       <c r="F58" s="17"/>
       <c r="G58" s="17"/>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:7">
       <c r="A59" s="17"/>
       <c r="B59" s="17"/>
       <c r="C59" s="17"/>
@@ -3593,7 +3863,7 @@
       <c r="F59" s="17"/>
       <c r="G59" s="17"/>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:7">
       <c r="A60" s="17"/>
       <c r="B60" s="17"/>
       <c r="C60" s="17"/>
@@ -3602,7 +3872,7 @@
       <c r="F60" s="17"/>
       <c r="G60" s="17"/>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:7">
       <c r="A61" s="17"/>
       <c r="B61" s="17"/>
       <c r="C61" s="17"/>
@@ -3611,7 +3881,7 @@
       <c r="F61" s="17"/>
       <c r="G61" s="17"/>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:7">
       <c r="A62" s="17"/>
       <c r="B62" s="17"/>
       <c r="C62" s="17"/>
@@ -3620,7 +3890,7 @@
       <c r="F62" s="17"/>
       <c r="G62" s="17"/>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:7">
       <c r="A63" s="17"/>
       <c r="B63" s="17"/>
       <c r="C63" s="17"/>
@@ -3629,7 +3899,7 @@
       <c r="F63" s="17"/>
       <c r="G63" s="17"/>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:7">
       <c r="A64" s="17"/>
       <c r="B64" s="17"/>
       <c r="C64" s="17"/>
@@ -3638,7 +3908,7 @@
       <c r="F64" s="17"/>
       <c r="G64" s="17"/>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:7">
       <c r="A65" s="17"/>
       <c r="B65" s="17"/>
       <c r="C65" s="17"/>
@@ -3647,7 +3917,7 @@
       <c r="F65" s="17"/>
       <c r="G65" s="17"/>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:7">
       <c r="A66" s="17"/>
       <c r="B66" s="17"/>
       <c r="C66" s="17"/>
@@ -3656,7 +3926,7 @@
       <c r="F66" s="17"/>
       <c r="G66" s="17"/>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:7">
       <c r="A67" s="17"/>
       <c r="B67" s="17"/>
       <c r="C67" s="17"/>
@@ -3665,7 +3935,7 @@
       <c r="F67" s="17"/>
       <c r="G67" s="17"/>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:7">
       <c r="A68" s="17"/>
       <c r="B68" s="17"/>
       <c r="C68" s="17"/>
@@ -3674,7 +3944,7 @@
       <c r="F68" s="17"/>
       <c r="G68" s="17"/>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:7">
       <c r="A69" s="17"/>
       <c r="B69" s="17"/>
       <c r="C69" s="17"/>
@@ -3683,7 +3953,7 @@
       <c r="F69" s="17"/>
       <c r="G69" s="17"/>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:7">
       <c r="A70" s="17"/>
       <c r="B70" s="17"/>
       <c r="C70" s="17"/>
@@ -3692,7 +3962,7 @@
       <c r="F70" s="17"/>
       <c r="G70" s="17"/>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:7">
       <c r="A71" s="17"/>
       <c r="B71" s="17"/>
       <c r="C71" s="17"/>
@@ -3701,7 +3971,7 @@
       <c r="F71" s="17"/>
       <c r="G71" s="17"/>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:7">
       <c r="A72" s="17"/>
       <c r="B72" s="17"/>
       <c r="C72" s="17"/>
@@ -3710,7 +3980,7 @@
       <c r="F72" s="17"/>
       <c r="G72" s="17"/>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:7">
       <c r="A73" s="17"/>
       <c r="B73" s="17"/>
       <c r="C73" s="17"/>
@@ -3719,7 +3989,7 @@
       <c r="F73" s="17"/>
       <c r="G73" s="17"/>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:7">
       <c r="A74" s="17"/>
       <c r="B74" s="17"/>
       <c r="C74" s="17"/>
@@ -3728,7 +3998,7 @@
       <c r="F74" s="17"/>
       <c r="G74" s="17"/>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:7">
       <c r="A75" s="17"/>
       <c r="B75" s="17"/>
       <c r="C75" s="17"/>
@@ -3737,7 +4007,7 @@
       <c r="F75" s="17"/>
       <c r="G75" s="17"/>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:7">
       <c r="A76" s="17"/>
       <c r="B76" s="17"/>
       <c r="C76" s="17"/>
@@ -3746,7 +4016,7 @@
       <c r="F76" s="17"/>
       <c r="G76" s="17"/>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:7">
       <c r="A77" s="17"/>
       <c r="B77" s="17"/>
       <c r="C77" s="17"/>
@@ -3767,21 +4037,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="18.75" style="30" customWidth="1"/>
-    <col min="3" max="3" width="86.125" style="31" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.625" style="30" customWidth="1"/>
-    <col min="5" max="5" width="11.875" style="30" customWidth="1"/>
-    <col min="6" max="6" width="10.625" customWidth="1"/>
-    <col min="7" max="7" width="49.375" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" style="30" customWidth="1"/>
+    <col min="3" max="3" width="86.140625" style="31" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.5703125" style="30" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" style="30" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" customWidth="1"/>
+    <col min="7" max="7" width="49.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -3801,7 +4071,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="84" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" ht="84" customHeight="1">
       <c r="A2" s="18">
         <v>1</v>
       </c>
@@ -3821,7 +4091,7 @@
         <v>42076</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="176.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" ht="176.25" customHeight="1">
       <c r="A3" s="18">
         <v>2</v>
       </c>
@@ -3841,7 +4111,7 @@
         <v>42076</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7">
       <c r="A4" s="18">
         <v>3</v>
       </c>
@@ -3859,7 +4129,7 @@
         <v>42075</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7">
       <c r="A5" s="18">
         <v>4</v>
       </c>
@@ -3877,7 +4147,7 @@
         <v>42075</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" ht="90">
       <c r="A6" s="18">
         <v>5</v>
       </c>
@@ -3895,7 +4165,7 @@
         <v>42075</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="152.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" ht="152.25" customHeight="1">
       <c r="A7" s="18">
         <v>6</v>
       </c>
@@ -3914,7 +4184,7 @@
       </c>
       <c r="G7" s="27"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7">
       <c r="A8" s="18">
         <v>7</v>
       </c>
@@ -3932,7 +4202,7 @@
         <v>42075</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7" ht="24" customHeight="1">
       <c r="A9" s="18">
         <v>8</v>
       </c>
@@ -3950,7 +4220,7 @@
         <v>42075</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="183" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7" ht="183" customHeight="1">
       <c r="A10" s="18">
         <v>9</v>
       </c>
@@ -3968,7 +4238,7 @@
         <v>42075</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7">
       <c r="A11" s="18">
         <v>10</v>
       </c>
@@ -3982,7 +4252,7 @@
       <c r="E11" s="29"/>
       <c r="F11" s="17"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7">
       <c r="A12" s="18">
         <v>11</v>
       </c>
@@ -4000,7 +4270,7 @@
         <v>42075</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="54" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7" ht="60">
       <c r="A13" s="18">
         <v>12</v>
       </c>
@@ -4020,7 +4290,7 @@
         <v>42076</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="129" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" ht="129" customHeight="1">
       <c r="A14" s="18">
         <v>13</v>
       </c>
@@ -4044,4 +4314,653 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G60"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="29.7109375" customWidth="1"/>
+    <col min="3" max="3" width="78.85546875" style="41" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="32" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="159" customHeight="1">
+      <c r="A2" s="37">
+        <v>1</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="E2" s="20">
+        <v>42130</v>
+      </c>
+      <c r="F2" s="33"/>
+      <c r="G2" s="18" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="37">
+        <v>2</v>
+      </c>
+      <c r="B3" s="38" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" s="39" t="s">
+        <v>112</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="E3" s="20">
+        <v>42130</v>
+      </c>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="37">
+        <v>3</v>
+      </c>
+      <c r="B4" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="C4" s="39" t="s">
+        <v>113</v>
+      </c>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+    </row>
+    <row r="5" spans="1:7" ht="150.75" customHeight="1">
+      <c r="A5" s="37">
+        <v>4</v>
+      </c>
+      <c r="B5" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="C5" s="39" t="s">
+        <v>114</v>
+      </c>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+    </row>
+    <row r="6" spans="1:7" ht="138.75" customHeight="1">
+      <c r="A6" s="37">
+        <v>5</v>
+      </c>
+      <c r="B6" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="C6" s="39" t="s">
+        <v>115</v>
+      </c>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="17"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="37">
+        <v>6</v>
+      </c>
+      <c r="B7" s="38" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" s="39" t="s">
+        <v>116</v>
+      </c>
+      <c r="D7" s="38"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="17"/>
+    </row>
+    <row r="8" spans="1:7" ht="188.25" customHeight="1">
+      <c r="A8" s="37">
+        <v>7</v>
+      </c>
+      <c r="B8" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="C8" s="39" t="s">
+        <v>117</v>
+      </c>
+      <c r="D8" s="38"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="17"/>
+    </row>
+    <row r="9" spans="1:7" ht="158.25" customHeight="1">
+      <c r="A9" s="37">
+        <v>8</v>
+      </c>
+      <c r="B9" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="C9" s="39" t="s">
+        <v>118</v>
+      </c>
+      <c r="D9" s="38"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="17"/>
+    </row>
+    <row r="10" spans="1:7" ht="30">
+      <c r="A10" s="37">
+        <v>9</v>
+      </c>
+      <c r="B10" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="C10" s="39" t="s">
+        <v>119</v>
+      </c>
+      <c r="D10" s="38"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="38"/>
+      <c r="G10" s="17"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="37">
+        <v>10</v>
+      </c>
+      <c r="B11" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="C11" s="39" t="s">
+        <v>120</v>
+      </c>
+      <c r="D11" s="38"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="38"/>
+      <c r="G11" s="17"/>
+    </row>
+    <row r="12" spans="1:7" ht="30">
+      <c r="A12" s="37">
+        <v>11</v>
+      </c>
+      <c r="B12" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="C12" s="39" t="s">
+        <v>121</v>
+      </c>
+      <c r="D12" s="38"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="38"/>
+      <c r="G12" s="17"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="37"/>
+      <c r="B13" s="38"/>
+      <c r="C13" s="39"/>
+      <c r="D13" s="38"/>
+      <c r="E13" s="38"/>
+      <c r="F13" s="38"/>
+      <c r="G13" s="17"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="35"/>
+      <c r="B14" s="38"/>
+      <c r="C14" s="39"/>
+      <c r="D14" s="38"/>
+      <c r="E14" s="38"/>
+      <c r="F14" s="38"/>
+      <c r="G14" s="17"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="35"/>
+      <c r="B15" s="38"/>
+      <c r="C15" s="39"/>
+      <c r="D15" s="38"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="17"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="35"/>
+      <c r="B16" s="38"/>
+      <c r="C16" s="39"/>
+      <c r="D16" s="38"/>
+      <c r="E16" s="38"/>
+      <c r="F16" s="38"/>
+      <c r="G16" s="17"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="35"/>
+      <c r="B17" s="38"/>
+      <c r="C17" s="39"/>
+      <c r="D17" s="38"/>
+      <c r="E17" s="38"/>
+      <c r="F17" s="38"/>
+      <c r="G17" s="17"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="35"/>
+      <c r="B18" s="38"/>
+      <c r="C18" s="39"/>
+      <c r="D18" s="38"/>
+      <c r="E18" s="38"/>
+      <c r="F18" s="38"/>
+      <c r="G18" s="17"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="35"/>
+      <c r="B19" s="38"/>
+      <c r="C19" s="39"/>
+      <c r="D19" s="38"/>
+      <c r="E19" s="38"/>
+      <c r="F19" s="38"/>
+      <c r="G19" s="17"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="35"/>
+      <c r="B20" s="38"/>
+      <c r="C20" s="39"/>
+      <c r="D20" s="38"/>
+      <c r="E20" s="38"/>
+      <c r="F20" s="38"/>
+      <c r="G20" s="17"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="35"/>
+      <c r="B21" s="38"/>
+      <c r="C21" s="39"/>
+      <c r="D21" s="38"/>
+      <c r="E21" s="38"/>
+      <c r="F21" s="38"/>
+      <c r="G21" s="17"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="35"/>
+      <c r="B22" s="38"/>
+      <c r="C22" s="39"/>
+      <c r="D22" s="38"/>
+      <c r="E22" s="38"/>
+      <c r="F22" s="38"/>
+      <c r="G22" s="17"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="35"/>
+      <c r="B23" s="38"/>
+      <c r="C23" s="39"/>
+      <c r="D23" s="38"/>
+      <c r="E23" s="38"/>
+      <c r="F23" s="38"/>
+      <c r="G23" s="17"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="35"/>
+      <c r="B24" s="38"/>
+      <c r="C24" s="39"/>
+      <c r="D24" s="38"/>
+      <c r="E24" s="38"/>
+      <c r="F24" s="38"/>
+      <c r="G24" s="17"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="35"/>
+      <c r="B25" s="38"/>
+      <c r="C25" s="39"/>
+      <c r="D25" s="38"/>
+      <c r="E25" s="38"/>
+      <c r="F25" s="38"/>
+      <c r="G25" s="17"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="35"/>
+      <c r="B26" s="38"/>
+      <c r="C26" s="39"/>
+      <c r="D26" s="38"/>
+      <c r="E26" s="38"/>
+      <c r="F26" s="38"/>
+      <c r="G26" s="17"/>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="35"/>
+      <c r="B27" s="38"/>
+      <c r="C27" s="39"/>
+      <c r="D27" s="38"/>
+      <c r="E27" s="38"/>
+      <c r="F27" s="38"/>
+      <c r="G27" s="17"/>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="35"/>
+      <c r="B28" s="38"/>
+      <c r="C28" s="39"/>
+      <c r="D28" s="38"/>
+      <c r="E28" s="38"/>
+      <c r="F28" s="38"/>
+      <c r="G28" s="17"/>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="35"/>
+      <c r="B29" s="38"/>
+      <c r="C29" s="39"/>
+      <c r="D29" s="38"/>
+      <c r="E29" s="38"/>
+      <c r="F29" s="38"/>
+      <c r="G29" s="17"/>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="35"/>
+      <c r="B30" s="38"/>
+      <c r="C30" s="39"/>
+      <c r="D30" s="38"/>
+      <c r="E30" s="38"/>
+      <c r="F30" s="38"/>
+      <c r="G30" s="17"/>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="35"/>
+      <c r="B31" s="38"/>
+      <c r="C31" s="39"/>
+      <c r="D31" s="38"/>
+      <c r="E31" s="38"/>
+      <c r="F31" s="38"/>
+      <c r="G31" s="17"/>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="35"/>
+      <c r="B32" s="38"/>
+      <c r="C32" s="39"/>
+      <c r="D32" s="38"/>
+      <c r="E32" s="38"/>
+      <c r="F32" s="38"/>
+      <c r="G32" s="17"/>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="35"/>
+      <c r="B33" s="38"/>
+      <c r="C33" s="39"/>
+      <c r="D33" s="38"/>
+      <c r="E33" s="38"/>
+      <c r="F33" s="38"/>
+      <c r="G33" s="17"/>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="35"/>
+      <c r="B34" s="38"/>
+      <c r="C34" s="39"/>
+      <c r="D34" s="38"/>
+      <c r="E34" s="38"/>
+      <c r="F34" s="38"/>
+      <c r="G34" s="17"/>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="35"/>
+      <c r="B35" s="38"/>
+      <c r="C35" s="39"/>
+      <c r="D35" s="38"/>
+      <c r="E35" s="38"/>
+      <c r="F35" s="38"/>
+      <c r="G35" s="17"/>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="35"/>
+      <c r="B36" s="38"/>
+      <c r="C36" s="39"/>
+      <c r="D36" s="38"/>
+      <c r="E36" s="38"/>
+      <c r="F36" s="38"/>
+      <c r="G36" s="17"/>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="35"/>
+      <c r="B37" s="38"/>
+      <c r="C37" s="39"/>
+      <c r="D37" s="38"/>
+      <c r="E37" s="38"/>
+      <c r="F37" s="38"/>
+      <c r="G37" s="17"/>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="35"/>
+      <c r="B38" s="38"/>
+      <c r="C38" s="39"/>
+      <c r="D38" s="38"/>
+      <c r="E38" s="38"/>
+      <c r="F38" s="38"/>
+      <c r="G38" s="17"/>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="35"/>
+      <c r="B39" s="38"/>
+      <c r="C39" s="39"/>
+      <c r="D39" s="38"/>
+      <c r="E39" s="38"/>
+      <c r="F39" s="38"/>
+      <c r="G39" s="17"/>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="35"/>
+      <c r="B40" s="38"/>
+      <c r="C40" s="39"/>
+      <c r="D40" s="38"/>
+      <c r="E40" s="38"/>
+      <c r="F40" s="38"/>
+      <c r="G40" s="17"/>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="35"/>
+      <c r="B41" s="38"/>
+      <c r="C41" s="39"/>
+      <c r="D41" s="38"/>
+      <c r="E41" s="38"/>
+      <c r="F41" s="38"/>
+      <c r="G41" s="17"/>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="35"/>
+      <c r="B42" s="38"/>
+      <c r="C42" s="39"/>
+      <c r="D42" s="38"/>
+      <c r="E42" s="38"/>
+      <c r="F42" s="38"/>
+      <c r="G42" s="17"/>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="35"/>
+      <c r="B43" s="38"/>
+      <c r="C43" s="39"/>
+      <c r="D43" s="38"/>
+      <c r="E43" s="38"/>
+      <c r="F43" s="38"/>
+      <c r="G43" s="17"/>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="35"/>
+      <c r="B44" s="38"/>
+      <c r="C44" s="39"/>
+      <c r="D44" s="38"/>
+      <c r="E44" s="38"/>
+      <c r="F44" s="38"/>
+      <c r="G44" s="17"/>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" s="35"/>
+      <c r="B45" s="38"/>
+      <c r="C45" s="39"/>
+      <c r="D45" s="38"/>
+      <c r="E45" s="38"/>
+      <c r="F45" s="38"/>
+      <c r="G45" s="17"/>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" s="35"/>
+      <c r="B46" s="38"/>
+      <c r="C46" s="39"/>
+      <c r="D46" s="38"/>
+      <c r="E46" s="38"/>
+      <c r="F46" s="38"/>
+      <c r="G46" s="17"/>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" s="35"/>
+      <c r="B47" s="38"/>
+      <c r="C47" s="39"/>
+      <c r="D47" s="38"/>
+      <c r="E47" s="38"/>
+      <c r="F47" s="38"/>
+      <c r="G47" s="17"/>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" s="35"/>
+      <c r="B48" s="38"/>
+      <c r="C48" s="39"/>
+      <c r="D48" s="38"/>
+      <c r="E48" s="38"/>
+      <c r="F48" s="38"/>
+      <c r="G48" s="17"/>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" s="35"/>
+      <c r="B49" s="38"/>
+      <c r="C49" s="39"/>
+      <c r="D49" s="38"/>
+      <c r="E49" s="38"/>
+      <c r="F49" s="38"/>
+      <c r="G49" s="17"/>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" s="35"/>
+      <c r="B50" s="38"/>
+      <c r="C50" s="39"/>
+      <c r="D50" s="38"/>
+      <c r="E50" s="38"/>
+      <c r="F50" s="38"/>
+      <c r="G50" s="17"/>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" s="35"/>
+      <c r="B51" s="38"/>
+      <c r="C51" s="39"/>
+      <c r="D51" s="38"/>
+      <c r="E51" s="38"/>
+      <c r="F51" s="38"/>
+      <c r="G51" s="17"/>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" s="35"/>
+      <c r="B52" s="38"/>
+      <c r="C52" s="39"/>
+      <c r="D52" s="38"/>
+      <c r="E52" s="38"/>
+      <c r="F52" s="38"/>
+      <c r="G52" s="17"/>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" s="35"/>
+      <c r="B53" s="38"/>
+      <c r="C53" s="39"/>
+      <c r="D53" s="38"/>
+      <c r="E53" s="38"/>
+      <c r="F53" s="38"/>
+      <c r="G53" s="17"/>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54" s="35"/>
+      <c r="B54" s="38"/>
+      <c r="C54" s="39"/>
+      <c r="D54" s="38"/>
+      <c r="E54" s="38"/>
+      <c r="F54" s="38"/>
+      <c r="G54" s="17"/>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55" s="35"/>
+      <c r="B55" s="38"/>
+      <c r="C55" s="39"/>
+      <c r="D55" s="38"/>
+      <c r="E55" s="38"/>
+      <c r="F55" s="38"/>
+      <c r="G55" s="17"/>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56" s="35"/>
+      <c r="B56" s="38"/>
+      <c r="C56" s="39"/>
+      <c r="D56" s="38"/>
+      <c r="E56" s="38"/>
+      <c r="F56" s="38"/>
+      <c r="G56" s="17"/>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="B57" s="17"/>
+      <c r="C57" s="40"/>
+      <c r="D57" s="17"/>
+      <c r="E57" s="17"/>
+      <c r="F57" s="17"/>
+      <c r="G57" s="17"/>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="B58" s="17"/>
+      <c r="C58" s="40"/>
+      <c r="D58" s="17"/>
+      <c r="E58" s="17"/>
+      <c r="F58" s="17"/>
+      <c r="G58" s="17"/>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="B59" s="17"/>
+      <c r="C59" s="40"/>
+      <c r="D59" s="17"/>
+      <c r="E59" s="17"/>
+      <c r="F59" s="17"/>
+      <c r="G59" s="17"/>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="B60" s="17"/>
+      <c r="C60" s="40"/>
+      <c r="D60" s="17"/>
+      <c r="E60" s="17"/>
+      <c r="F60" s="17"/>
+      <c r="G60" s="17"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/Docs/Testing Issue List.xlsx
+++ b/Docs/Testing Issue List.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="132">
   <si>
     <t>#</t>
   </si>
@@ -450,6 +450,39 @@
   </si>
   <si>
     <t>当采购订单被中止，待入库的订单应该不允许用户 点击"确认入库"， 是否应该把状态改为“已中止”？</t>
+  </si>
+  <si>
+    <t>采购订单报表</t>
+  </si>
+  <si>
+    <t>Wangning</t>
+  </si>
+  <si>
+    <t>导出excel 功能， 数据行不要加粗，数字列只需要保留2位小数</t>
+  </si>
+  <si>
+    <t>终止数量 改为 “中止数量”
+未执行数量 的三列在页面上没有显示
+待入库的入库单数据，算未执行数量。（现在未考虑入库单状态，待入库的数量也算成已执行数量）</t>
+  </si>
+  <si>
+    <t>入库明细报表</t>
+  </si>
+  <si>
+    <t>能否将页面的宽度加大？始终显示货品名字和仓库。
+另外，grid会出现列串掉的问题。</t>
+  </si>
+  <si>
+    <t>采购计划报表</t>
+  </si>
+  <si>
+    <t>grid下有多余的空白</t>
+  </si>
+  <si>
+    <t>采购付款明细表</t>
+  </si>
+  <si>
+    <t>grid下有多余的空白， 为什么没有付款日期？</t>
   </si>
 </sst>
 </file>
@@ -554,7 +587,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -656,6 +689,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1985,14 +2024,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>600074</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>114299</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>2381251</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>551275</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>65500</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>1865441</xdr:rowOff>
     </xdr:to>
@@ -2011,8 +2050,46 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10706099" y="8839201"/>
+          <a:off x="11106149" y="8839201"/>
           <a:ext cx="6656801" cy="1874965"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>14430</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>179700</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>1983468</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11077575" y="13263705"/>
+          <a:ext cx="4361175" cy="1969038"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4320,8 +4397,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A12"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4330,6 +4407,7 @@
     <col min="3" max="3" width="78.85546875" style="41" customWidth="1"/>
     <col min="5" max="5" width="12.85546875" customWidth="1"/>
     <col min="6" max="6" width="11.85546875" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" style="35" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -4351,7 +4429,7 @@
       <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="32" t="s">
+      <c r="G1" s="42" t="s">
         <v>109</v>
       </c>
     </row>
@@ -4372,7 +4450,7 @@
         <v>42130</v>
       </c>
       <c r="F2" s="33"/>
-      <c r="G2" s="18" t="s">
+      <c r="G2" s="43" t="s">
         <v>110</v>
       </c>
     </row>
@@ -4393,7 +4471,7 @@
         <v>42130</v>
       </c>
       <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
+      <c r="G3" s="38"/>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="37">
@@ -4408,7 +4486,7 @@
       <c r="D4" s="17"/>
       <c r="E4" s="17"/>
       <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
+      <c r="G4" s="38"/>
     </row>
     <row r="5" spans="1:7" ht="150.75" customHeight="1">
       <c r="A5" s="37">
@@ -4423,7 +4501,7 @@
       <c r="D5" s="17"/>
       <c r="E5" s="17"/>
       <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
+      <c r="G5" s="38"/>
     </row>
     <row r="6" spans="1:7" ht="138.75" customHeight="1">
       <c r="A6" s="37">
@@ -4438,7 +4516,7 @@
       <c r="D6" s="38"/>
       <c r="E6" s="38"/>
       <c r="F6" s="38"/>
-      <c r="G6" s="17"/>
+      <c r="G6" s="38"/>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="37">
@@ -4453,7 +4531,7 @@
       <c r="D7" s="38"/>
       <c r="E7" s="38"/>
       <c r="F7" s="38"/>
-      <c r="G7" s="17"/>
+      <c r="G7" s="38"/>
     </row>
     <row r="8" spans="1:7" ht="188.25" customHeight="1">
       <c r="A8" s="37">
@@ -4468,7 +4546,7 @@
       <c r="D8" s="38"/>
       <c r="E8" s="38"/>
       <c r="F8" s="38"/>
-      <c r="G8" s="17"/>
+      <c r="G8" s="38"/>
     </row>
     <row r="9" spans="1:7" ht="158.25" customHeight="1">
       <c r="A9" s="37">
@@ -4483,7 +4561,7 @@
       <c r="D9" s="38"/>
       <c r="E9" s="38"/>
       <c r="F9" s="38"/>
-      <c r="G9" s="17"/>
+      <c r="G9" s="38"/>
     </row>
     <row r="10" spans="1:7" ht="30">
       <c r="A10" s="37">
@@ -4498,7 +4576,7 @@
       <c r="D10" s="38"/>
       <c r="E10" s="38"/>
       <c r="F10" s="38"/>
-      <c r="G10" s="17"/>
+      <c r="G10" s="38"/>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="37">
@@ -4513,7 +4591,7 @@
       <c r="D11" s="38"/>
       <c r="E11" s="38"/>
       <c r="F11" s="38"/>
-      <c r="G11" s="17"/>
+      <c r="G11" s="38"/>
     </row>
     <row r="12" spans="1:7" ht="30">
       <c r="A12" s="37">
@@ -4528,427 +4606,470 @@
       <c r="D12" s="38"/>
       <c r="E12" s="38"/>
       <c r="F12" s="38"/>
-      <c r="G12" s="17"/>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="37"/>
-      <c r="B13" s="38"/>
-      <c r="C13" s="39"/>
+      <c r="G12" s="38"/>
+    </row>
+    <row r="13" spans="1:7" ht="98.25" customHeight="1">
+      <c r="A13" s="37">
+        <v>12</v>
+      </c>
+      <c r="B13" s="38" t="s">
+        <v>122</v>
+      </c>
+      <c r="C13" s="39" t="s">
+        <v>125</v>
+      </c>
       <c r="D13" s="38"/>
       <c r="E13" s="38"/>
       <c r="F13" s="38"/>
-      <c r="G13" s="17"/>
+      <c r="G13" s="38" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="35"/>
-      <c r="B14" s="38"/>
-      <c r="C14" s="39"/>
+      <c r="A14" s="37">
+        <v>13</v>
+      </c>
+      <c r="B14" s="38" t="s">
+        <v>122</v>
+      </c>
+      <c r="C14" s="39" t="s">
+        <v>124</v>
+      </c>
       <c r="D14" s="38"/>
       <c r="E14" s="38"/>
       <c r="F14" s="38"/>
-      <c r="G14" s="17"/>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="35"/>
-      <c r="B15" s="38"/>
-      <c r="C15" s="39"/>
+      <c r="G14" s="38" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="169.5" customHeight="1">
+      <c r="A15" s="37">
+        <v>14</v>
+      </c>
+      <c r="B15" s="38" t="s">
+        <v>126</v>
+      </c>
+      <c r="C15" s="39" t="s">
+        <v>127</v>
+      </c>
       <c r="D15" s="38"/>
       <c r="E15" s="38"/>
       <c r="F15" s="38"/>
-      <c r="G15" s="17"/>
+      <c r="G15" s="38" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="35"/>
-      <c r="B16" s="38"/>
-      <c r="C16" s="39"/>
+      <c r="A16" s="37">
+        <v>15</v>
+      </c>
+      <c r="B16" s="38" t="s">
+        <v>128</v>
+      </c>
+      <c r="C16" s="39" t="s">
+        <v>129</v>
+      </c>
       <c r="D16" s="38"/>
       <c r="E16" s="38"/>
       <c r="F16" s="38"/>
-      <c r="G16" s="17"/>
+      <c r="G16" s="38" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="35"/>
-      <c r="B17" s="38"/>
-      <c r="C17" s="39"/>
+      <c r="A17" s="37">
+        <v>16</v>
+      </c>
+      <c r="B17" s="38" t="s">
+        <v>130</v>
+      </c>
+      <c r="C17" s="39" t="s">
+        <v>131</v>
+      </c>
       <c r="D17" s="38"/>
       <c r="E17" s="38"/>
       <c r="F17" s="38"/>
-      <c r="G17" s="17"/>
+      <c r="G17" s="38" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="35"/>
+      <c r="A18" s="37"/>
       <c r="B18" s="38"/>
       <c r="C18" s="39"/>
       <c r="D18" s="38"/>
       <c r="E18" s="38"/>
       <c r="F18" s="38"/>
-      <c r="G18" s="17"/>
+      <c r="G18" s="38"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="35"/>
+      <c r="A19" s="37"/>
       <c r="B19" s="38"/>
       <c r="C19" s="39"/>
       <c r="D19" s="38"/>
       <c r="E19" s="38"/>
       <c r="F19" s="38"/>
-      <c r="G19" s="17"/>
+      <c r="G19" s="38"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="35"/>
+      <c r="A20" s="37"/>
       <c r="B20" s="38"/>
       <c r="C20" s="39"/>
       <c r="D20" s="38"/>
       <c r="E20" s="38"/>
       <c r="F20" s="38"/>
-      <c r="G20" s="17"/>
+      <c r="G20" s="38"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="35"/>
+      <c r="A21" s="37"/>
       <c r="B21" s="38"/>
       <c r="C21" s="39"/>
       <c r="D21" s="38"/>
       <c r="E21" s="38"/>
       <c r="F21" s="38"/>
-      <c r="G21" s="17"/>
+      <c r="G21" s="38"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="35"/>
+      <c r="A22" s="37"/>
       <c r="B22" s="38"/>
       <c r="C22" s="39"/>
       <c r="D22" s="38"/>
       <c r="E22" s="38"/>
       <c r="F22" s="38"/>
-      <c r="G22" s="17"/>
+      <c r="G22" s="38"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="35"/>
+      <c r="A23" s="37"/>
       <c r="B23" s="38"/>
       <c r="C23" s="39"/>
       <c r="D23" s="38"/>
       <c r="E23" s="38"/>
       <c r="F23" s="38"/>
-      <c r="G23" s="17"/>
+      <c r="G23" s="38"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="35"/>
+      <c r="A24" s="37"/>
       <c r="B24" s="38"/>
       <c r="C24" s="39"/>
       <c r="D24" s="38"/>
       <c r="E24" s="38"/>
       <c r="F24" s="38"/>
-      <c r="G24" s="17"/>
+      <c r="G24" s="38"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="35"/>
+      <c r="A25" s="37"/>
       <c r="B25" s="38"/>
       <c r="C25" s="39"/>
       <c r="D25" s="38"/>
       <c r="E25" s="38"/>
       <c r="F25" s="38"/>
-      <c r="G25" s="17"/>
+      <c r="G25" s="38"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="35"/>
+      <c r="A26" s="37"/>
       <c r="B26" s="38"/>
       <c r="C26" s="39"/>
       <c r="D26" s="38"/>
       <c r="E26" s="38"/>
       <c r="F26" s="38"/>
-      <c r="G26" s="17"/>
+      <c r="G26" s="38"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="35"/>
+      <c r="A27" s="37"/>
       <c r="B27" s="38"/>
       <c r="C27" s="39"/>
       <c r="D27" s="38"/>
       <c r="E27" s="38"/>
       <c r="F27" s="38"/>
-      <c r="G27" s="17"/>
+      <c r="G27" s="38"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="35"/>
+      <c r="A28" s="37"/>
       <c r="B28" s="38"/>
       <c r="C28" s="39"/>
       <c r="D28" s="38"/>
       <c r="E28" s="38"/>
       <c r="F28" s="38"/>
-      <c r="G28" s="17"/>
+      <c r="G28" s="38"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="35"/>
+      <c r="A29" s="37"/>
       <c r="B29" s="38"/>
       <c r="C29" s="39"/>
       <c r="D29" s="38"/>
       <c r="E29" s="38"/>
       <c r="F29" s="38"/>
-      <c r="G29" s="17"/>
+      <c r="G29" s="38"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="35"/>
+      <c r="A30" s="37"/>
       <c r="B30" s="38"/>
       <c r="C30" s="39"/>
       <c r="D30" s="38"/>
       <c r="E30" s="38"/>
       <c r="F30" s="38"/>
-      <c r="G30" s="17"/>
+      <c r="G30" s="38"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="35"/>
+      <c r="A31" s="37"/>
       <c r="B31" s="38"/>
       <c r="C31" s="39"/>
       <c r="D31" s="38"/>
       <c r="E31" s="38"/>
       <c r="F31" s="38"/>
-      <c r="G31" s="17"/>
+      <c r="G31" s="38"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="35"/>
+      <c r="A32" s="37"/>
       <c r="B32" s="38"/>
       <c r="C32" s="39"/>
       <c r="D32" s="38"/>
       <c r="E32" s="38"/>
       <c r="F32" s="38"/>
-      <c r="G32" s="17"/>
+      <c r="G32" s="38"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="35"/>
+      <c r="A33" s="37"/>
       <c r="B33" s="38"/>
       <c r="C33" s="39"/>
       <c r="D33" s="38"/>
       <c r="E33" s="38"/>
       <c r="F33" s="38"/>
-      <c r="G33" s="17"/>
+      <c r="G33" s="38"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="35"/>
+      <c r="A34" s="37"/>
       <c r="B34" s="38"/>
       <c r="C34" s="39"/>
       <c r="D34" s="38"/>
       <c r="E34" s="38"/>
       <c r="F34" s="38"/>
-      <c r="G34" s="17"/>
+      <c r="G34" s="38"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="35"/>
+      <c r="A35" s="37"/>
       <c r="B35" s="38"/>
       <c r="C35" s="39"/>
       <c r="D35" s="38"/>
       <c r="E35" s="38"/>
       <c r="F35" s="38"/>
-      <c r="G35" s="17"/>
+      <c r="G35" s="38"/>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="35"/>
+      <c r="A36" s="37"/>
       <c r="B36" s="38"/>
       <c r="C36" s="39"/>
       <c r="D36" s="38"/>
       <c r="E36" s="38"/>
       <c r="F36" s="38"/>
-      <c r="G36" s="17"/>
+      <c r="G36" s="38"/>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="35"/>
+      <c r="A37" s="37"/>
       <c r="B37" s="38"/>
       <c r="C37" s="39"/>
       <c r="D37" s="38"/>
       <c r="E37" s="38"/>
       <c r="F37" s="38"/>
-      <c r="G37" s="17"/>
+      <c r="G37" s="38"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="35"/>
+      <c r="A38" s="37"/>
       <c r="B38" s="38"/>
       <c r="C38" s="39"/>
       <c r="D38" s="38"/>
       <c r="E38" s="38"/>
       <c r="F38" s="38"/>
-      <c r="G38" s="17"/>
+      <c r="G38" s="38"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="35"/>
+      <c r="A39" s="37"/>
       <c r="B39" s="38"/>
       <c r="C39" s="39"/>
       <c r="D39" s="38"/>
       <c r="E39" s="38"/>
       <c r="F39" s="38"/>
-      <c r="G39" s="17"/>
+      <c r="G39" s="38"/>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="35"/>
+      <c r="A40" s="37"/>
       <c r="B40" s="38"/>
       <c r="C40" s="39"/>
       <c r="D40" s="38"/>
       <c r="E40" s="38"/>
       <c r="F40" s="38"/>
-      <c r="G40" s="17"/>
+      <c r="G40" s="38"/>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="35"/>
+      <c r="A41" s="37"/>
       <c r="B41" s="38"/>
       <c r="C41" s="39"/>
       <c r="D41" s="38"/>
       <c r="E41" s="38"/>
       <c r="F41" s="38"/>
-      <c r="G41" s="17"/>
+      <c r="G41" s="38"/>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="35"/>
+      <c r="A42" s="37"/>
       <c r="B42" s="38"/>
       <c r="C42" s="39"/>
       <c r="D42" s="38"/>
       <c r="E42" s="38"/>
       <c r="F42" s="38"/>
-      <c r="G42" s="17"/>
+      <c r="G42" s="38"/>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="35"/>
+      <c r="A43" s="37"/>
       <c r="B43" s="38"/>
       <c r="C43" s="39"/>
       <c r="D43" s="38"/>
       <c r="E43" s="38"/>
       <c r="F43" s="38"/>
-      <c r="G43" s="17"/>
+      <c r="G43" s="38"/>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="35"/>
+      <c r="A44" s="37"/>
       <c r="B44" s="38"/>
       <c r="C44" s="39"/>
       <c r="D44" s="38"/>
       <c r="E44" s="38"/>
       <c r="F44" s="38"/>
-      <c r="G44" s="17"/>
+      <c r="G44" s="38"/>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="35"/>
+      <c r="A45" s="37"/>
       <c r="B45" s="38"/>
       <c r="C45" s="39"/>
       <c r="D45" s="38"/>
       <c r="E45" s="38"/>
       <c r="F45" s="38"/>
-      <c r="G45" s="17"/>
+      <c r="G45" s="38"/>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="35"/>
+      <c r="A46" s="37"/>
       <c r="B46" s="38"/>
       <c r="C46" s="39"/>
       <c r="D46" s="38"/>
       <c r="E46" s="38"/>
       <c r="F46" s="38"/>
-      <c r="G46" s="17"/>
+      <c r="G46" s="38"/>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="35"/>
+      <c r="A47" s="37"/>
       <c r="B47" s="38"/>
       <c r="C47" s="39"/>
       <c r="D47" s="38"/>
       <c r="E47" s="38"/>
       <c r="F47" s="38"/>
-      <c r="G47" s="17"/>
+      <c r="G47" s="38"/>
     </row>
     <row r="48" spans="1:7">
-      <c r="A48" s="35"/>
+      <c r="A48" s="37"/>
       <c r="B48" s="38"/>
       <c r="C48" s="39"/>
       <c r="D48" s="38"/>
       <c r="E48" s="38"/>
       <c r="F48" s="38"/>
-      <c r="G48" s="17"/>
+      <c r="G48" s="38"/>
     </row>
     <row r="49" spans="1:7">
-      <c r="A49" s="35"/>
+      <c r="A49" s="37"/>
       <c r="B49" s="38"/>
       <c r="C49" s="39"/>
       <c r="D49" s="38"/>
       <c r="E49" s="38"/>
       <c r="F49" s="38"/>
-      <c r="G49" s="17"/>
+      <c r="G49" s="38"/>
     </row>
     <row r="50" spans="1:7">
-      <c r="A50" s="35"/>
+      <c r="A50" s="37"/>
       <c r="B50" s="38"/>
       <c r="C50" s="39"/>
       <c r="D50" s="38"/>
       <c r="E50" s="38"/>
       <c r="F50" s="38"/>
-      <c r="G50" s="17"/>
+      <c r="G50" s="38"/>
     </row>
     <row r="51" spans="1:7">
-      <c r="A51" s="35"/>
+      <c r="A51" s="37"/>
       <c r="B51" s="38"/>
       <c r="C51" s="39"/>
       <c r="D51" s="38"/>
       <c r="E51" s="38"/>
       <c r="F51" s="38"/>
-      <c r="G51" s="17"/>
+      <c r="G51" s="38"/>
     </row>
     <row r="52" spans="1:7">
-      <c r="A52" s="35"/>
+      <c r="A52" s="37"/>
       <c r="B52" s="38"/>
       <c r="C52" s="39"/>
       <c r="D52" s="38"/>
       <c r="E52" s="38"/>
       <c r="F52" s="38"/>
-      <c r="G52" s="17"/>
+      <c r="G52" s="38"/>
     </row>
     <row r="53" spans="1:7">
-      <c r="A53" s="35"/>
+      <c r="A53" s="37"/>
       <c r="B53" s="38"/>
       <c r="C53" s="39"/>
       <c r="D53" s="38"/>
       <c r="E53" s="38"/>
       <c r="F53" s="38"/>
-      <c r="G53" s="17"/>
+      <c r="G53" s="38"/>
     </row>
     <row r="54" spans="1:7">
-      <c r="A54" s="35"/>
+      <c r="A54" s="37"/>
       <c r="B54" s="38"/>
       <c r="C54" s="39"/>
       <c r="D54" s="38"/>
       <c r="E54" s="38"/>
       <c r="F54" s="38"/>
-      <c r="G54" s="17"/>
+      <c r="G54" s="38"/>
     </row>
     <row r="55" spans="1:7">
-      <c r="A55" s="35"/>
+      <c r="A55" s="37"/>
       <c r="B55" s="38"/>
       <c r="C55" s="39"/>
       <c r="D55" s="38"/>
       <c r="E55" s="38"/>
       <c r="F55" s="38"/>
-      <c r="G55" s="17"/>
+      <c r="G55" s="38"/>
     </row>
     <row r="56" spans="1:7">
-      <c r="A56" s="35"/>
+      <c r="A56" s="37"/>
       <c r="B56" s="38"/>
       <c r="C56" s="39"/>
       <c r="D56" s="38"/>
       <c r="E56" s="38"/>
       <c r="F56" s="38"/>
-      <c r="G56" s="17"/>
+      <c r="G56" s="38"/>
     </row>
     <row r="57" spans="1:7">
+      <c r="A57" s="37"/>
       <c r="B57" s="17"/>
       <c r="C57" s="40"/>
       <c r="D57" s="17"/>
       <c r="E57" s="17"/>
       <c r="F57" s="17"/>
-      <c r="G57" s="17"/>
+      <c r="G57" s="38"/>
     </row>
     <row r="58" spans="1:7">
+      <c r="A58" s="37"/>
       <c r="B58" s="17"/>
       <c r="C58" s="40"/>
       <c r="D58" s="17"/>
       <c r="E58" s="17"/>
       <c r="F58" s="17"/>
-      <c r="G58" s="17"/>
+      <c r="G58" s="38"/>
     </row>
     <row r="59" spans="1:7">
+      <c r="A59" s="37"/>
       <c r="B59" s="17"/>
       <c r="C59" s="40"/>
       <c r="D59" s="17"/>
       <c r="E59" s="17"/>
       <c r="F59" s="17"/>
-      <c r="G59" s="17"/>
+      <c r="G59" s="38"/>
     </row>
     <row r="60" spans="1:7">
       <c r="B60" s="17"/>
@@ -4956,7 +5077,7 @@
       <c r="D60" s="17"/>
       <c r="E60" s="17"/>
       <c r="F60" s="17"/>
-      <c r="G60" s="17"/>
+      <c r="G60" s="38"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Docs/Testing Issue List.xlsx
+++ b/Docs/Testing Issue List.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="435" windowWidth="20115" windowHeight="7635" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="495" windowWidth="20115" windowHeight="7575" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Issue List" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="145">
   <si>
     <t>#</t>
   </si>
@@ -483,6 +483,48 @@
   </si>
   <si>
     <t>grid下有多余的空白， 为什么没有付款日期？</t>
+  </si>
+  <si>
+    <t>客户订单</t>
+  </si>
+  <si>
+    <t>hold</t>
+  </si>
+  <si>
+    <t>审核步骤 -〉确认收款， 客户帐号，应该根据 当前订单的客户+商业单位获取
+当客户银行帐号没有配置的时候，显示了当前帐套所有的银行帐号</t>
+  </si>
+  <si>
+    <t>货品维护 -〉件数应该根据基本数量 + 赠送数量 来计算</t>
+  </si>
+  <si>
+    <t>客户订单审核页面，应该把选中的收款帐号列出来，而不是一个disable的dropdown</t>
+  </si>
+  <si>
+    <t>货品维护中的件数计算不准确</t>
+  </si>
+  <si>
+    <t>所有模块</t>
+  </si>
+  <si>
+    <t>弹出的window 宽度变大，尽量多显示信息</t>
+  </si>
+  <si>
+    <t>物流费用管理</t>
+  </si>
+  <si>
+    <t>根据物流公司查询司机和电话时，能否不要刷新整个页面？</t>
+  </si>
+  <si>
+    <t>保存的出库物流单，在添加完关联的出库单以后，再保存，变成了入库物流单</t>
+  </si>
+  <si>
+    <t>当用户新增一个物流费用单时，关联单据section 默认不要显示，当用户点击保存时，应该跳回物流费用页面，让用户输入关联单据
+页面跳转 可参考货品保存等模块</t>
+  </si>
+  <si>
+    <t>已经关联在物流单上的出库单，不要再继续显示在关联单据的选择界面上。
+同一个出库单，不能有多个物流单。</t>
   </si>
 </sst>
 </file>
@@ -2098,6 +2140,120 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>28576</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>510634</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>1539661</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11068050" y="16573501"/>
+          <a:ext cx="4092034" cy="1511085"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>57151</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>97304</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11049001" y="18364201"/>
+          <a:ext cx="2495549" cy="1859428"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>370277</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>50554</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11058525" y="21278850"/>
+          <a:ext cx="3351602" cy="1993654"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -4397,8 +4553,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4444,12 +4600,14 @@
         <v>111</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>108</v>
+        <v>27</v>
       </c>
       <c r="E2" s="20">
         <v>42130</v>
       </c>
-      <c r="F2" s="33"/>
+      <c r="F2" s="33">
+        <v>42131</v>
+      </c>
       <c r="G2" s="43" t="s">
         <v>110</v>
       </c>
@@ -4471,7 +4629,9 @@
         <v>42130</v>
       </c>
       <c r="F3" s="17"/>
-      <c r="G3" s="38"/>
+      <c r="G3" s="43" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="37">
@@ -4483,10 +4643,18 @@
       <c r="C4" s="39" t="s">
         <v>113</v>
       </c>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="38"/>
+      <c r="D4" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="20">
+        <v>42130</v>
+      </c>
+      <c r="F4" s="33">
+        <v>42131</v>
+      </c>
+      <c r="G4" s="43" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="5" spans="1:7" ht="150.75" customHeight="1">
       <c r="A5" s="37">
@@ -4501,7 +4669,9 @@
       <c r="D5" s="17"/>
       <c r="E5" s="17"/>
       <c r="F5" s="17"/>
-      <c r="G5" s="38"/>
+      <c r="G5" s="43" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="6" spans="1:7" ht="138.75" customHeight="1">
       <c r="A6" s="37">
@@ -4516,7 +4686,9 @@
       <c r="D6" s="38"/>
       <c r="E6" s="38"/>
       <c r="F6" s="38"/>
-      <c r="G6" s="38"/>
+      <c r="G6" s="43" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="37">
@@ -4531,7 +4703,9 @@
       <c r="D7" s="38"/>
       <c r="E7" s="38"/>
       <c r="F7" s="38"/>
-      <c r="G7" s="38"/>
+      <c r="G7" s="43" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="8" spans="1:7" ht="188.25" customHeight="1">
       <c r="A8" s="37">
@@ -4546,7 +4720,9 @@
       <c r="D8" s="38"/>
       <c r="E8" s="38"/>
       <c r="F8" s="38"/>
-      <c r="G8" s="38"/>
+      <c r="G8" s="43" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="9" spans="1:7" ht="158.25" customHeight="1">
       <c r="A9" s="37">
@@ -4561,7 +4737,9 @@
       <c r="D9" s="38"/>
       <c r="E9" s="38"/>
       <c r="F9" s="38"/>
-      <c r="G9" s="38"/>
+      <c r="G9" s="43" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="10" spans="1:7" ht="30">
       <c r="A10" s="37">
@@ -4576,7 +4754,9 @@
       <c r="D10" s="38"/>
       <c r="E10" s="38"/>
       <c r="F10" s="38"/>
-      <c r="G10" s="38"/>
+      <c r="G10" s="43" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="37">
@@ -4591,7 +4771,9 @@
       <c r="D11" s="38"/>
       <c r="E11" s="38"/>
       <c r="F11" s="38"/>
-      <c r="G11" s="38"/>
+      <c r="G11" s="43" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="12" spans="1:7" ht="30">
       <c r="A12" s="37">
@@ -4603,10 +4785,14 @@
       <c r="C12" s="39" t="s">
         <v>121</v>
       </c>
-      <c r="D12" s="38"/>
+      <c r="D12" s="38" t="s">
+        <v>133</v>
+      </c>
       <c r="E12" s="38"/>
       <c r="F12" s="38"/>
-      <c r="G12" s="38"/>
+      <c r="G12" s="43" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="13" spans="1:7" ht="98.25" customHeight="1">
       <c r="A13" s="37">
@@ -4693,86 +4879,158 @@
         <v>123</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="37"/>
-      <c r="B18" s="38"/>
-      <c r="C18" s="39"/>
+    <row r="18" spans="1:7" ht="45">
+      <c r="A18" s="37">
+        <v>17</v>
+      </c>
+      <c r="B18" s="38" t="s">
+        <v>132</v>
+      </c>
+      <c r="C18" s="39" t="s">
+        <v>134</v>
+      </c>
       <c r="D18" s="38"/>
       <c r="E18" s="38"/>
       <c r="F18" s="38"/>
-      <c r="G18" s="38"/>
+      <c r="G18" s="38" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="37"/>
-      <c r="B19" s="38"/>
-      <c r="C19" s="39"/>
+      <c r="A19" s="37">
+        <v>18</v>
+      </c>
+      <c r="B19" s="38" t="s">
+        <v>132</v>
+      </c>
+      <c r="C19" s="39" t="s">
+        <v>135</v>
+      </c>
       <c r="D19" s="38"/>
       <c r="E19" s="38"/>
       <c r="F19" s="38"/>
-      <c r="G19" s="38"/>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="37"/>
-      <c r="B20" s="38"/>
-      <c r="C20" s="39"/>
+      <c r="G19" s="38" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="128.25" customHeight="1">
+      <c r="A20" s="37">
+        <v>19</v>
+      </c>
+      <c r="B20" s="38" t="s">
+        <v>132</v>
+      </c>
+      <c r="C20" s="39" t="s">
+        <v>136</v>
+      </c>
       <c r="D20" s="38"/>
       <c r="E20" s="38"/>
       <c r="F20" s="38"/>
-      <c r="G20" s="38"/>
+      <c r="G20" s="38" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="37"/>
-      <c r="B21" s="38"/>
-      <c r="C21" s="39"/>
+      <c r="A21" s="37">
+        <v>20</v>
+      </c>
+      <c r="B21" s="38" t="s">
+        <v>132</v>
+      </c>
+      <c r="C21" s="39" t="s">
+        <v>137</v>
+      </c>
       <c r="D21" s="38"/>
       <c r="E21" s="38"/>
       <c r="F21" s="38"/>
-      <c r="G21" s="38"/>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="37"/>
-      <c r="B22" s="38"/>
-      <c r="C22" s="39"/>
+      <c r="G21" s="38" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="138.75" customHeight="1">
+      <c r="A22" s="37">
+        <v>21</v>
+      </c>
+      <c r="B22" s="38" t="s">
+        <v>138</v>
+      </c>
+      <c r="C22" s="39" t="s">
+        <v>139</v>
+      </c>
       <c r="D22" s="38"/>
       <c r="E22" s="38"/>
       <c r="F22" s="38"/>
-      <c r="G22" s="38"/>
+      <c r="G22" s="38" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="37"/>
-      <c r="B23" s="38"/>
-      <c r="C23" s="39"/>
+      <c r="A23" s="37">
+        <v>22</v>
+      </c>
+      <c r="B23" s="38" t="s">
+        <v>140</v>
+      </c>
+      <c r="C23" s="39" t="s">
+        <v>141</v>
+      </c>
       <c r="D23" s="38"/>
       <c r="E23" s="38"/>
       <c r="F23" s="38"/>
-      <c r="G23" s="38"/>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="37"/>
-      <c r="B24" s="38"/>
-      <c r="C24" s="39"/>
+      <c r="G23" s="38" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="60">
+      <c r="A24" s="37">
+        <v>23</v>
+      </c>
+      <c r="B24" s="38" t="s">
+        <v>140</v>
+      </c>
+      <c r="C24" s="39" t="s">
+        <v>143</v>
+      </c>
       <c r="D24" s="38"/>
       <c r="E24" s="38"/>
       <c r="F24" s="38"/>
-      <c r="G24" s="38"/>
+      <c r="G24" s="38" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="37"/>
-      <c r="B25" s="38"/>
-      <c r="C25" s="39"/>
+      <c r="A25" s="37">
+        <v>24</v>
+      </c>
+      <c r="B25" s="38" t="s">
+        <v>140</v>
+      </c>
+      <c r="C25" s="39" t="s">
+        <v>142</v>
+      </c>
       <c r="D25" s="38"/>
       <c r="E25" s="38"/>
       <c r="F25" s="38"/>
-      <c r="G25" s="38"/>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="37"/>
-      <c r="B26" s="38"/>
-      <c r="C26" s="39"/>
+      <c r="G25" s="38" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="153.75" customHeight="1">
+      <c r="A26" s="37">
+        <v>25</v>
+      </c>
+      <c r="B26" s="38" t="s">
+        <v>140</v>
+      </c>
+      <c r="C26" s="39" t="s">
+        <v>144</v>
+      </c>
       <c r="D26" s="38"/>
       <c r="E26" s="38"/>
       <c r="F26" s="38"/>
-      <c r="G26" s="38"/>
+      <c r="G26" s="38" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="37"/>

--- a/Docs/Testing Issue List.xlsx
+++ b/Docs/Testing Issue List.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Zhongding.git\trunk\Docs\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="495" windowWidth="20115" windowHeight="7575" activeTab="3"/>
   </bookViews>
@@ -20,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="146">
   <si>
     <t>#</t>
   </si>
@@ -526,16 +531,20 @@
     <t>已经关联在物流单上的出库单，不要再继续显示在关联单据的选择界面上。
 同一个出库单，不能有多个物流单。</t>
   </si>
+  <si>
+    <t>已解决</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -562,7 +571,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -629,7 +638,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -738,9 +747,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2258,7 +2270,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2300,7 +2312,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2335,7 +2347,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2551,19 +2563,19 @@
       <selection pane="bottomLeft" activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="11.140625" style="11" customWidth="1"/>
-    <col min="2" max="2" width="22.85546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="34.5703125" style="26" customWidth="1"/>
-    <col min="4" max="4" width="18.7109375" style="16" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="51.85546875" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="11.125" style="11" customWidth="1"/>
+    <col min="2" max="2" width="22.875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="34.625" style="26" customWidth="1"/>
+    <col min="4" max="4" width="18.75" style="16" customWidth="1"/>
+    <col min="5" max="5" width="15.625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="51.875" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -2584,7 +2596,7 @@
       </c>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:7" ht="133.5" customHeight="1">
+    <row r="2" spans="1:7" ht="133.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="9">
         <v>1</v>
       </c>
@@ -2605,7 +2617,7 @@
       </c>
       <c r="G2" s="6"/>
     </row>
-    <row r="3" spans="1:7" ht="16.5">
+    <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="9">
         <v>2</v>
       </c>
@@ -2624,7 +2636,7 @@
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
     </row>
-    <row r="4" spans="1:7" ht="191.25" customHeight="1">
+    <row r="4" spans="1:7" ht="191.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="9">
         <v>3</v>
       </c>
@@ -2645,7 +2657,7 @@
       </c>
       <c r="G4" s="6"/>
     </row>
-    <row r="5" spans="1:7" ht="74.25" customHeight="1">
+    <row r="5" spans="1:7" ht="74.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="9">
         <v>4</v>
       </c>
@@ -2666,7 +2678,7 @@
       </c>
       <c r="G5" s="6"/>
     </row>
-    <row r="6" spans="1:7" ht="217.5" customHeight="1">
+    <row r="6" spans="1:7" ht="217.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="9">
         <v>5</v>
       </c>
@@ -2687,7 +2699,7 @@
       </c>
       <c r="G6" s="6"/>
     </row>
-    <row r="7" spans="1:7" ht="172.5" customHeight="1">
+    <row r="7" spans="1:7" ht="172.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="9">
         <v>6</v>
       </c>
@@ -2708,7 +2720,7 @@
       </c>
       <c r="G7" s="6"/>
     </row>
-    <row r="8" spans="1:7" ht="243.75" customHeight="1">
+    <row r="8" spans="1:7" ht="243.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="9">
         <v>7</v>
       </c>
@@ -2725,7 +2737,7 @@
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
     </row>
-    <row r="9" spans="1:7" ht="49.5">
+    <row r="9" spans="1:7" ht="33" x14ac:dyDescent="0.15">
       <c r="A9" s="9">
         <v>8</v>
       </c>
@@ -2742,7 +2754,7 @@
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
     </row>
-    <row r="10" spans="1:7" ht="16.5">
+    <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A10" s="9">
         <v>9</v>
       </c>
@@ -2763,7 +2775,7 @@
       </c>
       <c r="G10" s="6"/>
     </row>
-    <row r="11" spans="1:7" ht="16.5">
+    <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A11" s="9">
         <v>10</v>
       </c>
@@ -2784,7 +2796,7 @@
       </c>
       <c r="G11" s="6"/>
     </row>
-    <row r="12" spans="1:7" ht="33">
+    <row r="12" spans="1:7" ht="33" x14ac:dyDescent="0.15">
       <c r="A12" s="9">
         <v>11</v>
       </c>
@@ -2805,7 +2817,7 @@
       </c>
       <c r="G12" s="6"/>
     </row>
-    <row r="13" spans="1:7" ht="33">
+    <row r="13" spans="1:7" ht="33" x14ac:dyDescent="0.15">
       <c r="A13" s="9">
         <v>12</v>
       </c>
@@ -2826,7 +2838,7 @@
       </c>
       <c r="G13" s="6"/>
     </row>
-    <row r="14" spans="1:7" ht="66">
+    <row r="14" spans="1:7" ht="66" x14ac:dyDescent="0.15">
       <c r="A14" s="9">
         <v>13</v>
       </c>
@@ -2847,7 +2859,7 @@
       </c>
       <c r="G14" s="6"/>
     </row>
-    <row r="15" spans="1:7" ht="33">
+    <row r="15" spans="1:7" ht="33" x14ac:dyDescent="0.15">
       <c r="A15" s="9">
         <v>14</v>
       </c>
@@ -2868,7 +2880,7 @@
       </c>
       <c r="G15" s="6"/>
     </row>
-    <row r="16" spans="1:7" ht="16.5">
+    <row r="16" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A16" s="9">
         <v>15</v>
       </c>
@@ -2889,7 +2901,7 @@
       </c>
       <c r="G16" s="6"/>
     </row>
-    <row r="17" spans="1:7" ht="186.75" customHeight="1">
+    <row r="17" spans="1:7" ht="186.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="9">
         <v>16</v>
       </c>
@@ -2910,7 +2922,7 @@
       </c>
       <c r="G17" s="6"/>
     </row>
-    <row r="18" spans="1:7" ht="216.75" customHeight="1">
+    <row r="18" spans="1:7" ht="216.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="9">
         <v>17</v>
       </c>
@@ -2931,7 +2943,7 @@
       </c>
       <c r="G18" s="6"/>
     </row>
-    <row r="19" spans="1:7" ht="16.5">
+    <row r="19" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A19" s="9">
         <v>18</v>
       </c>
@@ -2952,7 +2964,7 @@
       </c>
       <c r="G19" s="6"/>
     </row>
-    <row r="20" spans="1:7" ht="199.5" customHeight="1">
+    <row r="20" spans="1:7" ht="199.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="9">
         <v>19</v>
       </c>
@@ -2971,7 +2983,7 @@
       </c>
       <c r="G20" s="6"/>
     </row>
-    <row r="21" spans="1:7" ht="163.5" customHeight="1">
+    <row r="21" spans="1:7" ht="163.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="9">
         <v>20</v>
       </c>
@@ -2990,7 +3002,7 @@
       </c>
       <c r="G21" s="6"/>
     </row>
-    <row r="22" spans="1:7" ht="162" customHeight="1">
+    <row r="22" spans="1:7" ht="162" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="9">
         <v>21</v>
       </c>
@@ -3007,7 +3019,7 @@
       <c r="F22" s="6"/>
       <c r="G22" s="6"/>
     </row>
-    <row r="23" spans="1:7" ht="178.5" customHeight="1">
+    <row r="23" spans="1:7" ht="178.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="9">
         <v>22</v>
       </c>
@@ -3028,7 +3040,7 @@
       </c>
       <c r="G23" s="6"/>
     </row>
-    <row r="24" spans="1:7" ht="198" customHeight="1">
+    <row r="24" spans="1:7" ht="198" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="9">
         <v>23</v>
       </c>
@@ -3049,7 +3061,7 @@
       </c>
       <c r="G24" s="6"/>
     </row>
-    <row r="25" spans="1:7" ht="240.75" customHeight="1">
+    <row r="25" spans="1:7" ht="240.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="9">
         <v>24</v>
       </c>
@@ -3070,7 +3082,7 @@
       </c>
       <c r="G25" s="6"/>
     </row>
-    <row r="26" spans="1:7" ht="49.5">
+    <row r="26" spans="1:7" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A26" s="9">
         <v>25</v>
       </c>
@@ -3091,7 +3103,7 @@
       </c>
       <c r="G26" s="6"/>
     </row>
-    <row r="27" spans="1:7" ht="190.5" customHeight="1">
+    <row r="27" spans="1:7" ht="190.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="9">
         <v>26</v>
       </c>
@@ -3112,7 +3124,7 @@
       </c>
       <c r="G27" s="6"/>
     </row>
-    <row r="28" spans="1:7" ht="188.25" customHeight="1">
+    <row r="28" spans="1:7" ht="188.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="9">
         <v>27</v>
       </c>
@@ -3133,7 +3145,7 @@
       </c>
       <c r="G28" s="6"/>
     </row>
-    <row r="29" spans="1:7" ht="33">
+    <row r="29" spans="1:7" ht="33" x14ac:dyDescent="0.15">
       <c r="A29" s="9">
         <v>28</v>
       </c>
@@ -3154,7 +3166,7 @@
       </c>
       <c r="G29" s="6"/>
     </row>
-    <row r="30" spans="1:7" ht="16.5">
+    <row r="30" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A30" s="9">
         <v>29</v>
       </c>
@@ -3175,7 +3187,7 @@
       </c>
       <c r="G30" s="6"/>
     </row>
-    <row r="31" spans="1:7" ht="33">
+    <row r="31" spans="1:7" ht="33" x14ac:dyDescent="0.15">
       <c r="A31" s="9">
         <v>30</v>
       </c>
@@ -3196,7 +3208,7 @@
       </c>
       <c r="G31" s="6"/>
     </row>
-    <row r="32" spans="1:7" ht="121.5" customHeight="1">
+    <row r="32" spans="1:7" ht="121.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="9">
         <v>31</v>
       </c>
@@ -3217,7 +3229,7 @@
       </c>
       <c r="G32" s="6"/>
     </row>
-    <row r="33" spans="1:7" ht="99">
+    <row r="33" spans="1:7" ht="99" x14ac:dyDescent="0.15">
       <c r="A33" s="9">
         <v>32</v>
       </c>
@@ -3238,7 +3250,7 @@
       </c>
       <c r="G33" s="6"/>
     </row>
-    <row r="34" spans="1:7" ht="49.5">
+    <row r="34" spans="1:7" ht="33" x14ac:dyDescent="0.15">
       <c r="A34" s="9">
         <v>33</v>
       </c>
@@ -3259,7 +3271,7 @@
       </c>
       <c r="G34" s="6"/>
     </row>
-    <row r="35" spans="1:7" ht="16.5">
+    <row r="35" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A35" s="9">
         <v>34</v>
       </c>
@@ -3280,7 +3292,7 @@
       </c>
       <c r="G35" s="3"/>
     </row>
-    <row r="36" spans="1:7" ht="66">
+    <row r="36" spans="1:7" ht="49.5" x14ac:dyDescent="0.35">
       <c r="A36" s="9">
         <v>35</v>
       </c>
@@ -3301,7 +3313,7 @@
       </c>
       <c r="G36" s="3"/>
     </row>
-    <row r="37" spans="1:7" ht="207" customHeight="1">
+    <row r="37" spans="1:7" ht="207" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="9"/>
       <c r="B37" s="22"/>
       <c r="C37" s="24"/>
@@ -3310,7 +3322,7 @@
       <c r="F37" s="3"/>
       <c r="G37" s="3"/>
     </row>
-    <row r="38" spans="1:7" ht="16.5">
+    <row r="38" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A38" s="9"/>
       <c r="B38" s="3"/>
       <c r="C38" s="24"/>
@@ -3319,7 +3331,7 @@
       <c r="F38" s="3"/>
       <c r="G38" s="3"/>
     </row>
-    <row r="39" spans="1:7" ht="16.5">
+    <row r="39" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A39" s="9"/>
       <c r="B39" s="3"/>
       <c r="C39" s="24"/>
@@ -3328,7 +3340,7 @@
       <c r="F39" s="3"/>
       <c r="G39" s="3"/>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A40" s="10"/>
       <c r="B40" s="4"/>
       <c r="C40" s="25"/>
@@ -3337,7 +3349,7 @@
       <c r="F40" s="4"/>
       <c r="G40" s="4"/>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A41" s="8"/>
       <c r="B41" s="2"/>
       <c r="C41" s="23"/>
@@ -3364,18 +3376,18 @@
       <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="11.85546875" customWidth="1"/>
-    <col min="2" max="2" width="15.85546875" customWidth="1"/>
+    <col min="1" max="1" width="11.875" customWidth="1"/>
+    <col min="2" max="2" width="15.875" customWidth="1"/>
     <col min="3" max="3" width="56" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" customWidth="1"/>
-    <col min="5" max="5" width="15.85546875" customWidth="1"/>
+    <col min="4" max="4" width="15.375" customWidth="1"/>
+    <col min="5" max="5" width="15.875" customWidth="1"/>
     <col min="6" max="6" width="19" customWidth="1"/>
-    <col min="7" max="7" width="61.85546875" customWidth="1"/>
+    <col min="7" max="7" width="61.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -3396,7 +3408,7 @@
       </c>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:7" ht="210.75" customHeight="1">
+    <row r="2" spans="1:7" ht="210.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="18">
         <v>1</v>
       </c>
@@ -3417,7 +3429,7 @@
       </c>
       <c r="G2" s="17"/>
     </row>
-    <row r="3" spans="1:7" ht="210.75" customHeight="1">
+    <row r="3" spans="1:7" ht="210.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="18">
         <v>2</v>
       </c>
@@ -3438,7 +3450,7 @@
       </c>
       <c r="G3" s="17"/>
     </row>
-    <row r="4" spans="1:7" ht="210.75" customHeight="1">
+    <row r="4" spans="1:7" ht="210.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="18">
         <v>3</v>
       </c>
@@ -3457,7 +3469,7 @@
       </c>
       <c r="G4" s="17"/>
     </row>
-    <row r="5" spans="1:7" ht="210.75" customHeight="1">
+    <row r="5" spans="1:7" ht="210.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="18">
         <v>4</v>
       </c>
@@ -3476,7 +3488,7 @@
       </c>
       <c r="G5" s="17"/>
     </row>
-    <row r="6" spans="1:7" ht="210.75" customHeight="1">
+    <row r="6" spans="1:7" ht="210.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="18">
         <v>5</v>
       </c>
@@ -3495,7 +3507,7 @@
       </c>
       <c r="G6" s="17"/>
     </row>
-    <row r="7" spans="1:7" ht="130.5" customHeight="1">
+    <row r="7" spans="1:7" ht="130.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="18">
         <v>6</v>
       </c>
@@ -3514,7 +3526,7 @@
       </c>
       <c r="G7" s="17"/>
     </row>
-    <row r="8" spans="1:7" ht="210.75" customHeight="1">
+    <row r="8" spans="1:7" ht="210.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="18">
         <v>7</v>
       </c>
@@ -3535,7 +3547,7 @@
       </c>
       <c r="G8" s="17"/>
     </row>
-    <row r="9" spans="1:7" ht="210.75" customHeight="1">
+    <row r="9" spans="1:7" ht="210.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="18">
         <v>8</v>
       </c>
@@ -3556,7 +3568,7 @@
       </c>
       <c r="G9" s="17"/>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" s="18">
         <v>9</v>
       </c>
@@ -3577,7 +3589,7 @@
       </c>
       <c r="G10" s="17"/>
     </row>
-    <row r="11" spans="1:7" ht="30">
+    <row r="11" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A11" s="18">
         <v>10</v>
       </c>
@@ -3598,7 +3610,7 @@
       </c>
       <c r="G11" s="17"/>
     </row>
-    <row r="12" spans="1:7" ht="195" customHeight="1">
+    <row r="12" spans="1:7" ht="195" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="18">
         <v>11</v>
       </c>
@@ -3617,7 +3629,7 @@
       <c r="F12" s="20"/>
       <c r="G12" s="17"/>
     </row>
-    <row r="13" spans="1:7" ht="210.75" customHeight="1">
+    <row r="13" spans="1:7" ht="210.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="18">
         <v>12</v>
       </c>
@@ -3638,7 +3650,7 @@
       </c>
       <c r="G13" s="17"/>
     </row>
-    <row r="14" spans="1:7" ht="210.75" customHeight="1">
+    <row r="14" spans="1:7" ht="210.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="18">
         <v>13</v>
       </c>
@@ -3657,7 +3669,7 @@
       <c r="F14" s="20"/>
       <c r="G14" s="17"/>
     </row>
-    <row r="15" spans="1:7" ht="195" customHeight="1">
+    <row r="15" spans="1:7" ht="195" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="18">
         <v>14</v>
       </c>
@@ -3676,7 +3688,7 @@
       <c r="F15" s="20"/>
       <c r="G15" s="17"/>
     </row>
-    <row r="16" spans="1:7" ht="210.75" customHeight="1">
+    <row r="16" spans="1:7" ht="210.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="18">
         <v>15</v>
       </c>
@@ -3697,7 +3709,7 @@
       </c>
       <c r="G16" s="17"/>
     </row>
-    <row r="17" spans="1:7" ht="210.75" customHeight="1">
+    <row r="17" spans="1:7" ht="210.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="18">
         <v>16</v>
       </c>
@@ -3716,7 +3728,7 @@
       <c r="F17" s="20"/>
       <c r="G17" s="17"/>
     </row>
-    <row r="18" spans="1:7" ht="210.75" customHeight="1">
+    <row r="18" spans="1:7" ht="210.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="18">
         <v>17</v>
       </c>
@@ -3727,7 +3739,7 @@
       <c r="F18" s="18"/>
       <c r="G18" s="17"/>
     </row>
-    <row r="19" spans="1:7" ht="210.75" customHeight="1">
+    <row r="19" spans="1:7" ht="210.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="18"/>
       <c r="B19" s="18"/>
       <c r="C19" s="19"/>
@@ -3736,7 +3748,7 @@
       <c r="F19" s="18"/>
       <c r="G19" s="17"/>
     </row>
-    <row r="20" spans="1:7" ht="210.75" customHeight="1">
+    <row r="20" spans="1:7" ht="210.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="18"/>
       <c r="B20" s="18"/>
       <c r="C20" s="19"/>
@@ -3745,7 +3757,7 @@
       <c r="F20" s="18"/>
       <c r="G20" s="17"/>
     </row>
-    <row r="21" spans="1:7" ht="210.75" customHeight="1">
+    <row r="21" spans="1:7" ht="210.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="18"/>
       <c r="B21" s="18"/>
       <c r="C21" s="19"/>
@@ -3754,7 +3766,7 @@
       <c r="F21" s="18"/>
       <c r="G21" s="17"/>
     </row>
-    <row r="22" spans="1:7" ht="210.75" customHeight="1">
+    <row r="22" spans="1:7" ht="210.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="18"/>
       <c r="B22" s="18"/>
       <c r="C22" s="19"/>
@@ -3763,7 +3775,7 @@
       <c r="F22" s="18"/>
       <c r="G22" s="17"/>
     </row>
-    <row r="23" spans="1:7" ht="210.75" customHeight="1">
+    <row r="23" spans="1:7" ht="210.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="18"/>
       <c r="B23" s="18"/>
       <c r="C23" s="19"/>
@@ -3772,7 +3784,7 @@
       <c r="F23" s="18"/>
       <c r="G23" s="17"/>
     </row>
-    <row r="24" spans="1:7" ht="210.75" customHeight="1">
+    <row r="24" spans="1:7" ht="210.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="18"/>
       <c r="B24" s="18"/>
       <c r="C24" s="19"/>
@@ -3781,7 +3793,7 @@
       <c r="F24" s="18"/>
       <c r="G24" s="17"/>
     </row>
-    <row r="25" spans="1:7" ht="210.75" customHeight="1">
+    <row r="25" spans="1:7" ht="210.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="18"/>
       <c r="B25" s="18"/>
       <c r="C25" s="19"/>
@@ -3790,7 +3802,7 @@
       <c r="F25" s="18"/>
       <c r="G25" s="17"/>
     </row>
-    <row r="26" spans="1:7" ht="210.75" customHeight="1">
+    <row r="26" spans="1:7" ht="210.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="18"/>
       <c r="B26" s="18"/>
       <c r="C26" s="19"/>
@@ -3799,7 +3811,7 @@
       <c r="F26" s="18"/>
       <c r="G26" s="17"/>
     </row>
-    <row r="27" spans="1:7" ht="210.75" customHeight="1">
+    <row r="27" spans="1:7" ht="210.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="18"/>
       <c r="B27" s="18"/>
       <c r="C27" s="19"/>
@@ -3808,7 +3820,7 @@
       <c r="F27" s="18"/>
       <c r="G27" s="17"/>
     </row>
-    <row r="28" spans="1:7" ht="210.75" customHeight="1">
+    <row r="28" spans="1:7" ht="210.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="18"/>
       <c r="B28" s="18"/>
       <c r="C28" s="19"/>
@@ -3817,7 +3829,7 @@
       <c r="F28" s="18"/>
       <c r="G28" s="17"/>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A29" s="17"/>
       <c r="B29" s="17"/>
       <c r="C29" s="17"/>
@@ -3826,7 +3838,7 @@
       <c r="F29" s="17"/>
       <c r="G29" s="17"/>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A30" s="17"/>
       <c r="B30" s="17"/>
       <c r="C30" s="17"/>
@@ -3835,7 +3847,7 @@
       <c r="F30" s="17"/>
       <c r="G30" s="17"/>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A31" s="17"/>
       <c r="B31" s="17"/>
       <c r="C31" s="17"/>
@@ -3844,7 +3856,7 @@
       <c r="F31" s="17"/>
       <c r="G31" s="17"/>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A32" s="17"/>
       <c r="B32" s="17"/>
       <c r="C32" s="17"/>
@@ -3853,7 +3865,7 @@
       <c r="F32" s="17"/>
       <c r="G32" s="17"/>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A33" s="17"/>
       <c r="B33" s="17"/>
       <c r="C33" s="17"/>
@@ -3862,7 +3874,7 @@
       <c r="F33" s="17"/>
       <c r="G33" s="17"/>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A34" s="17"/>
       <c r="B34" s="17"/>
       <c r="C34" s="17"/>
@@ -3871,7 +3883,7 @@
       <c r="F34" s="17"/>
       <c r="G34" s="17"/>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A35" s="17"/>
       <c r="B35" s="17"/>
       <c r="C35" s="17"/>
@@ -3880,7 +3892,7 @@
       <c r="F35" s="17"/>
       <c r="G35" s="17"/>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A36" s="17"/>
       <c r="B36" s="17"/>
       <c r="C36" s="17"/>
@@ -3889,7 +3901,7 @@
       <c r="F36" s="17"/>
       <c r="G36" s="17"/>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A37" s="17"/>
       <c r="B37" s="17"/>
       <c r="C37" s="17"/>
@@ -3898,7 +3910,7 @@
       <c r="F37" s="17"/>
       <c r="G37" s="17"/>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A38" s="17"/>
       <c r="B38" s="17"/>
       <c r="C38" s="17"/>
@@ -3907,7 +3919,7 @@
       <c r="F38" s="17"/>
       <c r="G38" s="17"/>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A39" s="17"/>
       <c r="B39" s="17"/>
       <c r="C39" s="17"/>
@@ -3916,7 +3928,7 @@
       <c r="F39" s="17"/>
       <c r="G39" s="17"/>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A40" s="17"/>
       <c r="B40" s="17"/>
       <c r="C40" s="17"/>
@@ -3925,7 +3937,7 @@
       <c r="F40" s="17"/>
       <c r="G40" s="17"/>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A41" s="17"/>
       <c r="B41" s="17"/>
       <c r="C41" s="17"/>
@@ -3934,7 +3946,7 @@
       <c r="F41" s="17"/>
       <c r="G41" s="17"/>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A42" s="17"/>
       <c r="B42" s="17"/>
       <c r="C42" s="17"/>
@@ -3943,7 +3955,7 @@
       <c r="F42" s="17"/>
       <c r="G42" s="17"/>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A43" s="17"/>
       <c r="B43" s="17"/>
       <c r="C43" s="17"/>
@@ -3952,7 +3964,7 @@
       <c r="F43" s="17"/>
       <c r="G43" s="17"/>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A44" s="17"/>
       <c r="B44" s="17"/>
       <c r="C44" s="17"/>
@@ -3961,7 +3973,7 @@
       <c r="F44" s="17"/>
       <c r="G44" s="17"/>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A45" s="17"/>
       <c r="B45" s="17"/>
       <c r="C45" s="17"/>
@@ -3970,7 +3982,7 @@
       <c r="F45" s="17"/>
       <c r="G45" s="17"/>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A46" s="17"/>
       <c r="B46" s="17"/>
       <c r="C46" s="17"/>
@@ -3979,7 +3991,7 @@
       <c r="F46" s="17"/>
       <c r="G46" s="17"/>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A47" s="17"/>
       <c r="B47" s="17"/>
       <c r="C47" s="17"/>
@@ -3988,7 +4000,7 @@
       <c r="F47" s="17"/>
       <c r="G47" s="17"/>
     </row>
-    <row r="48" spans="1:7">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A48" s="17"/>
       <c r="B48" s="17"/>
       <c r="C48" s="17"/>
@@ -3997,7 +4009,7 @@
       <c r="F48" s="17"/>
       <c r="G48" s="17"/>
     </row>
-    <row r="49" spans="1:7">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A49" s="17"/>
       <c r="B49" s="17"/>
       <c r="C49" s="17"/>
@@ -4006,7 +4018,7 @@
       <c r="F49" s="17"/>
       <c r="G49" s="17"/>
     </row>
-    <row r="50" spans="1:7">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A50" s="17"/>
       <c r="B50" s="17"/>
       <c r="C50" s="17"/>
@@ -4015,7 +4027,7 @@
       <c r="F50" s="17"/>
       <c r="G50" s="17"/>
     </row>
-    <row r="51" spans="1:7">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A51" s="17"/>
       <c r="B51" s="17"/>
       <c r="C51" s="17"/>
@@ -4024,7 +4036,7 @@
       <c r="F51" s="17"/>
       <c r="G51" s="17"/>
     </row>
-    <row r="52" spans="1:7">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A52" s="17"/>
       <c r="B52" s="17"/>
       <c r="C52" s="17"/>
@@ -4033,7 +4045,7 @@
       <c r="F52" s="17"/>
       <c r="G52" s="17"/>
     </row>
-    <row r="53" spans="1:7">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A53" s="17"/>
       <c r="B53" s="17"/>
       <c r="C53" s="17"/>
@@ -4042,7 +4054,7 @@
       <c r="F53" s="17"/>
       <c r="G53" s="17"/>
     </row>
-    <row r="54" spans="1:7">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A54" s="17"/>
       <c r="B54" s="17"/>
       <c r="C54" s="17"/>
@@ -4051,7 +4063,7 @@
       <c r="F54" s="17"/>
       <c r="G54" s="17"/>
     </row>
-    <row r="55" spans="1:7">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A55" s="17"/>
       <c r="B55" s="17"/>
       <c r="C55" s="17"/>
@@ -4060,7 +4072,7 @@
       <c r="F55" s="17"/>
       <c r="G55" s="17"/>
     </row>
-    <row r="56" spans="1:7">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A56" s="17"/>
       <c r="B56" s="17"/>
       <c r="C56" s="17"/>
@@ -4069,7 +4081,7 @@
       <c r="F56" s="17"/>
       <c r="G56" s="17"/>
     </row>
-    <row r="57" spans="1:7">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A57" s="17"/>
       <c r="B57" s="17"/>
       <c r="C57" s="17"/>
@@ -4078,7 +4090,7 @@
       <c r="F57" s="17"/>
       <c r="G57" s="17"/>
     </row>
-    <row r="58" spans="1:7">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A58" s="17"/>
       <c r="B58" s="17"/>
       <c r="C58" s="17"/>
@@ -4087,7 +4099,7 @@
       <c r="F58" s="17"/>
       <c r="G58" s="17"/>
     </row>
-    <row r="59" spans="1:7">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A59" s="17"/>
       <c r="B59" s="17"/>
       <c r="C59" s="17"/>
@@ -4096,7 +4108,7 @@
       <c r="F59" s="17"/>
       <c r="G59" s="17"/>
     </row>
-    <row r="60" spans="1:7">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A60" s="17"/>
       <c r="B60" s="17"/>
       <c r="C60" s="17"/>
@@ -4105,7 +4117,7 @@
       <c r="F60" s="17"/>
       <c r="G60" s="17"/>
     </row>
-    <row r="61" spans="1:7">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A61" s="17"/>
       <c r="B61" s="17"/>
       <c r="C61" s="17"/>
@@ -4114,7 +4126,7 @@
       <c r="F61" s="17"/>
       <c r="G61" s="17"/>
     </row>
-    <row r="62" spans="1:7">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A62" s="17"/>
       <c r="B62" s="17"/>
       <c r="C62" s="17"/>
@@ -4123,7 +4135,7 @@
       <c r="F62" s="17"/>
       <c r="G62" s="17"/>
     </row>
-    <row r="63" spans="1:7">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A63" s="17"/>
       <c r="B63" s="17"/>
       <c r="C63" s="17"/>
@@ -4132,7 +4144,7 @@
       <c r="F63" s="17"/>
       <c r="G63" s="17"/>
     </row>
-    <row r="64" spans="1:7">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A64" s="17"/>
       <c r="B64" s="17"/>
       <c r="C64" s="17"/>
@@ -4141,7 +4153,7 @@
       <c r="F64" s="17"/>
       <c r="G64" s="17"/>
     </row>
-    <row r="65" spans="1:7">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A65" s="17"/>
       <c r="B65" s="17"/>
       <c r="C65" s="17"/>
@@ -4150,7 +4162,7 @@
       <c r="F65" s="17"/>
       <c r="G65" s="17"/>
     </row>
-    <row r="66" spans="1:7">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A66" s="17"/>
       <c r="B66" s="17"/>
       <c r="C66" s="17"/>
@@ -4159,7 +4171,7 @@
       <c r="F66" s="17"/>
       <c r="G66" s="17"/>
     </row>
-    <row r="67" spans="1:7">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A67" s="17"/>
       <c r="B67" s="17"/>
       <c r="C67" s="17"/>
@@ -4168,7 +4180,7 @@
       <c r="F67" s="17"/>
       <c r="G67" s="17"/>
     </row>
-    <row r="68" spans="1:7">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A68" s="17"/>
       <c r="B68" s="17"/>
       <c r="C68" s="17"/>
@@ -4177,7 +4189,7 @@
       <c r="F68" s="17"/>
       <c r="G68" s="17"/>
     </row>
-    <row r="69" spans="1:7">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A69" s="17"/>
       <c r="B69" s="17"/>
       <c r="C69" s="17"/>
@@ -4186,7 +4198,7 @@
       <c r="F69" s="17"/>
       <c r="G69" s="17"/>
     </row>
-    <row r="70" spans="1:7">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A70" s="17"/>
       <c r="B70" s="17"/>
       <c r="C70" s="17"/>
@@ -4195,7 +4207,7 @@
       <c r="F70" s="17"/>
       <c r="G70" s="17"/>
     </row>
-    <row r="71" spans="1:7">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A71" s="17"/>
       <c r="B71" s="17"/>
       <c r="C71" s="17"/>
@@ -4204,7 +4216,7 @@
       <c r="F71" s="17"/>
       <c r="G71" s="17"/>
     </row>
-    <row r="72" spans="1:7">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A72" s="17"/>
       <c r="B72" s="17"/>
       <c r="C72" s="17"/>
@@ -4213,7 +4225,7 @@
       <c r="F72" s="17"/>
       <c r="G72" s="17"/>
     </row>
-    <row r="73" spans="1:7">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A73" s="17"/>
       <c r="B73" s="17"/>
       <c r="C73" s="17"/>
@@ -4222,7 +4234,7 @@
       <c r="F73" s="17"/>
       <c r="G73" s="17"/>
     </row>
-    <row r="74" spans="1:7">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A74" s="17"/>
       <c r="B74" s="17"/>
       <c r="C74" s="17"/>
@@ -4231,7 +4243,7 @@
       <c r="F74" s="17"/>
       <c r="G74" s="17"/>
     </row>
-    <row r="75" spans="1:7">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A75" s="17"/>
       <c r="B75" s="17"/>
       <c r="C75" s="17"/>
@@ -4240,7 +4252,7 @@
       <c r="F75" s="17"/>
       <c r="G75" s="17"/>
     </row>
-    <row r="76" spans="1:7">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A76" s="17"/>
       <c r="B76" s="17"/>
       <c r="C76" s="17"/>
@@ -4249,7 +4261,7 @@
       <c r="F76" s="17"/>
       <c r="G76" s="17"/>
     </row>
-    <row r="77" spans="1:7">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A77" s="17"/>
       <c r="B77" s="17"/>
       <c r="C77" s="17"/>
@@ -4274,17 +4286,17 @@
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="18.7109375" style="30" customWidth="1"/>
-    <col min="3" max="3" width="86.140625" style="31" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="30" customWidth="1"/>
-    <col min="5" max="5" width="11.85546875" style="30" customWidth="1"/>
-    <col min="6" max="6" width="10.5703125" customWidth="1"/>
-    <col min="7" max="7" width="49.42578125" customWidth="1"/>
+    <col min="2" max="2" width="18.75" style="30" customWidth="1"/>
+    <col min="3" max="3" width="86.125" style="31" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.625" style="30" customWidth="1"/>
+    <col min="5" max="5" width="11.875" style="30" customWidth="1"/>
+    <col min="6" max="6" width="10.625" customWidth="1"/>
+    <col min="7" max="7" width="49.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -4304,7 +4316,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="84" customHeight="1">
+    <row r="2" spans="1:7" ht="84" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="18">
         <v>1</v>
       </c>
@@ -4324,7 +4336,7 @@
         <v>42076</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="176.25" customHeight="1">
+    <row r="3" spans="1:7" ht="176.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="18">
         <v>2</v>
       </c>
@@ -4344,7 +4356,7 @@
         <v>42076</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" s="18">
         <v>3</v>
       </c>
@@ -4362,7 +4374,7 @@
         <v>42075</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" s="18">
         <v>4</v>
       </c>
@@ -4380,7 +4392,7 @@
         <v>42075</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="90">
+    <row r="6" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A6" s="18">
         <v>5</v>
       </c>
@@ -4398,7 +4410,7 @@
         <v>42075</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="152.25" customHeight="1">
+    <row r="7" spans="1:7" ht="152.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="18">
         <v>6</v>
       </c>
@@ -4417,7 +4429,7 @@
       </c>
       <c r="G7" s="27"/>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" s="18">
         <v>7</v>
       </c>
@@ -4435,7 +4447,7 @@
         <v>42075</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="24" customHeight="1">
+    <row r="9" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="18">
         <v>8</v>
       </c>
@@ -4453,7 +4465,7 @@
         <v>42075</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="183" customHeight="1">
+    <row r="10" spans="1:7" ht="183" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="18">
         <v>9</v>
       </c>
@@ -4471,7 +4483,7 @@
         <v>42075</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A11" s="18">
         <v>10</v>
       </c>
@@ -4485,7 +4497,7 @@
       <c r="E11" s="29"/>
       <c r="F11" s="17"/>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" s="18">
         <v>11</v>
       </c>
@@ -4503,7 +4515,7 @@
         <v>42075</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="60">
+    <row r="13" spans="1:7" ht="54" x14ac:dyDescent="0.15">
       <c r="A13" s="18">
         <v>12</v>
       </c>
@@ -4523,7 +4535,7 @@
         <v>42076</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="129" customHeight="1">
+    <row r="14" spans="1:7" ht="129" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="18">
         <v>13</v>
       </c>
@@ -4553,20 +4565,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="29.7109375" customWidth="1"/>
-    <col min="3" max="3" width="78.85546875" style="41" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" customWidth="1"/>
-    <col min="6" max="6" width="11.85546875" customWidth="1"/>
-    <col min="7" max="7" width="13.28515625" style="35" customWidth="1"/>
+    <col min="2" max="2" width="29.75" customWidth="1"/>
+    <col min="3" max="3" width="78.875" style="41" customWidth="1"/>
+    <col min="5" max="5" width="12.875" customWidth="1"/>
+    <col min="6" max="6" width="11.875" customWidth="1"/>
+    <col min="7" max="7" width="13.25" style="35" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
@@ -4589,7 +4601,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="159" customHeight="1">
+    <row r="2" spans="1:7" ht="159" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="37">
         <v>1</v>
       </c>
@@ -4612,7 +4624,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" s="37">
         <v>2</v>
       </c>
@@ -4633,7 +4645,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" s="37">
         <v>3</v>
       </c>
@@ -4656,7 +4668,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="150.75" customHeight="1">
+    <row r="5" spans="1:7" ht="150.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="37">
         <v>4</v>
       </c>
@@ -4673,7 +4685,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="138.75" customHeight="1">
+    <row r="6" spans="1:7" ht="138.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="37">
         <v>5</v>
       </c>
@@ -4683,14 +4695,18 @@
       <c r="C6" s="39" t="s">
         <v>115</v>
       </c>
-      <c r="D6" s="38"/>
+      <c r="D6" s="38" t="s">
+        <v>145</v>
+      </c>
       <c r="E6" s="38"/>
-      <c r="F6" s="38"/>
+      <c r="F6" s="44">
+        <v>42131</v>
+      </c>
       <c r="G6" s="43" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" s="37">
         <v>6</v>
       </c>
@@ -4700,14 +4716,18 @@
       <c r="C7" s="39" t="s">
         <v>116</v>
       </c>
-      <c r="D7" s="38"/>
+      <c r="D7" s="38" t="s">
+        <v>145</v>
+      </c>
       <c r="E7" s="38"/>
-      <c r="F7" s="38"/>
+      <c r="F7" s="44">
+        <v>42131</v>
+      </c>
       <c r="G7" s="43" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="188.25" customHeight="1">
+    <row r="8" spans="1:7" ht="188.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="37">
         <v>7</v>
       </c>
@@ -4717,14 +4737,18 @@
       <c r="C8" s="39" t="s">
         <v>117</v>
       </c>
-      <c r="D8" s="38"/>
+      <c r="D8" s="38" t="s">
+        <v>145</v>
+      </c>
       <c r="E8" s="38"/>
-      <c r="F8" s="38"/>
+      <c r="F8" s="44">
+        <v>42131</v>
+      </c>
       <c r="G8" s="43" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="158.25" customHeight="1">
+    <row r="9" spans="1:7" ht="158.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="37">
         <v>8</v>
       </c>
@@ -4734,14 +4758,18 @@
       <c r="C9" s="39" t="s">
         <v>118</v>
       </c>
-      <c r="D9" s="38"/>
+      <c r="D9" s="38" t="s">
+        <v>145</v>
+      </c>
       <c r="E9" s="38"/>
-      <c r="F9" s="38"/>
+      <c r="F9" s="44">
+        <v>42131</v>
+      </c>
       <c r="G9" s="43" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="30">
+    <row r="10" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A10" s="37">
         <v>9</v>
       </c>
@@ -4758,7 +4786,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A11" s="37">
         <v>10</v>
       </c>
@@ -4775,7 +4803,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="30">
+    <row r="12" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A12" s="37">
         <v>11</v>
       </c>
@@ -4794,7 +4822,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="98.25" customHeight="1">
+    <row r="13" spans="1:7" ht="98.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="37">
         <v>12</v>
       </c>
@@ -4811,7 +4839,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A14" s="37">
         <v>13</v>
       </c>
@@ -4828,7 +4856,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="169.5" customHeight="1">
+    <row r="15" spans="1:7" ht="169.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="37">
         <v>14</v>
       </c>
@@ -4845,7 +4873,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A16" s="37">
         <v>15</v>
       </c>
@@ -4862,7 +4890,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A17" s="37">
         <v>16</v>
       </c>
@@ -4879,7 +4907,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="45">
+    <row r="18" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A18" s="37">
         <v>17</v>
       </c>
@@ -4896,7 +4924,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A19" s="37">
         <v>18</v>
       </c>
@@ -4913,7 +4941,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="128.25" customHeight="1">
+    <row r="20" spans="1:7" ht="128.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="37">
         <v>19</v>
       </c>
@@ -4930,7 +4958,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A21" s="37">
         <v>20</v>
       </c>
@@ -4947,7 +4975,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="138.75" customHeight="1">
+    <row r="22" spans="1:7" ht="138.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="37">
         <v>21</v>
       </c>
@@ -4964,7 +4992,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A23" s="37">
         <v>22</v>
       </c>
@@ -4981,7 +5009,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="60">
+    <row r="24" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A24" s="37">
         <v>23</v>
       </c>
@@ -4998,7 +5026,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A25" s="37">
         <v>24</v>
       </c>
@@ -5015,7 +5043,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="153.75" customHeight="1">
+    <row r="26" spans="1:7" ht="153.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="37">
         <v>25</v>
       </c>
@@ -5032,7 +5060,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A27" s="37"/>
       <c r="B27" s="38"/>
       <c r="C27" s="39"/>
@@ -5041,7 +5069,7 @@
       <c r="F27" s="38"/>
       <c r="G27" s="38"/>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A28" s="37"/>
       <c r="B28" s="38"/>
       <c r="C28" s="39"/>
@@ -5050,7 +5078,7 @@
       <c r="F28" s="38"/>
       <c r="G28" s="38"/>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A29" s="37"/>
       <c r="B29" s="38"/>
       <c r="C29" s="39"/>
@@ -5059,7 +5087,7 @@
       <c r="F29" s="38"/>
       <c r="G29" s="38"/>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A30" s="37"/>
       <c r="B30" s="38"/>
       <c r="C30" s="39"/>
@@ -5068,7 +5096,7 @@
       <c r="F30" s="38"/>
       <c r="G30" s="38"/>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A31" s="37"/>
       <c r="B31" s="38"/>
       <c r="C31" s="39"/>
@@ -5077,7 +5105,7 @@
       <c r="F31" s="38"/>
       <c r="G31" s="38"/>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A32" s="37"/>
       <c r="B32" s="38"/>
       <c r="C32" s="39"/>
@@ -5086,7 +5114,7 @@
       <c r="F32" s="38"/>
       <c r="G32" s="38"/>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A33" s="37"/>
       <c r="B33" s="38"/>
       <c r="C33" s="39"/>
@@ -5095,7 +5123,7 @@
       <c r="F33" s="38"/>
       <c r="G33" s="38"/>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A34" s="37"/>
       <c r="B34" s="38"/>
       <c r="C34" s="39"/>
@@ -5104,7 +5132,7 @@
       <c r="F34" s="38"/>
       <c r="G34" s="38"/>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A35" s="37"/>
       <c r="B35" s="38"/>
       <c r="C35" s="39"/>
@@ -5113,7 +5141,7 @@
       <c r="F35" s="38"/>
       <c r="G35" s="38"/>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A36" s="37"/>
       <c r="B36" s="38"/>
       <c r="C36" s="39"/>
@@ -5122,7 +5150,7 @@
       <c r="F36" s="38"/>
       <c r="G36" s="38"/>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A37" s="37"/>
       <c r="B37" s="38"/>
       <c r="C37" s="39"/>
@@ -5131,7 +5159,7 @@
       <c r="F37" s="38"/>
       <c r="G37" s="38"/>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A38" s="37"/>
       <c r="B38" s="38"/>
       <c r="C38" s="39"/>
@@ -5140,7 +5168,7 @@
       <c r="F38" s="38"/>
       <c r="G38" s="38"/>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A39" s="37"/>
       <c r="B39" s="38"/>
       <c r="C39" s="39"/>
@@ -5149,7 +5177,7 @@
       <c r="F39" s="38"/>
       <c r="G39" s="38"/>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A40" s="37"/>
       <c r="B40" s="38"/>
       <c r="C40" s="39"/>
@@ -5158,7 +5186,7 @@
       <c r="F40" s="38"/>
       <c r="G40" s="38"/>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A41" s="37"/>
       <c r="B41" s="38"/>
       <c r="C41" s="39"/>
@@ -5167,7 +5195,7 @@
       <c r="F41" s="38"/>
       <c r="G41" s="38"/>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A42" s="37"/>
       <c r="B42" s="38"/>
       <c r="C42" s="39"/>
@@ -5176,7 +5204,7 @@
       <c r="F42" s="38"/>
       <c r="G42" s="38"/>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A43" s="37"/>
       <c r="B43" s="38"/>
       <c r="C43" s="39"/>
@@ -5185,7 +5213,7 @@
       <c r="F43" s="38"/>
       <c r="G43" s="38"/>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A44" s="37"/>
       <c r="B44" s="38"/>
       <c r="C44" s="39"/>
@@ -5194,7 +5222,7 @@
       <c r="F44" s="38"/>
       <c r="G44" s="38"/>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A45" s="37"/>
       <c r="B45" s="38"/>
       <c r="C45" s="39"/>
@@ -5203,7 +5231,7 @@
       <c r="F45" s="38"/>
       <c r="G45" s="38"/>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A46" s="37"/>
       <c r="B46" s="38"/>
       <c r="C46" s="39"/>
@@ -5212,7 +5240,7 @@
       <c r="F46" s="38"/>
       <c r="G46" s="38"/>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A47" s="37"/>
       <c r="B47" s="38"/>
       <c r="C47" s="39"/>
@@ -5221,7 +5249,7 @@
       <c r="F47" s="38"/>
       <c r="G47" s="38"/>
     </row>
-    <row r="48" spans="1:7">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A48" s="37"/>
       <c r="B48" s="38"/>
       <c r="C48" s="39"/>
@@ -5230,7 +5258,7 @@
       <c r="F48" s="38"/>
       <c r="G48" s="38"/>
     </row>
-    <row r="49" spans="1:7">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A49" s="37"/>
       <c r="B49" s="38"/>
       <c r="C49" s="39"/>
@@ -5239,7 +5267,7 @@
       <c r="F49" s="38"/>
       <c r="G49" s="38"/>
     </row>
-    <row r="50" spans="1:7">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A50" s="37"/>
       <c r="B50" s="38"/>
       <c r="C50" s="39"/>
@@ -5248,7 +5276,7 @@
       <c r="F50" s="38"/>
       <c r="G50" s="38"/>
     </row>
-    <row r="51" spans="1:7">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A51" s="37"/>
       <c r="B51" s="38"/>
       <c r="C51" s="39"/>
@@ -5257,7 +5285,7 @@
       <c r="F51" s="38"/>
       <c r="G51" s="38"/>
     </row>
-    <row r="52" spans="1:7">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A52" s="37"/>
       <c r="B52" s="38"/>
       <c r="C52" s="39"/>
@@ -5266,7 +5294,7 @@
       <c r="F52" s="38"/>
       <c r="G52" s="38"/>
     </row>
-    <row r="53" spans="1:7">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A53" s="37"/>
       <c r="B53" s="38"/>
       <c r="C53" s="39"/>
@@ -5275,7 +5303,7 @@
       <c r="F53" s="38"/>
       <c r="G53" s="38"/>
     </row>
-    <row r="54" spans="1:7">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A54" s="37"/>
       <c r="B54" s="38"/>
       <c r="C54" s="39"/>
@@ -5284,7 +5312,7 @@
       <c r="F54" s="38"/>
       <c r="G54" s="38"/>
     </row>
-    <row r="55" spans="1:7">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A55" s="37"/>
       <c r="B55" s="38"/>
       <c r="C55" s="39"/>
@@ -5293,7 +5321,7 @@
       <c r="F55" s="38"/>
       <c r="G55" s="38"/>
     </row>
-    <row r="56" spans="1:7">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A56" s="37"/>
       <c r="B56" s="38"/>
       <c r="C56" s="39"/>
@@ -5302,7 +5330,7 @@
       <c r="F56" s="38"/>
       <c r="G56" s="38"/>
     </row>
-    <row r="57" spans="1:7">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A57" s="37"/>
       <c r="B57" s="17"/>
       <c r="C57" s="40"/>
@@ -5311,7 +5339,7 @@
       <c r="F57" s="17"/>
       <c r="G57" s="38"/>
     </row>
-    <row r="58" spans="1:7">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A58" s="37"/>
       <c r="B58" s="17"/>
       <c r="C58" s="40"/>
@@ -5320,7 +5348,7 @@
       <c r="F58" s="17"/>
       <c r="G58" s="38"/>
     </row>
-    <row r="59" spans="1:7">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A59" s="37"/>
       <c r="B59" s="17"/>
       <c r="C59" s="40"/>
@@ -5329,7 +5357,7 @@
       <c r="F59" s="17"/>
       <c r="G59" s="38"/>
     </row>
-    <row r="60" spans="1:7">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B60" s="17"/>
       <c r="C60" s="40"/>
       <c r="D60" s="17"/>
@@ -5338,8 +5366,9 @@
       <c r="G60" s="38"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="1200" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Docs/Testing Issue List.xlsx
+++ b/Docs/Testing Issue List.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Zhongding.git\trunk\Docs\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="495" windowWidth="20115" windowHeight="7575" activeTab="3"/>
   </bookViews>
@@ -25,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="150">
   <si>
     <t>#</t>
   </si>
@@ -528,23 +523,37 @@
 页面跳转 可参考货品保存等模块</t>
   </si>
   <si>
-    <t>已经关联在物流单上的出库单，不要再继续显示在关联单据的选择界面上。
-同一个出库单，不能有多个物流单。</t>
-  </si>
-  <si>
     <t>已解决</t>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>已经关联在物流单上的出库单，不要再继续显示在关联单据的选择界面上。
+同一个出库单，不能有多个物流单。
+物流单应该只能选择已出库或已入库的出入库单
+待出库或待入库的 单据不能被选。</t>
+  </si>
+  <si>
+    <t>客户出库单</t>
+  </si>
+  <si>
+    <t>需开票数量分配不正确</t>
+  </si>
+  <si>
+    <t>查看客户出库单detail 页面，点击取消，页面跳转到大包列表页面</t>
+  </si>
+  <si>
+    <t>相同的货品，如果已经加到订单里，就不能再次加了吗？如果用户想选不同规格的呢？</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -571,7 +580,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -752,7 +761,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2266,11 +2275,49 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>19049</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>322888</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>1426145</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11010899" y="23812500"/>
+          <a:ext cx="3961439" cy="1407095"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2312,7 +2359,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2347,7 +2394,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2563,19 +2610,19 @@
       <selection pane="bottomLeft" activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="11.125" style="11" customWidth="1"/>
-    <col min="2" max="2" width="22.875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="34.625" style="26" customWidth="1"/>
-    <col min="4" max="4" width="18.75" style="16" customWidth="1"/>
-    <col min="5" max="5" width="15.625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14.375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="51.875" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.125" style="1"/>
+    <col min="1" max="1" width="11.140625" style="11" customWidth="1"/>
+    <col min="2" max="2" width="22.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="34.5703125" style="26" customWidth="1"/>
+    <col min="4" max="4" width="18.7109375" style="16" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="51.85546875" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -2596,7 +2643,7 @@
       </c>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:7" ht="133.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" ht="133.5" customHeight="1">
       <c r="A2" s="9">
         <v>1</v>
       </c>
@@ -2617,7 +2664,7 @@
       </c>
       <c r="G2" s="6"/>
     </row>
-    <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" ht="16.5">
       <c r="A3" s="9">
         <v>2</v>
       </c>
@@ -2636,7 +2683,7 @@
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
     </row>
-    <row r="4" spans="1:7" ht="191.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" ht="191.25" customHeight="1">
       <c r="A4" s="9">
         <v>3</v>
       </c>
@@ -2657,7 +2704,7 @@
       </c>
       <c r="G4" s="6"/>
     </row>
-    <row r="5" spans="1:7" ht="74.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" ht="74.25" customHeight="1">
       <c r="A5" s="9">
         <v>4</v>
       </c>
@@ -2678,7 +2725,7 @@
       </c>
       <c r="G5" s="6"/>
     </row>
-    <row r="6" spans="1:7" ht="217.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" ht="217.5" customHeight="1">
       <c r="A6" s="9">
         <v>5</v>
       </c>
@@ -2699,7 +2746,7 @@
       </c>
       <c r="G6" s="6"/>
     </row>
-    <row r="7" spans="1:7" ht="172.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" ht="172.5" customHeight="1">
       <c r="A7" s="9">
         <v>6</v>
       </c>
@@ -2720,7 +2767,7 @@
       </c>
       <c r="G7" s="6"/>
     </row>
-    <row r="8" spans="1:7" ht="243.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" ht="243.75" customHeight="1">
       <c r="A8" s="9">
         <v>7</v>
       </c>
@@ -2737,7 +2784,7 @@
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
     </row>
-    <row r="9" spans="1:7" ht="33" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7" ht="49.5">
       <c r="A9" s="9">
         <v>8</v>
       </c>
@@ -2754,7 +2801,7 @@
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
     </row>
-    <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7" ht="16.5">
       <c r="A10" s="9">
         <v>9</v>
       </c>
@@ -2775,7 +2822,7 @@
       </c>
       <c r="G10" s="6"/>
     </row>
-    <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7" ht="16.5">
       <c r="A11" s="9">
         <v>10</v>
       </c>
@@ -2796,7 +2843,7 @@
       </c>
       <c r="G11" s="6"/>
     </row>
-    <row r="12" spans="1:7" ht="33" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" ht="33">
       <c r="A12" s="9">
         <v>11</v>
       </c>
@@ -2817,7 +2864,7 @@
       </c>
       <c r="G12" s="6"/>
     </row>
-    <row r="13" spans="1:7" ht="33" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7" ht="33">
       <c r="A13" s="9">
         <v>12</v>
       </c>
@@ -2838,7 +2885,7 @@
       </c>
       <c r="G13" s="6"/>
     </row>
-    <row r="14" spans="1:7" ht="66" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" ht="66">
       <c r="A14" s="9">
         <v>13</v>
       </c>
@@ -2859,7 +2906,7 @@
       </c>
       <c r="G14" s="6"/>
     </row>
-    <row r="15" spans="1:7" ht="33" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7" ht="33">
       <c r="A15" s="9">
         <v>14</v>
       </c>
@@ -2880,7 +2927,7 @@
       </c>
       <c r="G15" s="6"/>
     </row>
-    <row r="16" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7" ht="16.5">
       <c r="A16" s="9">
         <v>15</v>
       </c>
@@ -2901,7 +2948,7 @@
       </c>
       <c r="G16" s="6"/>
     </row>
-    <row r="17" spans="1:7" ht="186.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:7" ht="186.75" customHeight="1">
       <c r="A17" s="9">
         <v>16</v>
       </c>
@@ -2922,7 +2969,7 @@
       </c>
       <c r="G17" s="6"/>
     </row>
-    <row r="18" spans="1:7" ht="216.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:7" ht="216.75" customHeight="1">
       <c r="A18" s="9">
         <v>17</v>
       </c>
@@ -2943,7 +2990,7 @@
       </c>
       <c r="G18" s="6"/>
     </row>
-    <row r="19" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:7" ht="16.5">
       <c r="A19" s="9">
         <v>18</v>
       </c>
@@ -2964,7 +3011,7 @@
       </c>
       <c r="G19" s="6"/>
     </row>
-    <row r="20" spans="1:7" ht="199.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:7" ht="199.5" customHeight="1">
       <c r="A20" s="9">
         <v>19</v>
       </c>
@@ -2983,7 +3030,7 @@
       </c>
       <c r="G20" s="6"/>
     </row>
-    <row r="21" spans="1:7" ht="163.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:7" ht="163.5" customHeight="1">
       <c r="A21" s="9">
         <v>20</v>
       </c>
@@ -3002,7 +3049,7 @@
       </c>
       <c r="G21" s="6"/>
     </row>
-    <row r="22" spans="1:7" ht="162" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:7" ht="162" customHeight="1">
       <c r="A22" s="9">
         <v>21</v>
       </c>
@@ -3019,7 +3066,7 @@
       <c r="F22" s="6"/>
       <c r="G22" s="6"/>
     </row>
-    <row r="23" spans="1:7" ht="178.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:7" ht="178.5" customHeight="1">
       <c r="A23" s="9">
         <v>22</v>
       </c>
@@ -3040,7 +3087,7 @@
       </c>
       <c r="G23" s="6"/>
     </row>
-    <row r="24" spans="1:7" ht="198" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:7" ht="198" customHeight="1">
       <c r="A24" s="9">
         <v>23</v>
       </c>
@@ -3061,7 +3108,7 @@
       </c>
       <c r="G24" s="6"/>
     </row>
-    <row r="25" spans="1:7" ht="240.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:7" ht="240.75" customHeight="1">
       <c r="A25" s="9">
         <v>24</v>
       </c>
@@ -3082,7 +3129,7 @@
       </c>
       <c r="G25" s="6"/>
     </row>
-    <row r="26" spans="1:7" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:7" ht="49.5">
       <c r="A26" s="9">
         <v>25</v>
       </c>
@@ -3103,7 +3150,7 @@
       </c>
       <c r="G26" s="6"/>
     </row>
-    <row r="27" spans="1:7" ht="190.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:7" ht="190.5" customHeight="1">
       <c r="A27" s="9">
         <v>26</v>
       </c>
@@ -3124,7 +3171,7 @@
       </c>
       <c r="G27" s="6"/>
     </row>
-    <row r="28" spans="1:7" ht="188.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:7" ht="188.25" customHeight="1">
       <c r="A28" s="9">
         <v>27</v>
       </c>
@@ -3145,7 +3192,7 @@
       </c>
       <c r="G28" s="6"/>
     </row>
-    <row r="29" spans="1:7" ht="33" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:7" ht="33">
       <c r="A29" s="9">
         <v>28</v>
       </c>
@@ -3166,7 +3213,7 @@
       </c>
       <c r="G29" s="6"/>
     </row>
-    <row r="30" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:7" ht="16.5">
       <c r="A30" s="9">
         <v>29</v>
       </c>
@@ -3187,7 +3234,7 @@
       </c>
       <c r="G30" s="6"/>
     </row>
-    <row r="31" spans="1:7" ht="33" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:7" ht="33">
       <c r="A31" s="9">
         <v>30</v>
       </c>
@@ -3208,7 +3255,7 @@
       </c>
       <c r="G31" s="6"/>
     </row>
-    <row r="32" spans="1:7" ht="121.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:7" ht="121.5" customHeight="1">
       <c r="A32" s="9">
         <v>31</v>
       </c>
@@ -3229,7 +3276,7 @@
       </c>
       <c r="G32" s="6"/>
     </row>
-    <row r="33" spans="1:7" ht="99" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:7" ht="99">
       <c r="A33" s="9">
         <v>32</v>
       </c>
@@ -3250,7 +3297,7 @@
       </c>
       <c r="G33" s="6"/>
     </row>
-    <row r="34" spans="1:7" ht="33" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:7" ht="49.5">
       <c r="A34" s="9">
         <v>33</v>
       </c>
@@ -3271,7 +3318,7 @@
       </c>
       <c r="G34" s="6"/>
     </row>
-    <row r="35" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:7" ht="16.5">
       <c r="A35" s="9">
         <v>34</v>
       </c>
@@ -3292,7 +3339,7 @@
       </c>
       <c r="G35" s="3"/>
     </row>
-    <row r="36" spans="1:7" ht="49.5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:7" ht="66">
       <c r="A36" s="9">
         <v>35</v>
       </c>
@@ -3313,7 +3360,7 @@
       </c>
       <c r="G36" s="3"/>
     </row>
-    <row r="37" spans="1:7" ht="207" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:7" ht="207" customHeight="1">
       <c r="A37" s="9"/>
       <c r="B37" s="22"/>
       <c r="C37" s="24"/>
@@ -3322,7 +3369,7 @@
       <c r="F37" s="3"/>
       <c r="G37" s="3"/>
     </row>
-    <row r="38" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:7" ht="16.5">
       <c r="A38" s="9"/>
       <c r="B38" s="3"/>
       <c r="C38" s="24"/>
@@ -3331,7 +3378,7 @@
       <c r="F38" s="3"/>
       <c r="G38" s="3"/>
     </row>
-    <row r="39" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:7" ht="16.5">
       <c r="A39" s="9"/>
       <c r="B39" s="3"/>
       <c r="C39" s="24"/>
@@ -3340,7 +3387,7 @@
       <c r="F39" s="3"/>
       <c r="G39" s="3"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:7">
       <c r="A40" s="10"/>
       <c r="B40" s="4"/>
       <c r="C40" s="25"/>
@@ -3349,7 +3396,7 @@
       <c r="F40" s="4"/>
       <c r="G40" s="4"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:7">
       <c r="A41" s="8"/>
       <c r="B41" s="2"/>
       <c r="C41" s="23"/>
@@ -3376,18 +3423,18 @@
       <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.875" customWidth="1"/>
-    <col min="2" max="2" width="15.875" customWidth="1"/>
+    <col min="1" max="1" width="11.85546875" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" customWidth="1"/>
     <col min="3" max="3" width="56" customWidth="1"/>
-    <col min="4" max="4" width="15.375" customWidth="1"/>
-    <col min="5" max="5" width="15.875" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" customWidth="1"/>
     <col min="6" max="6" width="19" customWidth="1"/>
-    <col min="7" max="7" width="61.875" customWidth="1"/>
+    <col min="7" max="7" width="61.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -3408,7 +3455,7 @@
       </c>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:7" ht="210.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" ht="210.75" customHeight="1">
       <c r="A2" s="18">
         <v>1</v>
       </c>
@@ -3429,7 +3476,7 @@
       </c>
       <c r="G2" s="17"/>
     </row>
-    <row r="3" spans="1:7" ht="210.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" ht="210.75" customHeight="1">
       <c r="A3" s="18">
         <v>2</v>
       </c>
@@ -3450,7 +3497,7 @@
       </c>
       <c r="G3" s="17"/>
     </row>
-    <row r="4" spans="1:7" ht="210.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" ht="210.75" customHeight="1">
       <c r="A4" s="18">
         <v>3</v>
       </c>
@@ -3469,7 +3516,7 @@
       </c>
       <c r="G4" s="17"/>
     </row>
-    <row r="5" spans="1:7" ht="210.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" ht="210.75" customHeight="1">
       <c r="A5" s="18">
         <v>4</v>
       </c>
@@ -3488,7 +3535,7 @@
       </c>
       <c r="G5" s="17"/>
     </row>
-    <row r="6" spans="1:7" ht="210.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" ht="210.75" customHeight="1">
       <c r="A6" s="18">
         <v>5</v>
       </c>
@@ -3507,7 +3554,7 @@
       </c>
       <c r="G6" s="17"/>
     </row>
-    <row r="7" spans="1:7" ht="130.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" ht="130.5" customHeight="1">
       <c r="A7" s="18">
         <v>6</v>
       </c>
@@ -3526,7 +3573,7 @@
       </c>
       <c r="G7" s="17"/>
     </row>
-    <row r="8" spans="1:7" ht="210.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" ht="210.75" customHeight="1">
       <c r="A8" s="18">
         <v>7</v>
       </c>
@@ -3547,7 +3594,7 @@
       </c>
       <c r="G8" s="17"/>
     </row>
-    <row r="9" spans="1:7" ht="210.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7" ht="210.75" customHeight="1">
       <c r="A9" s="18">
         <v>8</v>
       </c>
@@ -3568,7 +3615,7 @@
       </c>
       <c r="G9" s="17"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7">
       <c r="A10" s="18">
         <v>9</v>
       </c>
@@ -3589,7 +3636,7 @@
       </c>
       <c r="G10" s="17"/>
     </row>
-    <row r="11" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7" ht="30">
       <c r="A11" s="18">
         <v>10</v>
       </c>
@@ -3610,7 +3657,7 @@
       </c>
       <c r="G11" s="17"/>
     </row>
-    <row r="12" spans="1:7" ht="195" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" ht="195" customHeight="1">
       <c r="A12" s="18">
         <v>11</v>
       </c>
@@ -3629,7 +3676,7 @@
       <c r="F12" s="20"/>
       <c r="G12" s="17"/>
     </row>
-    <row r="13" spans="1:7" ht="210.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7" ht="210.75" customHeight="1">
       <c r="A13" s="18">
         <v>12</v>
       </c>
@@ -3650,7 +3697,7 @@
       </c>
       <c r="G13" s="17"/>
     </row>
-    <row r="14" spans="1:7" ht="210.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" ht="210.75" customHeight="1">
       <c r="A14" s="18">
         <v>13</v>
       </c>
@@ -3669,7 +3716,7 @@
       <c r="F14" s="20"/>
       <c r="G14" s="17"/>
     </row>
-    <row r="15" spans="1:7" ht="195" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7" ht="195" customHeight="1">
       <c r="A15" s="18">
         <v>14</v>
       </c>
@@ -3688,7 +3735,7 @@
       <c r="F15" s="20"/>
       <c r="G15" s="17"/>
     </row>
-    <row r="16" spans="1:7" ht="210.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7" ht="210.75" customHeight="1">
       <c r="A16" s="18">
         <v>15</v>
       </c>
@@ -3709,7 +3756,7 @@
       </c>
       <c r="G16" s="17"/>
     </row>
-    <row r="17" spans="1:7" ht="210.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:7" ht="210.75" customHeight="1">
       <c r="A17" s="18">
         <v>16</v>
       </c>
@@ -3728,7 +3775,7 @@
       <c r="F17" s="20"/>
       <c r="G17" s="17"/>
     </row>
-    <row r="18" spans="1:7" ht="210.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:7" ht="210.75" customHeight="1">
       <c r="A18" s="18">
         <v>17</v>
       </c>
@@ -3739,7 +3786,7 @@
       <c r="F18" s="18"/>
       <c r="G18" s="17"/>
     </row>
-    <row r="19" spans="1:7" ht="210.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:7" ht="210.75" customHeight="1">
       <c r="A19" s="18"/>
       <c r="B19" s="18"/>
       <c r="C19" s="19"/>
@@ -3748,7 +3795,7 @@
       <c r="F19" s="18"/>
       <c r="G19" s="17"/>
     </row>
-    <row r="20" spans="1:7" ht="210.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:7" ht="210.75" customHeight="1">
       <c r="A20" s="18"/>
       <c r="B20" s="18"/>
       <c r="C20" s="19"/>
@@ -3757,7 +3804,7 @@
       <c r="F20" s="18"/>
       <c r="G20" s="17"/>
     </row>
-    <row r="21" spans="1:7" ht="210.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:7" ht="210.75" customHeight="1">
       <c r="A21" s="18"/>
       <c r="B21" s="18"/>
       <c r="C21" s="19"/>
@@ -3766,7 +3813,7 @@
       <c r="F21" s="18"/>
       <c r="G21" s="17"/>
     </row>
-    <row r="22" spans="1:7" ht="210.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:7" ht="210.75" customHeight="1">
       <c r="A22" s="18"/>
       <c r="B22" s="18"/>
       <c r="C22" s="19"/>
@@ -3775,7 +3822,7 @@
       <c r="F22" s="18"/>
       <c r="G22" s="17"/>
     </row>
-    <row r="23" spans="1:7" ht="210.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:7" ht="210.75" customHeight="1">
       <c r="A23" s="18"/>
       <c r="B23" s="18"/>
       <c r="C23" s="19"/>
@@ -3784,7 +3831,7 @@
       <c r="F23" s="18"/>
       <c r="G23" s="17"/>
     </row>
-    <row r="24" spans="1:7" ht="210.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:7" ht="210.75" customHeight="1">
       <c r="A24" s="18"/>
       <c r="B24" s="18"/>
       <c r="C24" s="19"/>
@@ -3793,7 +3840,7 @@
       <c r="F24" s="18"/>
       <c r="G24" s="17"/>
     </row>
-    <row r="25" spans="1:7" ht="210.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:7" ht="210.75" customHeight="1">
       <c r="A25" s="18"/>
       <c r="B25" s="18"/>
       <c r="C25" s="19"/>
@@ -3802,7 +3849,7 @@
       <c r="F25" s="18"/>
       <c r="G25" s="17"/>
     </row>
-    <row r="26" spans="1:7" ht="210.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:7" ht="210.75" customHeight="1">
       <c r="A26" s="18"/>
       <c r="B26" s="18"/>
       <c r="C26" s="19"/>
@@ -3811,7 +3858,7 @@
       <c r="F26" s="18"/>
       <c r="G26" s="17"/>
     </row>
-    <row r="27" spans="1:7" ht="210.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:7" ht="210.75" customHeight="1">
       <c r="A27" s="18"/>
       <c r="B27" s="18"/>
       <c r="C27" s="19"/>
@@ -3820,7 +3867,7 @@
       <c r="F27" s="18"/>
       <c r="G27" s="17"/>
     </row>
-    <row r="28" spans="1:7" ht="210.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:7" ht="210.75" customHeight="1">
       <c r="A28" s="18"/>
       <c r="B28" s="18"/>
       <c r="C28" s="19"/>
@@ -3829,7 +3876,7 @@
       <c r="F28" s="18"/>
       <c r="G28" s="17"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:7">
       <c r="A29" s="17"/>
       <c r="B29" s="17"/>
       <c r="C29" s="17"/>
@@ -3838,7 +3885,7 @@
       <c r="F29" s="17"/>
       <c r="G29" s="17"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:7">
       <c r="A30" s="17"/>
       <c r="B30" s="17"/>
       <c r="C30" s="17"/>
@@ -3847,7 +3894,7 @@
       <c r="F30" s="17"/>
       <c r="G30" s="17"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:7">
       <c r="A31" s="17"/>
       <c r="B31" s="17"/>
       <c r="C31" s="17"/>
@@ -3856,7 +3903,7 @@
       <c r="F31" s="17"/>
       <c r="G31" s="17"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:7">
       <c r="A32" s="17"/>
       <c r="B32" s="17"/>
       <c r="C32" s="17"/>
@@ -3865,7 +3912,7 @@
       <c r="F32" s="17"/>
       <c r="G32" s="17"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:7">
       <c r="A33" s="17"/>
       <c r="B33" s="17"/>
       <c r="C33" s="17"/>
@@ -3874,7 +3921,7 @@
       <c r="F33" s="17"/>
       <c r="G33" s="17"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:7">
       <c r="A34" s="17"/>
       <c r="B34" s="17"/>
       <c r="C34" s="17"/>
@@ -3883,7 +3930,7 @@
       <c r="F34" s="17"/>
       <c r="G34" s="17"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:7">
       <c r="A35" s="17"/>
       <c r="B35" s="17"/>
       <c r="C35" s="17"/>
@@ -3892,7 +3939,7 @@
       <c r="F35" s="17"/>
       <c r="G35" s="17"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:7">
       <c r="A36" s="17"/>
       <c r="B36" s="17"/>
       <c r="C36" s="17"/>
@@ -3901,7 +3948,7 @@
       <c r="F36" s="17"/>
       <c r="G36" s="17"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:7">
       <c r="A37" s="17"/>
       <c r="B37" s="17"/>
       <c r="C37" s="17"/>
@@ -3910,7 +3957,7 @@
       <c r="F37" s="17"/>
       <c r="G37" s="17"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:7">
       <c r="A38" s="17"/>
       <c r="B38" s="17"/>
       <c r="C38" s="17"/>
@@ -3919,7 +3966,7 @@
       <c r="F38" s="17"/>
       <c r="G38" s="17"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:7">
       <c r="A39" s="17"/>
       <c r="B39" s="17"/>
       <c r="C39" s="17"/>
@@ -3928,7 +3975,7 @@
       <c r="F39" s="17"/>
       <c r="G39" s="17"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:7">
       <c r="A40" s="17"/>
       <c r="B40" s="17"/>
       <c r="C40" s="17"/>
@@ -3937,7 +3984,7 @@
       <c r="F40" s="17"/>
       <c r="G40" s="17"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:7">
       <c r="A41" s="17"/>
       <c r="B41" s="17"/>
       <c r="C41" s="17"/>
@@ -3946,7 +3993,7 @@
       <c r="F41" s="17"/>
       <c r="G41" s="17"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:7">
       <c r="A42" s="17"/>
       <c r="B42" s="17"/>
       <c r="C42" s="17"/>
@@ -3955,7 +4002,7 @@
       <c r="F42" s="17"/>
       <c r="G42" s="17"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:7">
       <c r="A43" s="17"/>
       <c r="B43" s="17"/>
       <c r="C43" s="17"/>
@@ -3964,7 +4011,7 @@
       <c r="F43" s="17"/>
       <c r="G43" s="17"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:7">
       <c r="A44" s="17"/>
       <c r="B44" s="17"/>
       <c r="C44" s="17"/>
@@ -3973,7 +4020,7 @@
       <c r="F44" s="17"/>
       <c r="G44" s="17"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:7">
       <c r="A45" s="17"/>
       <c r="B45" s="17"/>
       <c r="C45" s="17"/>
@@ -3982,7 +4029,7 @@
       <c r="F45" s="17"/>
       <c r="G45" s="17"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:7">
       <c r="A46" s="17"/>
       <c r="B46" s="17"/>
       <c r="C46" s="17"/>
@@ -3991,7 +4038,7 @@
       <c r="F46" s="17"/>
       <c r="G46" s="17"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:7">
       <c r="A47" s="17"/>
       <c r="B47" s="17"/>
       <c r="C47" s="17"/>
@@ -4000,7 +4047,7 @@
       <c r="F47" s="17"/>
       <c r="G47" s="17"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:7">
       <c r="A48" s="17"/>
       <c r="B48" s="17"/>
       <c r="C48" s="17"/>
@@ -4009,7 +4056,7 @@
       <c r="F48" s="17"/>
       <c r="G48" s="17"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:7">
       <c r="A49" s="17"/>
       <c r="B49" s="17"/>
       <c r="C49" s="17"/>
@@ -4018,7 +4065,7 @@
       <c r="F49" s="17"/>
       <c r="G49" s="17"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:7">
       <c r="A50" s="17"/>
       <c r="B50" s="17"/>
       <c r="C50" s="17"/>
@@ -4027,7 +4074,7 @@
       <c r="F50" s="17"/>
       <c r="G50" s="17"/>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:7">
       <c r="A51" s="17"/>
       <c r="B51" s="17"/>
       <c r="C51" s="17"/>
@@ -4036,7 +4083,7 @@
       <c r="F51" s="17"/>
       <c r="G51" s="17"/>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:7">
       <c r="A52" s="17"/>
       <c r="B52" s="17"/>
       <c r="C52" s="17"/>
@@ -4045,7 +4092,7 @@
       <c r="F52" s="17"/>
       <c r="G52" s="17"/>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:7">
       <c r="A53" s="17"/>
       <c r="B53" s="17"/>
       <c r="C53" s="17"/>
@@ -4054,7 +4101,7 @@
       <c r="F53" s="17"/>
       <c r="G53" s="17"/>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:7">
       <c r="A54" s="17"/>
       <c r="B54" s="17"/>
       <c r="C54" s="17"/>
@@ -4063,7 +4110,7 @@
       <c r="F54" s="17"/>
       <c r="G54" s="17"/>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:7">
       <c r="A55" s="17"/>
       <c r="B55" s="17"/>
       <c r="C55" s="17"/>
@@ -4072,7 +4119,7 @@
       <c r="F55" s="17"/>
       <c r="G55" s="17"/>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:7">
       <c r="A56" s="17"/>
       <c r="B56" s="17"/>
       <c r="C56" s="17"/>
@@ -4081,7 +4128,7 @@
       <c r="F56" s="17"/>
       <c r="G56" s="17"/>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:7">
       <c r="A57" s="17"/>
       <c r="B57" s="17"/>
       <c r="C57" s="17"/>
@@ -4090,7 +4137,7 @@
       <c r="F57" s="17"/>
       <c r="G57" s="17"/>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:7">
       <c r="A58" s="17"/>
       <c r="B58" s="17"/>
       <c r="C58" s="17"/>
@@ -4099,7 +4146,7 @@
       <c r="F58" s="17"/>
       <c r="G58" s="17"/>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:7">
       <c r="A59" s="17"/>
       <c r="B59" s="17"/>
       <c r="C59" s="17"/>
@@ -4108,7 +4155,7 @@
       <c r="F59" s="17"/>
       <c r="G59" s="17"/>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:7">
       <c r="A60" s="17"/>
       <c r="B60" s="17"/>
       <c r="C60" s="17"/>
@@ -4117,7 +4164,7 @@
       <c r="F60" s="17"/>
       <c r="G60" s="17"/>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:7">
       <c r="A61" s="17"/>
       <c r="B61" s="17"/>
       <c r="C61" s="17"/>
@@ -4126,7 +4173,7 @@
       <c r="F61" s="17"/>
       <c r="G61" s="17"/>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:7">
       <c r="A62" s="17"/>
       <c r="B62" s="17"/>
       <c r="C62" s="17"/>
@@ -4135,7 +4182,7 @@
       <c r="F62" s="17"/>
       <c r="G62" s="17"/>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:7">
       <c r="A63" s="17"/>
       <c r="B63" s="17"/>
       <c r="C63" s="17"/>
@@ -4144,7 +4191,7 @@
       <c r="F63" s="17"/>
       <c r="G63" s="17"/>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:7">
       <c r="A64" s="17"/>
       <c r="B64" s="17"/>
       <c r="C64" s="17"/>
@@ -4153,7 +4200,7 @@
       <c r="F64" s="17"/>
       <c r="G64" s="17"/>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:7">
       <c r="A65" s="17"/>
       <c r="B65" s="17"/>
       <c r="C65" s="17"/>
@@ -4162,7 +4209,7 @@
       <c r="F65" s="17"/>
       <c r="G65" s="17"/>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:7">
       <c r="A66" s="17"/>
       <c r="B66" s="17"/>
       <c r="C66" s="17"/>
@@ -4171,7 +4218,7 @@
       <c r="F66" s="17"/>
       <c r="G66" s="17"/>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:7">
       <c r="A67" s="17"/>
       <c r="B67" s="17"/>
       <c r="C67" s="17"/>
@@ -4180,7 +4227,7 @@
       <c r="F67" s="17"/>
       <c r="G67" s="17"/>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:7">
       <c r="A68" s="17"/>
       <c r="B68" s="17"/>
       <c r="C68" s="17"/>
@@ -4189,7 +4236,7 @@
       <c r="F68" s="17"/>
       <c r="G68" s="17"/>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:7">
       <c r="A69" s="17"/>
       <c r="B69" s="17"/>
       <c r="C69" s="17"/>
@@ -4198,7 +4245,7 @@
       <c r="F69" s="17"/>
       <c r="G69" s="17"/>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:7">
       <c r="A70" s="17"/>
       <c r="B70" s="17"/>
       <c r="C70" s="17"/>
@@ -4207,7 +4254,7 @@
       <c r="F70" s="17"/>
       <c r="G70" s="17"/>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:7">
       <c r="A71" s="17"/>
       <c r="B71" s="17"/>
       <c r="C71" s="17"/>
@@ -4216,7 +4263,7 @@
       <c r="F71" s="17"/>
       <c r="G71" s="17"/>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:7">
       <c r="A72" s="17"/>
       <c r="B72" s="17"/>
       <c r="C72" s="17"/>
@@ -4225,7 +4272,7 @@
       <c r="F72" s="17"/>
       <c r="G72" s="17"/>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:7">
       <c r="A73" s="17"/>
       <c r="B73" s="17"/>
       <c r="C73" s="17"/>
@@ -4234,7 +4281,7 @@
       <c r="F73" s="17"/>
       <c r="G73" s="17"/>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:7">
       <c r="A74" s="17"/>
       <c r="B74" s="17"/>
       <c r="C74" s="17"/>
@@ -4243,7 +4290,7 @@
       <c r="F74" s="17"/>
       <c r="G74" s="17"/>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:7">
       <c r="A75" s="17"/>
       <c r="B75" s="17"/>
       <c r="C75" s="17"/>
@@ -4252,7 +4299,7 @@
       <c r="F75" s="17"/>
       <c r="G75" s="17"/>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:7">
       <c r="A76" s="17"/>
       <c r="B76" s="17"/>
       <c r="C76" s="17"/>
@@ -4261,7 +4308,7 @@
       <c r="F76" s="17"/>
       <c r="G76" s="17"/>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:7">
       <c r="A77" s="17"/>
       <c r="B77" s="17"/>
       <c r="C77" s="17"/>
@@ -4286,17 +4333,17 @@
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="18.75" style="30" customWidth="1"/>
-    <col min="3" max="3" width="86.125" style="31" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.625" style="30" customWidth="1"/>
-    <col min="5" max="5" width="11.875" style="30" customWidth="1"/>
-    <col min="6" max="6" width="10.625" customWidth="1"/>
-    <col min="7" max="7" width="49.375" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" style="30" customWidth="1"/>
+    <col min="3" max="3" width="86.140625" style="31" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.5703125" style="30" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" style="30" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" customWidth="1"/>
+    <col min="7" max="7" width="49.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -4316,7 +4363,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="84" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" ht="84" customHeight="1">
       <c r="A2" s="18">
         <v>1</v>
       </c>
@@ -4336,7 +4383,7 @@
         <v>42076</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="176.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" ht="176.25" customHeight="1">
       <c r="A3" s="18">
         <v>2</v>
       </c>
@@ -4356,7 +4403,7 @@
         <v>42076</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7">
       <c r="A4" s="18">
         <v>3</v>
       </c>
@@ -4374,7 +4421,7 @@
         <v>42075</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7">
       <c r="A5" s="18">
         <v>4</v>
       </c>
@@ -4392,7 +4439,7 @@
         <v>42075</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" ht="90">
       <c r="A6" s="18">
         <v>5</v>
       </c>
@@ -4410,7 +4457,7 @@
         <v>42075</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="152.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" ht="152.25" customHeight="1">
       <c r="A7" s="18">
         <v>6</v>
       </c>
@@ -4429,7 +4476,7 @@
       </c>
       <c r="G7" s="27"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7">
       <c r="A8" s="18">
         <v>7</v>
       </c>
@@ -4447,7 +4494,7 @@
         <v>42075</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7" ht="24" customHeight="1">
       <c r="A9" s="18">
         <v>8</v>
       </c>
@@ -4465,7 +4512,7 @@
         <v>42075</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="183" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7" ht="183" customHeight="1">
       <c r="A10" s="18">
         <v>9</v>
       </c>
@@ -4483,7 +4530,7 @@
         <v>42075</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7">
       <c r="A11" s="18">
         <v>10</v>
       </c>
@@ -4497,7 +4544,7 @@
       <c r="E11" s="29"/>
       <c r="F11" s="17"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7">
       <c r="A12" s="18">
         <v>11</v>
       </c>
@@ -4515,7 +4562,7 @@
         <v>42075</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="54" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7" ht="60">
       <c r="A13" s="18">
         <v>12</v>
       </c>
@@ -4535,7 +4582,7 @@
         <v>42076</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="129" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" ht="129" customHeight="1">
       <c r="A14" s="18">
         <v>13</v>
       </c>
@@ -4565,20 +4612,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="29.75" customWidth="1"/>
-    <col min="3" max="3" width="78.875" style="41" customWidth="1"/>
-    <col min="5" max="5" width="12.875" customWidth="1"/>
-    <col min="6" max="6" width="11.875" customWidth="1"/>
-    <col min="7" max="7" width="13.25" style="35" customWidth="1"/>
+    <col min="2" max="2" width="29.7109375" customWidth="1"/>
+    <col min="3" max="3" width="78.85546875" style="41" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" style="35" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7">
       <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
@@ -4601,7 +4648,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="159" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" ht="159" customHeight="1">
       <c r="A2" s="37">
         <v>1</v>
       </c>
@@ -4624,7 +4671,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7">
       <c r="A3" s="37">
         <v>2</v>
       </c>
@@ -4645,7 +4692,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7">
       <c r="A4" s="37">
         <v>3</v>
       </c>
@@ -4668,7 +4715,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="150.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" ht="150.75" customHeight="1">
       <c r="A5" s="37">
         <v>4</v>
       </c>
@@ -4685,7 +4732,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="138.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" ht="138.75" customHeight="1">
       <c r="A6" s="37">
         <v>5</v>
       </c>
@@ -4696,7 +4743,7 @@
         <v>115</v>
       </c>
       <c r="D6" s="38" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E6" s="38"/>
       <c r="F6" s="44">
@@ -4706,7 +4753,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7">
       <c r="A7" s="37">
         <v>6</v>
       </c>
@@ -4717,7 +4764,7 @@
         <v>116</v>
       </c>
       <c r="D7" s="38" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E7" s="38"/>
       <c r="F7" s="44">
@@ -4727,7 +4774,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="188.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" ht="188.25" customHeight="1">
       <c r="A8" s="37">
         <v>7</v>
       </c>
@@ -4738,7 +4785,7 @@
         <v>117</v>
       </c>
       <c r="D8" s="38" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E8" s="38"/>
       <c r="F8" s="44">
@@ -4748,7 +4795,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="158.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7" ht="158.25" customHeight="1">
       <c r="A9" s="37">
         <v>8</v>
       </c>
@@ -4759,7 +4806,7 @@
         <v>118</v>
       </c>
       <c r="D9" s="38" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E9" s="38"/>
       <c r="F9" s="44">
@@ -4769,7 +4816,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7" ht="30">
       <c r="A10" s="37">
         <v>9</v>
       </c>
@@ -4786,7 +4833,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7">
       <c r="A11" s="37">
         <v>10</v>
       </c>
@@ -4803,7 +4850,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" ht="30">
       <c r="A12" s="37">
         <v>11</v>
       </c>
@@ -4822,7 +4869,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="98.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7" ht="98.25" customHeight="1">
       <c r="A13" s="37">
         <v>12</v>
       </c>
@@ -4839,7 +4886,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7">
       <c r="A14" s="37">
         <v>13</v>
       </c>
@@ -4856,7 +4903,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="169.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7" ht="169.5" customHeight="1">
       <c r="A15" s="37">
         <v>14</v>
       </c>
@@ -4873,7 +4920,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7">
       <c r="A16" s="37">
         <v>15</v>
       </c>
@@ -4890,7 +4937,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:7">
       <c r="A17" s="37">
         <v>16</v>
       </c>
@@ -4907,7 +4954,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:7" ht="45">
       <c r="A18" s="37">
         <v>17</v>
       </c>
@@ -4924,7 +4971,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:7">
       <c r="A19" s="37">
         <v>18</v>
       </c>
@@ -4941,7 +4988,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="128.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:7" ht="128.25" customHeight="1">
       <c r="A20" s="37">
         <v>19</v>
       </c>
@@ -4958,7 +5005,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:7">
       <c r="A21" s="37">
         <v>20</v>
       </c>
@@ -4975,7 +5022,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="138.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:7" ht="138.75" customHeight="1">
       <c r="A22" s="37">
         <v>21</v>
       </c>
@@ -4992,7 +5039,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:7">
       <c r="A23" s="37">
         <v>22</v>
       </c>
@@ -5009,7 +5056,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:7" ht="60">
       <c r="A24" s="37">
         <v>23</v>
       </c>
@@ -5026,7 +5073,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:7">
       <c r="A25" s="37">
         <v>24</v>
       </c>
@@ -5043,7 +5090,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="153.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:7" ht="153.75" customHeight="1">
       <c r="A26" s="37">
         <v>25</v>
       </c>
@@ -5051,7 +5098,7 @@
         <v>140</v>
       </c>
       <c r="C26" s="39" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D26" s="38"/>
       <c r="E26" s="38"/>
@@ -5060,43 +5107,75 @@
         <v>123</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A27" s="37"/>
-      <c r="B27" s="38"/>
-      <c r="C27" s="39"/>
+    <row r="27" spans="1:7">
+      <c r="A27" s="37">
+        <v>26</v>
+      </c>
+      <c r="B27" s="38" t="s">
+        <v>54</v>
+      </c>
+      <c r="C27" s="39" t="s">
+        <v>120</v>
+      </c>
       <c r="D27" s="38"/>
       <c r="E27" s="38"/>
       <c r="F27" s="38"/>
-      <c r="G27" s="38"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A28" s="37"/>
-      <c r="B28" s="38"/>
-      <c r="C28" s="39"/>
+      <c r="G27" s="38" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="37">
+        <v>27</v>
+      </c>
+      <c r="B28" s="38" t="s">
+        <v>146</v>
+      </c>
+      <c r="C28" s="39" t="s">
+        <v>147</v>
+      </c>
       <c r="D28" s="38"/>
       <c r="E28" s="38"/>
       <c r="F28" s="38"/>
-      <c r="G28" s="38"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A29" s="37"/>
-      <c r="B29" s="38"/>
-      <c r="C29" s="39"/>
+      <c r="G28" s="38" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="37">
+        <v>28</v>
+      </c>
+      <c r="B29" s="38" t="s">
+        <v>146</v>
+      </c>
+      <c r="C29" s="39" t="s">
+        <v>148</v>
+      </c>
       <c r="D29" s="38"/>
       <c r="E29" s="38"/>
       <c r="F29" s="38"/>
-      <c r="G29" s="38"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A30" s="37"/>
-      <c r="B30" s="38"/>
-      <c r="C30" s="39"/>
+      <c r="G29" s="38" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="114" customHeight="1">
+      <c r="A30" s="37">
+        <v>29</v>
+      </c>
+      <c r="B30" s="38" t="s">
+        <v>132</v>
+      </c>
+      <c r="C30" s="39" t="s">
+        <v>149</v>
+      </c>
       <c r="D30" s="38"/>
       <c r="E30" s="38"/>
       <c r="F30" s="38"/>
-      <c r="G30" s="38"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="G30" s="38" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="37"/>
       <c r="B31" s="38"/>
       <c r="C31" s="39"/>
@@ -5105,7 +5184,7 @@
       <c r="F31" s="38"/>
       <c r="G31" s="38"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:7">
       <c r="A32" s="37"/>
       <c r="B32" s="38"/>
       <c r="C32" s="39"/>
@@ -5114,7 +5193,7 @@
       <c r="F32" s="38"/>
       <c r="G32" s="38"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:7">
       <c r="A33" s="37"/>
       <c r="B33" s="38"/>
       <c r="C33" s="39"/>
@@ -5123,7 +5202,7 @@
       <c r="F33" s="38"/>
       <c r="G33" s="38"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:7">
       <c r="A34" s="37"/>
       <c r="B34" s="38"/>
       <c r="C34" s="39"/>
@@ -5132,7 +5211,7 @@
       <c r="F34" s="38"/>
       <c r="G34" s="38"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:7">
       <c r="A35" s="37"/>
       <c r="B35" s="38"/>
       <c r="C35" s="39"/>
@@ -5141,7 +5220,7 @@
       <c r="F35" s="38"/>
       <c r="G35" s="38"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:7">
       <c r="A36" s="37"/>
       <c r="B36" s="38"/>
       <c r="C36" s="39"/>
@@ -5150,7 +5229,7 @@
       <c r="F36" s="38"/>
       <c r="G36" s="38"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:7">
       <c r="A37" s="37"/>
       <c r="B37" s="38"/>
       <c r="C37" s="39"/>
@@ -5159,7 +5238,7 @@
       <c r="F37" s="38"/>
       <c r="G37" s="38"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:7">
       <c r="A38" s="37"/>
       <c r="B38" s="38"/>
       <c r="C38" s="39"/>
@@ -5168,7 +5247,7 @@
       <c r="F38" s="38"/>
       <c r="G38" s="38"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:7">
       <c r="A39" s="37"/>
       <c r="B39" s="38"/>
       <c r="C39" s="39"/>
@@ -5177,7 +5256,7 @@
       <c r="F39" s="38"/>
       <c r="G39" s="38"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:7">
       <c r="A40" s="37"/>
       <c r="B40" s="38"/>
       <c r="C40" s="39"/>
@@ -5186,7 +5265,7 @@
       <c r="F40" s="38"/>
       <c r="G40" s="38"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:7">
       <c r="A41" s="37"/>
       <c r="B41" s="38"/>
       <c r="C41" s="39"/>
@@ -5195,7 +5274,7 @@
       <c r="F41" s="38"/>
       <c r="G41" s="38"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:7">
       <c r="A42" s="37"/>
       <c r="B42" s="38"/>
       <c r="C42" s="39"/>
@@ -5204,7 +5283,7 @@
       <c r="F42" s="38"/>
       <c r="G42" s="38"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:7">
       <c r="A43" s="37"/>
       <c r="B43" s="38"/>
       <c r="C43" s="39"/>
@@ -5213,7 +5292,7 @@
       <c r="F43" s="38"/>
       <c r="G43" s="38"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:7">
       <c r="A44" s="37"/>
       <c r="B44" s="38"/>
       <c r="C44" s="39"/>
@@ -5222,7 +5301,7 @@
       <c r="F44" s="38"/>
       <c r="G44" s="38"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:7">
       <c r="A45" s="37"/>
       <c r="B45" s="38"/>
       <c r="C45" s="39"/>
@@ -5231,7 +5310,7 @@
       <c r="F45" s="38"/>
       <c r="G45" s="38"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:7">
       <c r="A46" s="37"/>
       <c r="B46" s="38"/>
       <c r="C46" s="39"/>
@@ -5240,7 +5319,7 @@
       <c r="F46" s="38"/>
       <c r="G46" s="38"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:7">
       <c r="A47" s="37"/>
       <c r="B47" s="38"/>
       <c r="C47" s="39"/>
@@ -5249,7 +5328,7 @@
       <c r="F47" s="38"/>
       <c r="G47" s="38"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:7">
       <c r="A48" s="37"/>
       <c r="B48" s="38"/>
       <c r="C48" s="39"/>
@@ -5258,7 +5337,7 @@
       <c r="F48" s="38"/>
       <c r="G48" s="38"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:7">
       <c r="A49" s="37"/>
       <c r="B49" s="38"/>
       <c r="C49" s="39"/>
@@ -5267,7 +5346,7 @@
       <c r="F49" s="38"/>
       <c r="G49" s="38"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:7">
       <c r="A50" s="37"/>
       <c r="B50" s="38"/>
       <c r="C50" s="39"/>
@@ -5276,7 +5355,7 @@
       <c r="F50" s="38"/>
       <c r="G50" s="38"/>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:7">
       <c r="A51" s="37"/>
       <c r="B51" s="38"/>
       <c r="C51" s="39"/>
@@ -5285,7 +5364,7 @@
       <c r="F51" s="38"/>
       <c r="G51" s="38"/>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:7">
       <c r="A52" s="37"/>
       <c r="B52" s="38"/>
       <c r="C52" s="39"/>
@@ -5294,7 +5373,7 @@
       <c r="F52" s="38"/>
       <c r="G52" s="38"/>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:7">
       <c r="A53" s="37"/>
       <c r="B53" s="38"/>
       <c r="C53" s="39"/>
@@ -5303,7 +5382,7 @@
       <c r="F53" s="38"/>
       <c r="G53" s="38"/>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:7">
       <c r="A54" s="37"/>
       <c r="B54" s="38"/>
       <c r="C54" s="39"/>
@@ -5312,7 +5391,7 @@
       <c r="F54" s="38"/>
       <c r="G54" s="38"/>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:7">
       <c r="A55" s="37"/>
       <c r="B55" s="38"/>
       <c r="C55" s="39"/>
@@ -5321,7 +5400,7 @@
       <c r="F55" s="38"/>
       <c r="G55" s="38"/>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:7">
       <c r="A56" s="37"/>
       <c r="B56" s="38"/>
       <c r="C56" s="39"/>
@@ -5330,7 +5409,7 @@
       <c r="F56" s="38"/>
       <c r="G56" s="38"/>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:7">
       <c r="A57" s="37"/>
       <c r="B57" s="17"/>
       <c r="C57" s="40"/>
@@ -5339,7 +5418,7 @@
       <c r="F57" s="17"/>
       <c r="G57" s="38"/>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:7">
       <c r="A58" s="37"/>
       <c r="B58" s="17"/>
       <c r="C58" s="40"/>
@@ -5348,7 +5427,7 @@
       <c r="F58" s="17"/>
       <c r="G58" s="38"/>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:7">
       <c r="A59" s="37"/>
       <c r="B59" s="17"/>
       <c r="C59" s="40"/>
@@ -5357,7 +5436,7 @@
       <c r="F59" s="17"/>
       <c r="G59" s="38"/>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:7">
       <c r="B60" s="17"/>
       <c r="C60" s="40"/>
       <c r="D60" s="17"/>

--- a/Docs/Testing Issue List.xlsx
+++ b/Docs/Testing Issue List.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Zhongding.git\trunk\Docs\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="25110" windowHeight="11790" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25110" windowHeight="11790" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Issue List" sheetId="1" r:id="rId1"/>
@@ -20,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="136">
   <si>
     <t>#</t>
   </si>
@@ -467,14 +472,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -500,9 +499,9 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -563,23 +562,8 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -696,31 +680,2760 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="3" builtinId="6"/>
-    <cellStyle name="百分比" xfId="4" builtinId="5"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>2705100</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>1647825</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1025" name="Picture 1" descr="rId1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7962900" y="200025"/>
+          <a:ext cx="2562225" cy="1619250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>3114675</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>2314575</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1026" name="Picture 2" descr="rId2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7924800" y="2200275"/>
+          <a:ext cx="3009900" cy="2190750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>2886075</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>876300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1027" name="Picture 3" descr="rId3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7943850" y="4638675"/>
+          <a:ext cx="2762250" cy="742950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>2400300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1028" name="Picture 4" descr="rId4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7886700" y="5553075"/>
+          <a:ext cx="5324475" cy="2295525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>2143125</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1029" name="Picture 5" descr="rId5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7953375" y="8239125"/>
+          <a:ext cx="5181600" cy="2114550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>2286000</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1030" name="Picture 6" descr="rId6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7886700" y="16935450"/>
+          <a:ext cx="9096375" cy="2200275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>2571750</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1031" name="Picture 7" descr="rId7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7981950" y="19297650"/>
+          <a:ext cx="9572625" cy="2495550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>2371725</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1032" name="Picture 8" descr="rId8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7953375" y="22269450"/>
+          <a:ext cx="8048625" cy="2286000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>2514600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>2019300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1033" name="Picture 9" descr="rId9"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7848600" y="24698325"/>
+          <a:ext cx="6972300" cy="2038350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>257175</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>1466850</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1034" name="Picture 10" descr="rId10"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7886700" y="27051000"/>
+          <a:ext cx="8229600" cy="1209675"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>2228850</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1035" name="Picture 11" descr="rId11"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7924800" y="28917900"/>
+          <a:ext cx="4552950" cy="2162175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>2409825</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1036" name="Picture 12" descr="rId12"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7848600" y="31127700"/>
+          <a:ext cx="8010525" cy="2400300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1037" name="Picture 13" descr="rId13"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7867650" y="33661350"/>
+          <a:ext cx="9334500" cy="3028950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>2286000</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1038" name="Picture 14" descr="rId14"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7839075" y="37347525"/>
+          <a:ext cx="5191125" cy="2257425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>2352675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1039" name="Picture 15" descr="rId15"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7905750" y="39671625"/>
+          <a:ext cx="8505825" cy="2457450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>1524000</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1040" name="Picture 16" descr="rId16"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7877175" y="43233975"/>
+          <a:ext cx="4781550" cy="1466850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>2647950</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2049" name="Picture 1" descr="rId1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9001125" y="219075"/>
+          <a:ext cx="8753475" cy="2619375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>1619250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2050" name="Picture 2" descr="rId2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8972550" y="13687425"/>
+          <a:ext cx="10115550" cy="1504950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>2657475</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>2390775</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2051" name="Picture 3" descr="rId3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9020175" y="17887950"/>
+          <a:ext cx="8572500" cy="2409825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>2990850</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>2428875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2052" name="Picture 4" descr="rId4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9010650" y="21193125"/>
+          <a:ext cx="2914650" cy="2390775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>2419350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2053" name="Picture 5" descr="rId5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9029700" y="23631525"/>
+          <a:ext cx="8143875" cy="2419350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>2476500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2054" name="Picture 6" descr="rId6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8934450" y="26355675"/>
+          <a:ext cx="8648700" cy="2428875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>2447925</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2055" name="Picture 7" descr="rId7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9001125" y="29022675"/>
+          <a:ext cx="5581650" cy="2409825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>2638425</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2056" name="Picture 8" descr="rId8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9029700" y="31527750"/>
+          <a:ext cx="5391150" cy="2571750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>2362200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2057" name="Picture 9" descr="rId9"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9115425" y="34232850"/>
+          <a:ext cx="8020050" cy="2266950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>2066925</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3073" name="Picture 1" descr="rId1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10258425" y="1323975"/>
+          <a:ext cx="3467100" cy="2000250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>1590675</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3074" name="Picture 2" descr="rId2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="13620750" y="1304925"/>
+          <a:ext cx="4095750" cy="1543050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>1905000</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3075" name="Picture 3" descr="rId3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10067925" y="5029200"/>
+          <a:ext cx="3971925" cy="1895475"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>2105025</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3076" name="Picture 4" descr="rId4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10115550" y="7477125"/>
+          <a:ext cx="5153025" cy="2076450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3077" name="Picture 5" descr="rId5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10106025" y="10944225"/>
+          <a:ext cx="3829050" cy="1619250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>1981200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4097" name="Picture 1" descr="rId1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10991850" y="200025"/>
+          <a:ext cx="4876800" cy="1971675"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>1876425</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4098" name="Picture 2" descr="rId2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="11029950" y="2609850"/>
+          <a:ext cx="2219325" cy="1857375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>1685925</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4099" name="Picture 3" descr="rId3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="11029950" y="4543425"/>
+          <a:ext cx="8620125" cy="1647825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>1581150</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4100" name="Picture 4" descr="rId4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10982325" y="6448425"/>
+          <a:ext cx="6534150" cy="1590675"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>2381250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>1857375</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4101" name="Picture 5" descr="rId5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="11077575" y="8839200"/>
+          <a:ext cx="6553200" cy="1866900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>1981200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4102" name="Picture 6" descr="rId6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="11058525" y="13258800"/>
+          <a:ext cx="4286250" cy="1971675"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>1533525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4103" name="Picture 7" descr="rId7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="11049000" y="16573500"/>
+          <a:ext cx="4029075" cy="1504950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4104" name="Picture 8" descr="rId8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="11029950" y="18364200"/>
+          <a:ext cx="2457450" cy="1857375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4105" name="Picture 9" descr="rId9"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="11039475" y="21088350"/>
+          <a:ext cx="3295650" cy="1990725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>1419225</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4106" name="Picture 10" descr="rId10"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10982325" y="23622000"/>
+          <a:ext cx="3905250" cy="1400175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1018,6 +3731,7 @@
           </a:gdLst>
           <a:ahLst/>
           <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
           <a:pathLst>
             <a:path w="21600" h="21600"/>
           </a:pathLst>
@@ -1050,29 +3764,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
-      <selection/>
       <selection pane="bottomLeft" activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="11.1428571428571" style="31" customWidth="1"/>
-    <col min="2" max="2" width="22.8571428571429" style="32" customWidth="1"/>
-    <col min="3" max="3" width="34.5714285714286" style="33" customWidth="1"/>
-    <col min="4" max="4" width="18.7142857142857" style="34" customWidth="1"/>
-    <col min="5" max="5" width="15.5714285714286" style="32" customWidth="1"/>
-    <col min="6" max="6" width="14.4285714285714" style="32" customWidth="1"/>
-    <col min="7" max="7" width="51.8571428571429" style="32" customWidth="1"/>
-    <col min="8" max="16384" width="9.14285714285714" style="32"/>
+    <col min="1" max="1" width="11.140625" style="31" customWidth="1"/>
+    <col min="2" max="2" width="22.85546875" style="32" customWidth="1"/>
+    <col min="3" max="3" width="34.5703125" style="33" customWidth="1"/>
+    <col min="4" max="4" width="18.7109375" style="34" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" style="32" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="32" customWidth="1"/>
+    <col min="7" max="7" width="51.85546875" style="32" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="32"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
@@ -1093,7 +3805,7 @@
       </c>
       <c r="G1" s="7"/>
     </row>
-    <row r="2" ht="133.5" customHeight="1" spans="1:7">
+    <row r="2" spans="1:7" ht="133.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="35">
         <v>1</v>
       </c>
@@ -1114,7 +3826,7 @@
       </c>
       <c r="G2" s="36"/>
     </row>
-    <row r="3" ht="16.5" spans="1:7">
+    <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="35">
         <v>2</v>
       </c>
@@ -1133,7 +3845,7 @@
       <c r="F3" s="36"/>
       <c r="G3" s="36"/>
     </row>
-    <row r="4" ht="191.25" customHeight="1" spans="1:7">
+    <row r="4" spans="1:7" ht="191.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="35">
         <v>3</v>
       </c>
@@ -1154,7 +3866,7 @@
       </c>
       <c r="G4" s="36"/>
     </row>
-    <row r="5" ht="74.25" customHeight="1" spans="1:7">
+    <row r="5" spans="1:7" ht="74.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="35">
         <v>4</v>
       </c>
@@ -1175,7 +3887,7 @@
       </c>
       <c r="G5" s="36"/>
     </row>
-    <row r="6" ht="217.5" customHeight="1" spans="1:7">
+    <row r="6" spans="1:7" ht="217.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="35">
         <v>5</v>
       </c>
@@ -1196,7 +3908,7 @@
       </c>
       <c r="G6" s="36"/>
     </row>
-    <row r="7" ht="172.5" customHeight="1" spans="1:7">
+    <row r="7" spans="1:7" ht="172.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="35">
         <v>6</v>
       </c>
@@ -1217,7 +3929,7 @@
       </c>
       <c r="G7" s="36"/>
     </row>
-    <row r="8" ht="243.75" customHeight="1" spans="1:7">
+    <row r="8" spans="1:7" ht="243.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="35">
         <v>7</v>
       </c>
@@ -1234,7 +3946,7 @@
       <c r="F8" s="36"/>
       <c r="G8" s="36"/>
     </row>
-    <row r="9" ht="49.5" spans="1:7">
+    <row r="9" spans="1:7" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A9" s="35">
         <v>8</v>
       </c>
@@ -1251,7 +3963,7 @@
       <c r="F9" s="36"/>
       <c r="G9" s="36"/>
     </row>
-    <row r="10" ht="16.5" spans="1:7">
+    <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A10" s="35">
         <v>9</v>
       </c>
@@ -1272,7 +3984,7 @@
       </c>
       <c r="G10" s="36"/>
     </row>
-    <row r="11" ht="16.5" spans="1:7">
+    <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A11" s="35">
         <v>10</v>
       </c>
@@ -1293,7 +4005,7 @@
       </c>
       <c r="G11" s="36"/>
     </row>
-    <row r="12" ht="33" spans="1:7">
+    <row r="12" spans="1:7" ht="33" x14ac:dyDescent="0.15">
       <c r="A12" s="35">
         <v>11</v>
       </c>
@@ -1314,7 +4026,7 @@
       </c>
       <c r="G12" s="36"/>
     </row>
-    <row r="13" ht="33" spans="1:7">
+    <row r="13" spans="1:7" ht="33" x14ac:dyDescent="0.15">
       <c r="A13" s="35">
         <v>12</v>
       </c>
@@ -1335,7 +4047,7 @@
       </c>
       <c r="G13" s="36"/>
     </row>
-    <row r="14" ht="66" spans="1:7">
+    <row r="14" spans="1:7" ht="66" x14ac:dyDescent="0.15">
       <c r="A14" s="35">
         <v>13</v>
       </c>
@@ -1356,7 +4068,7 @@
       </c>
       <c r="G14" s="36"/>
     </row>
-    <row r="15" ht="33" spans="1:7">
+    <row r="15" spans="1:7" ht="33" x14ac:dyDescent="0.15">
       <c r="A15" s="35">
         <v>14</v>
       </c>
@@ -1377,7 +4089,7 @@
       </c>
       <c r="G15" s="36"/>
     </row>
-    <row r="16" ht="16.5" spans="1:7">
+    <row r="16" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A16" s="35">
         <v>15</v>
       </c>
@@ -1398,7 +4110,7 @@
       </c>
       <c r="G16" s="36"/>
     </row>
-    <row r="17" ht="186.75" customHeight="1" spans="1:7">
+    <row r="17" spans="1:7" ht="186.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="35">
         <v>16</v>
       </c>
@@ -1419,7 +4131,7 @@
       </c>
       <c r="G17" s="36"/>
     </row>
-    <row r="18" ht="216.75" customHeight="1" spans="1:7">
+    <row r="18" spans="1:7" ht="216.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="35">
         <v>17</v>
       </c>
@@ -1440,7 +4152,7 @@
       </c>
       <c r="G18" s="36"/>
     </row>
-    <row r="19" ht="16.5" spans="1:7">
+    <row r="19" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A19" s="35">
         <v>18</v>
       </c>
@@ -1461,7 +4173,7 @@
       </c>
       <c r="G19" s="36"/>
     </row>
-    <row r="20" ht="199.5" customHeight="1" spans="1:7">
+    <row r="20" spans="1:7" ht="199.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="35">
         <v>19</v>
       </c>
@@ -1480,7 +4192,7 @@
       </c>
       <c r="G20" s="36"/>
     </row>
-    <row r="21" ht="163.5" customHeight="1" spans="1:7">
+    <row r="21" spans="1:7" ht="163.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="35">
         <v>20</v>
       </c>
@@ -1499,7 +4211,7 @@
       </c>
       <c r="G21" s="36"/>
     </row>
-    <row r="22" ht="162" customHeight="1" spans="1:7">
+    <row r="22" spans="1:7" ht="162" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="35">
         <v>21</v>
       </c>
@@ -1516,7 +4228,7 @@
       <c r="F22" s="36"/>
       <c r="G22" s="36"/>
     </row>
-    <row r="23" ht="178.5" customHeight="1" spans="1:7">
+    <row r="23" spans="1:7" ht="178.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="35">
         <v>22</v>
       </c>
@@ -1537,7 +4249,7 @@
       </c>
       <c r="G23" s="36"/>
     </row>
-    <row r="24" ht="198" customHeight="1" spans="1:7">
+    <row r="24" spans="1:7" ht="198" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="35">
         <v>23</v>
       </c>
@@ -1558,7 +4270,7 @@
       </c>
       <c r="G24" s="36"/>
     </row>
-    <row r="25" ht="240.75" customHeight="1" spans="1:7">
+    <row r="25" spans="1:7" ht="240.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="35">
         <v>24</v>
       </c>
@@ -1579,7 +4291,7 @@
       </c>
       <c r="G25" s="36"/>
     </row>
-    <row r="26" ht="49.5" spans="1:7">
+    <row r="26" spans="1:7" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A26" s="35">
         <v>25</v>
       </c>
@@ -1600,7 +4312,7 @@
       </c>
       <c r="G26" s="36"/>
     </row>
-    <row r="27" ht="190.5" customHeight="1" spans="1:7">
+    <row r="27" spans="1:7" ht="190.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="35">
         <v>26</v>
       </c>
@@ -1621,7 +4333,7 @@
       </c>
       <c r="G27" s="36"/>
     </row>
-    <row r="28" ht="188.25" customHeight="1" spans="1:7">
+    <row r="28" spans="1:7" ht="188.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="35">
         <v>27</v>
       </c>
@@ -1642,7 +4354,7 @@
       </c>
       <c r="G28" s="36"/>
     </row>
-    <row r="29" ht="33" spans="1:7">
+    <row r="29" spans="1:7" ht="33" x14ac:dyDescent="0.15">
       <c r="A29" s="35">
         <v>28</v>
       </c>
@@ -1663,7 +4375,7 @@
       </c>
       <c r="G29" s="36"/>
     </row>
-    <row r="30" ht="16.5" spans="1:7">
+    <row r="30" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A30" s="35">
         <v>29</v>
       </c>
@@ -1684,7 +4396,7 @@
       </c>
       <c r="G30" s="36"/>
     </row>
-    <row r="31" ht="33" spans="1:7">
+    <row r="31" spans="1:7" ht="33" x14ac:dyDescent="0.15">
       <c r="A31" s="35">
         <v>30</v>
       </c>
@@ -1705,7 +4417,7 @@
       </c>
       <c r="G31" s="36"/>
     </row>
-    <row r="32" ht="121.5" customHeight="1" spans="1:7">
+    <row r="32" spans="1:7" ht="121.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="35">
         <v>31</v>
       </c>
@@ -1726,7 +4438,7 @@
       </c>
       <c r="G32" s="36"/>
     </row>
-    <row r="33" ht="99" spans="1:7">
+    <row r="33" spans="1:7" ht="99" x14ac:dyDescent="0.15">
       <c r="A33" s="35">
         <v>32</v>
       </c>
@@ -1747,7 +4459,7 @@
       </c>
       <c r="G33" s="36"/>
     </row>
-    <row r="34" ht="49.5" spans="1:7">
+    <row r="34" spans="1:7" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A34" s="35">
         <v>33</v>
       </c>
@@ -1768,7 +4480,7 @@
       </c>
       <c r="G34" s="36"/>
     </row>
-    <row r="35" ht="16.5" spans="1:7">
+    <row r="35" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A35" s="35">
         <v>34</v>
       </c>
@@ -1789,7 +4501,7 @@
       </c>
       <c r="G35" s="39"/>
     </row>
-    <row r="36" ht="66" spans="1:7">
+    <row r="36" spans="1:7" ht="66" x14ac:dyDescent="0.35">
       <c r="A36" s="35">
         <v>35</v>
       </c>
@@ -1810,7 +4522,7 @@
       </c>
       <c r="G36" s="39"/>
     </row>
-    <row r="37" ht="207" customHeight="1" spans="1:7">
+    <row r="37" spans="1:7" ht="207" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="35"/>
       <c r="B37" s="26"/>
       <c r="C37" s="27"/>
@@ -1819,7 +4531,7 @@
       <c r="F37" s="39"/>
       <c r="G37" s="39"/>
     </row>
-    <row r="38" ht="16.5" spans="1:7">
+    <row r="38" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A38" s="35"/>
       <c r="B38" s="39"/>
       <c r="C38" s="27"/>
@@ -1828,7 +4540,7 @@
       <c r="F38" s="39"/>
       <c r="G38" s="39"/>
     </row>
-    <row r="39" ht="16.5" spans="1:7">
+    <row r="39" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A39" s="35"/>
       <c r="B39" s="39"/>
       <c r="C39" s="27"/>
@@ -1837,7 +4549,7 @@
       <c r="F39" s="39"/>
       <c r="G39" s="39"/>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A40" s="41"/>
       <c r="B40" s="42"/>
       <c r="C40" s="43"/>
@@ -1846,7 +4558,7 @@
       <c r="F40" s="42"/>
       <c r="G40" s="42"/>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A41" s="22"/>
       <c r="B41" s="7"/>
       <c r="C41" s="5"/>
@@ -1857,37 +4569,34 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:G36"/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait"/>
   <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection/>
       <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.8571428571429" customWidth="1"/>
-    <col min="2" max="2" width="15.8571428571429" customWidth="1"/>
+    <col min="1" max="1" width="11.85546875" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" customWidth="1"/>
     <col min="3" max="3" width="56" customWidth="1"/>
-    <col min="4" max="4" width="15.4285714285714" customWidth="1"/>
-    <col min="5" max="5" width="15.8571428571429" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" customWidth="1"/>
     <col min="6" max="6" width="19" customWidth="1"/>
-    <col min="7" max="7" width="61.8571428571429" customWidth="1"/>
+    <col min="7" max="7" width="61.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
@@ -1908,7 +4617,7 @@
       </c>
       <c r="G1" s="7"/>
     </row>
-    <row r="2" ht="210.75" customHeight="1" spans="1:7">
+    <row r="2" spans="1:7" ht="210.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10">
         <v>1</v>
       </c>
@@ -1929,7 +4638,7 @@
       </c>
       <c r="G2" s="17"/>
     </row>
-    <row r="3" ht="210.75" customHeight="1" spans="1:7">
+    <row r="3" spans="1:7" ht="210.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="10">
         <v>2</v>
       </c>
@@ -1950,7 +4659,7 @@
       </c>
       <c r="G3" s="17"/>
     </row>
-    <row r="4" ht="210.75" customHeight="1" spans="1:7">
+    <row r="4" spans="1:7" ht="210.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10">
         <v>3</v>
       </c>
@@ -1969,7 +4678,7 @@
       </c>
       <c r="G4" s="17"/>
     </row>
-    <row r="5" ht="210.75" customHeight="1" spans="1:7">
+    <row r="5" spans="1:7" ht="210.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10">
         <v>4</v>
       </c>
@@ -1988,7 +4697,7 @@
       </c>
       <c r="G5" s="17"/>
     </row>
-    <row r="6" ht="210.75" customHeight="1" spans="1:7">
+    <row r="6" spans="1:7" ht="210.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="10">
         <v>5</v>
       </c>
@@ -2007,7 +4716,7 @@
       </c>
       <c r="G6" s="17"/>
     </row>
-    <row r="7" ht="130.5" customHeight="1" spans="1:7">
+    <row r="7" spans="1:7" ht="130.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="10">
         <v>6</v>
       </c>
@@ -2026,7 +4735,7 @@
       </c>
       <c r="G7" s="17"/>
     </row>
-    <row r="8" ht="210.75" customHeight="1" spans="1:7">
+    <row r="8" spans="1:7" ht="210.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="10">
         <v>7</v>
       </c>
@@ -2047,7 +4756,7 @@
       </c>
       <c r="G8" s="17"/>
     </row>
-    <row r="9" ht="210.75" customHeight="1" spans="1:7">
+    <row r="9" spans="1:7" ht="210.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="10">
         <v>8</v>
       </c>
@@ -2068,7 +4777,7 @@
       </c>
       <c r="G9" s="17"/>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="10">
         <v>9</v>
       </c>
@@ -2089,7 +4798,7 @@
       </c>
       <c r="G10" s="17"/>
     </row>
-    <row r="11" ht="28.5" spans="1:7">
+    <row r="11" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="10">
         <v>10</v>
       </c>
@@ -2110,7 +4819,7 @@
       </c>
       <c r="G11" s="17"/>
     </row>
-    <row r="12" ht="195" customHeight="1" spans="1:7">
+    <row r="12" spans="1:7" ht="195" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="10">
         <v>11</v>
       </c>
@@ -2129,7 +4838,7 @@
       <c r="F12" s="12"/>
       <c r="G12" s="17"/>
     </row>
-    <row r="13" ht="210.75" customHeight="1" spans="1:7">
+    <row r="13" spans="1:7" ht="210.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="10">
         <v>12</v>
       </c>
@@ -2150,7 +4859,7 @@
       </c>
       <c r="G13" s="17"/>
     </row>
-    <row r="14" ht="210.75" customHeight="1" spans="1:7">
+    <row r="14" spans="1:7" ht="210.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="10">
         <v>13</v>
       </c>
@@ -2169,7 +4878,7 @@
       <c r="F14" s="12"/>
       <c r="G14" s="17"/>
     </row>
-    <row r="15" ht="195" customHeight="1" spans="1:7">
+    <row r="15" spans="1:7" ht="195" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="10">
         <v>14</v>
       </c>
@@ -2188,7 +4897,7 @@
       <c r="F15" s="12"/>
       <c r="G15" s="17"/>
     </row>
-    <row r="16" ht="210.75" customHeight="1" spans="1:7">
+    <row r="16" spans="1:7" ht="210.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="10">
         <v>15</v>
       </c>
@@ -2209,7 +4918,7 @@
       </c>
       <c r="G16" s="17"/>
     </row>
-    <row r="17" ht="210.75" customHeight="1" spans="1:7">
+    <row r="17" spans="1:7" ht="210.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="10">
         <v>16</v>
       </c>
@@ -2228,7 +4937,7 @@
       <c r="F17" s="12"/>
       <c r="G17" s="17"/>
     </row>
-    <row r="18" ht="210.75" customHeight="1" spans="1:7">
+    <row r="18" spans="1:7" ht="210.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="10">
         <v>17</v>
       </c>
@@ -2239,7 +4948,7 @@
       <c r="F18" s="10"/>
       <c r="G18" s="17"/>
     </row>
-    <row r="19" ht="210.75" customHeight="1" spans="1:7">
+    <row r="19" spans="1:7" ht="210.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="10"/>
       <c r="B19" s="10"/>
       <c r="C19" s="25"/>
@@ -2248,7 +4957,7 @@
       <c r="F19" s="10"/>
       <c r="G19" s="17"/>
     </row>
-    <row r="20" ht="210.75" customHeight="1" spans="1:7">
+    <row r="20" spans="1:7" ht="210.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="10"/>
       <c r="B20" s="10"/>
       <c r="C20" s="25"/>
@@ -2257,7 +4966,7 @@
       <c r="F20" s="10"/>
       <c r="G20" s="17"/>
     </row>
-    <row r="21" ht="210.75" customHeight="1" spans="1:7">
+    <row r="21" spans="1:7" ht="210.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="10"/>
       <c r="B21" s="10"/>
       <c r="C21" s="25"/>
@@ -2266,7 +4975,7 @@
       <c r="F21" s="10"/>
       <c r="G21" s="17"/>
     </row>
-    <row r="22" ht="210.75" customHeight="1" spans="1:7">
+    <row r="22" spans="1:7" ht="210.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="10"/>
       <c r="B22" s="10"/>
       <c r="C22" s="25"/>
@@ -2275,7 +4984,7 @@
       <c r="F22" s="10"/>
       <c r="G22" s="17"/>
     </row>
-    <row r="23" ht="210.75" customHeight="1" spans="1:7">
+    <row r="23" spans="1:7" ht="210.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="10"/>
       <c r="B23" s="10"/>
       <c r="C23" s="25"/>
@@ -2284,7 +4993,7 @@
       <c r="F23" s="10"/>
       <c r="G23" s="17"/>
     </row>
-    <row r="24" ht="210.75" customHeight="1" spans="1:7">
+    <row r="24" spans="1:7" ht="210.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="10"/>
       <c r="B24" s="10"/>
       <c r="C24" s="25"/>
@@ -2293,7 +5002,7 @@
       <c r="F24" s="10"/>
       <c r="G24" s="17"/>
     </row>
-    <row r="25" ht="210.75" customHeight="1" spans="1:7">
+    <row r="25" spans="1:7" ht="210.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="10"/>
       <c r="B25" s="10"/>
       <c r="C25" s="25"/>
@@ -2302,7 +5011,7 @@
       <c r="F25" s="10"/>
       <c r="G25" s="17"/>
     </row>
-    <row r="26" ht="210.75" customHeight="1" spans="1:7">
+    <row r="26" spans="1:7" ht="210.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="10"/>
       <c r="B26" s="10"/>
       <c r="C26" s="25"/>
@@ -2311,7 +5020,7 @@
       <c r="F26" s="10"/>
       <c r="G26" s="17"/>
     </row>
-    <row r="27" ht="210.75" customHeight="1" spans="1:7">
+    <row r="27" spans="1:7" ht="210.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="10"/>
       <c r="B27" s="10"/>
       <c r="C27" s="25"/>
@@ -2320,7 +5029,7 @@
       <c r="F27" s="10"/>
       <c r="G27" s="17"/>
     </row>
-    <row r="28" ht="210.75" customHeight="1" spans="1:7">
+    <row r="28" spans="1:7" ht="210.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="10"/>
       <c r="B28" s="10"/>
       <c r="C28" s="25"/>
@@ -2329,7 +5038,7 @@
       <c r="F28" s="10"/>
       <c r="G28" s="17"/>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="17"/>
       <c r="B29" s="17"/>
       <c r="C29" s="17"/>
@@ -2338,7 +5047,7 @@
       <c r="F29" s="17"/>
       <c r="G29" s="17"/>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="17"/>
       <c r="B30" s="17"/>
       <c r="C30" s="17"/>
@@ -2347,7 +5056,7 @@
       <c r="F30" s="17"/>
       <c r="G30" s="17"/>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="17"/>
       <c r="B31" s="17"/>
       <c r="C31" s="17"/>
@@ -2356,7 +5065,7 @@
       <c r="F31" s="17"/>
       <c r="G31" s="17"/>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="17"/>
       <c r="B32" s="17"/>
       <c r="C32" s="17"/>
@@ -2365,7 +5074,7 @@
       <c r="F32" s="17"/>
       <c r="G32" s="17"/>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="17"/>
       <c r="B33" s="17"/>
       <c r="C33" s="17"/>
@@ -2374,7 +5083,7 @@
       <c r="F33" s="17"/>
       <c r="G33" s="17"/>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="17"/>
       <c r="B34" s="17"/>
       <c r="C34" s="17"/>
@@ -2383,7 +5092,7 @@
       <c r="F34" s="17"/>
       <c r="G34" s="17"/>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="17"/>
       <c r="B35" s="17"/>
       <c r="C35" s="17"/>
@@ -2392,7 +5101,7 @@
       <c r="F35" s="17"/>
       <c r="G35" s="17"/>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="17"/>
       <c r="B36" s="17"/>
       <c r="C36" s="17"/>
@@ -2401,7 +5110,7 @@
       <c r="F36" s="17"/>
       <c r="G36" s="17"/>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="17"/>
       <c r="B37" s="17"/>
       <c r="C37" s="17"/>
@@ -2410,7 +5119,7 @@
       <c r="F37" s="17"/>
       <c r="G37" s="17"/>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="17"/>
       <c r="B38" s="17"/>
       <c r="C38" s="17"/>
@@ -2419,7 +5128,7 @@
       <c r="F38" s="17"/>
       <c r="G38" s="17"/>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="17"/>
       <c r="B39" s="17"/>
       <c r="C39" s="17"/>
@@ -2428,7 +5137,7 @@
       <c r="F39" s="17"/>
       <c r="G39" s="17"/>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="17"/>
       <c r="B40" s="17"/>
       <c r="C40" s="17"/>
@@ -2437,7 +5146,7 @@
       <c r="F40" s="17"/>
       <c r="G40" s="17"/>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="17"/>
       <c r="B41" s="17"/>
       <c r="C41" s="17"/>
@@ -2446,7 +5155,7 @@
       <c r="F41" s="17"/>
       <c r="G41" s="17"/>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="17"/>
       <c r="B42" s="17"/>
       <c r="C42" s="17"/>
@@ -2455,7 +5164,7 @@
       <c r="F42" s="17"/>
       <c r="G42" s="17"/>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="17"/>
       <c r="B43" s="17"/>
       <c r="C43" s="17"/>
@@ -2464,7 +5173,7 @@
       <c r="F43" s="17"/>
       <c r="G43" s="17"/>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="17"/>
       <c r="B44" s="17"/>
       <c r="C44" s="17"/>
@@ -2473,7 +5182,7 @@
       <c r="F44" s="17"/>
       <c r="G44" s="17"/>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="17"/>
       <c r="B45" s="17"/>
       <c r="C45" s="17"/>
@@ -2482,7 +5191,7 @@
       <c r="F45" s="17"/>
       <c r="G45" s="17"/>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="17"/>
       <c r="B46" s="17"/>
       <c r="C46" s="17"/>
@@ -2491,7 +5200,7 @@
       <c r="F46" s="17"/>
       <c r="G46" s="17"/>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="17"/>
       <c r="B47" s="17"/>
       <c r="C47" s="17"/>
@@ -2500,7 +5209,7 @@
       <c r="F47" s="17"/>
       <c r="G47" s="17"/>
     </row>
-    <row r="48" spans="1:7">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="17"/>
       <c r="B48" s="17"/>
       <c r="C48" s="17"/>
@@ -2509,7 +5218,7 @@
       <c r="F48" s="17"/>
       <c r="G48" s="17"/>
     </row>
-    <row r="49" spans="1:7">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="17"/>
       <c r="B49" s="17"/>
       <c r="C49" s="17"/>
@@ -2518,7 +5227,7 @@
       <c r="F49" s="17"/>
       <c r="G49" s="17"/>
     </row>
-    <row r="50" spans="1:7">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="17"/>
       <c r="B50" s="17"/>
       <c r="C50" s="17"/>
@@ -2527,7 +5236,7 @@
       <c r="F50" s="17"/>
       <c r="G50" s="17"/>
     </row>
-    <row r="51" spans="1:7">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="17"/>
       <c r="B51" s="17"/>
       <c r="C51" s="17"/>
@@ -2536,7 +5245,7 @@
       <c r="F51" s="17"/>
       <c r="G51" s="17"/>
     </row>
-    <row r="52" spans="1:7">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="17"/>
       <c r="B52" s="17"/>
       <c r="C52" s="17"/>
@@ -2545,7 +5254,7 @@
       <c r="F52" s="17"/>
       <c r="G52" s="17"/>
     </row>
-    <row r="53" spans="1:7">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="17"/>
       <c r="B53" s="17"/>
       <c r="C53" s="17"/>
@@ -2554,7 +5263,7 @@
       <c r="F53" s="17"/>
       <c r="G53" s="17"/>
     </row>
-    <row r="54" spans="1:7">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="17"/>
       <c r="B54" s="17"/>
       <c r="C54" s="17"/>
@@ -2563,7 +5272,7 @@
       <c r="F54" s="17"/>
       <c r="G54" s="17"/>
     </row>
-    <row r="55" spans="1:7">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="17"/>
       <c r="B55" s="17"/>
       <c r="C55" s="17"/>
@@ -2572,7 +5281,7 @@
       <c r="F55" s="17"/>
       <c r="G55" s="17"/>
     </row>
-    <row r="56" spans="1:7">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="17"/>
       <c r="B56" s="17"/>
       <c r="C56" s="17"/>
@@ -2581,7 +5290,7 @@
       <c r="F56" s="17"/>
       <c r="G56" s="17"/>
     </row>
-    <row r="57" spans="1:7">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="17"/>
       <c r="B57" s="17"/>
       <c r="C57" s="17"/>
@@ -2590,7 +5299,7 @@
       <c r="F57" s="17"/>
       <c r="G57" s="17"/>
     </row>
-    <row r="58" spans="1:7">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="17"/>
       <c r="B58" s="17"/>
       <c r="C58" s="17"/>
@@ -2599,7 +5308,7 @@
       <c r="F58" s="17"/>
       <c r="G58" s="17"/>
     </row>
-    <row r="59" spans="1:7">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="17"/>
       <c r="B59" s="17"/>
       <c r="C59" s="17"/>
@@ -2608,7 +5317,7 @@
       <c r="F59" s="17"/>
       <c r="G59" s="17"/>
     </row>
-    <row r="60" spans="1:7">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="17"/>
       <c r="B60" s="17"/>
       <c r="C60" s="17"/>
@@ -2617,7 +5326,7 @@
       <c r="F60" s="17"/>
       <c r="G60" s="17"/>
     </row>
-    <row r="61" spans="1:7">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="17"/>
       <c r="B61" s="17"/>
       <c r="C61" s="17"/>
@@ -2626,7 +5335,7 @@
       <c r="F61" s="17"/>
       <c r="G61" s="17"/>
     </row>
-    <row r="62" spans="1:7">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="17"/>
       <c r="B62" s="17"/>
       <c r="C62" s="17"/>
@@ -2635,7 +5344,7 @@
       <c r="F62" s="17"/>
       <c r="G62" s="17"/>
     </row>
-    <row r="63" spans="1:7">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="17"/>
       <c r="B63" s="17"/>
       <c r="C63" s="17"/>
@@ -2644,7 +5353,7 @@
       <c r="F63" s="17"/>
       <c r="G63" s="17"/>
     </row>
-    <row r="64" spans="1:7">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="17"/>
       <c r="B64" s="17"/>
       <c r="C64" s="17"/>
@@ -2653,7 +5362,7 @@
       <c r="F64" s="17"/>
       <c r="G64" s="17"/>
     </row>
-    <row r="65" spans="1:7">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="17"/>
       <c r="B65" s="17"/>
       <c r="C65" s="17"/>
@@ -2662,7 +5371,7 @@
       <c r="F65" s="17"/>
       <c r="G65" s="17"/>
     </row>
-    <row r="66" spans="1:7">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="17"/>
       <c r="B66" s="17"/>
       <c r="C66" s="17"/>
@@ -2671,7 +5380,7 @@
       <c r="F66" s="17"/>
       <c r="G66" s="17"/>
     </row>
-    <row r="67" spans="1:7">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="17"/>
       <c r="B67" s="17"/>
       <c r="C67" s="17"/>
@@ -2680,7 +5389,7 @@
       <c r="F67" s="17"/>
       <c r="G67" s="17"/>
     </row>
-    <row r="68" spans="1:7">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="17"/>
       <c r="B68" s="17"/>
       <c r="C68" s="17"/>
@@ -2689,7 +5398,7 @@
       <c r="F68" s="17"/>
       <c r="G68" s="17"/>
     </row>
-    <row r="69" spans="1:7">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="17"/>
       <c r="B69" s="17"/>
       <c r="C69" s="17"/>
@@ -2698,7 +5407,7 @@
       <c r="F69" s="17"/>
       <c r="G69" s="17"/>
     </row>
-    <row r="70" spans="1:7">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="17"/>
       <c r="B70" s="17"/>
       <c r="C70" s="17"/>
@@ -2707,7 +5416,7 @@
       <c r="F70" s="17"/>
       <c r="G70" s="17"/>
     </row>
-    <row r="71" spans="1:7">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="17"/>
       <c r="B71" s="17"/>
       <c r="C71" s="17"/>
@@ -2716,7 +5425,7 @@
       <c r="F71" s="17"/>
       <c r="G71" s="17"/>
     </row>
-    <row r="72" spans="1:7">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="17"/>
       <c r="B72" s="17"/>
       <c r="C72" s="17"/>
@@ -2725,7 +5434,7 @@
       <c r="F72" s="17"/>
       <c r="G72" s="17"/>
     </row>
-    <row r="73" spans="1:7">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="17"/>
       <c r="B73" s="17"/>
       <c r="C73" s="17"/>
@@ -2734,7 +5443,7 @@
       <c r="F73" s="17"/>
       <c r="G73" s="17"/>
     </row>
-    <row r="74" spans="1:7">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="17"/>
       <c r="B74" s="17"/>
       <c r="C74" s="17"/>
@@ -2743,7 +5452,7 @@
       <c r="F74" s="17"/>
       <c r="G74" s="17"/>
     </row>
-    <row r="75" spans="1:7">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="17"/>
       <c r="B75" s="17"/>
       <c r="C75" s="17"/>
@@ -2752,7 +5461,7 @@
       <c r="F75" s="17"/>
       <c r="G75" s="17"/>
     </row>
-    <row r="76" spans="1:7">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="17"/>
       <c r="B76" s="17"/>
       <c r="C76" s="17"/>
@@ -2761,7 +5470,7 @@
       <c r="F76" s="17"/>
       <c r="G76" s="17"/>
     </row>
-    <row r="77" spans="1:7">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="17"/>
       <c r="B77" s="17"/>
       <c r="C77" s="17"/>
@@ -2771,34 +5480,32 @@
       <c r="G77" s="17"/>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
   <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="18.7142857142857" style="20" customWidth="1"/>
-    <col min="3" max="3" width="86.1428571428571" style="21" customWidth="1"/>
-    <col min="4" max="4" width="14.5714285714286" style="20" customWidth="1"/>
-    <col min="5" max="5" width="11.8571428571429" style="20" customWidth="1"/>
-    <col min="6" max="6" width="10.5714285714286" customWidth="1"/>
-    <col min="7" max="7" width="49.4285714285714" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" style="20" customWidth="1"/>
+    <col min="3" max="3" width="86.140625" style="21" customWidth="1"/>
+    <col min="4" max="4" width="14.5703125" style="20" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" style="20" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" customWidth="1"/>
+    <col min="7" max="7" width="49.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
@@ -2818,7 +5525,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" ht="84" customHeight="1" spans="1:6">
+    <row r="2" spans="1:7" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10">
         <v>1</v>
       </c>
@@ -2838,7 +5545,7 @@
         <v>42076</v>
       </c>
     </row>
-    <row r="3" ht="176.25" customHeight="1" spans="1:6">
+    <row r="3" spans="1:7" ht="176.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="10">
         <v>2</v>
       </c>
@@ -2858,7 +5565,7 @@
         <v>42076</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="10">
         <v>3</v>
       </c>
@@ -2876,7 +5583,7 @@
         <v>42075</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="10">
         <v>4</v>
       </c>
@@ -2894,7 +5601,7 @@
         <v>42075</v>
       </c>
     </row>
-    <row r="6" ht="87" spans="1:6">
+    <row r="6" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A6" s="10">
         <v>5</v>
       </c>
@@ -2912,7 +5619,7 @@
         <v>42075</v>
       </c>
     </row>
-    <row r="7" ht="152.25" customHeight="1" spans="1:7">
+    <row r="7" spans="1:7" ht="152.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="10">
         <v>6</v>
       </c>
@@ -2931,7 +5638,7 @@
       </c>
       <c r="G7" s="28"/>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="10">
         <v>7</v>
       </c>
@@ -2949,7 +5656,7 @@
         <v>42075</v>
       </c>
     </row>
-    <row r="9" ht="24" customHeight="1" spans="1:6">
+    <row r="9" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="10">
         <v>8</v>
       </c>
@@ -2967,7 +5674,7 @@
         <v>42075</v>
       </c>
     </row>
-    <row r="10" ht="183" customHeight="1" spans="1:6">
+    <row r="10" spans="1:7" ht="183" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="10">
         <v>9</v>
       </c>
@@ -2985,7 +5692,7 @@
         <v>42075</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="10">
         <v>10</v>
       </c>
@@ -2999,7 +5706,7 @@
       <c r="E11" s="23"/>
       <c r="F11" s="17"/>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="10">
         <v>11</v>
       </c>
@@ -3017,7 +5724,7 @@
         <v>42075</v>
       </c>
     </row>
-    <row r="13" ht="58.5" spans="1:6">
+    <row r="13" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A13" s="10">
         <v>12</v>
       </c>
@@ -3037,7 +5744,7 @@
         <v>42076</v>
       </c>
     </row>
-    <row r="14" ht="129" customHeight="1" spans="1:6">
+    <row r="14" spans="1:7" ht="129" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="10">
         <v>13</v>
       </c>
@@ -3056,33 +5763,31 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
   <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G60"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+      <selection activeCell="D19" sqref="D19:F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="29.7142857142857" customWidth="1"/>
-    <col min="3" max="3" width="78.8571428571429" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12.8571428571429" customWidth="1"/>
-    <col min="6" max="6" width="11.8571428571429" customWidth="1"/>
-    <col min="7" max="7" width="13.2857142857143" style="2" customWidth="1"/>
+    <col min="2" max="2" width="29.7109375" customWidth="1"/>
+    <col min="3" max="3" width="78.85546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -3105,7 +5810,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="2" ht="159" customHeight="1" spans="1:7">
+    <row r="2" spans="1:7" ht="159" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9">
         <v>1</v>
       </c>
@@ -3128,7 +5833,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="9">
         <v>2</v>
       </c>
@@ -3149,7 +5854,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="9">
         <v>3</v>
       </c>
@@ -3172,7 +5877,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="5" ht="150.75" customHeight="1" spans="1:7">
+    <row r="5" spans="1:7" ht="150.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9">
         <v>4</v>
       </c>
@@ -3189,7 +5894,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="6" ht="138.75" customHeight="1" spans="1:7">
+    <row r="6" spans="1:7" ht="138.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9">
         <v>5</v>
       </c>
@@ -3210,7 +5915,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
         <v>6</v>
       </c>
@@ -3231,7 +5936,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="8" ht="188.25" customHeight="1" spans="1:7">
+    <row r="8" spans="1:7" ht="188.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="9">
         <v>7</v>
       </c>
@@ -3252,7 +5957,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="9" ht="158.25" customHeight="1" spans="1:7">
+    <row r="9" spans="1:7" ht="158.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="9">
         <v>8</v>
       </c>
@@ -3273,7 +5978,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="10" ht="28.5" spans="1:7">
+    <row r="10" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="9">
         <v>9</v>
       </c>
@@ -3283,14 +5988,18 @@
       <c r="C10" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="D10" s="15"/>
+      <c r="D10" s="15" t="s">
+        <v>18</v>
+      </c>
       <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
+      <c r="F10" s="18">
+        <v>42131</v>
+      </c>
       <c r="G10" s="14" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="9">
         <v>10</v>
       </c>
@@ -3300,14 +6009,18 @@
       <c r="C11" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="D11" s="15"/>
+      <c r="D11" s="15" t="s">
+        <v>18</v>
+      </c>
       <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
+      <c r="F11" s="18">
+        <v>42131</v>
+      </c>
       <c r="G11" s="14" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="12" ht="30" spans="1:7">
+    <row r="12" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="9">
         <v>11</v>
       </c>
@@ -3326,7 +6039,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="13" ht="98.25" customHeight="1" spans="1:7">
+    <row r="13" spans="1:7" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="9">
         <v>12</v>
       </c>
@@ -3345,7 +6058,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="9">
         <v>13</v>
       </c>
@@ -3364,7 +6077,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="15" ht="169.5" customHeight="1" spans="1:7">
+    <row r="15" spans="1:7" ht="169.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="9">
         <v>14</v>
       </c>
@@ -3383,7 +6096,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="9">
         <v>15</v>
       </c>
@@ -3402,7 +6115,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="9">
         <v>16</v>
       </c>
@@ -3421,7 +6134,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="18" ht="43.5" spans="1:7">
+    <row r="18" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="9">
         <v>17</v>
       </c>
@@ -3431,14 +6144,18 @@
       <c r="C18" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="D18" s="15"/>
+      <c r="D18" s="15" t="s">
+        <v>18</v>
+      </c>
       <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
+      <c r="F18" s="18">
+        <v>42131</v>
+      </c>
       <c r="G18" s="15" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="9">
         <v>18</v>
       </c>
@@ -3448,14 +6165,18 @@
       <c r="C19" s="16" t="s">
         <v>122</v>
       </c>
-      <c r="D19" s="15"/>
+      <c r="D19" s="15" t="s">
+        <v>18</v>
+      </c>
       <c r="E19" s="15"/>
-      <c r="F19" s="15"/>
+      <c r="F19" s="18">
+        <v>42131</v>
+      </c>
       <c r="G19" s="15" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="20" ht="128.25" customHeight="1" spans="1:7">
+    <row r="20" spans="1:7" ht="128.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="9">
         <v>19</v>
       </c>
@@ -3472,7 +6193,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="9">
         <v>20</v>
       </c>
@@ -3489,7 +6210,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="22" ht="138.75" customHeight="1" spans="1:7">
+    <row r="22" spans="1:7" ht="138.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="9">
         <v>21</v>
       </c>
@@ -3506,7 +6227,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="9">
         <v>22</v>
       </c>
@@ -3525,7 +6246,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="24" ht="45" spans="1:7">
+    <row r="24" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A24" s="9">
         <v>23</v>
       </c>
@@ -3544,7 +6265,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="9">
         <v>24</v>
       </c>
@@ -3563,7 +6284,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="26" ht="153.75" customHeight="1" spans="1:7">
+    <row r="26" spans="1:7" ht="153.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="9">
         <v>25</v>
       </c>
@@ -3582,7 +6303,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="9">
         <v>26</v>
       </c>
@@ -3599,7 +6320,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="9">
         <v>27</v>
       </c>
@@ -3616,7 +6337,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="9">
         <v>28</v>
       </c>
@@ -3633,7 +6354,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="30" ht="114" customHeight="1" spans="1:7">
+    <row r="30" spans="1:7" ht="114" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="9">
         <v>29</v>
       </c>
@@ -3650,7 +6371,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="9"/>
       <c r="B31" s="15"/>
       <c r="C31" s="16"/>
@@ -3659,7 +6380,7 @@
       <c r="F31" s="15"/>
       <c r="G31" s="15"/>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="9"/>
       <c r="B32" s="15"/>
       <c r="C32" s="16"/>
@@ -3668,7 +6389,7 @@
       <c r="F32" s="15"/>
       <c r="G32" s="15"/>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="9"/>
       <c r="B33" s="15"/>
       <c r="C33" s="16"/>
@@ -3677,7 +6398,7 @@
       <c r="F33" s="15"/>
       <c r="G33" s="15"/>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="9"/>
       <c r="B34" s="15"/>
       <c r="C34" s="16"/>
@@ -3686,7 +6407,7 @@
       <c r="F34" s="15"/>
       <c r="G34" s="15"/>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="9"/>
       <c r="B35" s="15"/>
       <c r="C35" s="16"/>
@@ -3695,7 +6416,7 @@
       <c r="F35" s="15"/>
       <c r="G35" s="15"/>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="9"/>
       <c r="B36" s="15"/>
       <c r="C36" s="16"/>
@@ -3704,7 +6425,7 @@
       <c r="F36" s="15"/>
       <c r="G36" s="15"/>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="9"/>
       <c r="B37" s="15"/>
       <c r="C37" s="16"/>
@@ -3713,7 +6434,7 @@
       <c r="F37" s="15"/>
       <c r="G37" s="15"/>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="9"/>
       <c r="B38" s="15"/>
       <c r="C38" s="16"/>
@@ -3722,7 +6443,7 @@
       <c r="F38" s="15"/>
       <c r="G38" s="15"/>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="9"/>
       <c r="B39" s="15"/>
       <c r="C39" s="16"/>
@@ -3731,7 +6452,7 @@
       <c r="F39" s="15"/>
       <c r="G39" s="15"/>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="9"/>
       <c r="B40" s="15"/>
       <c r="C40" s="16"/>
@@ -3740,7 +6461,7 @@
       <c r="F40" s="15"/>
       <c r="G40" s="15"/>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="9"/>
       <c r="B41" s="15"/>
       <c r="C41" s="16"/>
@@ -3749,7 +6470,7 @@
       <c r="F41" s="15"/>
       <c r="G41" s="15"/>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="9"/>
       <c r="B42" s="15"/>
       <c r="C42" s="16"/>
@@ -3758,7 +6479,7 @@
       <c r="F42" s="15"/>
       <c r="G42" s="15"/>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="9"/>
       <c r="B43" s="15"/>
       <c r="C43" s="16"/>
@@ -3767,7 +6488,7 @@
       <c r="F43" s="15"/>
       <c r="G43" s="15"/>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="9"/>
       <c r="B44" s="15"/>
       <c r="C44" s="16"/>
@@ -3776,7 +6497,7 @@
       <c r="F44" s="15"/>
       <c r="G44" s="15"/>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="9"/>
       <c r="B45" s="15"/>
       <c r="C45" s="16"/>
@@ -3785,7 +6506,7 @@
       <c r="F45" s="15"/>
       <c r="G45" s="15"/>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="9"/>
       <c r="B46" s="15"/>
       <c r="C46" s="16"/>
@@ -3794,7 +6515,7 @@
       <c r="F46" s="15"/>
       <c r="G46" s="15"/>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="9"/>
       <c r="B47" s="15"/>
       <c r="C47" s="16"/>
@@ -3803,7 +6524,7 @@
       <c r="F47" s="15"/>
       <c r="G47" s="15"/>
     </row>
-    <row r="48" spans="1:7">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="9"/>
       <c r="B48" s="15"/>
       <c r="C48" s="16"/>
@@ -3812,7 +6533,7 @@
       <c r="F48" s="15"/>
       <c r="G48" s="15"/>
     </row>
-    <row r="49" spans="1:7">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="9"/>
       <c r="B49" s="15"/>
       <c r="C49" s="16"/>
@@ -3821,7 +6542,7 @@
       <c r="F49" s="15"/>
       <c r="G49" s="15"/>
     </row>
-    <row r="50" spans="1:7">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="9"/>
       <c r="B50" s="15"/>
       <c r="C50" s="16"/>
@@ -3830,7 +6551,7 @@
       <c r="F50" s="15"/>
       <c r="G50" s="15"/>
     </row>
-    <row r="51" spans="1:7">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="9"/>
       <c r="B51" s="15"/>
       <c r="C51" s="16"/>
@@ -3839,7 +6560,7 @@
       <c r="F51" s="15"/>
       <c r="G51" s="15"/>
     </row>
-    <row r="52" spans="1:7">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="9"/>
       <c r="B52" s="15"/>
       <c r="C52" s="16"/>
@@ -3848,7 +6569,7 @@
       <c r="F52" s="15"/>
       <c r="G52" s="15"/>
     </row>
-    <row r="53" spans="1:7">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="9"/>
       <c r="B53" s="15"/>
       <c r="C53" s="16"/>
@@ -3857,7 +6578,7 @@
       <c r="F53" s="15"/>
       <c r="G53" s="15"/>
     </row>
-    <row r="54" spans="1:7">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="9"/>
       <c r="B54" s="15"/>
       <c r="C54" s="16"/>
@@ -3866,7 +6587,7 @@
       <c r="F54" s="15"/>
       <c r="G54" s="15"/>
     </row>
-    <row r="55" spans="1:7">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="9"/>
       <c r="B55" s="15"/>
       <c r="C55" s="16"/>
@@ -3875,7 +6596,7 @@
       <c r="F55" s="15"/>
       <c r="G55" s="15"/>
     </row>
-    <row r="56" spans="1:7">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="9"/>
       <c r="B56" s="15"/>
       <c r="C56" s="16"/>
@@ -3884,7 +6605,7 @@
       <c r="F56" s="15"/>
       <c r="G56" s="15"/>
     </row>
-    <row r="57" spans="1:7">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="9"/>
       <c r="B57" s="17"/>
       <c r="C57" s="19"/>
@@ -3893,7 +6614,7 @@
       <c r="F57" s="17"/>
       <c r="G57" s="15"/>
     </row>
-    <row r="58" spans="1:7">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="9"/>
       <c r="B58" s="17"/>
       <c r="C58" s="19"/>
@@ -3902,7 +6623,7 @@
       <c r="F58" s="17"/>
       <c r="G58" s="15"/>
     </row>
-    <row r="59" spans="1:7">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="9"/>
       <c r="B59" s="17"/>
       <c r="C59" s="19"/>
@@ -3911,7 +6632,7 @@
       <c r="F59" s="17"/>
       <c r="G59" s="15"/>
     </row>
-    <row r="60" spans="2:7">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B60" s="17"/>
       <c r="C60" s="19"/>
       <c r="D60" s="17"/>
@@ -3920,10 +6641,9 @@
       <c r="G60" s="15"/>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="1200"/>
-  <headerFooter/>
   <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>